--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C48C40F-2B7C-42A5-B85F-680CCD47C646}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4E44BD-0DF3-435A-821F-F74D853A8F77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1070" yWindow="2080" windowWidth="26960" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8900" yWindow="3760" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4E44BD-0DF3-435A-821F-F74D853A8F77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C9F88-3677-4355-900C-C6C2CF40C7C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="3760" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10670" yWindow="500" windowWidth="23770" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,9 +781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z175"/>
+  <dimension ref="A1:Z179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,43 +1195,43 @@
     <col min="16" max="16" width="6.6328125" style="6" customWidth="1"/>
     <col min="17" max="17" width="6.6328125" style="4" customWidth="1"/>
     <col min="18" max="22" width="17.26953125" style="7" customWidth="1"/>
-    <col min="23" max="26" width="19.1796875" style="19" customWidth="1"/>
+    <col min="23" max="26" width="19.1796875" style="18" customWidth="1"/>
     <col min="27" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1303,16 +1300,16 @@
       <c r="V2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1383,18 +1380,14 @@
       <c r="V3" s="8">
         <v>0</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="17">
         <v>1</v>
       </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
@@ -1466,16 +1459,16 @@
       <c r="V4" s="8">
         <v>0</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="17">
         <v>2</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="17">
         <v>3</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1549,16 +1542,16 @@
       <c r="V5" s="8">
         <v>0</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="17">
         <v>3</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="17">
         <v>12</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1632,16 +1625,16 @@
       <c r="V6" s="8">
         <v>0</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="17">
         <v>4</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="17">
         <v>124</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1715,16 +1708,16 @@
       <c r="V7" s="8">
         <v>0</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="17">
         <v>5</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="17">
         <v>294</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="17">
         <v>3</v>
       </c>
     </row>
@@ -1798,16 +1791,16 @@
       <c r="V8" s="8">
         <v>0</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="W8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="17">
         <v>6</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="17">
         <v>1382</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="17">
         <v>40</v>
       </c>
     </row>
@@ -1881,16 +1874,16 @@
       <c r="V9" s="8">
         <v>0</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="W9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="17">
         <v>7</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="17">
         <v>2049</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="17">
         <v>108</v>
       </c>
     </row>
@@ -1964,16 +1957,16 @@
       <c r="V10" s="8">
         <v>0</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="17">
         <v>8</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="17">
         <v>2436</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="17">
         <v>165</v>
       </c>
     </row>
@@ -2047,16 +2040,16 @@
       <c r="V11" s="8">
         <v>0</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="17">
         <v>9</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="17">
         <v>2446</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="Z11" s="17">
         <v>135</v>
       </c>
     </row>
@@ -2130,16 +2123,16 @@
       <c r="V12" s="8">
         <v>0</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="17">
         <v>10</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="17">
         <v>2290</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="17">
         <v>168</v>
       </c>
     </row>
@@ -2213,16 +2206,16 @@
       <c r="V13" s="8">
         <v>0</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="W13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="17">
         <v>11</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="17">
         <v>2127</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="17">
         <v>171</v>
       </c>
     </row>
@@ -2296,16 +2289,16 @@
       <c r="V14" s="8">
         <v>0</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="17">
         <v>12</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="17">
         <v>2199</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="17">
         <v>171</v>
       </c>
     </row>
@@ -2379,16 +2372,16 @@
       <c r="V15" s="8">
         <v>0</v>
       </c>
-      <c r="W15" s="18" t="s">
+      <c r="W15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="17">
         <v>13</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y15" s="17">
         <v>1509</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="17">
         <v>146</v>
       </c>
     </row>
@@ -2462,16 +2455,16 @@
       <c r="V16" s="8">
         <v>0</v>
       </c>
-      <c r="W16" s="18" t="s">
+      <c r="W16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="17">
         <v>14</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="17">
         <v>1199</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="Z16" s="17">
         <v>78</v>
       </c>
     </row>
@@ -2545,16 +2538,16 @@
       <c r="V17" s="8">
         <v>0</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="17">
         <v>15</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="17">
         <v>1187</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="17">
         <v>81</v>
       </c>
     </row>
@@ -2628,16 +2621,16 @@
       <c r="V18" s="8">
         <v>0</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="W18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="17">
         <v>16</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="17">
         <v>1222</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="17">
         <v>67</v>
       </c>
     </row>
@@ -2711,16 +2704,16 @@
       <c r="V19" s="8">
         <v>0</v>
       </c>
-      <c r="W19" s="18" t="s">
+      <c r="W19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="17">
         <v>17</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="17">
         <v>1520</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="17">
         <v>77</v>
       </c>
     </row>
@@ -2794,16 +2787,16 @@
       <c r="V20" s="8">
         <v>0</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="17">
         <v>18</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="17">
         <v>2046</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="17">
         <v>102</v>
       </c>
     </row>
@@ -2877,16 +2870,16 @@
       <c r="V21" s="8">
         <v>0</v>
       </c>
-      <c r="W21" s="18" t="s">
+      <c r="W21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="17">
         <v>19</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21" s="17">
         <v>2268</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="17">
         <v>100</v>
       </c>
     </row>
@@ -2960,16 +2953,16 @@
       <c r="V22" s="8">
         <v>0</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="W22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="17">
         <v>20</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="Y22" s="17">
         <v>2660</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="Z22" s="17">
         <v>138</v>
       </c>
     </row>
@@ -3043,16 +3036,16 @@
       <c r="V23" s="8">
         <v>0</v>
       </c>
-      <c r="W23" s="18" t="s">
+      <c r="W23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="17">
         <v>21</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Y23" s="17">
         <v>3562</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="Z23" s="17">
         <v>134</v>
       </c>
     </row>
@@ -3126,16 +3119,16 @@
       <c r="V24" s="8">
         <v>0</v>
       </c>
-      <c r="W24" s="18" t="s">
+      <c r="W24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="17">
         <v>22</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="Y24" s="17">
         <v>4923</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24" s="17">
         <v>142</v>
       </c>
     </row>
@@ -3209,16 +3202,16 @@
       <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="18" t="s">
+      <c r="W25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="17">
         <v>23</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y25" s="17">
         <v>7340</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="17">
         <v>161</v>
       </c>
     </row>
@@ -3292,16 +3285,16 @@
       <c r="V26" s="8">
         <v>0</v>
       </c>
-      <c r="W26" s="18" t="s">
+      <c r="W26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="X26" s="18">
+      <c r="X26" s="17">
         <v>24</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="Y26" s="17">
         <v>8388</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="Z26" s="17">
         <v>226</v>
       </c>
     </row>
@@ -3375,17 +3368,17 @@
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="20" t="s">
+      <c r="W27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X27" s="19">
         <v>25</v>
       </c>
-      <c r="Y27" s="20">
-        <v>2055</v>
-      </c>
-      <c r="Z27" s="20">
-        <v>67</v>
+      <c r="Y27" s="19">
+        <v>7437</v>
+      </c>
+      <c r="Z27" s="19">
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
@@ -3458,10 +3451,10 @@
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -3533,10 +3526,10 @@
       <c r="V29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
@@ -3608,10 +3601,10 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
@@ -3683,10 +3676,10 @@
       <c r="V31" s="8">
         <v>0</v>
       </c>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
@@ -3758,10 +3751,10 @@
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
@@ -3833,10 +3826,10 @@
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
@@ -3908,10 +3901,10 @@
       <c r="V34" s="8">
         <v>0</v>
       </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
@@ -3983,10 +3976,10 @@
       <c r="V35" s="8">
         <v>0</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
@@ -4058,10 +4051,10 @@
       <c r="V36" s="8">
         <v>0</v>
       </c>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
@@ -4133,10 +4126,10 @@
       <c r="V37" s="8">
         <v>0</v>
       </c>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
@@ -4208,10 +4201,10 @@
       <c r="V38" s="8">
         <v>0</v>
       </c>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
@@ -4283,10 +4276,10 @@
       <c r="V39" s="8">
         <v>3</v>
       </c>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
@@ -4358,10 +4351,10 @@
       <c r="V40" s="8">
         <v>4</v>
       </c>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
@@ -4433,10 +4426,10 @@
       <c r="V41" s="8">
         <v>5</v>
       </c>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
@@ -4508,10 +4501,10 @@
       <c r="V42" s="8">
         <v>5</v>
       </c>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
@@ -4583,10 +4576,10 @@
       <c r="V43" s="8">
         <v>6</v>
       </c>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
@@ -4658,10 +4651,10 @@
       <c r="V44" s="8">
         <v>3</v>
       </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
@@ -4733,10 +4726,10 @@
       <c r="V45" s="8">
         <v>11</v>
       </c>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
@@ -4808,10 +4801,10 @@
       <c r="V46" s="8">
         <v>6</v>
       </c>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
@@ -4883,10 +4876,10 @@
       <c r="V47" s="8">
         <v>22</v>
       </c>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
@@ -4958,10 +4951,10 @@
       <c r="V48" s="8">
         <v>17</v>
       </c>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
@@ -5033,10 +5026,10 @@
       <c r="V49" s="8">
         <v>10</v>
       </c>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
@@ -5108,10 +5101,10 @@
       <c r="V50" s="8">
         <v>23</v>
       </c>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
@@ -5183,10 +5176,10 @@
       <c r="V51" s="8">
         <v>18</v>
       </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
@@ -5258,10 +5251,10 @@
       <c r="V52" s="8">
         <v>13</v>
       </c>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
@@ -5333,10 +5326,10 @@
       <c r="V53" s="8">
         <v>5</v>
       </c>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
@@ -5408,10 +5401,10 @@
       <c r="V54" s="8">
         <v>25</v>
       </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
@@ -5483,10 +5476,10 @@
       <c r="V55" s="8">
         <v>21</v>
       </c>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
@@ -5558,10 +5551,10 @@
       <c r="V56" s="8">
         <v>23</v>
       </c>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
@@ -5633,10 +5626,10 @@
       <c r="V57" s="8">
         <v>28</v>
       </c>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
@@ -5708,10 +5701,10 @@
       <c r="V58" s="8">
         <v>22</v>
       </c>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
@@ -5783,10 +5776,10 @@
       <c r="V59" s="8">
         <v>21</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
@@ -5858,10 +5851,10 @@
       <c r="V60" s="8">
         <v>25</v>
       </c>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
@@ -5933,10 +5926,10 @@
       <c r="V61" s="8">
         <v>15</v>
       </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
@@ -6008,10 +6001,10 @@
       <c r="V62" s="8">
         <v>20</v>
       </c>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
@@ -6083,10 +6076,10 @@
       <c r="V63" s="8">
         <v>21</v>
       </c>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
@@ -6158,10 +6151,10 @@
       <c r="V64" s="8">
         <v>20</v>
       </c>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
@@ -6233,10 +6226,10 @@
       <c r="V65" s="8">
         <v>19</v>
       </c>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
@@ -6308,10 +6301,10 @@
       <c r="V66" s="8">
         <v>10</v>
       </c>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
@@ -6383,10 +6376,10 @@
       <c r="V67" s="8">
         <v>30</v>
       </c>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
@@ -6458,10 +6451,10 @@
       <c r="V68" s="8">
         <v>27</v>
       </c>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="18"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
@@ -6533,10 +6526,10 @@
       <c r="V69" s="8">
         <v>20</v>
       </c>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="18"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
@@ -6608,10 +6601,10 @@
       <c r="V70" s="8">
         <v>26</v>
       </c>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
@@ -6683,10 +6676,10 @@
       <c r="V71" s="8">
         <v>21</v>
       </c>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="18"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
@@ -6758,10 +6751,10 @@
       <c r="V72" s="8">
         <v>22</v>
       </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="18"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
@@ -6833,10 +6826,10 @@
       <c r="V73" s="8">
         <v>34</v>
       </c>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="18"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
@@ -6908,10 +6901,10 @@
       <c r="V74" s="8">
         <v>18</v>
       </c>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
@@ -6983,10 +6976,10 @@
       <c r="V75" s="8">
         <v>22</v>
       </c>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
@@ -7058,10 +7051,10 @@
       <c r="V76" s="8">
         <v>22</v>
       </c>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
@@ -7133,10 +7126,10 @@
       <c r="V77" s="8">
         <v>30</v>
       </c>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="18"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
@@ -7208,10 +7201,10 @@
       <c r="V78" s="8">
         <v>24</v>
       </c>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
@@ -7283,10 +7276,10 @@
       <c r="V79" s="8">
         <v>27</v>
       </c>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
@@ -7358,10 +7351,10 @@
       <c r="V80" s="8">
         <v>27</v>
       </c>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
@@ -7433,10 +7426,10 @@
       <c r="V81" s="8">
         <v>19</v>
       </c>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
@@ -7508,10 +7501,10 @@
       <c r="V82" s="8">
         <v>28</v>
       </c>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
@@ -7583,10 +7576,10 @@
       <c r="V83" s="8">
         <v>23</v>
       </c>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
@@ -7658,10 +7651,10 @@
       <c r="V84" s="8">
         <v>23</v>
       </c>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
@@ -7733,10 +7726,10 @@
       <c r="V85" s="8">
         <v>24</v>
       </c>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="17"/>
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
@@ -7808,10 +7801,10 @@
       <c r="V86" s="8">
         <v>35</v>
       </c>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
@@ -7883,10 +7876,10 @@
       <c r="V87" s="8">
         <v>16</v>
       </c>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="18"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
@@ -7958,10 +7951,10 @@
       <c r="V88" s="8">
         <v>22</v>
       </c>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="18"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
@@ -8033,10 +8026,10 @@
       <c r="V89" s="8">
         <v>21</v>
       </c>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
@@ -8108,10 +8101,10 @@
       <c r="V90" s="8">
         <v>20</v>
       </c>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
@@ -8183,10 +8176,10 @@
       <c r="V91" s="8">
         <v>34</v>
       </c>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="18"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
@@ -8258,10 +8251,10 @@
       <c r="V92" s="8">
         <v>17</v>
       </c>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
@@ -8333,10 +8326,10 @@
       <c r="V93" s="8">
         <v>17</v>
       </c>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="18"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
@@ -8408,10 +8401,10 @@
       <c r="V94" s="8">
         <v>24</v>
       </c>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="18"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
@@ -8483,10 +8476,10 @@
       <c r="V95" s="8">
         <v>13</v>
       </c>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="18"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
@@ -8558,10 +8551,10 @@
       <c r="V96" s="8">
         <v>13</v>
       </c>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="18"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
@@ -8633,10 +8626,10 @@
       <c r="V97" s="8">
         <v>17</v>
       </c>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18"/>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="18"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
@@ -8708,10 +8701,10 @@
       <c r="V98" s="8">
         <v>10</v>
       </c>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="18"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
@@ -8783,10 +8776,10 @@
       <c r="V99" s="8">
         <v>9</v>
       </c>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="18"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
@@ -8858,10 +8851,10 @@
       <c r="V100" s="8">
         <v>10</v>
       </c>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
-      <c r="Y100" s="18"/>
-      <c r="Z100" s="18"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
@@ -8933,10 +8926,10 @@
       <c r="V101" s="8">
         <v>10</v>
       </c>
-      <c r="W101" s="18"/>
-      <c r="X101" s="18"/>
-      <c r="Y101" s="18"/>
-      <c r="Z101" s="18"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
@@ -9008,10 +9001,10 @@
       <c r="V102" s="8">
         <v>9</v>
       </c>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
@@ -9083,10 +9076,10 @@
       <c r="V103" s="8">
         <v>20</v>
       </c>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
+      <c r="W103" s="17"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
@@ -9158,10 +9151,10 @@
       <c r="V104" s="8">
         <v>11</v>
       </c>
-      <c r="W104" s="18"/>
-      <c r="X104" s="18"/>
-      <c r="Y104" s="18"/>
-      <c r="Z104" s="18"/>
+      <c r="W104" s="17"/>
+      <c r="X104" s="17"/>
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="17"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
@@ -9233,10 +9226,10 @@
       <c r="V105" s="8">
         <v>11</v>
       </c>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="18"/>
-      <c r="Z105" s="18"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="10">
@@ -9308,10 +9301,10 @@
       <c r="V106" s="8">
         <v>8</v>
       </c>
-      <c r="W106" s="18"/>
-      <c r="X106" s="18"/>
-      <c r="Y106" s="18"/>
-      <c r="Z106" s="18"/>
+      <c r="W106" s="17"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
@@ -9383,10 +9376,10 @@
       <c r="V107" s="8">
         <v>13</v>
       </c>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
-      <c r="Y107" s="18"/>
-      <c r="Z107" s="18"/>
+      <c r="W107" s="17"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
@@ -9458,10 +9451,10 @@
       <c r="V108" s="8">
         <v>11</v>
       </c>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
@@ -9533,10 +9526,10 @@
       <c r="V109" s="8">
         <v>7</v>
       </c>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="18"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
@@ -9608,10 +9601,10 @@
       <c r="V110" s="8">
         <v>10</v>
       </c>
-      <c r="W110" s="18"/>
-      <c r="X110" s="18"/>
-      <c r="Y110" s="18"/>
-      <c r="Z110" s="18"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
@@ -9683,10 +9676,10 @@
       <c r="V111" s="8">
         <v>12</v>
       </c>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
-      <c r="Y111" s="18"/>
-      <c r="Z111" s="18"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
@@ -9758,10 +9751,10 @@
       <c r="V112" s="8">
         <v>8</v>
       </c>
-      <c r="W112" s="18"/>
-      <c r="X112" s="18"/>
-      <c r="Y112" s="18"/>
-      <c r="Z112" s="18"/>
+      <c r="W112" s="17"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
@@ -9833,10 +9826,10 @@
       <c r="V113" s="8">
         <v>9</v>
       </c>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="18"/>
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="10">
@@ -9908,10 +9901,10 @@
       <c r="V114" s="8">
         <v>11</v>
       </c>
-      <c r="W114" s="18"/>
-      <c r="X114" s="18"/>
-      <c r="Y114" s="18"/>
-      <c r="Z114" s="18"/>
+      <c r="W114" s="17"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
@@ -9983,10 +9976,10 @@
       <c r="V115" s="8">
         <v>6</v>
       </c>
-      <c r="W115" s="18"/>
-      <c r="X115" s="18"/>
-      <c r="Y115" s="18"/>
-      <c r="Z115" s="18"/>
+      <c r="W115" s="17"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
@@ -10058,10 +10051,10 @@
       <c r="V116" s="8">
         <v>11</v>
       </c>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
-      <c r="Y116" s="18"/>
-      <c r="Z116" s="18"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="10">
@@ -10133,10 +10126,10 @@
       <c r="V117" s="8">
         <v>6</v>
       </c>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
-      <c r="Y117" s="18"/>
-      <c r="Z117" s="18"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
@@ -10208,10 +10201,10 @@
       <c r="V118" s="8">
         <v>15</v>
       </c>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
-      <c r="Z118" s="18"/>
+      <c r="W118" s="17"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
@@ -10283,10 +10276,10 @@
       <c r="V119" s="8">
         <v>6</v>
       </c>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
-      <c r="Y119" s="18"/>
-      <c r="Z119" s="18"/>
+      <c r="W119" s="17"/>
+      <c r="X119" s="17"/>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="17"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
@@ -10358,10 +10351,10 @@
       <c r="V120" s="8">
         <v>9</v>
       </c>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
-      <c r="Z120" s="18"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
@@ -10433,10 +10426,10 @@
       <c r="V121" s="8">
         <v>11</v>
       </c>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="18"/>
+      <c r="W121" s="17"/>
+      <c r="X121" s="17"/>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="10">
@@ -10508,10 +10501,10 @@
       <c r="V122" s="8">
         <v>14</v>
       </c>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="18"/>
+      <c r="W122" s="17"/>
+      <c r="X122" s="17"/>
+      <c r="Y122" s="17"/>
+      <c r="Z122" s="17"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
@@ -10583,10 +10576,10 @@
       <c r="V123" s="8">
         <v>16</v>
       </c>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
-      <c r="Y123" s="18"/>
-      <c r="Z123" s="18"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
@@ -10658,10 +10651,10 @@
       <c r="V124" s="8">
         <v>17</v>
       </c>
-      <c r="W124" s="18"/>
-      <c r="X124" s="18"/>
-      <c r="Y124" s="18"/>
-      <c r="Z124" s="18"/>
+      <c r="W124" s="17"/>
+      <c r="X124" s="17"/>
+      <c r="Y124" s="17"/>
+      <c r="Z124" s="17"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
@@ -10733,10 +10726,10 @@
       <c r="V125" s="8">
         <v>10</v>
       </c>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
-      <c r="Y125" s="18"/>
-      <c r="Z125" s="18"/>
+      <c r="W125" s="17"/>
+      <c r="X125" s="17"/>
+      <c r="Y125" s="17"/>
+      <c r="Z125" s="17"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="10">
@@ -10808,10 +10801,10 @@
       <c r="V126" s="8">
         <v>14</v>
       </c>
-      <c r="W126" s="18"/>
-      <c r="X126" s="18"/>
-      <c r="Y126" s="18"/>
-      <c r="Z126" s="18"/>
+      <c r="W126" s="17"/>
+      <c r="X126" s="17"/>
+      <c r="Y126" s="17"/>
+      <c r="Z126" s="17"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
@@ -10883,10 +10876,10 @@
       <c r="V127" s="8">
         <v>22</v>
       </c>
-      <c r="W127" s="18"/>
-      <c r="X127" s="18"/>
-      <c r="Y127" s="18"/>
-      <c r="Z127" s="18"/>
+      <c r="W127" s="17"/>
+      <c r="X127" s="17"/>
+      <c r="Y127" s="17"/>
+      <c r="Z127" s="17"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="10">
@@ -10958,10 +10951,10 @@
       <c r="V128" s="8">
         <v>11</v>
       </c>
-      <c r="W128" s="18"/>
-      <c r="X128" s="18"/>
-      <c r="Y128" s="18"/>
-      <c r="Z128" s="18"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="17"/>
+      <c r="Y128" s="17"/>
+      <c r="Z128" s="17"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
@@ -11033,10 +11026,10 @@
       <c r="V129" s="8">
         <v>16</v>
       </c>
-      <c r="W129" s="18"/>
-      <c r="X129" s="18"/>
-      <c r="Y129" s="18"/>
-      <c r="Z129" s="18"/>
+      <c r="W129" s="17"/>
+      <c r="X129" s="17"/>
+      <c r="Y129" s="17"/>
+      <c r="Z129" s="17"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
@@ -11108,10 +11101,10 @@
       <c r="V130" s="8">
         <v>12</v>
       </c>
-      <c r="W130" s="18"/>
-      <c r="X130" s="18"/>
-      <c r="Y130" s="18"/>
-      <c r="Z130" s="18"/>
+      <c r="W130" s="17"/>
+      <c r="X130" s="17"/>
+      <c r="Y130" s="17"/>
+      <c r="Z130" s="17"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
@@ -11183,10 +11176,10 @@
       <c r="V131" s="8">
         <v>11</v>
       </c>
-      <c r="W131" s="18"/>
-      <c r="X131" s="18"/>
-      <c r="Y131" s="18"/>
-      <c r="Z131" s="18"/>
+      <c r="W131" s="17"/>
+      <c r="X131" s="17"/>
+      <c r="Y131" s="17"/>
+      <c r="Z131" s="17"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="10">
@@ -11258,10 +11251,10 @@
       <c r="V132" s="8">
         <v>16</v>
       </c>
-      <c r="W132" s="18"/>
-      <c r="X132" s="18"/>
-      <c r="Y132" s="18"/>
-      <c r="Z132" s="18"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="17"/>
+      <c r="Y132" s="17"/>
+      <c r="Z132" s="17"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
@@ -11333,10 +11326,10 @@
       <c r="V133" s="8">
         <v>16</v>
       </c>
-      <c r="W133" s="18"/>
-      <c r="X133" s="18"/>
-      <c r="Y133" s="18"/>
-      <c r="Z133" s="18"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" s="10">
@@ -11408,10 +11401,10 @@
       <c r="V134" s="8">
         <v>10</v>
       </c>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="18"/>
-      <c r="Z134" s="18"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="17"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
@@ -11483,10 +11476,10 @@
       <c r="V135" s="8">
         <v>14</v>
       </c>
-      <c r="W135" s="18"/>
-      <c r="X135" s="18"/>
-      <c r="Y135" s="18"/>
-      <c r="Z135" s="18"/>
+      <c r="W135" s="17"/>
+      <c r="X135" s="17"/>
+      <c r="Y135" s="17"/>
+      <c r="Z135" s="17"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="10">
@@ -11558,10 +11551,10 @@
       <c r="V136" s="8">
         <v>10</v>
       </c>
-      <c r="W136" s="18"/>
-      <c r="X136" s="18"/>
-      <c r="Y136" s="18"/>
-      <c r="Z136" s="18"/>
+      <c r="W136" s="17"/>
+      <c r="X136" s="17"/>
+      <c r="Y136" s="17"/>
+      <c r="Z136" s="17"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" s="10">
@@ -11633,10 +11626,10 @@
       <c r="V137" s="8">
         <v>23</v>
       </c>
-      <c r="W137" s="18"/>
-      <c r="X137" s="18"/>
-      <c r="Y137" s="18"/>
-      <c r="Z137" s="18"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="17"/>
+      <c r="Y137" s="17"/>
+      <c r="Z137" s="17"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" s="10">
@@ -11708,10 +11701,10 @@
       <c r="V138" s="8">
         <v>22</v>
       </c>
-      <c r="W138" s="18"/>
-      <c r="X138" s="18"/>
-      <c r="Y138" s="18"/>
-      <c r="Z138" s="18"/>
+      <c r="W138" s="17"/>
+      <c r="X138" s="17"/>
+      <c r="Y138" s="17"/>
+      <c r="Z138" s="17"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
@@ -11783,10 +11776,10 @@
       <c r="V139" s="8">
         <v>17</v>
       </c>
-      <c r="W139" s="18"/>
-      <c r="X139" s="18"/>
-      <c r="Y139" s="18"/>
-      <c r="Z139" s="18"/>
+      <c r="W139" s="17"/>
+      <c r="X139" s="17"/>
+      <c r="Y139" s="17"/>
+      <c r="Z139" s="17"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
@@ -11858,10 +11851,10 @@
       <c r="V140" s="8">
         <v>16</v>
       </c>
-      <c r="W140" s="18"/>
-      <c r="X140" s="18"/>
-      <c r="Y140" s="18"/>
-      <c r="Z140" s="18"/>
+      <c r="W140" s="17"/>
+      <c r="X140" s="17"/>
+      <c r="Y140" s="17"/>
+      <c r="Z140" s="17"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
@@ -11933,10 +11926,10 @@
       <c r="V141" s="8">
         <v>20</v>
       </c>
-      <c r="W141" s="18"/>
-      <c r="X141" s="18"/>
-      <c r="Y141" s="18"/>
-      <c r="Z141" s="18"/>
+      <c r="W141" s="17"/>
+      <c r="X141" s="17"/>
+      <c r="Y141" s="17"/>
+      <c r="Z141" s="17"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" s="10">
@@ -12008,10 +12001,10 @@
       <c r="V142" s="8">
         <v>21</v>
       </c>
-      <c r="W142" s="18"/>
-      <c r="X142" s="18"/>
-      <c r="Y142" s="18"/>
-      <c r="Z142" s="18"/>
+      <c r="W142" s="17"/>
+      <c r="X142" s="17"/>
+      <c r="Y142" s="17"/>
+      <c r="Z142" s="17"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
@@ -12083,10 +12076,10 @@
       <c r="V143" s="8">
         <v>23</v>
       </c>
-      <c r="W143" s="18"/>
-      <c r="X143" s="18"/>
-      <c r="Y143" s="18"/>
-      <c r="Z143" s="18"/>
+      <c r="W143" s="17"/>
+      <c r="X143" s="17"/>
+      <c r="Y143" s="17"/>
+      <c r="Z143" s="17"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="10">
@@ -12158,10 +12151,10 @@
       <c r="V144" s="8">
         <v>19</v>
       </c>
-      <c r="W144" s="18"/>
-      <c r="X144" s="18"/>
-      <c r="Y144" s="18"/>
-      <c r="Z144" s="18"/>
+      <c r="W144" s="17"/>
+      <c r="X144" s="17"/>
+      <c r="Y144" s="17"/>
+      <c r="Z144" s="17"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
@@ -12233,10 +12226,10 @@
       <c r="V145" s="8">
         <v>18</v>
       </c>
-      <c r="W145" s="18"/>
-      <c r="X145" s="18"/>
-      <c r="Y145" s="18"/>
-      <c r="Z145" s="18"/>
+      <c r="W145" s="17"/>
+      <c r="X145" s="17"/>
+      <c r="Y145" s="17"/>
+      <c r="Z145" s="17"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" s="10">
@@ -12308,10 +12301,10 @@
       <c r="V146" s="8">
         <v>31</v>
       </c>
-      <c r="W146" s="18"/>
-      <c r="X146" s="18"/>
-      <c r="Y146" s="18"/>
-      <c r="Z146" s="18"/>
+      <c r="W146" s="17"/>
+      <c r="X146" s="17"/>
+      <c r="Y146" s="17"/>
+      <c r="Z146" s="17"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
@@ -12383,10 +12376,10 @@
       <c r="V147" s="8">
         <v>18</v>
       </c>
-      <c r="W147" s="18"/>
-      <c r="X147" s="18"/>
-      <c r="Y147" s="18"/>
-      <c r="Z147" s="18"/>
+      <c r="W147" s="17"/>
+      <c r="X147" s="17"/>
+      <c r="Y147" s="17"/>
+      <c r="Z147" s="17"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
@@ -12458,10 +12451,10 @@
       <c r="V148" s="8">
         <v>17</v>
       </c>
-      <c r="W148" s="18"/>
-      <c r="X148" s="18"/>
-      <c r="Y148" s="18"/>
-      <c r="Z148" s="18"/>
+      <c r="W148" s="17"/>
+      <c r="X148" s="17"/>
+      <c r="Y148" s="17"/>
+      <c r="Z148" s="17"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
@@ -12533,10 +12526,10 @@
       <c r="V149" s="8">
         <v>13</v>
       </c>
-      <c r="W149" s="18"/>
-      <c r="X149" s="18"/>
-      <c r="Y149" s="18"/>
-      <c r="Z149" s="18"/>
+      <c r="W149" s="17"/>
+      <c r="X149" s="17"/>
+      <c r="Y149" s="17"/>
+      <c r="Z149" s="17"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
@@ -12608,10 +12601,10 @@
       <c r="V150" s="8">
         <v>24</v>
       </c>
-      <c r="W150" s="18"/>
-      <c r="X150" s="18"/>
-      <c r="Y150" s="18"/>
-      <c r="Z150" s="18"/>
+      <c r="W150" s="17"/>
+      <c r="X150" s="17"/>
+      <c r="Y150" s="17"/>
+      <c r="Z150" s="17"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
@@ -12683,10 +12676,10 @@
       <c r="V151" s="8">
         <v>13</v>
       </c>
-      <c r="W151" s="18"/>
-      <c r="X151" s="18"/>
-      <c r="Y151" s="18"/>
-      <c r="Z151" s="18"/>
+      <c r="W151" s="17"/>
+      <c r="X151" s="17"/>
+      <c r="Y151" s="17"/>
+      <c r="Z151" s="17"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" s="10">
@@ -12758,10 +12751,10 @@
       <c r="V152" s="8">
         <v>17</v>
       </c>
-      <c r="W152" s="18"/>
-      <c r="X152" s="18"/>
-      <c r="Y152" s="18"/>
-      <c r="Z152" s="18"/>
+      <c r="W152" s="17"/>
+      <c r="X152" s="17"/>
+      <c r="Y152" s="17"/>
+      <c r="Z152" s="17"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="10">
@@ -12833,10 +12826,10 @@
       <c r="V153" s="8">
         <v>30</v>
       </c>
-      <c r="W153" s="18"/>
-      <c r="X153" s="18"/>
-      <c r="Y153" s="18"/>
-      <c r="Z153" s="18"/>
+      <c r="W153" s="17"/>
+      <c r="X153" s="17"/>
+      <c r="Y153" s="17"/>
+      <c r="Z153" s="17"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" s="10">
@@ -12908,10 +12901,10 @@
       <c r="V154" s="8">
         <v>21</v>
       </c>
-      <c r="W154" s="18"/>
-      <c r="X154" s="18"/>
-      <c r="Y154" s="18"/>
-      <c r="Z154" s="18"/>
+      <c r="W154" s="17"/>
+      <c r="X154" s="17"/>
+      <c r="Y154" s="17"/>
+      <c r="Z154" s="17"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" s="10">
@@ -12983,10 +12976,10 @@
       <c r="V155" s="8">
         <v>19</v>
       </c>
-      <c r="W155" s="18"/>
-      <c r="X155" s="18"/>
-      <c r="Y155" s="18"/>
-      <c r="Z155" s="18"/>
+      <c r="W155" s="17"/>
+      <c r="X155" s="17"/>
+      <c r="Y155" s="17"/>
+      <c r="Z155" s="17"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="10">
@@ -13058,10 +13051,10 @@
       <c r="V156" s="8">
         <v>17</v>
       </c>
-      <c r="W156" s="18"/>
-      <c r="X156" s="18"/>
-      <c r="Y156" s="18"/>
-      <c r="Z156" s="18"/>
+      <c r="W156" s="17"/>
+      <c r="X156" s="17"/>
+      <c r="Y156" s="17"/>
+      <c r="Z156" s="17"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" s="10">
@@ -13133,10 +13126,10 @@
       <c r="V157" s="8">
         <v>21</v>
       </c>
-      <c r="W157" s="18"/>
-      <c r="X157" s="18"/>
-      <c r="Y157" s="18"/>
-      <c r="Z157" s="18"/>
+      <c r="W157" s="17"/>
+      <c r="X157" s="17"/>
+      <c r="Y157" s="17"/>
+      <c r="Z157" s="17"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" s="10">
@@ -13208,10 +13201,10 @@
       <c r="V158" s="8">
         <v>17</v>
       </c>
-      <c r="W158" s="18"/>
-      <c r="X158" s="18"/>
-      <c r="Y158" s="18"/>
-      <c r="Z158" s="18"/>
+      <c r="W158" s="17"/>
+      <c r="X158" s="17"/>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="10">
@@ -13283,10 +13276,10 @@
       <c r="V159" s="8">
         <v>12</v>
       </c>
-      <c r="W159" s="18"/>
-      <c r="X159" s="18"/>
-      <c r="Y159" s="18"/>
-      <c r="Z159" s="18"/>
+      <c r="W159" s="17"/>
+      <c r="X159" s="17"/>
+      <c r="Y159" s="17"/>
+      <c r="Z159" s="17"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" s="10">
@@ -13358,10 +13351,10 @@
       <c r="V160" s="8">
         <v>36</v>
       </c>
-      <c r="W160" s="18"/>
-      <c r="X160" s="18"/>
-      <c r="Y160" s="18"/>
-      <c r="Z160" s="18"/>
+      <c r="W160" s="17"/>
+      <c r="X160" s="17"/>
+      <c r="Y160" s="17"/>
+      <c r="Z160" s="17"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" s="10">
@@ -13433,10 +13426,10 @@
       <c r="V161" s="8">
         <v>27</v>
       </c>
-      <c r="W161" s="18"/>
-      <c r="X161" s="18"/>
-      <c r="Y161" s="18"/>
-      <c r="Z161" s="18"/>
+      <c r="W161" s="17"/>
+      <c r="X161" s="17"/>
+      <c r="Y161" s="17"/>
+      <c r="Z161" s="17"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" s="10">
@@ -13508,10 +13501,10 @@
       <c r="V162" s="8">
         <v>25</v>
       </c>
-      <c r="W162" s="18"/>
-      <c r="X162" s="18"/>
-      <c r="Y162" s="18"/>
-      <c r="Z162" s="18"/>
+      <c r="W162" s="17"/>
+      <c r="X162" s="17"/>
+      <c r="Y162" s="17"/>
+      <c r="Z162" s="17"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" s="10">
@@ -13583,10 +13576,10 @@
       <c r="V163" s="8">
         <v>24</v>
       </c>
-      <c r="W163" s="18"/>
-      <c r="X163" s="18"/>
-      <c r="Y163" s="18"/>
-      <c r="Z163" s="18"/>
+      <c r="W163" s="17"/>
+      <c r="X163" s="17"/>
+      <c r="Y163" s="17"/>
+      <c r="Z163" s="17"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" s="10">
@@ -13658,10 +13651,10 @@
       <c r="V164" s="8">
         <v>15</v>
       </c>
-      <c r="W164" s="18"/>
-      <c r="X164" s="18"/>
-      <c r="Y164" s="18"/>
-      <c r="Z164" s="18"/>
+      <c r="W164" s="17"/>
+      <c r="X164" s="17"/>
+      <c r="Y164" s="17"/>
+      <c r="Z164" s="17"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" s="10">
@@ -13733,10 +13726,10 @@
       <c r="V165" s="8">
         <v>22</v>
       </c>
-      <c r="W165" s="18"/>
-      <c r="X165" s="18"/>
-      <c r="Y165" s="18"/>
-      <c r="Z165" s="18"/>
+      <c r="W165" s="17"/>
+      <c r="X165" s="17"/>
+      <c r="Y165" s="17"/>
+      <c r="Z165" s="17"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" s="10">
@@ -13808,10 +13801,10 @@
       <c r="V166" s="8">
         <v>19</v>
       </c>
-      <c r="W166" s="18"/>
-      <c r="X166" s="18"/>
-      <c r="Y166" s="18"/>
-      <c r="Z166" s="18"/>
+      <c r="W166" s="17"/>
+      <c r="X166" s="17"/>
+      <c r="Y166" s="17"/>
+      <c r="Z166" s="17"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" s="10">
@@ -13883,10 +13876,10 @@
       <c r="V167" s="8">
         <v>33</v>
       </c>
-      <c r="W167" s="18"/>
-      <c r="X167" s="18"/>
-      <c r="Y167" s="18"/>
-      <c r="Z167" s="18"/>
+      <c r="W167" s="17"/>
+      <c r="X167" s="17"/>
+      <c r="Y167" s="17"/>
+      <c r="Z167" s="17"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" s="10">
@@ -13958,10 +13951,10 @@
       <c r="V168" s="8">
         <v>30</v>
       </c>
-      <c r="W168" s="18"/>
-      <c r="X168" s="18"/>
-      <c r="Y168" s="18"/>
-      <c r="Z168" s="18"/>
+      <c r="W168" s="17"/>
+      <c r="X168" s="17"/>
+      <c r="Y168" s="17"/>
+      <c r="Z168" s="17"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" s="10">
@@ -14033,10 +14026,10 @@
       <c r="V169" s="8">
         <v>35</v>
       </c>
-      <c r="W169" s="18"/>
-      <c r="X169" s="18"/>
-      <c r="Y169" s="18"/>
-      <c r="Z169" s="18"/>
+      <c r="W169" s="17"/>
+      <c r="X169" s="17"/>
+      <c r="Y169" s="17"/>
+      <c r="Z169" s="17"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" s="10">
@@ -14105,10 +14098,10 @@
       <c r="V170" s="8">
         <v>39</v>
       </c>
-      <c r="W170" s="18"/>
-      <c r="X170" s="18"/>
-      <c r="Y170" s="18"/>
-      <c r="Z170" s="18"/>
+      <c r="W170" s="17"/>
+      <c r="X170" s="17"/>
+      <c r="Y170" s="17"/>
+      <c r="Z170" s="17"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" s="10">
@@ -14177,10 +14170,10 @@
       <c r="V171" s="8">
         <v>36</v>
       </c>
-      <c r="W171" s="18"/>
-      <c r="X171" s="18"/>
-      <c r="Y171" s="18"/>
-      <c r="Z171" s="18"/>
+      <c r="W171" s="17"/>
+      <c r="X171" s="17"/>
+      <c r="Y171" s="17"/>
+      <c r="Z171" s="17"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" s="10">
@@ -14249,10 +14242,10 @@
       <c r="V172" s="8">
         <v>34</v>
       </c>
-      <c r="W172" s="18"/>
-      <c r="X172" s="18"/>
-      <c r="Y172" s="18"/>
-      <c r="Z172" s="18"/>
+      <c r="W172" s="17"/>
+      <c r="X172" s="17"/>
+      <c r="Y172" s="17"/>
+      <c r="Z172" s="17"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" s="10">
@@ -14321,10 +14314,10 @@
       <c r="V173" s="8">
         <v>19</v>
       </c>
-      <c r="W173" s="18"/>
-      <c r="X173" s="18"/>
-      <c r="Y173" s="18"/>
-      <c r="Z173" s="18"/>
+      <c r="W173" s="17"/>
+      <c r="X173" s="17"/>
+      <c r="Y173" s="17"/>
+      <c r="Z173" s="17"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" s="10">
@@ -14337,7 +14330,7 @@
         <v>76198</v>
       </c>
       <c r="D174" s="1">
-        <v>1678</v>
+        <v>1768</v>
       </c>
       <c r="E174" s="1">
         <v>25803</v>
@@ -14393,34 +14386,290 @@
       <c r="V174" s="8">
         <v>48</v>
       </c>
-      <c r="W174" s="18"/>
-      <c r="X174" s="18"/>
-      <c r="Y174" s="18"/>
-      <c r="Z174" s="18"/>
+      <c r="W174" s="17"/>
+      <c r="X174" s="17"/>
+      <c r="Y174" s="17"/>
+      <c r="Z174" s="17"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="13"/>
-      <c r="I175" s="13"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="13"/>
-      <c r="L175" s="13"/>
-      <c r="M175" s="14"/>
-      <c r="N175" s="15"/>
-      <c r="O175" s="14"/>
-      <c r="P175" s="16"/>
-      <c r="Q175" s="14"/>
-      <c r="R175" s="17"/>
-      <c r="S175" s="17"/>
-      <c r="T175" s="17"/>
-      <c r="U175" s="17"/>
-      <c r="V175" s="17"/>
+      <c r="A175" s="10">
+        <v>44048</v>
+      </c>
+      <c r="B175" s="2">
+        <v>173</v>
+      </c>
+      <c r="C175" s="11">
+        <v>77919</v>
+      </c>
+      <c r="D175" s="11">
+        <v>1721</v>
+      </c>
+      <c r="E175" s="11">
+        <v>25959</v>
+      </c>
+      <c r="F175" s="11">
+        <v>565</v>
+      </c>
+      <c r="G175" s="11">
+        <v>4</v>
+      </c>
+      <c r="H175" s="12">
+        <v>4564</v>
+      </c>
+      <c r="I175" s="12">
+        <v>11</v>
+      </c>
+      <c r="J175" s="12">
+        <v>534</v>
+      </c>
+      <c r="K175" s="12">
+        <v>599</v>
+      </c>
+      <c r="L175" s="12">
+        <v>1</v>
+      </c>
+      <c r="M175" s="13">
+        <v>21566</v>
+      </c>
+      <c r="N175" s="14">
+        <v>85</v>
+      </c>
+      <c r="O175" s="13">
+        <v>1383</v>
+      </c>
+      <c r="P175" s="15">
+        <v>719</v>
+      </c>
+      <c r="Q175" s="13">
+        <v>0</v>
+      </c>
+      <c r="R175" s="16">
+        <v>56550</v>
+      </c>
+      <c r="S175" s="16">
+        <v>1309</v>
+      </c>
+      <c r="T175" s="16">
+        <v>25445</v>
+      </c>
+      <c r="U175" s="16">
+        <v>2521</v>
+      </c>
+      <c r="V175" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A176" s="10">
+        <v>44049</v>
+      </c>
+      <c r="B176" s="2">
+        <v>174</v>
+      </c>
+      <c r="C176" s="1">
+        <v>79559</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1640</v>
+      </c>
+      <c r="E176" s="1">
+        <v>25556</v>
+      </c>
+      <c r="F176" s="1">
+        <v>576</v>
+      </c>
+      <c r="G176" s="1">
+        <v>11</v>
+      </c>
+      <c r="H176" s="3">
+        <v>4597</v>
+      </c>
+      <c r="I176" s="3">
+        <v>33</v>
+      </c>
+      <c r="J176" s="3">
+        <v>534</v>
+      </c>
+      <c r="K176" s="3">
+        <v>600</v>
+      </c>
+      <c r="L176" s="3">
+        <v>1</v>
+      </c>
+      <c r="M176" s="4">
+        <v>21696</v>
+      </c>
+      <c r="N176" s="5">
+        <v>130</v>
+      </c>
+      <c r="O176" s="4">
+        <v>1381</v>
+      </c>
+      <c r="P176" s="6">
+        <v>719</v>
+      </c>
+      <c r="Q176" s="4">
+        <v>0</v>
+      </c>
+      <c r="R176" s="7">
+        <v>57895</v>
+      </c>
+      <c r="S176" s="7">
+        <v>1345</v>
+      </c>
+      <c r="T176" s="7">
+        <v>26337</v>
+      </c>
+      <c r="U176" s="7">
+        <v>2566</v>
+      </c>
+      <c r="V176" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A177" s="10">
+        <v>44050</v>
+      </c>
+      <c r="B177" s="2">
+        <v>175</v>
+      </c>
+      <c r="C177" s="1">
+        <v>80991</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1432</v>
+      </c>
+      <c r="E177" s="1">
+        <v>25097</v>
+      </c>
+      <c r="F177" s="1">
+        <v>581</v>
+      </c>
+      <c r="G177" s="1">
+        <v>5</v>
+      </c>
+      <c r="H177" s="3">
+        <v>4621</v>
+      </c>
+      <c r="I177" s="3">
+        <v>24</v>
+      </c>
+      <c r="J177" s="3">
+        <v>555</v>
+      </c>
+      <c r="K177" s="3">
+        <v>602</v>
+      </c>
+      <c r="L177" s="3">
+        <v>2</v>
+      </c>
+      <c r="M177" s="4">
+        <v>21837</v>
+      </c>
+      <c r="N177" s="5">
+        <v>141</v>
+      </c>
+      <c r="O177" s="4">
+        <v>1427</v>
+      </c>
+      <c r="P177" s="6">
+        <v>720</v>
+      </c>
+      <c r="Q177" s="4">
+        <v>1</v>
+      </c>
+      <c r="R177" s="7">
+        <v>59273</v>
+      </c>
+      <c r="S177" s="7">
+        <v>1378</v>
+      </c>
+      <c r="T177" s="7">
+        <v>27368</v>
+      </c>
+      <c r="U177" s="7">
+        <v>2616</v>
+      </c>
+      <c r="V177" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A178" s="10">
+        <v>44051</v>
+      </c>
+      <c r="B178" s="2">
+        <v>176</v>
+      </c>
+      <c r="C178" s="1">
+        <v>82324</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1333</v>
+      </c>
+      <c r="E178" s="1">
+        <v>24660</v>
+      </c>
+      <c r="F178" s="1">
+        <v>593</v>
+      </c>
+      <c r="G178" s="1">
+        <v>12</v>
+      </c>
+      <c r="H178" s="3">
+        <v>4653</v>
+      </c>
+      <c r="I178" s="3">
+        <v>32</v>
+      </c>
+      <c r="J178" s="3">
+        <v>560</v>
+      </c>
+      <c r="K178" s="3">
+        <v>602</v>
+      </c>
+      <c r="L178" s="3">
+        <v>0</v>
+      </c>
+      <c r="M178" s="4">
+        <v>21919</v>
+      </c>
+      <c r="N178" s="5">
+        <v>82</v>
+      </c>
+      <c r="O178" s="4">
+        <v>1386</v>
+      </c>
+      <c r="P178" s="6">
+        <v>721</v>
+      </c>
+      <c r="Q178" s="4">
+        <v>1</v>
+      </c>
+      <c r="R178" s="7">
+        <v>60623</v>
+      </c>
+      <c r="S178" s="7">
+        <v>1350</v>
+      </c>
+      <c r="T178" s="7">
+        <v>28092</v>
+      </c>
+      <c r="U178" s="7">
+        <v>2659</v>
+      </c>
+      <c r="V178" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A179" s="10">
+        <v>44052</v>
+      </c>
+      <c r="B179" s="2">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C9F88-3677-4355-900C-C6C2CF40C7C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB4FF80-1FAD-4D8B-8233-BB5BC12BCC30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10670" yWindow="500" windowWidth="23770" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Austria</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>723a</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z179"/>
+  <dimension ref="A1:Z181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3375,10 +3378,10 @@
         <v>25</v>
       </c>
       <c r="Y27" s="19">
-        <v>7437</v>
+        <v>8582</v>
       </c>
       <c r="Z27" s="19">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
@@ -14669,6 +14672,199 @@
       </c>
       <c r="B179" s="2">
         <v>177</v>
+      </c>
+      <c r="C179" s="1">
+        <v>83002</v>
+      </c>
+      <c r="D179" s="1">
+        <v>678</v>
+      </c>
+      <c r="E179" s="1">
+        <v>24869</v>
+      </c>
+      <c r="F179" s="1">
+        <v>600</v>
+      </c>
+      <c r="H179" s="3">
+        <v>4696</v>
+      </c>
+      <c r="I179" s="3">
+        <v>43</v>
+      </c>
+      <c r="J179" s="3">
+        <v>595</v>
+      </c>
+      <c r="K179" s="3">
+        <v>602</v>
+      </c>
+      <c r="L179" s="3">
+        <v>0</v>
+      </c>
+      <c r="M179" s="4">
+        <v>22033</v>
+      </c>
+      <c r="N179" s="5">
+        <v>114</v>
+      </c>
+      <c r="O179" s="4">
+        <v>1373</v>
+      </c>
+      <c r="P179" s="6">
+        <v>721</v>
+      </c>
+      <c r="Q179" s="4">
+        <v>0</v>
+      </c>
+      <c r="R179" s="7">
+        <v>61768</v>
+      </c>
+      <c r="S179" s="7">
+        <v>1145</v>
+      </c>
+      <c r="T179" s="7">
+        <v>28949</v>
+      </c>
+      <c r="U179" s="7">
+        <v>2700</v>
+      </c>
+      <c r="V179" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A180" s="10">
+        <v>44053</v>
+      </c>
+      <c r="B180" s="2">
+        <v>178</v>
+      </c>
+      <c r="C180" s="1">
+        <v>84722</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1720</v>
+      </c>
+      <c r="E180" s="1">
+        <v>25111</v>
+      </c>
+      <c r="F180" s="1">
+        <v>613</v>
+      </c>
+      <c r="G180" s="1">
+        <v>13</v>
+      </c>
+      <c r="H180" s="3">
+        <v>4731</v>
+      </c>
+      <c r="I180" s="3">
+        <v>35</v>
+      </c>
+      <c r="J180" s="3">
+        <v>601</v>
+      </c>
+      <c r="K180" s="3">
+        <v>605</v>
+      </c>
+      <c r="L180" s="3">
+        <v>3</v>
+      </c>
+      <c r="M180" s="4">
+        <v>22106</v>
+      </c>
+      <c r="N180" s="5">
+        <v>73</v>
+      </c>
+      <c r="O180" s="4">
+        <v>1389</v>
+      </c>
+      <c r="P180" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q180" s="4">
+        <v>2</v>
+      </c>
+      <c r="R180" s="7">
+        <v>62547</v>
+      </c>
+      <c r="S180" s="7">
+        <v>779</v>
+      </c>
+      <c r="T180" s="7">
+        <v>29507</v>
+      </c>
+      <c r="U180" s="7">
+        <v>2729</v>
+      </c>
+      <c r="V180" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A181" s="10">
+        <v>44054</v>
+      </c>
+      <c r="B181" s="2">
+        <v>179</v>
+      </c>
+      <c r="C181" s="1">
+        <v>86593</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1871</v>
+      </c>
+      <c r="E181" s="1">
+        <v>25891</v>
+      </c>
+      <c r="F181" s="1">
+        <v>622</v>
+      </c>
+      <c r="G181" s="1">
+        <v>9</v>
+      </c>
+      <c r="H181" s="3">
+        <v>4746</v>
+      </c>
+      <c r="I181" s="3">
+        <v>11</v>
+      </c>
+      <c r="J181" s="3">
+        <v>614</v>
+      </c>
+      <c r="K181" s="3">
+        <v>605</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+      <c r="M181" s="4">
+        <v>22245</v>
+      </c>
+      <c r="N181" s="5">
+        <v>139</v>
+      </c>
+      <c r="O181" s="4">
+        <v>1399</v>
+      </c>
+      <c r="P181" s="6">
+        <v>723</v>
+      </c>
+      <c r="Q181" s="4">
+        <v>0</v>
+      </c>
+      <c r="R181" s="7">
+        <v>63762</v>
+      </c>
+      <c r="S181" s="7">
+        <v>1215</v>
+      </c>
+      <c r="T181" s="7">
+        <v>30413</v>
+      </c>
+      <c r="U181" s="7">
+        <v>2764</v>
+      </c>
+      <c r="V181" s="7">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\nou\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB4FF80-1FAD-4D8B-8233-BB5BC12BCC30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B511EDC-51CE-4BCD-A731-E3367271B13F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="43">
   <si>
     <t>Austria</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>723a</t>
+  </si>
+  <si>
+    <t>10-16-aug</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +763,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,6 +832,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z181"/>
+  <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3371,16 +3395,16 @@
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="19" t="s">
+      <c r="W27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="X27" s="19">
+      <c r="X27" s="17">
         <v>25</v>
       </c>
-      <c r="Y27" s="19">
+      <c r="Y27" s="17">
         <v>8582</v>
       </c>
-      <c r="Z27" s="19">
+      <c r="Z27" s="17">
         <v>287</v>
       </c>
     </row>
@@ -3454,10 +3478,18 @@
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
+      <c r="W28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="X28" s="19">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>8693</v>
+      </c>
+      <c r="Z28" s="19">
+        <v>291</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -14685,6 +14717,9 @@
       <c r="F179" s="1">
         <v>600</v>
       </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
       <c r="H179" s="3">
         <v>4696</v>
       </c>
@@ -14866,6 +14901,373 @@
       <c r="V181" s="7">
         <v>35</v>
       </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A182" s="10">
+        <v>44055</v>
+      </c>
+      <c r="B182" s="2">
+        <v>180</v>
+      </c>
+      <c r="C182" s="1">
+        <v>88151</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1558</v>
+      </c>
+      <c r="E182" s="1">
+        <v>25403</v>
+      </c>
+      <c r="F182" s="1">
+        <v>639</v>
+      </c>
+      <c r="G182" s="1">
+        <v>17</v>
+      </c>
+      <c r="H182" s="3">
+        <v>4768</v>
+      </c>
+      <c r="I182" s="3">
+        <v>22</v>
+      </c>
+      <c r="J182" s="3">
+        <v>634</v>
+      </c>
+      <c r="K182" s="3">
+        <v>605</v>
+      </c>
+      <c r="L182" s="3">
+        <v>0</v>
+      </c>
+      <c r="M182" s="4">
+        <v>22439</v>
+      </c>
+      <c r="N182" s="5">
+        <v>194</v>
+      </c>
+      <c r="O182" s="4">
+        <v>1447</v>
+      </c>
+      <c r="P182" s="6">
+        <v>724</v>
+      </c>
+      <c r="Q182" s="4">
+        <v>1</v>
+      </c>
+      <c r="R182" s="7">
+        <v>65177</v>
+      </c>
+      <c r="S182" s="7">
+        <v>1415</v>
+      </c>
+      <c r="T182" s="7">
+        <v>31322</v>
+      </c>
+      <c r="U182" s="7">
+        <v>2764</v>
+      </c>
+      <c r="V182" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A183" s="10">
+        <v>44056</v>
+      </c>
+      <c r="B183" s="2">
+        <v>181</v>
+      </c>
+      <c r="C183" s="1">
+        <v>89822</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1671</v>
+      </c>
+      <c r="E183" s="1">
+        <v>24425</v>
+      </c>
+      <c r="F183" s="1">
+        <v>651</v>
+      </c>
+      <c r="G183" s="1">
+        <v>12</v>
+      </c>
+      <c r="H183" s="3">
+        <v>4813</v>
+      </c>
+      <c r="I183" s="3">
+        <v>45</v>
+      </c>
+      <c r="J183" s="3">
+        <v>645</v>
+      </c>
+      <c r="K183" s="3">
+        <v>607</v>
+      </c>
+      <c r="L183" s="3">
+        <v>2</v>
+      </c>
+      <c r="M183" s="4">
+        <v>22594</v>
+      </c>
+      <c r="N183" s="5">
+        <v>155</v>
+      </c>
+      <c r="O183" s="4">
+        <v>1523</v>
+      </c>
+      <c r="P183" s="6">
+        <v>725</v>
+      </c>
+      <c r="Q183" s="4">
+        <v>1</v>
+      </c>
+      <c r="R183" s="7">
+        <v>66631</v>
+      </c>
+      <c r="S183" s="7">
+        <v>1454</v>
+      </c>
+      <c r="T183" s="7">
+        <v>32224</v>
+      </c>
+      <c r="U183" s="7">
+        <v>2807</v>
+      </c>
+      <c r="V183" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A184" s="10">
+        <v>44057</v>
+      </c>
+      <c r="B184" s="2">
+        <v>182</v>
+      </c>
+      <c r="C184" s="1">
+        <v>91080</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1258</v>
+      </c>
+      <c r="E184" s="1">
+        <v>23450</v>
+      </c>
+      <c r="F184" s="1">
+        <v>665</v>
+      </c>
+      <c r="G184" s="1">
+        <v>14</v>
+      </c>
+      <c r="H184" s="3">
+        <v>4853</v>
+      </c>
+      <c r="I184" s="3">
+        <v>40</v>
+      </c>
+      <c r="J184" s="3">
+        <v>656</v>
+      </c>
+      <c r="K184" s="3">
+        <v>607</v>
+      </c>
+      <c r="L184" s="3">
+        <v>0</v>
+      </c>
+      <c r="M184" s="4">
+        <v>22876</v>
+      </c>
+      <c r="N184" s="5">
+        <v>282</v>
+      </c>
+      <c r="O184" s="4">
+        <v>1652</v>
+      </c>
+      <c r="P184" s="6">
+        <v>725</v>
+      </c>
+      <c r="Q184" s="4">
+        <v>0</v>
+      </c>
+      <c r="R184" s="7">
+        <v>68046</v>
+      </c>
+      <c r="S184" s="7">
+        <v>1415</v>
+      </c>
+      <c r="T184" s="7">
+        <v>33222</v>
+      </c>
+      <c r="U184" s="7">
+        <v>2860</v>
+      </c>
+      <c r="V184" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A185" s="10">
+        <v>44058</v>
+      </c>
+      <c r="B185" s="2">
+        <v>183</v>
+      </c>
+      <c r="C185" s="1">
+        <v>92233</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1153</v>
+      </c>
+      <c r="E185" s="1">
+        <v>23609</v>
+      </c>
+      <c r="F185" s="1">
+        <v>674</v>
+      </c>
+      <c r="G185" s="1">
+        <v>9</v>
+      </c>
+      <c r="H185" s="3">
+        <v>4877</v>
+      </c>
+      <c r="I185" s="3">
+        <v>24</v>
+      </c>
+      <c r="J185" s="3">
+        <v>664</v>
+      </c>
+      <c r="K185" s="3">
+        <v>607</v>
+      </c>
+      <c r="L185" s="3">
+        <v>0</v>
+      </c>
+      <c r="M185" s="4">
+        <v>23179</v>
+      </c>
+      <c r="N185" s="5">
+        <v>303</v>
+      </c>
+      <c r="O185" s="4">
+        <v>1842</v>
+      </c>
+      <c r="P185" s="6">
+        <v>728</v>
+      </c>
+      <c r="Q185" s="4">
+        <v>3</v>
+      </c>
+      <c r="R185" s="7">
+        <v>69374</v>
+      </c>
+      <c r="S185" s="7">
+        <v>1328</v>
+      </c>
+      <c r="T185" s="7">
+        <v>34086</v>
+      </c>
+      <c r="U185" s="7">
+        <v>2904</v>
+      </c>
+      <c r="V185" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A186" s="10">
+        <v>44059</v>
+      </c>
+      <c r="B186" s="2">
+        <v>184</v>
+      </c>
+      <c r="C186" s="1">
+        <v>92680</v>
+      </c>
+      <c r="D186" s="1">
+        <v>447</v>
+      </c>
+      <c r="E186" s="1">
+        <v>23485</v>
+      </c>
+      <c r="F186" s="1">
+        <v>685</v>
+      </c>
+      <c r="G186" s="1">
+        <v>11</v>
+      </c>
+      <c r="H186" s="3">
+        <v>4916</v>
+      </c>
+      <c r="I186" s="3">
+        <v>39</v>
+      </c>
+      <c r="J186" s="3">
+        <v>685</v>
+      </c>
+      <c r="K186" s="3">
+        <v>608</v>
+      </c>
+      <c r="L186" s="3">
+        <v>1</v>
+      </c>
+      <c r="M186" s="4">
+        <v>23370</v>
+      </c>
+      <c r="N186" s="5">
+        <v>191</v>
+      </c>
+      <c r="O186" s="4">
+        <v>1961</v>
+      </c>
+      <c r="P186" s="6">
+        <v>728</v>
+      </c>
+      <c r="Q186" s="4">
+        <v>0</v>
+      </c>
+      <c r="R186" s="7">
+        <v>70461</v>
+      </c>
+      <c r="S186" s="7">
+        <v>1087</v>
+      </c>
+      <c r="T186" s="7">
+        <v>34883</v>
+      </c>
+      <c r="U186" s="7">
+        <v>2954</v>
+      </c>
+      <c r="V186" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="24"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="25"/>
+      <c r="N187" s="26"/>
+      <c r="O187" s="25"/>
+      <c r="P187" s="27"/>
+      <c r="Q187" s="25"/>
+      <c r="R187" s="25"/>
+      <c r="S187" s="25"/>
+      <c r="T187" s="25"/>
+      <c r="U187" s="25"/>
+      <c r="V187" s="25"/>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A188" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\nou\Practica_covid19_UTCN\Database\Norbert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B511EDC-51CE-4BCD-A731-E3367271B13F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0B7AD8-6E4E-4924-8884-05E7A6C09AC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18980" yWindow="1080" windowWidth="19180" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Austria</t>
   </si>
@@ -298,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,12 +517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,21 +826,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1206,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15242,32 +15221,141 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="24"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
-      <c r="J187" s="25"/>
-      <c r="K187" s="25"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
-      <c r="N187" s="26"/>
-      <c r="O187" s="25"/>
-      <c r="P187" s="27"/>
-      <c r="Q187" s="25"/>
-      <c r="R187" s="25"/>
-      <c r="S187" s="25"/>
-      <c r="T187" s="25"/>
-      <c r="U187" s="25"/>
-      <c r="V187" s="25"/>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A187" s="10">
+        <v>44060</v>
+      </c>
+      <c r="B187" s="2">
+        <v>185</v>
+      </c>
+      <c r="C187" s="1">
+        <v>96409</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2071</v>
+      </c>
+      <c r="E187" s="1">
+        <v>23768</v>
+      </c>
+      <c r="F187" s="1">
+        <v>692</v>
+      </c>
+      <c r="G187" s="1">
+        <v>7</v>
+      </c>
+      <c r="H187" s="3">
+        <v>4946</v>
+      </c>
+      <c r="I187" s="3">
+        <v>30</v>
+      </c>
+      <c r="J187" s="3">
+        <v>708</v>
+      </c>
+      <c r="K187" s="3">
+        <v>608</v>
+      </c>
+      <c r="L187" s="3">
+        <v>0</v>
+      </c>
+      <c r="M187" s="4">
+        <v>23534</v>
+      </c>
+      <c r="N187" s="5">
+        <v>164</v>
+      </c>
+      <c r="O187" s="4">
+        <v>2040</v>
+      </c>
+      <c r="P187" s="6">
+        <v>729</v>
+      </c>
+      <c r="Q187" s="4">
+        <v>1</v>
+      </c>
+      <c r="R187" s="7">
+        <v>71194</v>
+      </c>
+      <c r="S187" s="7">
+        <v>733</v>
+      </c>
+      <c r="T187" s="7">
+        <v>35406</v>
+      </c>
+      <c r="U187" s="7">
+        <v>3029</v>
+      </c>
+      <c r="V187" s="7">
+        <v>38</v>
+      </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A188" s="10"/>
+      <c r="A188" s="10">
+        <v>44061</v>
+      </c>
+      <c r="B188" s="2">
+        <v>186</v>
+      </c>
+      <c r="C188" s="1">
+        <v>94751</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1659</v>
+      </c>
+      <c r="E188" s="1">
+        <v>23711</v>
+      </c>
+      <c r="F188" s="1">
+        <v>708</v>
+      </c>
+      <c r="G188" s="1">
+        <v>16</v>
+      </c>
+      <c r="H188" s="3">
+        <v>4970</v>
+      </c>
+      <c r="I188" s="3">
+        <v>24</v>
+      </c>
+      <c r="J188" s="3">
+        <v>730</v>
+      </c>
+      <c r="K188" s="3">
+        <v>609</v>
+      </c>
+      <c r="L188" s="3">
+        <v>1</v>
+      </c>
+      <c r="M188" s="4">
+        <v>23829</v>
+      </c>
+      <c r="N188" s="5">
+        <v>295</v>
+      </c>
+      <c r="O188" s="4">
+        <v>2230</v>
+      </c>
+      <c r="P188" s="6">
+        <v>729</v>
+      </c>
+      <c r="Q188" s="4">
+        <v>0</v>
+      </c>
+      <c r="R188" s="7">
+        <v>72208</v>
+      </c>
+      <c r="S188" s="7">
+        <v>1014</v>
+      </c>
+      <c r="T188" s="7">
+        <v>35999</v>
+      </c>
+      <c r="U188" s="7">
+        <v>3074</v>
+      </c>
+      <c r="V188" s="7">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0B7AD8-6E4E-4924-8884-05E7A6C09AC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539EDF-20C4-41DF-8189-78626E3F5457}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="1080" windowWidth="19180" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="44">
   <si>
     <t>Austria</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>10-16-aug</t>
+  </si>
+  <si>
+    <t>17-23-aug</t>
   </si>
 </sst>
 </file>
@@ -298,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +754,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,9 +808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z188"/>
+  <dimension ref="A1:Z193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1206,38 +1200,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3457,16 +3451,16 @@
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="19" t="s">
+      <c r="W28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="19">
+      <c r="X28" s="17">
         <v>26</v>
       </c>
-      <c r="Y28" s="19">
+      <c r="Y28" s="17">
         <v>8693</v>
       </c>
-      <c r="Z28" s="19">
+      <c r="Z28" s="17">
         <v>291</v>
       </c>
     </row>
@@ -3540,10 +3534,18 @@
       <c r="V29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
+      <c r="W29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="17">
+        <v>27</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>8044</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>331</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
@@ -15355,6 +15357,346 @@
       </c>
       <c r="V188" s="7">
         <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A189" s="10">
+        <v>44062</v>
+      </c>
+      <c r="B189" s="2">
+        <v>187</v>
+      </c>
+      <c r="C189" s="1">
+        <v>97969</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1560</v>
+      </c>
+      <c r="E189" s="1">
+        <v>24096</v>
+      </c>
+      <c r="F189" s="1">
+        <v>781</v>
+      </c>
+      <c r="G189" s="1">
+        <v>16</v>
+      </c>
+      <c r="H189" s="3">
+        <v>4946</v>
+      </c>
+      <c r="I189" s="3">
+        <v>32</v>
+      </c>
+      <c r="J189" s="3">
+        <v>728</v>
+      </c>
+      <c r="K189" s="3">
+        <v>609</v>
+      </c>
+      <c r="L189" s="3">
+        <v>0</v>
+      </c>
+      <c r="M189" s="4">
+        <v>24084</v>
+      </c>
+      <c r="N189" s="5">
+        <v>255</v>
+      </c>
+      <c r="O189" s="4">
+        <v>2397</v>
+      </c>
+      <c r="P189" s="6">
+        <v>729</v>
+      </c>
+      <c r="Q189" s="4">
+        <v>0</v>
+      </c>
+      <c r="R189" s="7">
+        <v>73617</v>
+      </c>
+      <c r="S189" s="7">
+        <v>1409</v>
+      </c>
+      <c r="T189" s="7">
+        <v>36945</v>
+      </c>
+      <c r="U189" s="7">
+        <v>3106</v>
+      </c>
+      <c r="V189" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A190" s="10">
+        <v>44063</v>
+      </c>
+      <c r="B190" s="2">
+        <v>188</v>
+      </c>
+      <c r="C190" s="1">
+        <v>99599</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1630</v>
+      </c>
+      <c r="E190" s="1">
+        <v>24225</v>
+      </c>
+      <c r="F190" s="1">
+        <v>795</v>
+      </c>
+      <c r="G190" s="1">
+        <v>73</v>
+      </c>
+      <c r="H190" s="3">
+        <v>4970</v>
+      </c>
+      <c r="I190" s="3">
+        <v>44</v>
+      </c>
+      <c r="J190" s="3">
+        <v>759</v>
+      </c>
+      <c r="K190" s="3">
+        <v>609</v>
+      </c>
+      <c r="L190" s="3">
+        <v>0</v>
+      </c>
+      <c r="M190" s="4">
+        <v>24431</v>
+      </c>
+      <c r="N190" s="5">
+        <v>347</v>
+      </c>
+      <c r="O190" s="4">
+        <v>2609</v>
+      </c>
+      <c r="P190" s="6">
+        <v>729</v>
+      </c>
+      <c r="Q190" s="4">
+        <v>0</v>
+      </c>
+      <c r="R190" s="7">
+        <v>74963</v>
+      </c>
+      <c r="S190" s="7">
+        <v>1346</v>
+      </c>
+      <c r="T190" s="7">
+        <v>37613</v>
+      </c>
+      <c r="U190" s="7">
+        <v>3154</v>
+      </c>
+      <c r="V190" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A191" s="10">
+        <v>44064</v>
+      </c>
+      <c r="B191" s="2">
+        <v>189</v>
+      </c>
+      <c r="C191" s="1">
+        <v>100716</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1117</v>
+      </c>
+      <c r="E191" s="1">
+        <v>22122</v>
+      </c>
+      <c r="F191" s="1">
+        <v>809</v>
+      </c>
+      <c r="G191" s="1">
+        <v>14</v>
+      </c>
+      <c r="H191" s="3">
+        <v>5046</v>
+      </c>
+      <c r="I191" s="3">
+        <v>52</v>
+      </c>
+      <c r="J191" s="3">
+        <v>806</v>
+      </c>
+      <c r="K191" s="3">
+        <v>611</v>
+      </c>
+      <c r="L191" s="3">
+        <v>2</v>
+      </c>
+      <c r="M191" s="4">
+        <v>24762</v>
+      </c>
+      <c r="N191" s="5">
+        <v>331</v>
+      </c>
+      <c r="O191" s="4">
+        <v>2772</v>
+      </c>
+      <c r="P191" s="6">
+        <v>730</v>
+      </c>
+      <c r="Q191" s="4">
+        <v>1</v>
+      </c>
+      <c r="R191" s="7">
+        <v>76355</v>
+      </c>
+      <c r="S191" s="7">
+        <v>1392</v>
+      </c>
+      <c r="T191" s="7">
+        <v>38636</v>
+      </c>
+      <c r="U191" s="7">
+        <v>3196</v>
+      </c>
+      <c r="V191" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A192" s="10">
+        <v>44065</v>
+      </c>
+      <c r="B192" s="2">
+        <v>190</v>
+      </c>
+      <c r="C192" s="1">
+        <v>101993</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1217</v>
+      </c>
+      <c r="E192" s="1">
+        <v>22463</v>
+      </c>
+      <c r="F192" s="1">
+        <v>819</v>
+      </c>
+      <c r="G192" s="1">
+        <v>10</v>
+      </c>
+      <c r="H192" s="3">
+        <v>5133</v>
+      </c>
+      <c r="I192" s="3">
+        <v>35</v>
+      </c>
+      <c r="J192" s="3">
+        <v>830</v>
+      </c>
+      <c r="K192" s="3">
+        <v>611</v>
+      </c>
+      <c r="L192" s="3">
+        <v>0</v>
+      </c>
+      <c r="M192" s="4">
+        <v>25062</v>
+      </c>
+      <c r="N192" s="5">
+        <v>300</v>
+      </c>
+      <c r="O192" s="4">
+        <v>2924</v>
+      </c>
+      <c r="P192" s="6">
+        <v>732</v>
+      </c>
+      <c r="Q192" s="4">
+        <v>2</v>
+      </c>
+      <c r="R192" s="7">
+        <v>77544</v>
+      </c>
+      <c r="S192" s="7">
+        <v>1189</v>
+      </c>
+      <c r="T192" s="7">
+        <v>39232</v>
+      </c>
+      <c r="U192" s="7">
+        <v>3233</v>
+      </c>
+      <c r="V192" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A193" s="10">
+        <v>44066</v>
+      </c>
+      <c r="B193" s="2">
+        <v>191</v>
+      </c>
+      <c r="C193" s="1">
+        <v>102663</v>
+      </c>
+      <c r="D193" s="1">
+        <v>730</v>
+      </c>
+      <c r="E193" s="1">
+        <v>22315</v>
+      </c>
+      <c r="F193" s="1">
+        <v>834</v>
+      </c>
+      <c r="G193" s="1">
+        <v>15</v>
+      </c>
+      <c r="H193" s="3">
+        <v>5155</v>
+      </c>
+      <c r="I193" s="3">
+        <v>22</v>
+      </c>
+      <c r="J193" s="3">
+        <v>847</v>
+      </c>
+      <c r="K193" s="3">
+        <v>613</v>
+      </c>
+      <c r="L193" s="3">
+        <v>2</v>
+      </c>
+      <c r="M193" s="4">
+        <v>25253</v>
+      </c>
+      <c r="N193" s="5">
+        <v>191</v>
+      </c>
+      <c r="O193" s="4">
+        <v>2963</v>
+      </c>
+      <c r="P193" s="6">
+        <v>732</v>
+      </c>
+      <c r="Q193" s="4">
+        <v>0</v>
+      </c>
+      <c r="R193" s="7">
+        <v>78505</v>
+      </c>
+      <c r="S193" s="7">
+        <v>961</v>
+      </c>
+      <c r="T193" s="7">
+        <v>39946</v>
+      </c>
+      <c r="U193" s="7">
+        <v>3272</v>
+      </c>
+      <c r="V193" s="7">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539EDF-20C4-41DF-8189-78626E3F5457}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B0DD4-EF1D-466F-94D3-7892860C8B12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Austria</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>17-23-aug</t>
+  </si>
+  <si>
+    <t>24-30-aug</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z193"/>
+  <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3617,7 +3620,9 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="17"/>
+      <c r="W30" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
@@ -15697,6 +15702,278 @@
       </c>
       <c r="V193" s="7">
         <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A194" s="10">
+        <v>44067</v>
+      </c>
+      <c r="B194" s="2">
+        <v>192</v>
+      </c>
+      <c r="C194" s="1">
+        <v>104472</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1809</v>
+      </c>
+      <c r="E194" s="1">
+        <v>21983</v>
+      </c>
+      <c r="F194" s="1">
+        <v>847</v>
+      </c>
+      <c r="G194" s="1">
+        <v>13</v>
+      </c>
+      <c r="H194" s="3">
+        <v>5122</v>
+      </c>
+      <c r="I194" s="3">
+        <v>36</v>
+      </c>
+      <c r="J194" s="3">
+        <v>883</v>
+      </c>
+      <c r="K194" s="3">
+        <v>613</v>
+      </c>
+      <c r="L194" s="3">
+        <v>0</v>
+      </c>
+      <c r="M194" s="4">
+        <v>25495</v>
+      </c>
+      <c r="N194" s="5">
+        <v>242</v>
+      </c>
+      <c r="O194" s="4">
+        <v>3105</v>
+      </c>
+      <c r="P194" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q194" s="4">
+        <v>1</v>
+      </c>
+      <c r="R194" s="7">
+        <v>79330</v>
+      </c>
+      <c r="S194" s="7">
+        <v>825</v>
+      </c>
+      <c r="T194" s="7">
+        <v>40504</v>
+      </c>
+      <c r="U194" s="7">
+        <v>3309</v>
+      </c>
+      <c r="V194" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A195" s="10">
+        <v>44068</v>
+      </c>
+      <c r="B195" s="2">
+        <v>193</v>
+      </c>
+      <c r="C195" s="1">
+        <v>106460</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1988</v>
+      </c>
+      <c r="E195" s="1">
+        <v>21779</v>
+      </c>
+      <c r="F195" s="1">
+        <v>859</v>
+      </c>
+      <c r="G195" s="1">
+        <v>12</v>
+      </c>
+      <c r="H195" s="3">
+        <v>5215</v>
+      </c>
+      <c r="I195" s="3">
+        <v>24</v>
+      </c>
+      <c r="J195" s="3">
+        <v>885</v>
+      </c>
+      <c r="K195" s="3">
+        <v>614</v>
+      </c>
+      <c r="L195" s="3">
+        <v>1</v>
+      </c>
+      <c r="M195" s="4">
+        <v>25706</v>
+      </c>
+      <c r="N195" s="5">
+        <v>211</v>
+      </c>
+      <c r="O195" s="4">
+        <v>3085</v>
+      </c>
+      <c r="P195" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q195" s="4">
+        <v>0</v>
+      </c>
+      <c r="R195" s="7">
+        <v>80390</v>
+      </c>
+      <c r="S195" s="7">
+        <v>1060</v>
+      </c>
+      <c r="T195" s="7">
+        <v>41207</v>
+      </c>
+      <c r="U195" s="7">
+        <v>3367</v>
+      </c>
+      <c r="V195" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A196" s="10">
+        <v>44069</v>
+      </c>
+      <c r="B196" s="2">
+        <v>194</v>
+      </c>
+      <c r="C196" s="1">
+        <v>108403</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1943</v>
+      </c>
+      <c r="E196" s="1">
+        <v>21062</v>
+      </c>
+      <c r="F196" s="1">
+        <v>875</v>
+      </c>
+      <c r="G196" s="1">
+        <v>16</v>
+      </c>
+      <c r="H196" s="3">
+        <v>5288</v>
+      </c>
+      <c r="I196" s="3">
+        <v>73</v>
+      </c>
+      <c r="J196" s="3">
+        <v>940</v>
+      </c>
+      <c r="K196" s="3">
+        <v>614</v>
+      </c>
+      <c r="L196" s="3">
+        <v>0</v>
+      </c>
+      <c r="M196" s="4">
+        <v>26033</v>
+      </c>
+      <c r="N196" s="5">
+        <v>327</v>
+      </c>
+      <c r="O196" s="4">
+        <v>3155</v>
+      </c>
+      <c r="P196" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q196" s="4">
+        <v>0</v>
+      </c>
+      <c r="R196" s="7">
+        <v>81646</v>
+      </c>
+      <c r="S196" s="7">
+        <v>1256</v>
+      </c>
+      <c r="T196" s="7">
+        <v>41939</v>
+      </c>
+      <c r="U196" s="7">
+        <v>3421</v>
+      </c>
+      <c r="V196" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A197" s="10">
+        <v>44070</v>
+      </c>
+      <c r="B197" s="2">
+        <v>195</v>
+      </c>
+      <c r="C197" s="1">
+        <v>110403</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>21793</v>
+      </c>
+      <c r="F197" s="1">
+        <v>884</v>
+      </c>
+      <c r="G197" s="1">
+        <v>9</v>
+      </c>
+      <c r="H197" s="3">
+        <v>5379</v>
+      </c>
+      <c r="I197" s="3">
+        <v>91</v>
+      </c>
+      <c r="J197" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K197" s="3">
+        <v>614</v>
+      </c>
+      <c r="L197" s="3">
+        <v>0</v>
+      </c>
+      <c r="M197" s="4">
+        <v>26361</v>
+      </c>
+      <c r="N197" s="5">
+        <v>328</v>
+      </c>
+      <c r="O197" s="4">
+        <v>3311</v>
+      </c>
+      <c r="P197" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q197" s="4">
+        <v>0</v>
+      </c>
+      <c r="R197" s="7">
+        <v>83150</v>
+      </c>
+      <c r="S197" s="7">
+        <v>1504</v>
+      </c>
+      <c r="T197" s="7">
+        <v>43014</v>
+      </c>
+      <c r="U197" s="7">
+        <v>3459</v>
+      </c>
+      <c r="V197" s="7">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B0DD4-EF1D-466F-94D3-7892860C8B12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F742E1-143E-4D3F-96E6-63BB57677D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1180,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z197"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15976,6 +15977,142 @@
         <v>38</v>
       </c>
     </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A198" s="10">
+        <v>44071</v>
+      </c>
+      <c r="B198" s="2">
+        <v>196</v>
+      </c>
+      <c r="C198" s="1">
+        <v>11200</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1597</v>
+      </c>
+      <c r="E198" s="1">
+        <v>20055</v>
+      </c>
+      <c r="F198" s="1">
+        <v>894</v>
+      </c>
+      <c r="G198" s="1">
+        <v>10</v>
+      </c>
+      <c r="H198" s="3">
+        <v>5511</v>
+      </c>
+      <c r="I198" s="3">
+        <v>132</v>
+      </c>
+      <c r="J198" s="3">
+        <v>1138</v>
+      </c>
+      <c r="K198" s="3">
+        <v>614</v>
+      </c>
+      <c r="L198" s="3">
+        <v>0</v>
+      </c>
+      <c r="M198" s="4">
+        <v>26590</v>
+      </c>
+      <c r="N198" s="5">
+        <v>229</v>
+      </c>
+      <c r="O198" s="4">
+        <v>3263</v>
+      </c>
+      <c r="P198" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q198" s="4">
+        <v>0</v>
+      </c>
+      <c r="R198" s="7">
+        <v>84468</v>
+      </c>
+      <c r="S198" s="7">
+        <v>1318</v>
+      </c>
+      <c r="T198" s="7">
+        <v>43905</v>
+      </c>
+      <c r="U198" s="7">
+        <v>3507</v>
+      </c>
+      <c r="V198" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A199" s="10">
+        <v>44072</v>
+      </c>
+      <c r="B199" s="2">
+        <v>197</v>
+      </c>
+      <c r="C199" s="1">
+        <v>113465</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1465</v>
+      </c>
+      <c r="E199" s="1">
+        <v>20455</v>
+      </c>
+      <c r="F199" s="1">
+        <v>906</v>
+      </c>
+      <c r="G199" s="1">
+        <v>12</v>
+      </c>
+      <c r="H199" s="3">
+        <v>5669</v>
+      </c>
+      <c r="I199" s="3">
+        <v>158</v>
+      </c>
+      <c r="J199" s="3">
+        <v>1296</v>
+      </c>
+      <c r="K199" s="3">
+        <v>614</v>
+      </c>
+      <c r="L199" s="3">
+        <v>0</v>
+      </c>
+      <c r="M199" s="4">
+        <v>26985</v>
+      </c>
+      <c r="N199" s="5">
+        <v>395</v>
+      </c>
+      <c r="O199" s="4">
+        <v>3386</v>
+      </c>
+      <c r="P199" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q199" s="4">
+        <v>0</v>
+      </c>
+      <c r="R199" s="7">
+        <v>85833</v>
+      </c>
+      <c r="S199" s="7">
+        <v>1365</v>
+      </c>
+      <c r="T199" s="7">
+        <v>44906</v>
+      </c>
+      <c r="U199" s="7">
+        <v>3539</v>
+      </c>
+      <c r="V199" s="7">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F742E1-143E-4D3F-96E6-63BB57677D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F8113-0A1A-44A3-886F-72BC44DB04E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Austria</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>deceze pe saptamani</t>
-  </si>
-  <si>
-    <t>17-23-feb</t>
   </si>
   <si>
     <t>24-1-feb-mar</t>
@@ -169,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +297,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -758,7 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,6 +827,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+      <selection activeCell="X3" sqref="X3:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1232,7 @@
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
@@ -1387,11 +1393,15 @@
       <c r="W3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="23">
         <v>1</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="Y3" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
@@ -1466,11 +1476,11 @@
       <c r="W4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="23">
         <v>2</v>
       </c>
       <c r="Y4" s="17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z4" s="17">
         <v>0</v>
@@ -1549,11 +1559,11 @@
       <c r="W5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="23">
         <v>3</v>
       </c>
       <c r="Y5" s="17">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="17">
         <v>0</v>
@@ -1632,14 +1642,14 @@
       <c r="W6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="23">
         <v>4</v>
       </c>
       <c r="Y6" s="17">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="Z6" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
@@ -1715,14 +1725,14 @@
       <c r="W7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="23">
         <v>5</v>
       </c>
       <c r="Y7" s="17">
-        <v>294</v>
+        <v>1382</v>
       </c>
       <c r="Z7" s="17">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
@@ -1798,14 +1808,14 @@
       <c r="W8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="23">
         <v>6</v>
       </c>
       <c r="Y8" s="17">
-        <v>1382</v>
+        <v>2049</v>
       </c>
       <c r="Z8" s="17">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
@@ -1881,14 +1891,14 @@
       <c r="W9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="23">
         <v>7</v>
       </c>
       <c r="Y9" s="17">
-        <v>2049</v>
+        <v>2436</v>
       </c>
       <c r="Z9" s="17">
-        <v>108</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
@@ -1964,14 +1974,14 @@
       <c r="W10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="23">
         <v>8</v>
       </c>
       <c r="Y10" s="17">
-        <v>2436</v>
+        <v>2446</v>
       </c>
       <c r="Z10" s="17">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
@@ -2047,14 +2057,14 @@
       <c r="W11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="23">
         <v>9</v>
       </c>
       <c r="Y11" s="17">
-        <v>2446</v>
+        <v>2290</v>
       </c>
       <c r="Z11" s="17">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
@@ -2130,14 +2140,14 @@
       <c r="W12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="23">
         <v>10</v>
       </c>
       <c r="Y12" s="17">
-        <v>2290</v>
+        <v>2127</v>
       </c>
       <c r="Z12" s="17">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
@@ -2213,11 +2223,11 @@
       <c r="W13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="23">
         <v>11</v>
       </c>
       <c r="Y13" s="17">
-        <v>2127</v>
+        <v>2199</v>
       </c>
       <c r="Z13" s="17">
         <v>171</v>
@@ -2296,14 +2306,14 @@
       <c r="W14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="23">
         <v>12</v>
       </c>
       <c r="Y14" s="17">
-        <v>2199</v>
+        <v>1509</v>
       </c>
       <c r="Z14" s="17">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
@@ -2379,14 +2389,14 @@
       <c r="W15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="23">
         <v>13</v>
       </c>
       <c r="Y15" s="17">
-        <v>1509</v>
+        <v>1199</v>
       </c>
       <c r="Z15" s="17">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
@@ -2462,14 +2472,14 @@
       <c r="W16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="23">
         <v>14</v>
       </c>
       <c r="Y16" s="17">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="Z16" s="17">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
@@ -2545,14 +2555,14 @@
       <c r="W17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="23">
         <v>15</v>
       </c>
       <c r="Y17" s="17">
-        <v>1187</v>
+        <v>1222</v>
       </c>
       <c r="Z17" s="17">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
@@ -2628,14 +2638,14 @@
       <c r="W18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="23">
         <v>16</v>
       </c>
       <c r="Y18" s="17">
-        <v>1222</v>
+        <v>1520</v>
       </c>
       <c r="Z18" s="17">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -2711,14 +2721,14 @@
       <c r="W19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="23">
         <v>17</v>
       </c>
       <c r="Y19" s="17">
-        <v>1520</v>
+        <v>2046</v>
       </c>
       <c r="Z19" s="17">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
@@ -2794,14 +2804,14 @@
       <c r="W20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="17">
+      <c r="X20" s="23">
         <v>18</v>
       </c>
       <c r="Y20" s="17">
-        <v>2046</v>
+        <v>2268</v>
       </c>
       <c r="Z20" s="17">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
@@ -2877,14 +2887,14 @@
       <c r="W21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="17">
+      <c r="X21" s="23">
         <v>19</v>
       </c>
       <c r="Y21" s="17">
-        <v>2268</v>
+        <v>2660</v>
       </c>
       <c r="Z21" s="17">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
@@ -2960,14 +2970,14 @@
       <c r="W22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="17">
+      <c r="X22" s="23">
         <v>20</v>
       </c>
       <c r="Y22" s="17">
-        <v>2660</v>
+        <v>3562</v>
       </c>
       <c r="Z22" s="17">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
@@ -3043,14 +3053,14 @@
       <c r="W23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X23" s="17">
+      <c r="X23" s="23">
         <v>21</v>
       </c>
       <c r="Y23" s="17">
-        <v>3562</v>
+        <v>4923</v>
       </c>
       <c r="Z23" s="17">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
@@ -3126,14 +3136,14 @@
       <c r="W24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="17">
+      <c r="X24" s="23">
         <v>22</v>
       </c>
       <c r="Y24" s="17">
-        <v>4923</v>
+        <v>7340</v>
       </c>
       <c r="Z24" s="17">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
@@ -3209,14 +3219,14 @@
       <c r="W25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X25" s="17">
+      <c r="X25" s="23">
         <v>23</v>
       </c>
       <c r="Y25" s="17">
-        <v>7340</v>
+        <v>8388</v>
       </c>
       <c r="Z25" s="17">
-        <v>161</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
@@ -3292,14 +3302,14 @@
       <c r="W26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="X26" s="17">
+      <c r="X26" s="23">
         <v>24</v>
       </c>
       <c r="Y26" s="17">
-        <v>8388</v>
+        <v>8582</v>
       </c>
       <c r="Z26" s="17">
-        <v>226</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
@@ -3373,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="17">
+        <v>41</v>
+      </c>
+      <c r="X27" s="23">
         <v>25</v>
       </c>
       <c r="Y27" s="17">
-        <v>8582</v>
+        <v>8693</v>
       </c>
       <c r="Z27" s="17">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
@@ -3458,14 +3468,14 @@
       <c r="W28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="17">
+      <c r="X28" s="23">
         <v>26</v>
       </c>
       <c r="Y28" s="17">
-        <v>8693</v>
+        <v>8044</v>
       </c>
       <c r="Z28" s="17">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
@@ -3541,14 +3551,14 @@
       <c r="W29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="X29" s="17">
+      <c r="X29" s="23">
         <v>27</v>
       </c>
       <c r="Y29" s="17">
-        <v>8044</v>
+        <v>8280</v>
       </c>
       <c r="Z29" s="17">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
@@ -3621,9 +3631,7 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
@@ -14408,10 +14416,6 @@
       <c r="V174" s="8">
         <v>48</v>
       </c>
-      <c r="W174" s="17"/>
-      <c r="X174" s="17"/>
-      <c r="Y174" s="17"/>
-      <c r="Z174" s="17"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" s="10">
@@ -14800,7 +14804,7 @@
         <v>1389</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q180" s="4">
         <v>2</v>
@@ -16111,6 +16115,74 @@
       </c>
       <c r="V199" s="7">
         <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A200" s="10">
+        <v>44073</v>
+      </c>
+      <c r="B200" s="2">
+        <v>198</v>
+      </c>
+      <c r="C200" s="1">
+        <v>114020</v>
+      </c>
+      <c r="D200" s="1">
+        <v>555</v>
+      </c>
+      <c r="E200" s="1">
+        <v>20305</v>
+      </c>
+      <c r="F200" s="1">
+        <v>919</v>
+      </c>
+      <c r="G200" s="1">
+        <v>13</v>
+      </c>
+      <c r="H200" s="3">
+        <v>5961</v>
+      </c>
+      <c r="I200" s="3">
+        <v>292</v>
+      </c>
+      <c r="J200" s="3">
+        <v>1588</v>
+      </c>
+      <c r="K200" s="3">
+        <v>614</v>
+      </c>
+      <c r="L200" s="3">
+        <v>0</v>
+      </c>
+      <c r="M200" s="4">
+        <v>27166</v>
+      </c>
+      <c r="N200" s="5">
+        <v>181</v>
+      </c>
+      <c r="O200" s="4">
+        <v>3363</v>
+      </c>
+      <c r="P200" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q200" s="4">
+        <v>0</v>
+      </c>
+      <c r="R200" s="7">
+        <v>86785</v>
+      </c>
+      <c r="S200" s="7">
+        <v>952</v>
+      </c>
+      <c r="T200" s="7">
+        <v>45542</v>
+      </c>
+      <c r="U200" s="7">
+        <v>3578</v>
+      </c>
+      <c r="V200" s="7">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16120,6 +16192,7 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:Z1"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F8113-0A1A-44A3-886F-72BC44DB04E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB7C00-8669-496C-B2EC-5CE27DF963CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Austria</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>24-30-aug</t>
+  </si>
+  <si>
+    <t>31-6-sept</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,6 +823,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,9 +836,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1187,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X29"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,43 +1211,44 @@
     <col min="16" max="16" width="6.6328125" style="6" customWidth="1"/>
     <col min="17" max="17" width="6.6328125" style="4" customWidth="1"/>
     <col min="18" max="22" width="17.26953125" style="7" customWidth="1"/>
-    <col min="23" max="26" width="19.1796875" style="18" customWidth="1"/>
+    <col min="23" max="23" width="19.453125" style="18" customWidth="1"/>
+    <col min="24" max="26" width="19.1796875" style="18" customWidth="1"/>
     <col min="27" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1393,7 +1400,7 @@
       <c r="W3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="20">
         <v>1</v>
       </c>
       <c r="Y3" s="17">
@@ -1476,7 +1483,7 @@
       <c r="W4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="20">
         <v>2</v>
       </c>
       <c r="Y4" s="17">
@@ -1559,7 +1566,7 @@
       <c r="W5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="20">
         <v>3</v>
       </c>
       <c r="Y5" s="17">
@@ -1642,7 +1649,7 @@
       <c r="W6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="20">
         <v>4</v>
       </c>
       <c r="Y6" s="17">
@@ -1725,7 +1732,7 @@
       <c r="W7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="20">
         <v>5</v>
       </c>
       <c r="Y7" s="17">
@@ -1808,7 +1815,7 @@
       <c r="W8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="20">
         <v>6</v>
       </c>
       <c r="Y8" s="17">
@@ -1891,7 +1898,7 @@
       <c r="W9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="20">
         <v>7</v>
       </c>
       <c r="Y9" s="17">
@@ -1974,7 +1981,7 @@
       <c r="W10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="20">
         <v>8</v>
       </c>
       <c r="Y10" s="17">
@@ -2057,7 +2064,7 @@
       <c r="W11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="20">
         <v>9</v>
       </c>
       <c r="Y11" s="17">
@@ -2140,7 +2147,7 @@
       <c r="W12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="23">
+      <c r="X12" s="20">
         <v>10</v>
       </c>
       <c r="Y12" s="17">
@@ -2223,7 +2230,7 @@
       <c r="W13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="20">
         <v>11</v>
       </c>
       <c r="Y13" s="17">
@@ -2306,7 +2313,7 @@
       <c r="W14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="20">
         <v>12</v>
       </c>
       <c r="Y14" s="17">
@@ -2389,7 +2396,7 @@
       <c r="W15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="20">
         <v>13</v>
       </c>
       <c r="Y15" s="17">
@@ -2472,7 +2479,7 @@
       <c r="W16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="20">
         <v>14</v>
       </c>
       <c r="Y16" s="17">
@@ -2555,7 +2562,7 @@
       <c r="W17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="20">
         <v>15</v>
       </c>
       <c r="Y17" s="17">
@@ -2638,7 +2645,7 @@
       <c r="W18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="23">
+      <c r="X18" s="20">
         <v>16</v>
       </c>
       <c r="Y18" s="17">
@@ -2721,7 +2728,7 @@
       <c r="W19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="23">
+      <c r="X19" s="20">
         <v>17</v>
       </c>
       <c r="Y19" s="17">
@@ -2804,7 +2811,7 @@
       <c r="W20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X20" s="20">
         <v>18</v>
       </c>
       <c r="Y20" s="17">
@@ -2887,7 +2894,7 @@
       <c r="W21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="20">
         <v>19</v>
       </c>
       <c r="Y21" s="17">
@@ -2970,7 +2977,7 @@
       <c r="W22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="20">
         <v>20</v>
       </c>
       <c r="Y22" s="17">
@@ -3053,7 +3060,7 @@
       <c r="W23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X23" s="20">
         <v>21</v>
       </c>
       <c r="Y23" s="17">
@@ -3136,7 +3143,7 @@
       <c r="W24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X24" s="20">
         <v>22</v>
       </c>
       <c r="Y24" s="17">
@@ -3219,7 +3226,7 @@
       <c r="W25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X25" s="20">
         <v>23</v>
       </c>
       <c r="Y25" s="17">
@@ -3302,7 +3309,7 @@
       <c r="W26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="20">
         <v>24</v>
       </c>
       <c r="Y26" s="17">
@@ -3385,7 +3392,7 @@
       <c r="W27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="20">
         <v>25</v>
       </c>
       <c r="Y27" s="17">
@@ -3468,7 +3475,7 @@
       <c r="W28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="23">
+      <c r="X28" s="20">
         <v>26</v>
       </c>
       <c r="Y28" s="17">
@@ -3551,7 +3558,7 @@
       <c r="W29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="X29" s="23">
+      <c r="X29" s="20">
         <v>27</v>
       </c>
       <c r="Y29" s="17">
@@ -3631,10 +3638,18 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
+      <c r="W30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X30" s="20">
+        <v>28</v>
+      </c>
+      <c r="Y30" s="17">
+        <v>8229</v>
+      </c>
+      <c r="Z30" s="17">
+        <v>315</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
@@ -16184,6 +16199,553 @@
       <c r="V200" s="7">
         <v>39</v>
       </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A201" s="10">
+        <v>44074</v>
+      </c>
+      <c r="B201" s="2">
+        <v>199</v>
+      </c>
+      <c r="C201" s="19">
+        <v>116596</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2576</v>
+      </c>
+      <c r="E201" s="1">
+        <v>20648</v>
+      </c>
+      <c r="F201" s="1">
+        <v>939</v>
+      </c>
+      <c r="G201" s="1">
+        <v>20</v>
+      </c>
+      <c r="H201" s="3">
+        <v>6139</v>
+      </c>
+      <c r="I201" s="3">
+        <v>178</v>
+      </c>
+      <c r="J201" s="3">
+        <v>1763</v>
+      </c>
+      <c r="K201" s="3">
+        <v>615</v>
+      </c>
+      <c r="L201" s="3">
+        <v>0</v>
+      </c>
+      <c r="M201" s="4">
+        <v>27438</v>
+      </c>
+      <c r="N201" s="5">
+        <v>272</v>
+      </c>
+      <c r="O201" s="4">
+        <v>3479</v>
+      </c>
+      <c r="P201" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q201" s="4">
+        <v>0</v>
+      </c>
+      <c r="R201" s="7">
+        <v>87540</v>
+      </c>
+      <c r="S201" s="7">
+        <v>755</v>
+      </c>
+      <c r="T201" s="7">
+        <v>45542</v>
+      </c>
+      <c r="U201" s="7">
+        <v>3681</v>
+      </c>
+      <c r="V201" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A202" s="10">
+        <v>44075</v>
+      </c>
+      <c r="B202" s="2">
+        <v>200</v>
+      </c>
+      <c r="C202" s="19">
+        <v>118538</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1942</v>
+      </c>
+      <c r="E202" s="1">
+        <v>21367</v>
+      </c>
+      <c r="F202" s="1">
+        <v>957</v>
+      </c>
+      <c r="G202" s="1">
+        <v>18</v>
+      </c>
+      <c r="H202" s="3">
+        <v>6257</v>
+      </c>
+      <c r="I202" s="3">
+        <v>118</v>
+      </c>
+      <c r="J202" s="3">
+        <v>1820</v>
+      </c>
+      <c r="K202" s="3">
+        <v>616</v>
+      </c>
+      <c r="L202" s="3">
+        <v>0</v>
+      </c>
+      <c r="M202" s="4">
+        <v>27642</v>
+      </c>
+      <c r="N202" s="5">
+        <v>204</v>
+      </c>
+      <c r="O202" s="4">
+        <v>3343</v>
+      </c>
+      <c r="P202" s="6">
+        <v>733</v>
+      </c>
+      <c r="Q202" s="4">
+        <v>1</v>
+      </c>
+      <c r="R202" s="7">
+        <v>88593</v>
+      </c>
+      <c r="S202" s="7">
+        <v>1053</v>
+      </c>
+      <c r="T202" s="7">
+        <v>46050</v>
+      </c>
+      <c r="U202" s="7">
+        <v>3681</v>
+      </c>
+      <c r="V202" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A203" s="10">
+        <v>44076</v>
+      </c>
+      <c r="B203" s="2">
+        <v>201</v>
+      </c>
+      <c r="C203" s="19">
+        <v>121464</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2926</v>
+      </c>
+      <c r="E203" s="1">
+        <v>23261</v>
+      </c>
+      <c r="F203" s="1">
+        <v>969</v>
+      </c>
+      <c r="G203" s="1">
+        <v>12</v>
+      </c>
+      <c r="H203" s="3">
+        <v>6622</v>
+      </c>
+      <c r="I203" s="3">
+        <v>365</v>
+      </c>
+      <c r="J203" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K203" s="3">
+        <v>619</v>
+      </c>
+      <c r="L203" s="3">
+        <v>0</v>
+      </c>
+      <c r="M203" s="4">
+        <v>27969</v>
+      </c>
+      <c r="N203" s="5">
+        <v>327</v>
+      </c>
+      <c r="O203" s="4">
+        <v>3415</v>
+      </c>
+      <c r="P203" s="6">
+        <v>734</v>
+      </c>
+      <c r="Q203" s="4">
+        <v>0</v>
+      </c>
+      <c r="R203" s="7">
+        <v>89891</v>
+      </c>
+      <c r="S203" s="7">
+        <v>1298</v>
+      </c>
+      <c r="T203" s="7">
+        <v>47469</v>
+      </c>
+      <c r="U203" s="7">
+        <v>3721</v>
+      </c>
+      <c r="V203" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A204" s="10">
+        <v>44077</v>
+      </c>
+      <c r="B204" s="2">
+        <v>202</v>
+      </c>
+      <c r="C204" s="19">
+        <v>124455</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2991</v>
+      </c>
+      <c r="E204" s="1">
+        <v>24825</v>
+      </c>
+      <c r="F204" s="1">
+        <v>985</v>
+      </c>
+      <c r="G204" s="1">
+        <v>16</v>
+      </c>
+      <c r="H204" s="3">
+        <v>6923</v>
+      </c>
+      <c r="I204" s="3">
+        <v>301</v>
+      </c>
+      <c r="J204" s="3">
+        <v>2373</v>
+      </c>
+      <c r="K204" s="3">
+        <v>620</v>
+      </c>
+      <c r="L204" s="3">
+        <v>0</v>
+      </c>
+      <c r="M204" s="4">
+        <v>28372</v>
+      </c>
+      <c r="N204" s="5">
+        <v>403</v>
+      </c>
+      <c r="O204" s="4">
+        <v>3466</v>
+      </c>
+      <c r="P204" s="6">
+        <v>735</v>
+      </c>
+      <c r="Q204" s="4">
+        <v>1</v>
+      </c>
+      <c r="R204" s="7">
+        <v>91256</v>
+      </c>
+      <c r="S204" s="7">
+        <v>1365</v>
+      </c>
+      <c r="T204" s="7">
+        <v>48216</v>
+      </c>
+      <c r="U204" s="7">
+        <v>3765</v>
+      </c>
+      <c r="V204" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A205" s="10">
+        <v>44078</v>
+      </c>
+      <c r="B205" s="2">
+        <v>203</v>
+      </c>
+      <c r="C205" s="19">
+        <v>126419</v>
+      </c>
+      <c r="D205" s="19">
+        <v>1964</v>
+      </c>
+      <c r="E205" s="1">
+        <v>25069</v>
+      </c>
+      <c r="F205" s="1">
+        <v>993</v>
+      </c>
+      <c r="G205" s="1">
+        <v>8</v>
+      </c>
+      <c r="H205" s="3">
+        <v>7382</v>
+      </c>
+      <c r="I205" s="3">
+        <v>459</v>
+      </c>
+      <c r="J205" s="3">
+        <v>2817</v>
+      </c>
+      <c r="K205" s="3">
+        <v>621</v>
+      </c>
+      <c r="L205" s="3">
+        <v>0</v>
+      </c>
+      <c r="M205" s="4">
+        <v>28729</v>
+      </c>
+      <c r="N205" s="5">
+        <v>357</v>
+      </c>
+      <c r="O205" s="4">
+        <v>3481</v>
+      </c>
+      <c r="P205" s="6">
+        <v>735</v>
+      </c>
+      <c r="Q205" s="4">
+        <v>0</v>
+      </c>
+      <c r="R205" s="7">
+        <v>92595</v>
+      </c>
+      <c r="S205" s="7">
+        <v>1339</v>
+      </c>
+      <c r="T205" s="7">
+        <v>49157</v>
+      </c>
+      <c r="U205" s="7">
+        <v>3812</v>
+      </c>
+      <c r="V205" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A206" s="10">
+        <v>44079</v>
+      </c>
+      <c r="B206" s="2">
+        <v>204</v>
+      </c>
+      <c r="C206" s="19">
+        <v>128936</v>
+      </c>
+      <c r="D206" s="19">
+        <v>2517</v>
+      </c>
+      <c r="E206" s="1">
+        <v>26448</v>
+      </c>
+      <c r="F206" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G206" s="1">
+        <v>14</v>
+      </c>
+      <c r="H206" s="3">
+        <v>7892</v>
+      </c>
+      <c r="I206" s="3">
+        <v>510</v>
+      </c>
+      <c r="J206" s="3">
+        <v>3316</v>
+      </c>
+      <c r="K206" s="3">
+        <v>624</v>
+      </c>
+      <c r="L206" s="3">
+        <v>3</v>
+      </c>
+      <c r="M206" s="4">
+        <v>29087</v>
+      </c>
+      <c r="N206" s="5">
+        <v>358</v>
+      </c>
+      <c r="O206" s="4">
+        <v>3525</v>
+      </c>
+      <c r="P206" s="6">
+        <v>735</v>
+      </c>
+      <c r="Q206" s="4">
+        <v>0</v>
+      </c>
+      <c r="R206" s="7">
+        <v>93864</v>
+      </c>
+      <c r="S206" s="7">
+        <v>1269</v>
+      </c>
+      <c r="T206" s="7">
+        <v>49986</v>
+      </c>
+      <c r="U206" s="7">
+        <v>3850</v>
+      </c>
+      <c r="V206" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A207" s="10">
+        <v>44080</v>
+      </c>
+      <c r="B207" s="2">
+        <v>205</v>
+      </c>
+      <c r="C207" s="19">
+        <v>130644</v>
+      </c>
+      <c r="D207" s="19">
+        <v>1708</v>
+      </c>
+      <c r="E207" s="1">
+        <v>27148</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1019</v>
+      </c>
+      <c r="G207" s="1">
+        <v>12</v>
+      </c>
+      <c r="H207" s="3">
+        <v>8387</v>
+      </c>
+      <c r="I207" s="3">
+        <v>495</v>
+      </c>
+      <c r="J207" s="3">
+        <v>3805</v>
+      </c>
+      <c r="K207" s="3">
+        <v>624</v>
+      </c>
+      <c r="L207" s="3">
+        <v>0</v>
+      </c>
+      <c r="M207" s="4">
+        <v>29271</v>
+      </c>
+      <c r="N207" s="5">
+        <v>184</v>
+      </c>
+      <c r="O207" s="4">
+        <v>3492</v>
+      </c>
+      <c r="P207" s="6">
+        <v>736</v>
+      </c>
+      <c r="Q207" s="4">
+        <v>1</v>
+      </c>
+      <c r="R207" s="7">
+        <v>95014</v>
+      </c>
+      <c r="S207" s="7">
+        <v>1150</v>
+      </c>
+      <c r="T207" s="7">
+        <v>50814</v>
+      </c>
+      <c r="U207" s="7">
+        <v>3893</v>
+      </c>
+      <c r="V207" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A208" s="10">
+        <v>44081</v>
+      </c>
+      <c r="B208" s="2">
+        <v>206</v>
+      </c>
+      <c r="C208" s="19">
+        <v>133975</v>
+      </c>
+      <c r="D208" s="19">
+        <v>3331</v>
+      </c>
+      <c r="E208" s="1">
+        <v>27494</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1026</v>
+      </c>
+      <c r="G208" s="1">
+        <v>7</v>
+      </c>
+      <c r="H208" s="3">
+        <v>8963</v>
+      </c>
+      <c r="I208" s="3">
+        <v>576</v>
+      </c>
+      <c r="J208" s="3">
+        <v>4377</v>
+      </c>
+      <c r="K208" s="3">
+        <v>625</v>
+      </c>
+      <c r="L208" s="3">
+        <v>1</v>
+      </c>
+      <c r="M208" s="4">
+        <v>29561</v>
+      </c>
+      <c r="N208" s="5">
+        <v>290</v>
+      </c>
+      <c r="O208" s="4">
+        <v>3515</v>
+      </c>
+      <c r="P208" s="6">
+        <v>746</v>
+      </c>
+      <c r="Q208" s="4">
+        <v>10</v>
+      </c>
+      <c r="R208" s="7">
+        <v>95897</v>
+      </c>
+      <c r="S208" s="7">
+        <v>883</v>
+      </c>
+      <c r="T208" s="7">
+        <v>51517</v>
+      </c>
+      <c r="U208" s="7">
+        <v>3926</v>
+      </c>
+      <c r="V208" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB7C00-8669-496C-B2EC-5CE27DF963CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B6A7B-A742-4684-B149-4ABC1D5DD4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V209" sqref="V209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16744,8 +16744,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="10"/>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A209" s="10">
+        <v>44082</v>
+      </c>
+      <c r="B209" s="2">
+        <v>207</v>
+      </c>
+      <c r="C209" s="1">
+        <v>137565</v>
+      </c>
+      <c r="D209" s="1">
+        <v>3590</v>
+      </c>
+      <c r="E209" s="1">
+        <v>29522</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1040</v>
+      </c>
+      <c r="G209" s="1">
+        <v>14</v>
+      </c>
+      <c r="H209" s="3">
+        <v>9304</v>
+      </c>
+      <c r="I209" s="3">
+        <v>341</v>
+      </c>
+      <c r="J209" s="3">
+        <v>4706</v>
+      </c>
+      <c r="K209" s="3">
+        <v>626</v>
+      </c>
+      <c r="L209" s="3">
+        <v>1</v>
+      </c>
+      <c r="M209" s="4">
+        <v>30081</v>
+      </c>
+      <c r="N209" s="5">
+        <v>520</v>
+      </c>
+      <c r="O209" s="4">
+        <v>3705</v>
+      </c>
+      <c r="P209" s="6">
+        <v>747</v>
+      </c>
+      <c r="Q209" s="4">
+        <v>1</v>
+      </c>
+      <c r="R209" s="7">
+        <v>97033</v>
+      </c>
+      <c r="S209" s="7">
+        <v>1136</v>
+      </c>
+      <c r="T209" s="7">
+        <v>52228</v>
+      </c>
+      <c r="U209" s="7">
+        <v>3967</v>
+      </c>
+      <c r="V209" s="7">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B6A7B-A742-4684-B149-4ABC1D5DD4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92542D6A-A98B-4343-A71B-E4BAA1221577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13070" yWindow="750" windowWidth="23240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Austria</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>723a</t>
-  </si>
-  <si>
     <t>10-16-aug</t>
   </si>
   <si>
@@ -163,6 +160,12 @@
   </si>
   <si>
     <t>31-6-sept</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>14-20</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z209"/>
+  <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V209" sqref="V209"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB205" sqref="AB205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1421,7 +1424,6 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D42" si="0">(C4-C3)</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -1437,7 +1439,6 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I42" si="1">(H4-H3)</f>
         <v>0</v>
       </c>
       <c r="J4" s="3">
@@ -1453,7 +1454,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N43" si="2">(M4-M3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="4">
@@ -1504,7 +1504,6 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -1520,7 +1519,6 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="3">
@@ -1536,7 +1534,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -1587,7 +1584,6 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -1603,7 +1599,6 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -1619,7 +1614,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6" s="4">
@@ -1670,7 +1664,6 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -1686,7 +1679,6 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="3">
@@ -1702,7 +1694,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="4">
@@ -1753,7 +1744,6 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -1769,7 +1759,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
@@ -1785,7 +1774,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="4">
@@ -1836,8 +1824,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1852,7 +1839,6 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="3">
@@ -1868,7 +1854,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="4">
@@ -1919,7 +1904,6 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
@@ -1935,7 +1919,6 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="3">
@@ -1951,7 +1934,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="4">
@@ -2002,7 +1984,6 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="1">
@@ -2018,7 +1999,6 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="3">
@@ -2034,7 +2014,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="4">
@@ -2085,7 +2064,6 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
@@ -2101,7 +2079,6 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="3">
@@ -2117,7 +2094,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="4">
@@ -2168,7 +2144,6 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
@@ -2184,7 +2159,6 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="3">
@@ -2200,8 +2174,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" s="4">
         <v>2</v>
@@ -2251,7 +2224,6 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
@@ -2267,7 +2239,6 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="3">
@@ -2283,7 +2254,6 @@
         <v>2</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="4">
@@ -2334,7 +2304,6 @@
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="1">
@@ -2350,7 +2319,6 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="3">
@@ -2366,7 +2334,6 @@
         <v>5</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O15" s="4">
@@ -2417,7 +2384,6 @@
         <v>7</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E16" s="1">
@@ -2433,7 +2399,6 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="3">
@@ -2449,7 +2414,6 @@
         <v>7</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O16" s="4">
@@ -2500,7 +2464,6 @@
         <v>7</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
@@ -2516,7 +2479,6 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
@@ -2532,7 +2494,6 @@
         <v>10</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O17" s="4">
@@ -2583,7 +2544,6 @@
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E18" s="1">
@@ -2599,7 +2559,6 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="3">
@@ -2615,7 +2574,6 @@
         <v>14</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O18" s="4">
@@ -2666,7 +2624,6 @@
         <v>12</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="1">
@@ -2682,7 +2639,6 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="3">
@@ -2698,7 +2654,6 @@
         <v>18</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O19" s="4">
@@ -2749,7 +2704,6 @@
         <v>12</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
@@ -2765,7 +2719,6 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="3">
@@ -2778,11 +2731,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O20" s="4">
         <v>24</v>
@@ -2832,7 +2784,6 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E21" s="1">
@@ -2848,8 +2799,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>2</v>
@@ -2864,8 +2814,7 @@
         <v>29</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O21" s="4">
         <v>29</v>
@@ -2915,7 +2864,6 @@
         <v>17</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E22" s="1">
@@ -2931,7 +2879,6 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J22" s="3">
@@ -2947,7 +2894,6 @@
         <v>43</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O22" s="4">
@@ -2998,7 +2944,6 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E23" s="1">
@@ -3014,7 +2959,6 @@
         <v>4</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="3">
@@ -3030,7 +2974,6 @@
         <v>66</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="O23" s="4">
@@ -3081,7 +3024,6 @@
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E24" s="1">
@@ -3097,7 +3039,6 @@
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="3">
@@ -3113,7 +3054,6 @@
         <v>81</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O24" s="4">
@@ -3164,7 +3104,6 @@
         <v>39</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E25" s="1">
@@ -3180,7 +3119,6 @@
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J25" s="3">
@@ -3196,7 +3134,6 @@
         <v>104</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="O25" s="4">
@@ -3247,7 +3184,6 @@
         <v>50</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E26" s="1">
@@ -3263,7 +3199,6 @@
         <v>9</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J26" s="3">
@@ -3279,7 +3214,6 @@
         <v>131</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="O26" s="4">
@@ -3330,7 +3264,6 @@
         <v>75</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E27" s="1">
@@ -3346,7 +3279,6 @@
         <v>12</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J27" s="3">
@@ -3362,7 +3294,6 @@
         <v>182</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="O27" s="4">
@@ -3390,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X27" s="20">
         <v>25</v>
@@ -3413,7 +3344,6 @@
         <v>97</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E28" s="1">
@@ -3429,7 +3359,6 @@
         <v>13</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="3">
@@ -3445,7 +3374,6 @@
         <v>246</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="O28" s="4">
@@ -3473,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X28" s="20">
         <v>26</v>
@@ -3496,7 +3424,6 @@
         <v>109</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E29" s="1">
@@ -3512,7 +3439,6 @@
         <v>16</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J29" s="3">
@@ -3528,7 +3454,6 @@
         <v>361</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="O29" s="4">
@@ -3556,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X29" s="20">
         <v>27</v>
@@ -3579,7 +3504,6 @@
         <v>143</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E30" s="1">
@@ -3595,7 +3519,6 @@
         <v>19</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J30" s="3">
@@ -3611,7 +3534,6 @@
         <v>504</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="O30" s="4">
@@ -3639,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X30" s="20">
         <v>28</v>
@@ -3662,7 +3584,6 @@
         <v>193</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E31" s="1">
@@ -3678,7 +3599,6 @@
         <v>30</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J31" s="3">
@@ -3694,7 +3614,6 @@
         <v>655</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="O31" s="4">
@@ -3721,10 +3640,18 @@
       <c r="V31" s="8">
         <v>0</v>
       </c>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
+      <c r="W31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X31" s="20">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>8481</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>270</v>
+      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
@@ -3737,7 +3664,6 @@
         <v>213</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E32" s="1">
@@ -3753,7 +3679,6 @@
         <v>32</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J32" s="3">
@@ -3769,7 +3694,6 @@
         <v>860</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="O32" s="4">
@@ -3796,10 +3720,18 @@
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
+      <c r="W32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" s="20">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>9286</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>272</v>
+      </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
@@ -3812,7 +3744,6 @@
         <v>298</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="E33" s="1">
@@ -3828,7 +3759,6 @@
         <v>39</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J33" s="3">
@@ -3844,7 +3774,6 @@
         <v>1018</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="O33" s="4">
@@ -3887,7 +3816,6 @@
         <v>337</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E34" s="1">
@@ -3903,7 +3831,6 @@
         <v>50</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J34" s="3">
@@ -3919,7 +3846,6 @@
         <v>1332</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="2"/>
         <v>314</v>
       </c>
       <c r="O34" s="4">
@@ -3962,7 +3888,6 @@
         <v>433</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="E35" s="1">
@@ -3978,7 +3903,6 @@
         <v>58</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J35" s="3">
@@ -3994,7 +3918,6 @@
         <v>1646</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="2"/>
         <v>314</v>
       </c>
       <c r="O35" s="4">
@@ -4037,7 +3960,6 @@
         <v>677</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="E36" s="1">
@@ -4053,7 +3975,6 @@
         <v>73</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J36" s="3">
@@ -4069,7 +3990,6 @@
         <v>2179</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="O36" s="4">
@@ -4112,7 +4032,6 @@
         <v>705</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E37" s="1">
@@ -4128,7 +4047,6 @@
         <v>85</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J37" s="3">
@@ -4138,13 +4056,12 @@
         <v>4</v>
       </c>
       <c r="L37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" s="4">
         <v>2649</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="2"/>
         <v>470</v>
       </c>
       <c r="O37" s="4">
@@ -4187,7 +4104,6 @@
         <v>883</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
         <v>178</v>
       </c>
       <c r="E38" s="1">
@@ -4203,7 +4119,6 @@
         <v>103</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J38" s="3">
@@ -4219,7 +4134,6 @@
         <v>2992</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="2"/>
         <v>343</v>
       </c>
       <c r="O38" s="4">
@@ -4262,7 +4176,6 @@
         <v>1071</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="E39" s="1">
@@ -4278,7 +4191,6 @@
         <v>131</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J39" s="3">
@@ -4294,7 +4206,6 @@
         <v>3582</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="2"/>
         <v>590</v>
       </c>
       <c r="O39" s="4">
@@ -4337,7 +4248,6 @@
         <v>1442</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
         <v>371</v>
       </c>
       <c r="E40" s="1">
@@ -4353,7 +4263,6 @@
         <v>167</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J40" s="3">
@@ -4369,7 +4278,6 @@
         <v>4474</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="2"/>
         <v>892</v>
       </c>
       <c r="O40" s="4">
@@ -4412,7 +4320,6 @@
         <v>1930</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
         <v>488</v>
       </c>
       <c r="E41" s="1">
@@ -4428,7 +4335,6 @@
         <v>187</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J41" s="3">
@@ -4444,7 +4350,6 @@
         <v>5283</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="2"/>
         <v>809</v>
       </c>
       <c r="O41" s="4">
@@ -4487,7 +4392,6 @@
         <v>2369</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="E42" s="1">
@@ -4503,7 +4407,6 @@
         <v>226</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="J42" s="3">
@@ -4519,7 +4422,6 @@
         <v>5588</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="2"/>
         <v>305</v>
       </c>
       <c r="O42" s="4">
@@ -4562,7 +4464,6 @@
         <v>2693</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ref="D43:D106" si="3">(C43-C42)</f>
         <v>324</v>
       </c>
       <c r="E43" s="1">
@@ -4578,7 +4479,6 @@
         <v>261</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" ref="I43:I106" si="4">(H43-H42)</f>
         <v>35</v>
       </c>
       <c r="J43" s="3">
@@ -4594,7 +4494,6 @@
         <v>6909</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="2"/>
         <v>1321</v>
       </c>
       <c r="O43" s="4">
@@ -4637,7 +4536,6 @@
         <v>3035</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="3"/>
         <v>342</v>
       </c>
       <c r="E44" s="1">
@@ -4653,7 +4551,6 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J44" s="3">
@@ -4669,7 +4566,6 @@
         <v>7697</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" ref="N44:N107" si="5">(M44-M43)</f>
         <v>788</v>
       </c>
       <c r="O44" s="4">
@@ -4712,7 +4608,6 @@
         <v>3619</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="3"/>
         <v>584</v>
       </c>
       <c r="E45" s="1">
@@ -4728,7 +4623,6 @@
         <v>343</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="J45" s="3">
@@ -4744,7 +4638,6 @@
         <v>8271</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="5"/>
         <v>574</v>
       </c>
       <c r="O45" s="4">
@@ -4787,7 +4680,6 @@
         <v>4247</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="3"/>
         <v>628</v>
       </c>
       <c r="E46" s="1">
@@ -4803,7 +4695,6 @@
         <v>408</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="J46" s="3">
@@ -4819,7 +4710,6 @@
         <v>8788</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="5"/>
         <v>517</v>
       </c>
       <c r="O46" s="4">
@@ -4862,7 +4752,6 @@
         <v>4695</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="E47" s="1">
@@ -4878,7 +4767,6 @@
         <v>447</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J47" s="3">
@@ -4894,7 +4782,6 @@
         <v>9618</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="5"/>
         <v>830</v>
       </c>
       <c r="O47" s="4">
@@ -4937,7 +4824,6 @@
         <v>5358</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="3"/>
         <v>663</v>
       </c>
       <c r="E48" s="1">
@@ -4953,7 +4839,6 @@
         <v>492</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J48" s="3">
@@ -4969,7 +4854,6 @@
         <v>10180</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="5"/>
         <v>562</v>
       </c>
       <c r="O48" s="4">
@@ -5012,7 +4896,6 @@
         <v>6092</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="3"/>
         <v>734</v>
       </c>
       <c r="E49" s="1">
@@ -5028,7 +4911,6 @@
         <v>525</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="J49" s="3">
@@ -5044,7 +4926,6 @@
         <v>10711</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="5"/>
         <v>531</v>
       </c>
       <c r="O49" s="4">
@@ -5087,7 +4968,6 @@
         <v>6857</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="3"/>
         <v>765</v>
       </c>
       <c r="E50" s="1">
@@ -5103,7 +4983,6 @@
         <v>585</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J50" s="3">
@@ -5119,7 +4998,6 @@
         <v>11129</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="5"/>
         <v>418</v>
       </c>
       <c r="O50" s="4">
@@ -5162,7 +5040,6 @@
         <v>7428</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="3"/>
         <v>571</v>
       </c>
       <c r="E51" s="1">
@@ -5178,7 +5055,6 @@
         <v>623</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J51" s="3">
@@ -5194,7 +5070,6 @@
         <v>11524</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="5"/>
         <v>395</v>
       </c>
       <c r="O51" s="4">
@@ -5237,7 +5112,6 @@
         <v>7851</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="3"/>
         <v>423</v>
       </c>
       <c r="E52" s="1">
@@ -5253,7 +5127,6 @@
         <v>678</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="J52" s="3">
@@ -5269,7 +5142,6 @@
         <v>11781</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="5"/>
         <v>257</v>
       </c>
       <c r="O52" s="4">
@@ -5312,7 +5184,6 @@
         <v>8430</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="3"/>
         <v>579</v>
       </c>
       <c r="E53" s="1">
@@ -5328,7 +5199,6 @@
         <v>733</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="J53" s="3">
@@ -5344,7 +5214,6 @@
         <v>12051</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="O53" s="4">
@@ -5387,7 +5256,6 @@
         <v>8904</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="3"/>
         <v>474</v>
       </c>
       <c r="E54" s="1">
@@ -5403,7 +5271,6 @@
         <v>744</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="J54" s="3">
@@ -5419,7 +5286,6 @@
         <v>12297</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="O54" s="4">
@@ -5462,7 +5328,6 @@
         <v>9248</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="3"/>
         <v>344</v>
       </c>
       <c r="E55" s="1">
@@ -5478,7 +5343,6 @@
         <v>817</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="J55" s="3">
@@ -5494,7 +5358,6 @@
         <v>12639</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="O55" s="4">
@@ -5537,7 +5400,6 @@
         <v>9404</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="E56" s="1">
@@ -5553,7 +5415,6 @@
         <v>895</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="J56" s="3">
@@ -5569,7 +5430,6 @@
         <v>12942</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="5"/>
         <v>303</v>
       </c>
       <c r="O56" s="4">
@@ -5612,7 +5472,6 @@
         <v>9968</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="3"/>
         <v>564</v>
       </c>
       <c r="E57" s="1">
@@ -5628,7 +5487,6 @@
         <v>980</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="J57" s="3">
@@ -5644,7 +5502,6 @@
         <v>13244</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="5"/>
         <v>302</v>
       </c>
       <c r="O57" s="4">
@@ -5687,7 +5544,6 @@
         <v>10408</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="E58" s="1">
@@ -5703,7 +5559,6 @@
         <v>1190</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="J58" s="3">
@@ -5719,7 +5574,6 @@
         <v>13560</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="O58" s="4">
@@ -5762,7 +5616,6 @@
         <v>10743</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="3"/>
         <v>335</v>
       </c>
       <c r="E59" s="1">
@@ -5778,7 +5631,6 @@
         <v>1310</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="J59" s="3">
@@ -5794,7 +5646,6 @@
         <v>13806</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="O59" s="4">
@@ -5837,7 +5688,6 @@
         <v>11145</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="E60" s="1">
@@ -5853,7 +5703,6 @@
         <v>1410</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="J60" s="3">
@@ -5869,7 +5718,6 @@
         <v>13945</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="O60" s="4">
@@ -5912,7 +5760,6 @@
         <v>11586</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="3"/>
         <v>441</v>
       </c>
       <c r="E61" s="1">
@@ -5928,7 +5775,6 @@
         <v>1458</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="J61" s="3">
@@ -5944,7 +5790,6 @@
         <v>14041</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="O61" s="4">
@@ -5987,7 +5832,6 @@
         <v>12046</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="3"/>
         <v>460</v>
       </c>
       <c r="E62" s="1">
@@ -6003,7 +5847,6 @@
         <v>1512</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="J62" s="3">
@@ -6019,7 +5862,6 @@
         <v>14226</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="O62" s="4">
@@ -6062,7 +5904,6 @@
         <v>12501</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="E63" s="1">
@@ -6078,7 +5919,6 @@
         <v>1579</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="J63" s="3">
@@ -6094,7 +5934,6 @@
         <v>14350</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="O63" s="4">
@@ -6137,7 +5976,6 @@
         <v>12758</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="E64" s="1">
@@ -6153,7 +5991,6 @@
         <v>1652</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="J64" s="3">
@@ -6169,7 +6006,6 @@
         <v>14476</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="O64" s="4">
@@ -6212,7 +6048,6 @@
         <v>12982</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="E65" s="1">
@@ -6228,7 +6063,6 @@
         <v>1763</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="J65" s="3">
@@ -6244,7 +6078,6 @@
         <v>14595</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="O65" s="4">
@@ -6287,7 +6120,6 @@
         <v>13265</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="3"/>
         <v>283</v>
       </c>
       <c r="E66" s="1">
@@ -6303,7 +6135,6 @@
         <v>1834</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="J66" s="3">
@@ -6319,7 +6150,6 @@
         <v>14671</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="O66" s="4">
@@ -6362,7 +6192,6 @@
         <v>13491</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="E67" s="1">
@@ -6378,7 +6207,6 @@
         <v>1916</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J67" s="3">
@@ -6394,7 +6222,6 @@
         <v>14749</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="O67" s="4">
@@ -6437,7 +6264,6 @@
         <v>13713</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="E68" s="1">
@@ -6453,7 +6279,6 @@
         <v>1984</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="J68" s="3">
@@ -6469,7 +6294,6 @@
         <v>14795</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="O68" s="4">
@@ -6512,7 +6336,6 @@
         <v>13942</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="E69" s="1">
@@ -6528,7 +6351,6 @@
         <v>2098</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="J69" s="3">
@@ -6544,7 +6366,6 @@
         <v>14873</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="O69" s="4">
@@ -6587,7 +6408,6 @@
         <v>14498</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="3"/>
         <v>556</v>
       </c>
       <c r="E70" s="1">
@@ -6603,7 +6423,6 @@
         <v>2168</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="J70" s="3">
@@ -6619,7 +6438,6 @@
         <v>14925</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="O70" s="4">
@@ -6662,7 +6480,6 @@
         <v>14803</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="3"/>
         <v>305</v>
       </c>
       <c r="E71" s="1">
@@ -6678,7 +6495,6 @@
         <v>2284</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="J71" s="3">
@@ -6694,7 +6510,6 @@
         <v>15002</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="O71" s="4">
@@ -6737,7 +6552,6 @@
         <v>15058</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="E72" s="1">
@@ -6753,7 +6567,6 @@
         <v>2383</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="J72" s="3">
@@ -6769,7 +6582,6 @@
         <v>15071</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="O72" s="4">
@@ -6812,7 +6624,6 @@
         <v>15298</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E73" s="1">
@@ -6828,7 +6639,6 @@
         <v>2443</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J73" s="3">
@@ -6844,7 +6654,6 @@
         <v>15148</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="O73" s="4">
@@ -6887,7 +6696,6 @@
         <v>15443</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="E74" s="1">
@@ -6903,7 +6711,6 @@
         <v>2500</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="J74" s="3">
@@ -6919,7 +6726,6 @@
         <v>15225</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="O74" s="4">
@@ -6962,7 +6768,6 @@
         <v>15555</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="E75" s="1">
@@ -6978,7 +6783,6 @@
         <v>2583</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="J75" s="3">
@@ -6994,7 +6798,6 @@
         <v>15274</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="O75" s="4">
@@ -7037,7 +6840,6 @@
         <v>15728</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="3"/>
         <v>173</v>
       </c>
       <c r="E76" s="1">
@@ -7053,7 +6855,6 @@
         <v>2649</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="J76" s="3">
@@ -7069,7 +6870,6 @@
         <v>15357</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="O76" s="4">
@@ -7112,7 +6912,6 @@
         <v>15834</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="E77" s="1">
@@ -7128,7 +6927,6 @@
         <v>2727</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="J77" s="3">
@@ -7144,7 +6942,6 @@
         <v>15402</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="O77" s="4">
@@ -7187,7 +6984,6 @@
         <v>15946</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="E78" s="1">
@@ -7203,7 +6999,6 @@
         <v>2775</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="J78" s="3">
@@ -7219,7 +7014,6 @@
         <v>15452</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="O78" s="4">
@@ -7262,7 +7056,6 @@
         <v>16101</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="E79" s="1">
@@ -7278,7 +7071,6 @@
         <v>2863</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="J79" s="3">
@@ -7294,7 +7086,6 @@
         <v>15531</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="O79" s="4">
@@ -7337,7 +7128,6 @@
         <v>16185</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="E80" s="1">
@@ -7353,7 +7143,6 @@
         <v>2942</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="J80" s="3">
@@ -7369,7 +7158,6 @@
         <v>15558</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="O80" s="4">
@@ -7412,7 +7200,6 @@
         <v>16208</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="E81" s="1">
@@ -7428,7 +7215,6 @@
         <v>2998</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J81" s="3">
@@ -7444,7 +7230,6 @@
         <v>15597</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="O81" s="4">
@@ -7487,7 +7272,6 @@
         <v>16246</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="E82" s="1">
@@ -7503,7 +7287,6 @@
         <v>3035</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="J82" s="3">
@@ -7519,7 +7302,6 @@
         <v>15621</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="O82" s="4">
@@ -7562,7 +7344,6 @@
         <v>16289</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="E83" s="1">
@@ -7578,7 +7359,6 @@
         <v>3065</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J83" s="3">
@@ -7594,7 +7374,6 @@
         <v>15650</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="O83" s="4">
@@ -7637,7 +7416,6 @@
         <v>16310</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="E84" s="1">
@@ -7653,7 +7431,6 @@
         <v>3111</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J84" s="3">
@@ -7669,7 +7446,6 @@
         <v>15684</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="O84" s="4">
@@ -7712,7 +7488,6 @@
         <v>16381</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="E85" s="1">
@@ -7728,7 +7503,6 @@
         <v>3150</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J85" s="3">
@@ -7744,7 +7518,6 @@
         <v>15752</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="O85" s="4">
@@ -7787,7 +7560,6 @@
         <v>16436</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="E86" s="1">
@@ -7803,7 +7575,6 @@
         <v>3178</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J86" s="3">
@@ -7819,7 +7590,6 @@
         <v>15774</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="O86" s="4">
@@ -7862,7 +7632,6 @@
         <v>16454</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="E87" s="1">
@@ -7878,7 +7647,6 @@
         <v>3213</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J87" s="3">
@@ -7894,7 +7662,6 @@
         <v>15833</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="O87" s="4">
@@ -7937,7 +7704,6 @@
         <v>16477</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="E88" s="1">
@@ -7953,7 +7719,6 @@
         <v>3263</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J88" s="3">
@@ -7969,7 +7734,6 @@
         <v>15871</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="O88" s="4">
@@ -8012,7 +7776,6 @@
         <v>16506</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="E89" s="1">
@@ -8028,7 +7791,6 @@
         <v>3284</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="J89" s="3">
@@ -8044,7 +7806,6 @@
         <v>15882</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="O89" s="4">
@@ -8087,7 +7848,6 @@
         <v>16529</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="E90" s="1">
@@ -8103,7 +7863,6 @@
         <v>3313</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="J90" s="3">
@@ -8119,7 +7878,6 @@
         <v>15961</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="O90" s="4">
@@ -8162,7 +7920,6 @@
         <v>16548</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="E91" s="1">
@@ -8178,7 +7935,6 @@
         <v>3341</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J91" s="3">
@@ -8194,7 +7950,6 @@
         <v>15997</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="O91" s="4">
@@ -8237,7 +7992,6 @@
         <v>16579</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="E92" s="1">
@@ -8253,7 +8007,6 @@
         <v>3380</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J92" s="3">
@@ -8269,7 +8022,6 @@
         <v>16058</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="O92" s="4">
@@ -8312,7 +8064,6 @@
         <v>16589</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E93" s="1">
@@ -8328,7 +8079,6 @@
         <v>3417</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="J93" s="3">
@@ -8344,7 +8094,6 @@
         <v>16109</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="O93" s="4">
@@ -8384,11 +8133,10 @@
         <v>92</v>
       </c>
       <c r="C94" s="1">
-        <v>16608</v>
+        <v>16607</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94" s="1">
         <v>3484</v>
@@ -8403,7 +8151,6 @@
         <v>3473</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J94" s="3">
@@ -8419,7 +8166,6 @@
         <v>16201</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="O94" s="4">
@@ -8462,8 +8208,7 @@
         <v>16617</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="1">
         <v>3403</v>
@@ -8478,7 +8223,6 @@
         <v>3509</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="J95" s="3">
@@ -8494,7 +8238,6 @@
         <v>16242</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="O95" s="4">
@@ -8537,7 +8280,6 @@
         <v>16643</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="E96" s="1">
@@ -8553,7 +8295,6 @@
         <v>3535</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="J96" s="3">
@@ -8569,7 +8310,6 @@
         <v>16269</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="O96" s="4">
@@ -8612,7 +8352,6 @@
         <v>16659</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E97" s="1">
@@ -8628,7 +8367,6 @@
         <v>3556</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="J97" s="3">
@@ -8644,7 +8382,6 @@
         <v>16321</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="O97" s="4">
@@ -8687,7 +8424,6 @@
         <v>16667</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E98" s="1">
@@ -8703,7 +8439,6 @@
         <v>3598</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="J98" s="3">
@@ -8719,7 +8454,6 @@
         <v>16353</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="O98" s="4">
@@ -8762,7 +8496,6 @@
         <v>16683</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E99" s="1">
@@ -8778,7 +8511,6 @@
         <v>3641</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="J99" s="3">
@@ -8794,7 +8526,6 @@
         <v>16404</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="O99" s="4">
@@ -8837,7 +8568,6 @@
         <v>16690</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E100" s="1">
@@ -8853,7 +8583,6 @@
         <v>3678</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="J100" s="3">
@@ -8869,7 +8598,6 @@
         <v>16436</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="O100" s="4">
@@ -8912,7 +8640,6 @@
         <v>16712</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="E101" s="1">
@@ -8928,7 +8655,6 @@
         <v>3713</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J101" s="3">
@@ -8944,7 +8670,6 @@
         <v>16486</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="O101" s="4">
@@ -8987,7 +8712,6 @@
         <v>16717</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E102" s="1">
@@ -9003,7 +8727,6 @@
         <v>3741</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J102" s="3">
@@ -9019,7 +8742,6 @@
         <v>16503</v>
       </c>
       <c r="N102" s="4">
-        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="O102" s="4">
@@ -9062,7 +8784,6 @@
         <v>16734</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="E103" s="1">
@@ -9078,7 +8799,6 @@
         <v>3756</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J103" s="3">
@@ -9094,7 +8814,6 @@
         <v>16539</v>
       </c>
       <c r="N103" s="4">
-        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="O103" s="4">
@@ -9137,7 +8856,6 @@
         <v>16757</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="E104" s="1">
@@ -9153,7 +8871,6 @@
         <v>3771</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J104" s="3">
@@ -9169,7 +8886,6 @@
         <v>16557</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="O104" s="4">
@@ -9212,7 +8928,6 @@
         <v>16793</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E105" s="1">
@@ -9228,7 +8943,6 @@
         <v>3793</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J105" s="3">
@@ -9244,7 +8958,6 @@
         <v>16591</v>
       </c>
       <c r="N105" s="4">
-        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="O105" s="4">
@@ -9287,7 +9000,6 @@
         <v>16872</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="E106" s="1">
@@ -9303,7 +9015,6 @@
         <v>3816</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="J106" s="3">
@@ -9319,7 +9030,6 @@
         <v>16628</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="O106" s="4">
@@ -9362,7 +9072,6 @@
         <v>16987</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" ref="D107:D148" si="6">(C107-C106)</f>
         <v>115</v>
       </c>
       <c r="E107" s="1">
@@ -9378,7 +9087,6 @@
         <v>3841</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" ref="I107:I168" si="7">(H107-H106)</f>
         <v>25</v>
       </c>
       <c r="J107" s="3">
@@ -9394,7 +9102,6 @@
         <v>16655</v>
       </c>
       <c r="N107" s="4">
-        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="O107" s="4">
@@ -9437,7 +9144,6 @@
         <v>17012</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E108" s="1">
@@ -9453,7 +9159,6 @@
         <v>3867</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J108" s="3">
@@ -9469,7 +9174,6 @@
         <v>16685</v>
       </c>
       <c r="N108" s="4">
-        <f t="shared" ref="N108:N168" si="8">(M108-M107)</f>
         <v>30</v>
       </c>
       <c r="O108" s="4">
@@ -9512,7 +9216,6 @@
         <v>17071</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="E109" s="1">
@@ -9528,7 +9231,6 @@
         <v>3876</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J109" s="3">
@@ -9544,7 +9246,6 @@
         <v>16731</v>
       </c>
       <c r="N109" s="4">
-        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="O109" s="4">
@@ -9587,7 +9288,6 @@
         <v>17169</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="E110" s="1">
@@ -9603,7 +9303,6 @@
         <v>3892</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J110" s="3">
@@ -9619,7 +9318,6 @@
         <v>16733</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O110" s="4">
@@ -9662,7 +9360,6 @@
         <v>17285</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="E111" s="1">
@@ -9678,7 +9375,6 @@
         <v>3921</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="J111" s="3">
@@ -9694,7 +9390,6 @@
         <v>16759</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="O111" s="4">
@@ -9737,7 +9432,6 @@
         <v>17377</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="E112" s="1">
@@ -9753,7 +9447,6 @@
         <v>3931</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J112" s="3">
@@ -9769,7 +9462,6 @@
         <v>16771</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="O112" s="4">
@@ -9812,7 +9504,6 @@
         <v>17495</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="E113" s="1">
@@ -9828,7 +9519,6 @@
         <v>3954</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="J113" s="3">
@@ -9844,7 +9534,6 @@
         <v>16805</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="O113" s="4">
@@ -9887,7 +9576,6 @@
         <v>17562</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="E114" s="1">
@@ -9903,7 +9591,6 @@
         <v>3970</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J114" s="3">
@@ -9919,7 +9606,6 @@
         <v>16843</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="O114" s="4">
@@ -9962,7 +9648,6 @@
         <v>17752</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="E115" s="1">
@@ -9978,7 +9663,6 @@
         <v>3990</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="J115" s="3">
@@ -9994,7 +9678,6 @@
         <v>16898</v>
       </c>
       <c r="N115" s="4">
-        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="O115" s="4">
@@ -10037,7 +9720,6 @@
         <v>17863</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="E116" s="1">
@@ -10053,7 +9735,6 @@
         <v>4008</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J116" s="3">
@@ -10069,7 +9750,6 @@
         <v>16902</v>
       </c>
       <c r="N116" s="4">
-        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="O116" s="4">
@@ -10112,7 +9792,6 @@
         <v>18032</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="E117" s="1">
@@ -10128,7 +9807,6 @@
         <v>4014</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J117" s="3">
@@ -10144,7 +9822,6 @@
         <v>16968</v>
       </c>
       <c r="N117" s="4">
-        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="O117" s="4">
@@ -10187,7 +9864,6 @@
         <v>18180</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="E118" s="1">
@@ -10203,7 +9879,6 @@
         <v>4017</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J118" s="3">
@@ -10219,7 +9894,6 @@
         <v>16979</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="O118" s="4">
@@ -10262,7 +9936,6 @@
         <v>18355</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="E119" s="1">
@@ -10278,7 +9951,6 @@
         <v>4027</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J119" s="3">
@@ -10294,7 +9966,6 @@
         <v>17005</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="O119" s="4">
@@ -10337,7 +10008,6 @@
         <v>18569</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="6"/>
         <v>214</v>
       </c>
       <c r="E120" s="1">
@@ -10353,7 +10023,6 @@
         <v>4039</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J120" s="3">
@@ -10369,7 +10038,6 @@
         <v>17034</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="O120" s="4">
@@ -10412,7 +10080,6 @@
         <v>18795</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="6"/>
         <v>226</v>
       </c>
       <c r="E121" s="1">
@@ -10428,7 +10095,6 @@
         <v>4053</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="J121" s="3">
@@ -10444,7 +10110,6 @@
         <v>17064</v>
       </c>
       <c r="N121" s="4">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="O121" s="4">
@@ -10487,7 +10152,6 @@
         <v>18972</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="E122" s="1">
@@ -10503,7 +10167,6 @@
         <v>4064</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="J122" s="3">
@@ -10519,7 +10182,6 @@
         <v>17078</v>
       </c>
       <c r="N122" s="4">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="O122" s="4">
@@ -10562,7 +10224,6 @@
         <v>19055</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="E123" s="1">
@@ -10578,7 +10239,6 @@
         <v>4069</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J123" s="3">
@@ -10594,7 +10254,6 @@
         <v>17109</v>
       </c>
       <c r="N123" s="4">
-        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="O123" s="4">
@@ -10637,7 +10296,6 @@
         <v>19237</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="E124" s="1">
@@ -10653,7 +10311,6 @@
         <v>4076</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J124" s="3">
@@ -10669,7 +10326,6 @@
         <v>17135</v>
       </c>
       <c r="N124" s="4">
-        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="O124" s="4">
@@ -10712,7 +10368,6 @@
         <v>19495</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="6"/>
         <v>258</v>
       </c>
       <c r="E125" s="1">
@@ -10728,7 +10383,6 @@
         <v>4077</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J125" s="3">
@@ -10744,7 +10398,6 @@
         <v>17189</v>
       </c>
       <c r="N125" s="4">
-        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="O125" s="4">
@@ -10787,7 +10440,6 @@
         <v>19783</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="6"/>
         <v>288</v>
       </c>
       <c r="E126" s="1">
@@ -10803,7 +10455,6 @@
         <v>4078</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J126" s="3">
@@ -10819,7 +10470,6 @@
         <v>17203</v>
       </c>
       <c r="N126" s="4">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="O126" s="4">
@@ -10862,7 +10512,6 @@
         <v>20036</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="6"/>
         <v>253</v>
       </c>
       <c r="E127" s="1">
@@ -10878,7 +10527,6 @@
         <v>4079</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J127" s="3">
@@ -10894,7 +10542,6 @@
         <v>17223</v>
       </c>
       <c r="N127" s="4">
-        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="O127" s="4">
@@ -10937,7 +10584,6 @@
         <v>20339</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="6"/>
         <v>303</v>
       </c>
       <c r="E128" s="1">
@@ -10953,7 +10599,6 @@
         <v>4081</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J128" s="3">
@@ -10969,7 +10614,6 @@
         <v>17271</v>
       </c>
       <c r="N128" s="4">
-        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="O128" s="4">
@@ -11012,7 +10656,6 @@
         <v>20633</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="E129" s="1">
@@ -11028,7 +10671,6 @@
         <v>4086</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J129" s="3">
@@ -11044,7 +10686,6 @@
         <v>17323</v>
       </c>
       <c r="N129" s="4">
-        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="O129" s="4">
@@ -11087,7 +10728,6 @@
         <v>20778</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="E130" s="1">
@@ -11103,7 +10743,6 @@
         <v>4094</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J130" s="3">
@@ -11119,7 +10758,6 @@
         <v>17341</v>
       </c>
       <c r="N130" s="4">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="O130" s="4">
@@ -11162,7 +10800,6 @@
         <v>21082</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="6"/>
         <v>304</v>
       </c>
       <c r="E131" s="1">
@@ -11178,7 +10815,6 @@
         <v>4102</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J131" s="3">
@@ -11194,7 +10830,6 @@
         <v>17380</v>
       </c>
       <c r="N131" s="4">
-        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="O131" s="4">
@@ -11237,7 +10872,6 @@
         <v>21512</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="E132" s="1">
@@ -11253,7 +10887,6 @@
         <v>4107</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J132" s="3">
@@ -11269,7 +10902,6 @@
         <v>17408</v>
       </c>
       <c r="N132" s="4">
-        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="O132" s="4">
@@ -11312,7 +10944,6 @@
         <v>22044</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="6"/>
         <v>532</v>
       </c>
       <c r="E133" s="1">
@@ -11328,7 +10959,6 @@
         <v>4114</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="J133" s="3">
@@ -11344,7 +10974,6 @@
         <v>17449</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="O133" s="4">
@@ -11387,7 +11016,6 @@
         <v>22400</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="E134" s="1">
@@ -11403,7 +11031,6 @@
         <v>4123</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J134" s="3">
@@ -11419,7 +11046,6 @@
         <v>17477</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="O134" s="4">
@@ -11462,7 +11088,6 @@
         <v>22800</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="E135" s="1">
@@ -11478,7 +11103,6 @@
         <v>4127</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J135" s="3">
@@ -11494,7 +11118,6 @@
         <v>17522</v>
       </c>
       <c r="N135" s="4">
-        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="O135" s="4">
@@ -11537,7 +11160,6 @@
         <v>23421</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="6"/>
         <v>621</v>
       </c>
       <c r="E136" s="1">
@@ -11553,7 +11175,6 @@
         <v>4138</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="J136" s="3">
@@ -11569,7 +11190,6 @@
         <v>17580</v>
       </c>
       <c r="N136" s="4">
-        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="O136" s="4">
@@ -11612,7 +11232,6 @@
         <v>23755</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="E137" s="1">
@@ -11628,7 +11247,6 @@
         <v>4142</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J137" s="3">
@@ -11644,7 +11262,6 @@
         <v>17654</v>
       </c>
       <c r="N137" s="4">
-        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="O137" s="4">
@@ -11687,7 +11304,6 @@
         <v>24441</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="6"/>
         <v>686</v>
       </c>
       <c r="E138" s="1">
@@ -11703,7 +11319,6 @@
         <v>4145</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J138" s="3">
@@ -11719,7 +11334,6 @@
         <v>17723</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="O138" s="4">
@@ -11762,7 +11376,6 @@
         <v>25244</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" si="6"/>
         <v>803</v>
       </c>
       <c r="E139" s="1">
@@ -11778,7 +11391,6 @@
         <v>4155</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J139" s="3">
@@ -11794,7 +11406,6 @@
         <v>17766</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="O139" s="4">
@@ -11837,7 +11448,6 @@
         <v>26257</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="6"/>
         <v>1013</v>
       </c>
       <c r="E140" s="1">
@@ -11853,7 +11463,6 @@
         <v>4157</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J140" s="3">
@@ -11869,7 +11478,6 @@
         <v>17873</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="8"/>
         <v>107</v>
       </c>
       <c r="O140" s="4">
@@ -11912,7 +11520,6 @@
         <v>27047</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="6"/>
         <v>790</v>
       </c>
       <c r="E141" s="1">
@@ -11928,7 +11535,6 @@
         <v>4166</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J141" s="3">
@@ -11944,7 +11550,6 @@
         <v>17941</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="O141" s="4">
@@ -11987,7 +11592,6 @@
         <v>28055</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="6"/>
         <v>1008</v>
       </c>
       <c r="E142" s="1">
@@ -12003,7 +11607,6 @@
         <v>4172</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J142" s="3">
@@ -12019,7 +11622,6 @@
         <v>18050</v>
       </c>
       <c r="N142" s="4">
-        <f t="shared" si="8"/>
         <v>109</v>
       </c>
       <c r="O142" s="4">
@@ -12062,7 +11664,6 @@
         <v>29170</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="6"/>
         <v>1115</v>
       </c>
       <c r="E143" s="1">
@@ -12078,7 +11679,6 @@
         <v>4174</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J143" s="3">
@@ -12094,7 +11694,6 @@
         <v>18165</v>
       </c>
       <c r="N143" s="4">
-        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="O143" s="4">
@@ -12137,7 +11736,6 @@
         <v>29958</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="6"/>
         <v>788</v>
       </c>
       <c r="E144" s="1">
@@ -12153,7 +11751,6 @@
         <v>4183</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J144" s="3">
@@ -12169,7 +11766,6 @@
         <v>18280</v>
       </c>
       <c r="N144" s="4">
-        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="O144" s="4">
@@ -12212,7 +11808,6 @@
         <v>30749</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="6"/>
         <v>791</v>
       </c>
       <c r="E145" s="1">
@@ -12228,7 +11823,6 @@
         <v>4189</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J145" s="3">
@@ -12244,7 +11838,6 @@
         <v>18365</v>
       </c>
       <c r="N145" s="4">
-        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="O145" s="4">
@@ -12287,7 +11880,6 @@
         <v>32222</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" si="6"/>
         <v>1473</v>
       </c>
       <c r="E146" s="1">
@@ -12303,7 +11895,6 @@
         <v>4205</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J146" s="3">
@@ -12319,7 +11910,6 @@
         <v>18421</v>
       </c>
       <c r="N146" s="4">
-        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="O146" s="4">
@@ -12362,7 +11952,6 @@
         <v>33557</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" si="6"/>
         <v>1335</v>
       </c>
       <c r="E147" s="1">
@@ -12378,7 +11967,6 @@
         <v>4210</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J147" s="3">
@@ -12394,7 +11982,6 @@
         <v>18513</v>
       </c>
       <c r="N147" s="4">
-        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="O147" s="4">
@@ -12437,7 +12024,6 @@
         <v>34825</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" si="6"/>
         <v>1268</v>
       </c>
       <c r="E148" s="1">
@@ -12453,7 +12039,6 @@
         <v>4220</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J148" s="3">
@@ -12469,7 +12054,6 @@
         <v>18615</v>
       </c>
       <c r="N148" s="4">
-        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="O148" s="4">
@@ -12512,7 +12096,6 @@
         <v>36266</v>
       </c>
       <c r="D149" s="1">
-        <f t="shared" ref="D149:D167" si="9">(C149-C148)</f>
         <v>1441</v>
       </c>
       <c r="E149" s="1">
@@ -12528,7 +12111,6 @@
         <v>4223</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J149" s="3">
@@ -12544,7 +12126,6 @@
         <v>18709</v>
       </c>
       <c r="N149" s="4">
-        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="O149" s="4">
@@ -12587,7 +12168,6 @@
         <v>37464</v>
       </c>
       <c r="D150" s="1">
-        <f t="shared" si="9"/>
         <v>1198</v>
       </c>
       <c r="E150" s="1">
@@ -12603,7 +12183,6 @@
         <v>4229</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J150" s="3">
@@ -12619,7 +12198,6 @@
         <v>18783</v>
       </c>
       <c r="N150" s="4">
-        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="O150" s="4">
@@ -12662,7 +12240,6 @@
         <v>38670</v>
       </c>
       <c r="D151" s="1">
-        <f t="shared" si="9"/>
         <v>1206</v>
       </c>
       <c r="E151" s="1">
@@ -12678,7 +12255,6 @@
         <v>4234</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J151" s="3">
@@ -12694,7 +12270,6 @@
         <v>18897</v>
       </c>
       <c r="N151" s="4">
-        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="O151" s="4">
@@ -12737,7 +12312,6 @@
         <v>40632</v>
       </c>
       <c r="D152" s="1">
-        <f t="shared" si="9"/>
         <v>1962</v>
       </c>
       <c r="E152" s="1">
@@ -12753,7 +12327,6 @@
         <v>4247</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="J152" s="3">
@@ -12769,7 +12342,6 @@
         <v>18948</v>
       </c>
       <c r="N152" s="4">
-        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="O152" s="4">
@@ -12812,7 +12384,6 @@
         <v>42360</v>
       </c>
       <c r="D153" s="1">
-        <f t="shared" si="9"/>
         <v>1728</v>
       </c>
       <c r="E153" s="1">
@@ -12828,7 +12399,6 @@
         <v>4258</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="J153" s="3">
@@ -12844,7 +12414,6 @@
         <v>19021</v>
       </c>
       <c r="N153" s="4">
-        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="O153" s="4">
@@ -12887,7 +12456,6 @@
         <v>44188</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" si="9"/>
         <v>1828</v>
       </c>
       <c r="E154" s="1">
@@ -12903,7 +12471,6 @@
         <v>4263</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J154" s="3">
@@ -12919,7 +12486,6 @@
         <v>19154</v>
       </c>
       <c r="N154" s="4">
-        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="O154" s="4">
@@ -12962,7 +12528,6 @@
         <v>46059</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="9"/>
         <v>1871</v>
       </c>
       <c r="E155" s="1">
@@ -12978,7 +12543,6 @@
         <v>4279</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J155" s="3">
@@ -12994,14 +12558,13 @@
         <v>19270</v>
       </c>
       <c r="N155" s="4">
-        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="O155" s="4">
         <v>1316</v>
       </c>
       <c r="P155" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q155" s="4">
         <v>0</v>
@@ -13037,7 +12600,6 @@
         <v>47459</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="9"/>
         <v>1400</v>
       </c>
       <c r="E156" s="1">
@@ -13053,7 +12615,6 @@
         <v>4293</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="J156" s="3">
@@ -13069,14 +12630,13 @@
         <v>19439</v>
       </c>
       <c r="N156" s="4">
-        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="O156" s="4">
         <v>1394</v>
       </c>
       <c r="P156" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q156" s="4">
         <v>0</v>
@@ -13112,7 +12672,6 @@
         <v>49365</v>
       </c>
       <c r="D157" s="1">
-        <f t="shared" si="9"/>
         <v>1906</v>
       </c>
       <c r="E157" s="1">
@@ -13128,7 +12687,6 @@
         <v>4315</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="J157" s="3">
@@ -13144,14 +12702,13 @@
         <v>19573</v>
       </c>
       <c r="N157" s="4">
-        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="O157" s="4">
         <v>1362</v>
       </c>
       <c r="P157" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q157" s="4">
         <v>0</v>
@@ -13187,7 +12744,6 @@
         <v>50289</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" si="9"/>
         <v>924</v>
       </c>
       <c r="E158" s="1">
@@ -13203,7 +12759,6 @@
         <v>4333</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J158" s="3">
@@ -13219,14 +12774,13 @@
         <v>19655</v>
       </c>
       <c r="N158" s="4">
-        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="O158" s="4">
         <v>1346</v>
       </c>
       <c r="P158" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q158" s="4">
         <v>0</v>
@@ -13262,7 +12816,6 @@
         <v>52003</v>
       </c>
       <c r="D159" s="1">
-        <f t="shared" si="9"/>
         <v>1714</v>
       </c>
       <c r="E159" s="1">
@@ -13278,7 +12831,6 @@
         <v>4339</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J159" s="3">
@@ -13294,14 +12846,13 @@
         <v>19743</v>
       </c>
       <c r="N159" s="4">
-        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="O159" s="4">
         <v>1374</v>
       </c>
       <c r="P159" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q159" s="4">
         <v>0</v>
@@ -13337,7 +12888,6 @@
         <v>54042</v>
       </c>
       <c r="D160" s="1">
-        <f t="shared" si="9"/>
         <v>2039</v>
       </c>
       <c r="E160" s="1">
@@ -13353,7 +12903,6 @@
         <v>4347</v>
       </c>
       <c r="I160" s="3">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J160" s="3">
@@ -13369,7 +12918,6 @@
         <v>19827</v>
       </c>
       <c r="N160" s="4">
-        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="O160" s="4">
@@ -13412,7 +12960,6 @@
         <v>56085</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="9"/>
         <v>2043</v>
       </c>
       <c r="E161" s="1">
@@ -13428,7 +12975,6 @@
         <v>4366</v>
       </c>
       <c r="I161" s="3">
-        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="J161" s="3">
@@ -13444,7 +12990,6 @@
         <v>19929</v>
       </c>
       <c r="N161" s="4">
-        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="O161" s="4">
@@ -13487,7 +13032,6 @@
         <v>57982</v>
       </c>
       <c r="D162" s="1">
-        <f t="shared" si="9"/>
         <v>1897</v>
       </c>
       <c r="E162" s="1">
@@ -13503,7 +13047,6 @@
         <v>4380</v>
       </c>
       <c r="I162" s="3">
-        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="J162" s="3">
@@ -13519,7 +13062,6 @@
         <v>20099</v>
       </c>
       <c r="N162" s="4">
-        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="O162" s="4">
@@ -13562,7 +13104,6 @@
         <v>59475</v>
       </c>
       <c r="D163" s="1">
-        <f t="shared" si="9"/>
         <v>1493</v>
       </c>
       <c r="E163" s="1">
@@ -13578,7 +13119,6 @@
         <v>4398</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J163" s="3">
@@ -13594,7 +13134,6 @@
         <v>20214</v>
       </c>
       <c r="N163" s="4">
-        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="O163" s="4">
@@ -13637,7 +13176,6 @@
         <v>60678</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="9"/>
         <v>1203</v>
       </c>
       <c r="E164" s="1">
@@ -13653,7 +13191,6 @@
         <v>4424</v>
       </c>
       <c r="I164" s="3">
-        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J164" s="3">
@@ -13669,7 +13206,6 @@
         <v>20338</v>
       </c>
       <c r="N164" s="4">
-        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="O164" s="4">
@@ -13712,7 +13248,6 @@
         <v>61956</v>
       </c>
       <c r="D165" s="1">
-        <f t="shared" si="9"/>
         <v>1278</v>
       </c>
       <c r="E165" s="1">
@@ -13728,7 +13263,6 @@
         <v>4435</v>
       </c>
       <c r="I165" s="3">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="J165" s="3">
@@ -13744,7 +13278,6 @@
         <v>20472</v>
       </c>
       <c r="N165" s="4">
-        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="O165" s="4">
@@ -13787,7 +13320,6 @@
         <v>63985</v>
       </c>
       <c r="D166" s="1">
-        <f t="shared" si="9"/>
         <v>2029</v>
       </c>
       <c r="E166" s="1">
@@ -13803,7 +13335,6 @@
         <v>4448</v>
       </c>
       <c r="I166" s="3">
-        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="J166" s="3">
@@ -13819,7 +13350,6 @@
         <v>20558</v>
       </c>
       <c r="N166" s="4">
-        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="O166" s="4">
@@ -13862,7 +13392,6 @@
         <v>66293</v>
       </c>
       <c r="D167" s="1">
-        <f t="shared" si="9"/>
         <v>2308</v>
       </c>
       <c r="E167" s="1">
@@ -13878,7 +13407,6 @@
         <v>4456</v>
       </c>
       <c r="I167" s="3">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J167" s="3">
@@ -13894,7 +13422,6 @@
         <v>20677</v>
       </c>
       <c r="N167" s="4">
-        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="O167" s="4">
@@ -13937,7 +13464,6 @@
         <v>68299</v>
       </c>
       <c r="D168" s="1">
-        <f>(C168-C167)</f>
         <v>2006</v>
       </c>
       <c r="E168" s="1">
@@ -13953,7 +13479,6 @@
         <v>4465</v>
       </c>
       <c r="I168" s="3">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J168" s="3">
@@ -13969,7 +13494,6 @@
         <v>20850</v>
       </c>
       <c r="N168" s="4">
-        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="O168" s="4">
@@ -14012,7 +13536,6 @@
         <v>70036</v>
       </c>
       <c r="D169" s="1">
-        <f>(C169-C168)</f>
         <v>1737</v>
       </c>
       <c r="E169" s="1">
@@ -14028,7 +13551,6 @@
         <v>4484</v>
       </c>
       <c r="I169" s="3">
-        <f>(H169-H168)</f>
         <v>19</v>
       </c>
       <c r="J169" s="3">
@@ -14044,7 +13566,6 @@
         <v>20955</v>
       </c>
       <c r="N169" s="4">
-        <f>(M169-M168)</f>
         <v>105</v>
       </c>
       <c r="O169" s="4">
@@ -14287,10 +13808,6 @@
       <c r="V172" s="8">
         <v>34</v>
       </c>
-      <c r="W172" s="17"/>
-      <c r="X172" s="17"/>
-      <c r="Y172" s="17"/>
-      <c r="Z172" s="17"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" s="10">
@@ -14359,10 +13876,6 @@
       <c r="V173" s="8">
         <v>19</v>
       </c>
-      <c r="W173" s="17"/>
-      <c r="X173" s="17"/>
-      <c r="Y173" s="17"/>
-      <c r="Z173" s="17"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" s="10">
@@ -14724,7 +14237,7 @@
         <v>600</v>
       </c>
       <c r="G179" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H179" s="3">
         <v>4696</v>
@@ -14748,7 +14261,7 @@
         <v>114</v>
       </c>
       <c r="O179" s="4">
-        <v>1373</v>
+        <v>1389</v>
       </c>
       <c r="P179" s="6">
         <v>721</v>
@@ -14816,10 +14329,10 @@
         <v>73</v>
       </c>
       <c r="O180" s="4">
-        <v>1389</v>
-      </c>
-      <c r="P180" s="6" t="s">
-        <v>40</v>
+        <v>1373</v>
+      </c>
+      <c r="P180" s="6">
+        <v>723</v>
       </c>
       <c r="Q180" s="4">
         <v>2</v>
@@ -14866,7 +14379,7 @@
         <v>4746</v>
       </c>
       <c r="I181" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J181" s="3">
         <v>614</v>
@@ -14970,7 +14483,7 @@
         <v>31322</v>
       </c>
       <c r="U182" s="7">
-        <v>2764</v>
+        <v>2807</v>
       </c>
       <c r="V182" s="7">
         <v>43</v>
@@ -15038,7 +14551,7 @@
         <v>32224</v>
       </c>
       <c r="U183" s="7">
-        <v>2807</v>
+        <v>2860</v>
       </c>
       <c r="V183" s="7">
         <v>53</v>
@@ -15106,7 +14619,7 @@
         <v>33222</v>
       </c>
       <c r="U184" s="7">
-        <v>2860</v>
+        <v>2904</v>
       </c>
       <c r="V184" s="7">
         <v>44</v>
@@ -15156,7 +14669,7 @@
         <v>303</v>
       </c>
       <c r="O185" s="4">
-        <v>1842</v>
+        <v>1824</v>
       </c>
       <c r="P185" s="6">
         <v>728</v>
@@ -15174,7 +14687,7 @@
         <v>34086</v>
       </c>
       <c r="U185" s="7">
-        <v>2904</v>
+        <v>2954</v>
       </c>
       <c r="V185" s="7">
         <v>50</v>
@@ -15242,7 +14755,7 @@
         <v>34883</v>
       </c>
       <c r="U186" s="7">
-        <v>2954</v>
+        <v>2991</v>
       </c>
       <c r="V186" s="7">
         <v>37</v>
@@ -15256,7 +14769,7 @@
         <v>185</v>
       </c>
       <c r="C187" s="1">
-        <v>96409</v>
+        <v>94751</v>
       </c>
       <c r="D187" s="1">
         <v>2071</v>
@@ -15324,10 +14837,10 @@
         <v>186</v>
       </c>
       <c r="C188" s="1">
-        <v>94751</v>
+        <v>96409</v>
       </c>
       <c r="D188" s="1">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E188" s="1">
         <v>23711</v>
@@ -15404,10 +14917,10 @@
         <v>781</v>
       </c>
       <c r="G189" s="1">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H189" s="3">
-        <v>4946</v>
+        <v>5002</v>
       </c>
       <c r="I189" s="3">
         <v>32</v>
@@ -15449,7 +14962,7 @@
         <v>3106</v>
       </c>
       <c r="V189" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.35">
@@ -15472,10 +14985,10 @@
         <v>795</v>
       </c>
       <c r="G190" s="1">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H190" s="3">
-        <v>4970</v>
+        <v>5046</v>
       </c>
       <c r="I190" s="3">
         <v>44</v>
@@ -15543,7 +15056,7 @@
         <v>14</v>
       </c>
       <c r="H191" s="3">
-        <v>5046</v>
+        <v>5098</v>
       </c>
       <c r="I191" s="3">
         <v>52</v>
@@ -15596,7 +15109,7 @@
         <v>190</v>
       </c>
       <c r="C192" s="1">
-        <v>101993</v>
+        <v>101933</v>
       </c>
       <c r="D192" s="1">
         <v>1217</v>
@@ -15747,7 +15260,7 @@
         <v>13</v>
       </c>
       <c r="H194" s="3">
-        <v>5122</v>
+        <v>5191</v>
       </c>
       <c r="I194" s="3">
         <v>36</v>
@@ -16004,7 +15517,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="1">
-        <v>11200</v>
+        <v>112000</v>
       </c>
       <c r="D198" s="1">
         <v>1597</v>
@@ -16235,7 +15748,7 @@
         <v>615</v>
       </c>
       <c r="L201" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201" s="4">
         <v>27438</v>
@@ -16259,10 +15772,10 @@
         <v>755</v>
       </c>
       <c r="T201" s="7">
-        <v>45542</v>
+        <v>46050</v>
       </c>
       <c r="U201" s="7">
-        <v>3681</v>
+        <v>3621</v>
       </c>
       <c r="V201" s="7">
         <v>43</v>
@@ -16303,7 +15816,7 @@
         <v>616</v>
       </c>
       <c r="L202" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202" s="4">
         <v>27642</v>
@@ -16315,7 +15828,7 @@
         <v>3343</v>
       </c>
       <c r="P202" s="6">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Q202" s="4">
         <v>1</v>
@@ -16327,7 +15840,7 @@
         <v>1053</v>
       </c>
       <c r="T202" s="7">
-        <v>46050</v>
+        <v>46458</v>
       </c>
       <c r="U202" s="7">
         <v>3681</v>
@@ -16371,7 +15884,7 @@
         <v>619</v>
       </c>
       <c r="L203" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M203" s="4">
         <v>27969</v>
@@ -16439,7 +15952,7 @@
         <v>620</v>
       </c>
       <c r="L204" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204" s="4">
         <v>28372</v>
@@ -16507,7 +16020,7 @@
         <v>621</v>
       </c>
       <c r="L205" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="4">
         <v>28729</v>
@@ -16584,7 +16097,7 @@
         <v>358</v>
       </c>
       <c r="O206" s="4">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="P206" s="6">
         <v>735</v>
@@ -16809,6 +16322,1094 @@
         <v>3967</v>
       </c>
       <c r="V209" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A210" s="10">
+        <v>44083</v>
+      </c>
+      <c r="B210" s="2">
+        <v>208</v>
+      </c>
+      <c r="C210" s="1">
+        <v>141097</v>
+      </c>
+      <c r="D210" s="1">
+        <v>3532</v>
+      </c>
+      <c r="E210" s="1">
+        <v>31689</v>
+      </c>
+      <c r="F210" s="1">
+        <v>1054</v>
+      </c>
+      <c r="G210" s="1">
+        <v>14</v>
+      </c>
+      <c r="H210" s="3">
+        <v>9715</v>
+      </c>
+      <c r="I210" s="3">
+        <v>411</v>
+      </c>
+      <c r="J210" s="3">
+        <v>5103</v>
+      </c>
+      <c r="K210" s="3">
+        <v>628</v>
+      </c>
+      <c r="L210" s="3">
+        <v>2</v>
+      </c>
+      <c r="M210" s="4">
+        <v>30583</v>
+      </c>
+      <c r="N210" s="5">
+        <v>502</v>
+      </c>
+      <c r="O210" s="4">
+        <v>4072</v>
+      </c>
+      <c r="P210" s="6">
+        <v>747</v>
+      </c>
+      <c r="Q210" s="4">
+        <v>0</v>
+      </c>
+      <c r="R210" s="7">
+        <v>98304</v>
+      </c>
+      <c r="S210" s="7">
+        <v>1271</v>
+      </c>
+      <c r="T210" s="7">
+        <v>53284</v>
+      </c>
+      <c r="U210" s="7">
+        <v>4018</v>
+      </c>
+      <c r="V210" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A211" s="10">
+        <v>44084</v>
+      </c>
+      <c r="B211" s="2">
+        <v>209</v>
+      </c>
+      <c r="C211" s="1">
+        <v>145526</v>
+      </c>
+      <c r="D211" s="1">
+        <v>4429</v>
+      </c>
+      <c r="E211" s="1">
+        <v>34507</v>
+      </c>
+      <c r="F211" s="1">
+        <v>1077</v>
+      </c>
+      <c r="G211" s="1">
+        <v>23</v>
+      </c>
+      <c r="H211" s="3">
+        <v>10191</v>
+      </c>
+      <c r="I211" s="3">
+        <v>476</v>
+      </c>
+      <c r="J211" s="3">
+        <v>5571</v>
+      </c>
+      <c r="K211" s="3">
+        <v>630</v>
+      </c>
+      <c r="L211" s="3">
+        <v>2</v>
+      </c>
+      <c r="M211" s="4">
+        <v>31247</v>
+      </c>
+      <c r="N211" s="5">
+        <v>664</v>
+      </c>
+      <c r="O211" s="4">
+        <v>4456</v>
+      </c>
+      <c r="P211" s="6">
+        <v>748</v>
+      </c>
+      <c r="Q211" s="4">
+        <v>1</v>
+      </c>
+      <c r="R211" s="7">
+        <v>99684</v>
+      </c>
+      <c r="S211" s="7">
+        <v>1380</v>
+      </c>
+      <c r="T211" s="7">
+        <v>54609</v>
+      </c>
+      <c r="U211" s="7">
+        <v>4065</v>
+      </c>
+      <c r="V211" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A212" s="10">
+        <v>44085</v>
+      </c>
+      <c r="B212" s="2">
+        <v>210</v>
+      </c>
+      <c r="C212" s="1">
+        <v>148564</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3038</v>
+      </c>
+      <c r="E212" s="1">
+        <v>35746</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1090</v>
+      </c>
+      <c r="G212" s="1">
+        <v>13</v>
+      </c>
+      <c r="H212" s="3">
+        <v>10909</v>
+      </c>
+      <c r="I212" s="3">
+        <v>718</v>
+      </c>
+      <c r="J212" s="3">
+        <v>6264</v>
+      </c>
+      <c r="K212" s="3">
+        <v>631</v>
+      </c>
+      <c r="L212" s="3">
+        <v>1</v>
+      </c>
+      <c r="M212" s="4">
+        <v>31827</v>
+      </c>
+      <c r="N212" s="5">
+        <v>580</v>
+      </c>
+      <c r="O212" s="4">
+        <v>4820</v>
+      </c>
+      <c r="P212" s="6">
+        <v>750</v>
+      </c>
+      <c r="Q212" s="4">
+        <v>2</v>
+      </c>
+      <c r="R212" s="7">
+        <v>101075</v>
+      </c>
+      <c r="S212" s="7">
+        <v>1391</v>
+      </c>
+      <c r="T212" s="7">
+        <v>55965</v>
+      </c>
+      <c r="U212" s="7">
+        <v>4100</v>
+      </c>
+      <c r="V212" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A213" s="10">
+        <v>44086</v>
+      </c>
+      <c r="B213" s="2">
+        <v>211</v>
+      </c>
+      <c r="C213" s="1">
+        <v>152722</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4158</v>
+      </c>
+      <c r="E213" s="1">
+        <v>38123</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1103</v>
+      </c>
+      <c r="G213" s="1">
+        <v>13</v>
+      </c>
+      <c r="H213" s="3">
+        <v>11825</v>
+      </c>
+      <c r="I213" s="3">
+        <v>916</v>
+      </c>
+      <c r="J213" s="3">
+        <v>7134</v>
+      </c>
+      <c r="K213" s="3">
+        <v>633</v>
+      </c>
+      <c r="L213" s="3">
+        <v>2</v>
+      </c>
+      <c r="M213" s="4">
+        <v>32696</v>
+      </c>
+      <c r="N213" s="5">
+        <v>869</v>
+      </c>
+      <c r="O213" s="4">
+        <v>5363</v>
+      </c>
+      <c r="P213" s="6">
+        <v>754</v>
+      </c>
+      <c r="Q213" s="4">
+        <v>4</v>
+      </c>
+      <c r="R213" s="7">
+        <v>102386</v>
+      </c>
+      <c r="S213" s="7">
+        <v>1311</v>
+      </c>
+      <c r="T213" s="7">
+        <v>55448</v>
+      </c>
+      <c r="U213" s="7">
+        <v>4127</v>
+      </c>
+      <c r="V213" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A214" s="10">
+        <v>44087</v>
+      </c>
+      <c r="B214" s="2">
+        <v>212</v>
+      </c>
+      <c r="C214" s="1">
+        <v>155604</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2882</v>
+      </c>
+      <c r="E214" s="1">
+        <v>39487</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1119</v>
+      </c>
+      <c r="G214" s="1">
+        <v>16</v>
+      </c>
+      <c r="H214" s="3">
+        <v>12309</v>
+      </c>
+      <c r="I214" s="3">
+        <v>484</v>
+      </c>
+      <c r="J214" s="3">
+        <v>7603</v>
+      </c>
+      <c r="K214" s="3">
+        <v>637</v>
+      </c>
+      <c r="L214" s="3">
+        <v>4</v>
+      </c>
+      <c r="M214" s="4">
+        <v>33159</v>
+      </c>
+      <c r="N214" s="5">
+        <v>463</v>
+      </c>
+      <c r="O214" s="4">
+        <v>5643</v>
+      </c>
+      <c r="P214" s="6">
+        <v>756</v>
+      </c>
+      <c r="Q214" s="4">
+        <v>2</v>
+      </c>
+      <c r="R214" s="7">
+        <v>103495</v>
+      </c>
+      <c r="S214" s="7">
+        <v>1109</v>
+      </c>
+      <c r="T214" s="7">
+        <v>56307</v>
+      </c>
+      <c r="U214" s="7">
+        <v>4163</v>
+      </c>
+      <c r="V214" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A215" s="10">
+        <v>44088</v>
+      </c>
+      <c r="B215" s="2">
+        <v>213</v>
+      </c>
+      <c r="C215" s="1">
+        <v>160368</v>
+      </c>
+      <c r="D215" s="1">
+        <v>4764</v>
+      </c>
+      <c r="E215" s="1">
+        <v>40662</v>
+      </c>
+      <c r="F215" s="1">
+        <v>1136</v>
+      </c>
+      <c r="G215" s="1">
+        <v>17</v>
+      </c>
+      <c r="H215" s="3">
+        <v>13153</v>
+      </c>
+      <c r="I215" s="3">
+        <v>844</v>
+      </c>
+      <c r="J215" s="3">
+        <v>8394</v>
+      </c>
+      <c r="K215" s="3">
+        <v>642</v>
+      </c>
+      <c r="L215" s="3">
+        <v>5</v>
+      </c>
+      <c r="M215" s="4">
+        <v>33541</v>
+      </c>
+      <c r="N215" s="5">
+        <v>382</v>
+      </c>
+      <c r="O215" s="4">
+        <v>5774</v>
+      </c>
+      <c r="P215" s="6">
+        <v>757</v>
+      </c>
+      <c r="Q215" s="4">
+        <v>1</v>
+      </c>
+      <c r="R215" s="7">
+        <v>104187</v>
+      </c>
+      <c r="S215" s="7">
+        <v>692</v>
+      </c>
+      <c r="T215" s="7">
+        <v>56758</v>
+      </c>
+      <c r="U215" s="7">
+        <v>4185</v>
+      </c>
+      <c r="V215" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A216" s="10">
+        <v>44089</v>
+      </c>
+      <c r="B216" s="2">
+        <v>214</v>
+      </c>
+      <c r="C216" s="1">
+        <v>164402</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4034</v>
+      </c>
+      <c r="E216" s="1">
+        <v>42528</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1147</v>
+      </c>
+      <c r="G216" s="1">
+        <v>11</v>
+      </c>
+      <c r="H216" s="3">
+        <v>13879</v>
+      </c>
+      <c r="I216" s="3">
+        <v>726</v>
+      </c>
+      <c r="J216" s="3">
+        <v>9103</v>
+      </c>
+      <c r="K216" s="3">
+        <v>646</v>
+      </c>
+      <c r="L216" s="3">
+        <v>4</v>
+      </c>
+      <c r="M216" s="4">
+        <v>34305</v>
+      </c>
+      <c r="N216" s="5">
+        <v>764</v>
+      </c>
+      <c r="O216" s="4">
+        <v>6194</v>
+      </c>
+      <c r="P216" s="6">
+        <v>757</v>
+      </c>
+      <c r="Q216" s="4">
+        <v>0</v>
+      </c>
+      <c r="R216" s="7">
+        <v>105298</v>
+      </c>
+      <c r="S216" s="7">
+        <v>1111</v>
+      </c>
+      <c r="T216" s="7">
+        <v>57818</v>
+      </c>
+      <c r="U216" s="7">
+        <v>4236</v>
+      </c>
+      <c r="V216" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A217" s="10">
+        <v>44090</v>
+      </c>
+      <c r="B217" s="2">
+        <v>215</v>
+      </c>
+      <c r="C217" s="1">
+        <v>170465</v>
+      </c>
+      <c r="D217" s="1">
+        <v>6063</v>
+      </c>
+      <c r="E217" s="1">
+        <v>46085</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1161</v>
+      </c>
+      <c r="G217" s="1">
+        <v>14</v>
+      </c>
+      <c r="H217" s="3">
+        <v>14460</v>
+      </c>
+      <c r="I217" s="3">
+        <v>581</v>
+      </c>
+      <c r="J217" s="3">
+        <v>9653</v>
+      </c>
+      <c r="K217" s="3">
+        <v>654</v>
+      </c>
+      <c r="L217" s="3">
+        <v>8</v>
+      </c>
+      <c r="M217" s="4">
+        <v>35073</v>
+      </c>
+      <c r="N217" s="5">
+        <v>768</v>
+      </c>
+      <c r="O217" s="4">
+        <v>6660</v>
+      </c>
+      <c r="P217" s="6">
+        <v>758</v>
+      </c>
+      <c r="Q217" s="4">
+        <v>1</v>
+      </c>
+      <c r="R217" s="7">
+        <v>107011</v>
+      </c>
+      <c r="S217" s="7">
+        <v>1713</v>
+      </c>
+      <c r="T217" s="7">
+        <v>59482</v>
+      </c>
+      <c r="U217" s="7">
+        <v>4285</v>
+      </c>
+      <c r="V217" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A218" s="10">
+        <v>44091</v>
+      </c>
+      <c r="B218" s="2">
+        <v>216</v>
+      </c>
+      <c r="C218" s="1">
+        <v>175256</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4791</v>
+      </c>
+      <c r="E218" s="1">
+        <v>47758</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1169</v>
+      </c>
+      <c r="G218" s="1">
+        <v>8</v>
+      </c>
+      <c r="H218" s="3">
+        <v>15170</v>
+      </c>
+      <c r="I218" s="3">
+        <v>710</v>
+      </c>
+      <c r="J218" s="3">
+        <v>10280</v>
+      </c>
+      <c r="K218" s="3">
+        <v>663</v>
+      </c>
+      <c r="L218" s="3">
+        <v>9</v>
+      </c>
+      <c r="M218" s="4">
+        <v>35853</v>
+      </c>
+      <c r="N218" s="5">
+        <v>780</v>
+      </c>
+      <c r="O218" s="4">
+        <v>7051</v>
+      </c>
+      <c r="P218" s="6">
+        <v>758</v>
+      </c>
+      <c r="Q218" s="4">
+        <v>0</v>
+      </c>
+      <c r="R218" s="7">
+        <v>108690</v>
+      </c>
+      <c r="S218" s="7">
+        <v>1679</v>
+      </c>
+      <c r="T218" s="7">
+        <v>61134</v>
+      </c>
+      <c r="U218" s="7">
+        <v>4312</v>
+      </c>
+      <c r="V218" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A219" s="10">
+        <v>44092</v>
+      </c>
+      <c r="B219" s="2">
+        <v>217</v>
+      </c>
+      <c r="C219" s="1">
+        <v>179071</v>
+      </c>
+      <c r="D219" s="1">
+        <v>3815</v>
+      </c>
+      <c r="E219" s="1">
+        <v>47851</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1196</v>
+      </c>
+      <c r="G219" s="1">
+        <v>27</v>
+      </c>
+      <c r="H219" s="3">
+        <v>16111</v>
+      </c>
+      <c r="I219" s="3">
+        <v>941</v>
+      </c>
+      <c r="J219" s="3">
+        <v>11202</v>
+      </c>
+      <c r="K219" s="3">
+        <v>669</v>
+      </c>
+      <c r="L219" s="3">
+        <v>6</v>
+      </c>
+      <c r="M219" s="4">
+        <v>36661</v>
+      </c>
+      <c r="N219" s="5">
+        <v>808</v>
+      </c>
+      <c r="O219" s="4">
+        <v>7447</v>
+      </c>
+      <c r="P219" s="6">
+        <v>763</v>
+      </c>
+      <c r="Q219" s="4">
+        <v>5</v>
+      </c>
+      <c r="R219" s="7">
+        <v>110217</v>
+      </c>
+      <c r="S219" s="7">
+        <v>1527</v>
+      </c>
+      <c r="T219" s="7">
+        <v>17622</v>
+      </c>
+      <c r="U219" s="7">
+        <v>4360</v>
+      </c>
+      <c r="V219" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A220" s="10">
+        <v>44093</v>
+      </c>
+      <c r="B220" s="2">
+        <v>218</v>
+      </c>
+      <c r="C220" s="1">
+        <v>183602</v>
+      </c>
+      <c r="D220" s="1">
+        <v>4531</v>
+      </c>
+      <c r="E220" s="1">
+        <v>49927</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1226</v>
+      </c>
+      <c r="G220" s="1">
+        <v>30</v>
+      </c>
+      <c r="H220" s="3">
+        <v>16920</v>
+      </c>
+      <c r="I220" s="3">
+        <v>809</v>
+      </c>
+      <c r="J220" s="3">
+        <v>11863</v>
+      </c>
+      <c r="K220" s="3">
+        <v>675</v>
+      </c>
+      <c r="L220" s="3">
+        <v>6</v>
+      </c>
+      <c r="M220" s="4">
+        <v>37474</v>
+      </c>
+      <c r="N220" s="5">
+        <v>813</v>
+      </c>
+      <c r="O220" s="4">
+        <v>7748</v>
+      </c>
+      <c r="P220" s="6">
+        <v>765</v>
+      </c>
+      <c r="Q220" s="4">
+        <v>2</v>
+      </c>
+      <c r="R220" s="7">
+        <v>111550</v>
+      </c>
+      <c r="S220" s="7">
+        <v>1333</v>
+      </c>
+      <c r="T220" s="7">
+        <v>18029</v>
+      </c>
+      <c r="U220" s="7">
+        <v>4402</v>
+      </c>
+      <c r="V220" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A221" s="10">
+        <v>44094</v>
+      </c>
+      <c r="B221" s="2">
+        <v>219</v>
+      </c>
+      <c r="C221" s="1">
+        <v>187902</v>
+      </c>
+      <c r="D221" s="1">
+        <v>4300</v>
+      </c>
+      <c r="E221" s="1">
+        <v>52577</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1256</v>
+      </c>
+      <c r="G221" s="1">
+        <v>30</v>
+      </c>
+      <c r="H221" s="3">
+        <v>17990</v>
+      </c>
+      <c r="I221" s="3">
+        <v>1070</v>
+      </c>
+      <c r="J221" s="3">
+        <v>12916</v>
+      </c>
+      <c r="K221" s="3">
+        <v>683</v>
+      </c>
+      <c r="L221" s="3">
+        <v>8</v>
+      </c>
+      <c r="M221" s="4">
+        <v>38095</v>
+      </c>
+      <c r="N221" s="5">
+        <v>621</v>
+      </c>
+      <c r="O221" s="4">
+        <v>8100</v>
+      </c>
+      <c r="P221" s="6">
+        <v>766</v>
+      </c>
+      <c r="Q221" s="4">
+        <v>1</v>
+      </c>
+      <c r="R221" s="7">
+        <v>112781</v>
+      </c>
+      <c r="S221" s="7">
+        <v>1231</v>
+      </c>
+      <c r="T221" s="7">
+        <v>18575</v>
+      </c>
+      <c r="U221" s="7">
+        <v>4435</v>
+      </c>
+      <c r="V221" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A222" s="10">
+        <v>44095</v>
+      </c>
+      <c r="B222" s="2">
+        <v>220</v>
+      </c>
+      <c r="C222" s="1">
+        <v>190929</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3027</v>
+      </c>
+      <c r="E222" s="1">
+        <v>52876</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1273</v>
+      </c>
+      <c r="G222" s="1">
+        <v>17</v>
+      </c>
+      <c r="H222" s="3">
+        <v>18866</v>
+      </c>
+      <c r="I222" s="3">
+        <v>876</v>
+      </c>
+      <c r="J222" s="3">
+        <v>13779</v>
+      </c>
+      <c r="K222" s="3">
+        <v>686</v>
+      </c>
+      <c r="L222" s="3">
+        <v>3</v>
+      </c>
+      <c r="M222" s="4">
+        <v>38658</v>
+      </c>
+      <c r="N222" s="5">
+        <v>563</v>
+      </c>
+      <c r="O222" s="4">
+        <v>8375</v>
+      </c>
+      <c r="P222" s="6">
+        <v>767</v>
+      </c>
+      <c r="Q222" s="4">
+        <v>1</v>
+      </c>
+      <c r="R222" s="7">
+        <v>113589</v>
+      </c>
+      <c r="S222" s="7">
+        <v>808</v>
+      </c>
+      <c r="T222" s="7">
+        <v>18482</v>
+      </c>
+      <c r="U222" s="7">
+        <v>4458</v>
+      </c>
+      <c r="V222" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A223" s="10">
+        <v>44096</v>
+      </c>
+      <c r="B223" s="2">
+        <v>221</v>
+      </c>
+      <c r="C223" s="1">
+        <v>193374</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2445</v>
+      </c>
+      <c r="E223" s="1">
+        <v>51338</v>
+      </c>
+      <c r="F223" s="1">
+        <v>1285</v>
+      </c>
+      <c r="G223" s="1">
+        <v>12</v>
+      </c>
+      <c r="H223" s="3">
+        <v>19499</v>
+      </c>
+      <c r="I223" s="3">
+        <v>633</v>
+      </c>
+      <c r="J223" s="3">
+        <v>14246</v>
+      </c>
+      <c r="K223" s="3">
+        <v>694</v>
+      </c>
+      <c r="L223" s="3">
+        <v>8</v>
+      </c>
+      <c r="M223" s="4">
+        <v>39303</v>
+      </c>
+      <c r="N223" s="5">
+        <v>645</v>
+      </c>
+      <c r="O223" s="4">
+        <v>8220</v>
+      </c>
+      <c r="P223" s="6">
+        <v>771</v>
+      </c>
+      <c r="Q223" s="4">
+        <v>4</v>
+      </c>
+      <c r="R223" s="7">
+        <v>114648</v>
+      </c>
+      <c r="S223" s="7">
+        <v>1059</v>
+      </c>
+      <c r="T223" s="7">
+        <v>17976</v>
+      </c>
+      <c r="U223" s="7">
+        <v>4503</v>
+      </c>
+      <c r="V223" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A224" s="10">
+        <v>44097</v>
+      </c>
+      <c r="B224" s="2">
+        <v>222</v>
+      </c>
+      <c r="C224" s="1">
+        <v>204690</v>
+      </c>
+      <c r="D224" s="1">
+        <v>11316</v>
+      </c>
+      <c r="E224" s="1">
+        <v>58402</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1325</v>
+      </c>
+      <c r="G224" s="1">
+        <v>40</v>
+      </c>
+      <c r="H224" s="3">
+        <v>20450</v>
+      </c>
+      <c r="I224" s="3">
+        <v>951</v>
+      </c>
+      <c r="J224" s="3">
+        <v>15104</v>
+      </c>
+      <c r="K224" s="3">
+        <v>702</v>
+      </c>
+      <c r="L224" s="3">
+        <v>8</v>
+      </c>
+      <c r="M224" s="4">
+        <v>39984</v>
+      </c>
+      <c r="N224" s="5">
+        <v>681</v>
+      </c>
+      <c r="O224" s="4">
+        <v>8258</v>
+      </c>
+      <c r="P224" s="6">
+        <v>777</v>
+      </c>
+      <c r="Q224" s="4">
+        <v>6</v>
+      </c>
+      <c r="R224" s="7">
+        <v>116415</v>
+      </c>
+      <c r="S224" s="7">
+        <v>1767</v>
+      </c>
+      <c r="T224" s="7">
+        <v>18307</v>
+      </c>
+      <c r="U224" s="7">
+        <v>4550</v>
+      </c>
+      <c r="V224" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A225" s="10">
+        <v>44098</v>
+      </c>
+      <c r="B225" s="2">
+        <v>223</v>
+      </c>
+      <c r="C225" s="1">
+        <v>212115</v>
+      </c>
+      <c r="D225" s="1">
+        <v>7425</v>
+      </c>
+      <c r="E225" s="1">
+        <v>61924</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1378</v>
+      </c>
+      <c r="G225" s="1">
+        <v>53</v>
+      </c>
+      <c r="H225" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I225" s="3">
+        <v>750</v>
+      </c>
+      <c r="J225" s="3">
+        <v>15673</v>
+      </c>
+      <c r="K225" s="3">
+        <v>709</v>
+      </c>
+      <c r="L225" s="3">
+        <v>7</v>
+      </c>
+      <c r="M225" s="4">
+        <v>40816</v>
+      </c>
+      <c r="N225" s="5">
+        <v>832</v>
+      </c>
+      <c r="O225" s="4">
+        <v>8372</v>
+      </c>
+      <c r="P225" s="6">
+        <v>783</v>
+      </c>
+      <c r="Q225" s="4">
+        <v>6</v>
+      </c>
+      <c r="R225" s="7">
+        <v>118054</v>
+      </c>
+      <c r="S225" s="7">
+        <v>1639</v>
+      </c>
+      <c r="T225" s="7">
+        <v>18586</v>
+      </c>
+      <c r="U225" s="7">
+        <v>4591</v>
+      </c>
+      <c r="V225" s="7">
         <v>41</v>
       </c>
     </row>

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92542D6A-A98B-4343-A71B-E4BAA1221577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD6A94-5261-4D79-84C6-27744886311C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13070" yWindow="750" windowWidth="23240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Austria</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>14-20</t>
+  </si>
+  <si>
+    <t>21-27</t>
+  </si>
+  <si>
+    <t>28-4</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z225"/>
+  <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB205" sqref="AB205"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T249" sqref="T249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2799,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
         <v>2</v>
@@ -2879,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>4</v>
@@ -2959,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="3">
         <v>4</v>
@@ -3039,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3">
         <v>5</v>
@@ -3119,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J25" s="3">
         <v>7</v>
@@ -3199,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J26" s="3">
         <v>9</v>
@@ -3279,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J27" s="3">
         <v>12</v>
@@ -3359,7 +3365,7 @@
         <v>13</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J28" s="3">
         <v>13</v>
@@ -3439,7 +3445,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J29" s="3">
         <v>16</v>
@@ -3519,7 +3525,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J30" s="3">
         <v>18</v>
@@ -3599,7 +3605,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
         <v>29</v>
@@ -3679,7 +3685,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J32" s="3">
         <v>30</v>
@@ -3759,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="I33" s="3">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="J33" s="3">
         <v>36</v>
@@ -3800,10 +3806,18 @@
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
+      <c r="W33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="20">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>9892</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>283</v>
+      </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
@@ -3831,7 +3845,7 @@
         <v>50</v>
       </c>
       <c r="I34" s="3">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J34" s="3">
         <v>47</v>
@@ -3872,8 +3886,12 @@
       <c r="V34" s="8">
         <v>0</v>
       </c>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
+      <c r="W34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="20">
+        <v>32</v>
+      </c>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
     </row>
@@ -3903,7 +3921,7 @@
         <v>58</v>
       </c>
       <c r="I35" s="3">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="J35" s="3">
         <v>55</v>
@@ -3975,7 +3993,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="3">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J36" s="3">
         <v>70</v>
@@ -4047,7 +4065,7 @@
         <v>85</v>
       </c>
       <c r="I37" s="3">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="J37" s="3">
         <v>74</v>
@@ -4119,7 +4137,7 @@
         <v>103</v>
       </c>
       <c r="I38" s="3">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="J38" s="3">
         <v>92</v>
@@ -4191,7 +4209,7 @@
         <v>131</v>
       </c>
       <c r="I39" s="3">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="J39" s="3">
         <v>109</v>
@@ -4263,7 +4281,7 @@
         <v>167</v>
       </c>
       <c r="I40" s="3">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="J40" s="3">
         <v>138</v>
@@ -4335,7 +4353,7 @@
         <v>187</v>
       </c>
       <c r="I41" s="3">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="J41" s="3">
         <v>157</v>
@@ -4407,7 +4425,7 @@
         <v>226</v>
       </c>
       <c r="I42" s="3">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="J42" s="3">
         <v>195</v>
@@ -4479,7 +4497,7 @@
         <v>261</v>
       </c>
       <c r="I43" s="3">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="J43" s="3">
         <v>223</v>
@@ -4551,7 +4569,7 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>256</v>
@@ -4623,7 +4641,7 @@
         <v>343</v>
       </c>
       <c r="I45" s="3">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="J45" s="3">
         <v>298</v>
@@ -4695,7 +4713,7 @@
         <v>408</v>
       </c>
       <c r="I46" s="3">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="J46" s="3">
         <v>361</v>
@@ -4767,7 +4785,7 @@
         <v>447</v>
       </c>
       <c r="I47" s="3">
-        <v>39</v>
+        <v>447</v>
       </c>
       <c r="J47" s="3">
         <v>398</v>
@@ -4839,7 +4857,7 @@
         <v>492</v>
       </c>
       <c r="I48" s="3">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="J48" s="3">
         <v>439</v>
@@ -4911,7 +4929,7 @@
         <v>525</v>
       </c>
       <c r="I49" s="3">
-        <v>33</v>
+        <v>525</v>
       </c>
       <c r="J49" s="3">
         <v>465</v>
@@ -4983,7 +5001,7 @@
         <v>585</v>
       </c>
       <c r="I50" s="3">
-        <v>60</v>
+        <v>585</v>
       </c>
       <c r="J50" s="3">
         <v>522</v>
@@ -5055,7 +5073,7 @@
         <v>623</v>
       </c>
       <c r="I51" s="3">
-        <v>38</v>
+        <v>623</v>
       </c>
       <c r="J51" s="3">
         <v>554</v>
@@ -5127,7 +5145,7 @@
         <v>678</v>
       </c>
       <c r="I52" s="3">
-        <v>55</v>
+        <v>678</v>
       </c>
       <c r="J52" s="3">
         <v>588</v>
@@ -5199,7 +5217,7 @@
         <v>733</v>
       </c>
       <c r="I53" s="3">
-        <v>55</v>
+        <v>733</v>
       </c>
       <c r="J53" s="3">
         <v>633</v>
@@ -5271,7 +5289,7 @@
         <v>744</v>
       </c>
       <c r="I54" s="3">
-        <v>11</v>
+        <v>744</v>
       </c>
       <c r="J54" s="3">
         <v>639</v>
@@ -5343,7 +5361,7 @@
         <v>817</v>
       </c>
       <c r="I55" s="3">
-        <v>73</v>
+        <v>817</v>
       </c>
       <c r="J55" s="3">
         <v>699</v>
@@ -5415,7 +5433,7 @@
         <v>895</v>
       </c>
       <c r="I56" s="3">
-        <v>78</v>
+        <v>895</v>
       </c>
       <c r="J56" s="3">
         <v>743</v>
@@ -5487,7 +5505,7 @@
         <v>980</v>
       </c>
       <c r="I57" s="3">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="J57" s="3">
         <v>818</v>
@@ -5559,7 +5577,7 @@
         <v>1190</v>
       </c>
       <c r="I58" s="3">
-        <v>210</v>
+        <v>1190</v>
       </c>
       <c r="J58" s="3">
         <v>1001</v>
@@ -5631,7 +5649,7 @@
         <v>1310</v>
       </c>
       <c r="I59" s="3">
-        <v>120</v>
+        <v>1310</v>
       </c>
       <c r="J59" s="3">
         <v>1110</v>
@@ -5703,7 +5721,7 @@
         <v>1410</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>1410</v>
       </c>
       <c r="J60" s="3">
         <v>1193</v>
@@ -5775,7 +5793,7 @@
         <v>1458</v>
       </c>
       <c r="I61" s="3">
-        <v>48</v>
+        <v>1458</v>
       </c>
       <c r="J61" s="3">
         <v>1229</v>
@@ -5847,7 +5865,7 @@
         <v>1512</v>
       </c>
       <c r="I62" s="3">
-        <v>54</v>
+        <v>1512</v>
       </c>
       <c r="J62" s="3">
         <v>1268</v>
@@ -5919,7 +5937,7 @@
         <v>1579</v>
       </c>
       <c r="I63" s="3">
-        <v>67</v>
+        <v>1579</v>
       </c>
       <c r="J63" s="3">
         <v>1253</v>
@@ -5991,7 +6009,7 @@
         <v>1652</v>
       </c>
       <c r="I64" s="3">
-        <v>73</v>
+        <v>1652</v>
       </c>
       <c r="J64" s="3">
         <v>1311</v>
@@ -6063,7 +6081,7 @@
         <v>1763</v>
       </c>
       <c r="I65" s="3">
-        <v>111</v>
+        <v>1763</v>
       </c>
       <c r="J65" s="3">
         <v>1400</v>
@@ -6135,7 +6153,7 @@
         <v>1834</v>
       </c>
       <c r="I66" s="3">
-        <v>71</v>
+        <v>1834</v>
       </c>
       <c r="J66" s="3">
         <v>1431</v>
@@ -6207,7 +6225,7 @@
         <v>1916</v>
       </c>
       <c r="I67" s="3">
-        <v>82</v>
+        <v>1916</v>
       </c>
       <c r="J67" s="3">
         <v>1477</v>
@@ -6279,7 +6297,7 @@
         <v>1984</v>
       </c>
       <c r="I68" s="3">
-        <v>68</v>
+        <v>1984</v>
       </c>
       <c r="J68" s="3">
         <v>1518</v>
@@ -6351,7 +6369,7 @@
         <v>2098</v>
       </c>
       <c r="I69" s="3">
-        <v>114</v>
+        <v>2098</v>
       </c>
       <c r="J69" s="3">
         <v>1598</v>
@@ -6423,7 +6441,7 @@
         <v>2168</v>
       </c>
       <c r="I70" s="3">
-        <v>70</v>
+        <v>2168</v>
       </c>
       <c r="J70" s="3">
         <v>1648</v>
@@ -6495,7 +6513,7 @@
         <v>2284</v>
       </c>
       <c r="I71" s="3">
-        <v>116</v>
+        <v>2284</v>
       </c>
       <c r="J71" s="3">
         <v>1655</v>
@@ -6567,7 +6585,7 @@
         <v>2383</v>
       </c>
       <c r="I72" s="3">
-        <v>99</v>
+        <v>2383</v>
       </c>
       <c r="J72" s="3">
         <v>1732</v>
@@ -6639,7 +6657,7 @@
         <v>2443</v>
       </c>
       <c r="I73" s="3">
-        <v>60</v>
+        <v>2443</v>
       </c>
       <c r="J73" s="3">
         <v>1723</v>
@@ -6711,7 +6729,7 @@
         <v>2500</v>
       </c>
       <c r="I74" s="3">
-        <v>57</v>
+        <v>2500</v>
       </c>
       <c r="J74" s="3">
         <v>1743</v>
@@ -6783,7 +6801,7 @@
         <v>2583</v>
       </c>
       <c r="I75" s="3">
-        <v>83</v>
+        <v>2583</v>
       </c>
       <c r="J75" s="3">
         <v>1805</v>
@@ -6855,7 +6873,7 @@
         <v>2649</v>
       </c>
       <c r="I76" s="3">
-        <v>66</v>
+        <v>2649</v>
       </c>
       <c r="J76" s="3">
         <v>1842</v>
@@ -6927,7 +6945,7 @@
         <v>2727</v>
       </c>
       <c r="I77" s="3">
-        <v>78</v>
+        <v>2727</v>
       </c>
       <c r="J77" s="3">
         <v>1891</v>
@@ -6999,7 +7017,7 @@
         <v>2775</v>
       </c>
       <c r="I78" s="3">
-        <v>48</v>
+        <v>2775</v>
       </c>
       <c r="J78" s="3">
         <v>1882</v>
@@ -7071,7 +7089,7 @@
         <v>2863</v>
       </c>
       <c r="I79" s="3">
-        <v>88</v>
+        <v>2863</v>
       </c>
       <c r="J79" s="3">
         <v>1931</v>
@@ -7143,7 +7161,7 @@
         <v>2942</v>
       </c>
       <c r="I80" s="3">
-        <v>79</v>
+        <v>2942</v>
       </c>
       <c r="J80" s="3">
         <v>1982</v>
@@ -7215,7 +7233,7 @@
         <v>2998</v>
       </c>
       <c r="I81" s="3">
-        <v>56</v>
+        <v>2998</v>
       </c>
       <c r="J81" s="3">
         <v>2029</v>
@@ -7287,7 +7305,7 @@
         <v>3035</v>
       </c>
       <c r="I82" s="3">
-        <v>37</v>
+        <v>3035</v>
       </c>
       <c r="J82" s="3">
         <v>2054</v>
@@ -7359,7 +7377,7 @@
         <v>3065</v>
       </c>
       <c r="I83" s="3">
-        <v>30</v>
+        <v>3065</v>
       </c>
       <c r="J83" s="3">
         <v>1993</v>
@@ -7431,7 +7449,7 @@
         <v>3111</v>
       </c>
       <c r="I84" s="3">
-        <v>46</v>
+        <v>3111</v>
       </c>
       <c r="J84" s="3">
         <v>1979</v>
@@ -7503,7 +7521,7 @@
         <v>3150</v>
       </c>
       <c r="I85" s="3">
-        <v>39</v>
+        <v>3150</v>
       </c>
       <c r="J85" s="3">
         <v>1966</v>
@@ -7575,7 +7593,7 @@
         <v>3178</v>
       </c>
       <c r="I86" s="3">
-        <v>28</v>
+        <v>3178</v>
       </c>
       <c r="J86" s="3">
         <v>1921</v>
@@ -7647,7 +7665,7 @@
         <v>3213</v>
       </c>
       <c r="I87" s="3">
-        <v>35</v>
+        <v>3213</v>
       </c>
       <c r="J87" s="3">
         <v>1904</v>
@@ -7719,7 +7737,7 @@
         <v>3263</v>
       </c>
       <c r="I88" s="3">
-        <v>50</v>
+        <v>3263</v>
       </c>
       <c r="J88" s="3">
         <v>1917</v>
@@ -7791,7 +7809,7 @@
         <v>3284</v>
       </c>
       <c r="I89" s="3">
-        <v>21</v>
+        <v>3284</v>
       </c>
       <c r="J89" s="3">
         <v>1905</v>
@@ -7863,7 +7881,7 @@
         <v>3313</v>
       </c>
       <c r="I90" s="3">
-        <v>29</v>
+        <v>3313</v>
       </c>
       <c r="J90" s="3">
         <v>1881</v>
@@ -7935,7 +7953,7 @@
         <v>3341</v>
       </c>
       <c r="I91" s="3">
-        <v>28</v>
+        <v>3341</v>
       </c>
       <c r="J91" s="3">
         <v>1809</v>
@@ -8007,7 +8025,7 @@
         <v>3380</v>
       </c>
       <c r="I92" s="3">
-        <v>39</v>
+        <v>3380</v>
       </c>
       <c r="J92" s="3">
         <v>1775</v>
@@ -8079,7 +8097,7 @@
         <v>3417</v>
       </c>
       <c r="I93" s="3">
-        <v>37</v>
+        <v>3417</v>
       </c>
       <c r="J93" s="3">
         <v>1688</v>
@@ -8151,7 +8169,7 @@
         <v>3473</v>
       </c>
       <c r="I94" s="3">
-        <v>56</v>
+        <v>3473</v>
       </c>
       <c r="J94" s="3">
         <v>1654</v>
@@ -8223,7 +8241,7 @@
         <v>3509</v>
       </c>
       <c r="I95" s="3">
-        <v>36</v>
+        <v>3509</v>
       </c>
       <c r="J95" s="3">
         <v>1662</v>
@@ -8295,7 +8313,7 @@
         <v>3535</v>
       </c>
       <c r="I96" s="3">
-        <v>26</v>
+        <v>3535</v>
       </c>
       <c r="J96" s="3">
         <v>1673</v>
@@ -8367,7 +8385,7 @@
         <v>3556</v>
       </c>
       <c r="I97" s="3">
-        <v>21</v>
+        <v>3556</v>
       </c>
       <c r="J97" s="3">
         <v>1677</v>
@@ -8439,7 +8457,7 @@
         <v>3598</v>
       </c>
       <c r="I98" s="3">
-        <v>42</v>
+        <v>3598</v>
       </c>
       <c r="J98" s="3">
         <v>1674</v>
@@ -8511,7 +8529,7 @@
         <v>3641</v>
       </c>
       <c r="I99" s="3">
-        <v>43</v>
+        <v>3641</v>
       </c>
       <c r="J99" s="3">
         <v>1659</v>
@@ -8583,7 +8601,7 @@
         <v>3678</v>
       </c>
       <c r="I100" s="3">
-        <v>37</v>
+        <v>3678</v>
       </c>
       <c r="J100" s="3">
         <v>1615</v>
@@ -8655,7 +8673,7 @@
         <v>3713</v>
       </c>
       <c r="I101" s="3">
-        <v>35</v>
+        <v>3713</v>
       </c>
       <c r="J101" s="3">
         <v>1576</v>
@@ -8727,7 +8745,7 @@
         <v>3741</v>
       </c>
       <c r="I102" s="3">
-        <v>28</v>
+        <v>3741</v>
       </c>
       <c r="J102" s="3">
         <v>1565</v>
@@ -8799,7 +8817,7 @@
         <v>3756</v>
       </c>
       <c r="I103" s="3">
-        <v>15</v>
+        <v>3756</v>
       </c>
       <c r="J103" s="3">
         <v>1554</v>
@@ -8871,7 +8889,7 @@
         <v>3771</v>
       </c>
       <c r="I104" s="3">
-        <v>15</v>
+        <v>3771</v>
       </c>
       <c r="J104" s="3">
         <v>1436</v>
@@ -8943,7 +8961,7 @@
         <v>3793</v>
       </c>
       <c r="I105" s="3">
-        <v>22</v>
+        <v>3793</v>
       </c>
       <c r="J105" s="3">
         <v>1432</v>
@@ -9015,7 +9033,7 @@
         <v>3816</v>
       </c>
       <c r="I106" s="3">
-        <v>23</v>
+        <v>3816</v>
       </c>
       <c r="J106" s="3">
         <v>1311</v>
@@ -9087,7 +9105,7 @@
         <v>3841</v>
       </c>
       <c r="I107" s="3">
-        <v>25</v>
+        <v>3841</v>
       </c>
       <c r="J107" s="3">
         <v>1300</v>
@@ -9159,7 +9177,7 @@
         <v>3867</v>
       </c>
       <c r="I108" s="3">
-        <v>26</v>
+        <v>3867</v>
       </c>
       <c r="J108" s="3">
         <v>1201</v>
@@ -9231,7 +9249,7 @@
         <v>3876</v>
       </c>
       <c r="I109" s="3">
-        <v>9</v>
+        <v>3876</v>
       </c>
       <c r="J109" s="3">
         <v>1203</v>
@@ -9303,7 +9321,7 @@
         <v>3892</v>
       </c>
       <c r="I110" s="3">
-        <v>16</v>
+        <v>3892</v>
       </c>
       <c r="J110" s="3">
         <v>1209</v>
@@ -9375,7 +9393,7 @@
         <v>3921</v>
       </c>
       <c r="I111" s="3">
-        <v>29</v>
+        <v>3921</v>
       </c>
       <c r="J111" s="3">
         <v>1229</v>
@@ -9447,7 +9465,7 @@
         <v>3931</v>
       </c>
       <c r="I112" s="3">
-        <v>10</v>
+        <v>3931</v>
       </c>
       <c r="J112" s="3">
         <v>1207</v>
@@ -9519,7 +9537,7 @@
         <v>3954</v>
       </c>
       <c r="I113" s="3">
-        <v>23</v>
+        <v>3954</v>
       </c>
       <c r="J113" s="3">
         <v>1210</v>
@@ -9591,7 +9609,7 @@
         <v>3970</v>
       </c>
       <c r="I114" s="3">
-        <v>16</v>
+        <v>3970</v>
       </c>
       <c r="J114" s="3">
         <v>1183</v>
@@ -9663,7 +9681,7 @@
         <v>3990</v>
       </c>
       <c r="I115" s="3">
-        <v>20</v>
+        <v>3990</v>
       </c>
       <c r="J115" s="3">
         <v>1166</v>
@@ -9735,7 +9753,7 @@
         <v>4008</v>
       </c>
       <c r="I116" s="3">
-        <v>18</v>
+        <v>4008</v>
       </c>
       <c r="J116" s="3">
         <v>1183</v>
@@ -9807,7 +9825,7 @@
         <v>4014</v>
       </c>
       <c r="I117" s="3">
-        <v>6</v>
+        <v>4014</v>
       </c>
       <c r="J117" s="3">
         <v>1182</v>
@@ -9879,7 +9897,7 @@
         <v>4017</v>
       </c>
       <c r="I118" s="3">
-        <v>3</v>
+        <v>4017</v>
       </c>
       <c r="J118" s="3">
         <v>1143</v>
@@ -9951,7 +9969,7 @@
         <v>4027</v>
       </c>
       <c r="I119" s="3">
-        <v>10</v>
+        <v>4027</v>
       </c>
       <c r="J119" s="3">
         <v>1121</v>
@@ -10023,7 +10041,7 @@
         <v>4039</v>
       </c>
       <c r="I120" s="3">
-        <v>12</v>
+        <v>4039</v>
       </c>
       <c r="J120" s="3">
         <v>1095</v>
@@ -10095,7 +10113,7 @@
         <v>4053</v>
       </c>
       <c r="I121" s="3">
-        <v>14</v>
+        <v>4053</v>
       </c>
       <c r="J121" s="3">
         <v>1051</v>
@@ -10167,7 +10185,7 @@
         <v>4064</v>
       </c>
       <c r="I122" s="3">
-        <v>11</v>
+        <v>4064</v>
       </c>
       <c r="J122" s="3">
         <v>1029</v>
@@ -10239,7 +10257,7 @@
         <v>4069</v>
       </c>
       <c r="I123" s="3">
-        <v>5</v>
+        <v>4069</v>
       </c>
       <c r="J123" s="3">
         <v>1025</v>
@@ -10311,7 +10329,7 @@
         <v>4076</v>
       </c>
       <c r="I124" s="3">
-        <v>7</v>
+        <v>4076</v>
       </c>
       <c r="J124" s="3">
         <v>1028</v>
@@ -10383,7 +10401,7 @@
         <v>4077</v>
       </c>
       <c r="I125" s="3">
-        <v>1</v>
+        <v>4077</v>
       </c>
       <c r="J125" s="3">
         <v>996</v>
@@ -10455,7 +10473,7 @@
         <v>4078</v>
       </c>
       <c r="I126" s="3">
-        <v>1</v>
+        <v>4078</v>
       </c>
       <c r="J126" s="3">
         <v>964</v>
@@ -10527,7 +10545,7 @@
         <v>4079</v>
       </c>
       <c r="I127" s="3">
-        <v>1</v>
+        <v>4079</v>
       </c>
       <c r="J127" s="3">
         <v>947</v>
@@ -10599,7 +10617,7 @@
         <v>4081</v>
       </c>
       <c r="I128" s="3">
-        <v>2</v>
+        <v>4081</v>
       </c>
       <c r="J128" s="3">
         <v>932</v>
@@ -10671,7 +10689,7 @@
         <v>4086</v>
       </c>
       <c r="I129" s="3">
-        <v>5</v>
+        <v>4086</v>
       </c>
       <c r="J129" s="3">
         <v>931</v>
@@ -10743,7 +10761,7 @@
         <v>4094</v>
       </c>
       <c r="I130" s="3">
-        <v>8</v>
+        <v>4094</v>
       </c>
       <c r="J130" s="3">
         <v>935</v>
@@ -10815,7 +10833,7 @@
         <v>4102</v>
       </c>
       <c r="I131" s="3">
-        <v>8</v>
+        <v>4102</v>
       </c>
       <c r="J131" s="3">
         <v>940</v>
@@ -10887,7 +10905,7 @@
         <v>4107</v>
       </c>
       <c r="I132" s="3">
-        <v>5</v>
+        <v>4107</v>
       </c>
       <c r="J132" s="3">
         <v>934</v>
@@ -10959,7 +10977,7 @@
         <v>4114</v>
       </c>
       <c r="I133" s="3">
-        <v>7</v>
+        <v>4114</v>
       </c>
       <c r="J133" s="3">
         <v>920</v>
@@ -11031,7 +11049,7 @@
         <v>4123</v>
       </c>
       <c r="I134" s="3">
-        <v>9</v>
+        <v>4123</v>
       </c>
       <c r="J134" s="3">
         <v>906</v>
@@ -11103,7 +11121,7 @@
         <v>4127</v>
       </c>
       <c r="I135" s="3">
-        <v>4</v>
+        <v>4127</v>
       </c>
       <c r="J135" s="3">
         <v>886</v>
@@ -11175,7 +11193,7 @@
         <v>4138</v>
       </c>
       <c r="I136" s="3">
-        <v>11</v>
+        <v>4138</v>
       </c>
       <c r="J136" s="3">
         <v>879</v>
@@ -11247,7 +11265,7 @@
         <v>4142</v>
       </c>
       <c r="I137" s="3">
-        <v>4</v>
+        <v>4142</v>
       </c>
       <c r="J137" s="3">
         <v>876</v>
@@ -11319,7 +11337,7 @@
         <v>4145</v>
       </c>
       <c r="I138" s="3">
-        <v>3</v>
+        <v>4145</v>
       </c>
       <c r="J138" s="3">
         <v>875</v>
@@ -11391,7 +11409,7 @@
         <v>4155</v>
       </c>
       <c r="I139" s="3">
-        <v>10</v>
+        <v>4155</v>
       </c>
       <c r="J139" s="3">
         <v>878</v>
@@ -11463,7 +11481,7 @@
         <v>4157</v>
       </c>
       <c r="I140" s="3">
-        <v>2</v>
+        <v>4157</v>
       </c>
       <c r="J140" s="3">
         <v>857</v>
@@ -11535,7 +11553,7 @@
         <v>4166</v>
       </c>
       <c r="I141" s="3">
-        <v>9</v>
+        <v>4166</v>
       </c>
       <c r="J141" s="3">
         <v>858</v>
@@ -11607,7 +11625,7 @@
         <v>4172</v>
       </c>
       <c r="I142" s="3">
-        <v>6</v>
+        <v>4172</v>
       </c>
       <c r="J142" s="3">
         <v>832</v>
@@ -11679,7 +11697,7 @@
         <v>4174</v>
       </c>
       <c r="I143" s="3">
-        <v>2</v>
+        <v>4174</v>
       </c>
       <c r="J143" s="3">
         <v>801</v>
@@ -11751,7 +11769,7 @@
         <v>4183</v>
       </c>
       <c r="I144" s="3">
-        <v>9</v>
+        <v>4183</v>
       </c>
       <c r="J144" s="3">
         <v>783</v>
@@ -11823,7 +11841,7 @@
         <v>4189</v>
       </c>
       <c r="I145" s="3">
-        <v>6</v>
+        <v>4189</v>
       </c>
       <c r="J145" s="3">
         <v>740</v>
@@ -11895,7 +11913,7 @@
         <v>4205</v>
       </c>
       <c r="I146" s="3">
-        <v>16</v>
+        <v>4205</v>
       </c>
       <c r="J146" s="3">
         <v>742</v>
@@ -11967,7 +11985,7 @@
         <v>4210</v>
       </c>
       <c r="I147" s="3">
-        <v>5</v>
+        <v>4210</v>
       </c>
       <c r="J147" s="3">
         <v>736</v>
@@ -12039,7 +12057,7 @@
         <v>4220</v>
       </c>
       <c r="I148" s="3">
-        <v>10</v>
+        <v>4220</v>
       </c>
       <c r="J148" s="3">
         <v>742</v>
@@ -12111,7 +12129,7 @@
         <v>4223</v>
       </c>
       <c r="I149" s="3">
-        <v>3</v>
+        <v>4223</v>
       </c>
       <c r="J149" s="3">
         <v>689</v>
@@ -12183,7 +12201,7 @@
         <v>4229</v>
       </c>
       <c r="I150" s="3">
-        <v>6</v>
+        <v>4229</v>
       </c>
       <c r="J150" s="3">
         <v>660</v>
@@ -12255,7 +12273,7 @@
         <v>4234</v>
       </c>
       <c r="I151" s="3">
-        <v>5</v>
+        <v>4234</v>
       </c>
       <c r="J151" s="3">
         <v>603</v>
@@ -12327,7 +12345,7 @@
         <v>4247</v>
       </c>
       <c r="I152" s="3">
-        <v>13</v>
+        <v>4247</v>
       </c>
       <c r="J152" s="3">
         <v>579</v>
@@ -12399,7 +12417,7 @@
         <v>4258</v>
       </c>
       <c r="I153" s="3">
-        <v>11</v>
+        <v>4258</v>
       </c>
       <c r="J153" s="3">
         <v>557</v>
@@ -12471,7 +12489,7 @@
         <v>4263</v>
       </c>
       <c r="I154" s="3">
-        <v>5</v>
+        <v>4263</v>
       </c>
       <c r="J154" s="3">
         <v>542</v>
@@ -12543,7 +12561,7 @@
         <v>4279</v>
       </c>
       <c r="I155" s="3">
-        <v>16</v>
+        <v>4279</v>
       </c>
       <c r="J155" s="3">
         <v>528</v>
@@ -12615,7 +12633,7 @@
         <v>4293</v>
       </c>
       <c r="I156" s="3">
-        <v>14</v>
+        <v>4293</v>
       </c>
       <c r="J156" s="3">
         <v>478</v>
@@ -12687,7 +12705,7 @@
         <v>4315</v>
       </c>
       <c r="I157" s="3">
-        <v>22</v>
+        <v>4315</v>
       </c>
       <c r="J157" s="3">
         <v>497</v>
@@ -12759,7 +12777,7 @@
         <v>4333</v>
       </c>
       <c r="I158" s="3">
-        <v>18</v>
+        <v>4333</v>
       </c>
       <c r="J158" s="3">
         <v>514</v>
@@ -12831,7 +12849,7 @@
         <v>4339</v>
       </c>
       <c r="I159" s="3">
-        <v>6</v>
+        <v>4339</v>
       </c>
       <c r="J159" s="3">
         <v>511</v>
@@ -12903,7 +12921,7 @@
         <v>4347</v>
       </c>
       <c r="I160" s="3">
-        <v>8</v>
+        <v>4347</v>
       </c>
       <c r="J160" s="3">
         <v>494</v>
@@ -12975,7 +12993,7 @@
         <v>4366</v>
       </c>
       <c r="I161" s="3">
-        <v>19</v>
+        <v>4366</v>
       </c>
       <c r="J161" s="3">
         <v>487</v>
@@ -13047,7 +13065,7 @@
         <v>4380</v>
       </c>
       <c r="I162" s="3">
-        <v>14</v>
+        <v>4380</v>
       </c>
       <c r="J162" s="3">
         <v>484</v>
@@ -13119,7 +13137,7 @@
         <v>4398</v>
       </c>
       <c r="I163" s="3">
-        <v>18</v>
+        <v>4398</v>
       </c>
       <c r="J163" s="3">
         <v>490</v>
@@ -13191,7 +13209,7 @@
         <v>4424</v>
       </c>
       <c r="I164" s="3">
-        <v>26</v>
+        <v>4424</v>
       </c>
       <c r="J164" s="3">
         <v>504</v>
@@ -13263,7 +13281,7 @@
         <v>4435</v>
       </c>
       <c r="I165" s="3">
-        <v>11</v>
+        <v>4435</v>
       </c>
       <c r="J165" s="3">
         <v>510</v>
@@ -13335,7 +13353,7 @@
         <v>4448</v>
       </c>
       <c r="I166" s="3">
-        <v>13</v>
+        <v>4448</v>
       </c>
       <c r="J166" s="3">
         <v>523</v>
@@ -13407,7 +13425,7 @@
         <v>4456</v>
       </c>
       <c r="I167" s="3">
-        <v>8</v>
+        <v>4456</v>
       </c>
       <c r="J167" s="3">
         <v>529</v>
@@ -13479,7 +13497,7 @@
         <v>4465</v>
       </c>
       <c r="I168" s="3">
-        <v>9</v>
+        <v>4465</v>
       </c>
       <c r="J168" s="3">
         <v>530</v>
@@ -13551,7 +13569,7 @@
         <v>4484</v>
       </c>
       <c r="I169" s="3">
-        <v>19</v>
+        <v>4484</v>
       </c>
       <c r="J169" s="3">
         <v>542</v>
@@ -13623,7 +13641,7 @@
         <v>4505</v>
       </c>
       <c r="I170" s="3">
-        <v>21</v>
+        <v>4505</v>
       </c>
       <c r="J170" s="3">
         <v>556</v>
@@ -13695,7 +13713,7 @@
         <v>4526</v>
       </c>
       <c r="I171" s="3">
-        <v>21</v>
+        <v>4526</v>
       </c>
       <c r="J171" s="3">
         <v>565</v>
@@ -13767,7 +13785,7 @@
         <v>4535</v>
       </c>
       <c r="I172" s="3">
-        <v>9</v>
+        <v>4535</v>
       </c>
       <c r="J172" s="3">
         <v>549</v>
@@ -13835,7 +13853,7 @@
         <v>4544</v>
       </c>
       <c r="I173" s="3">
-        <v>9</v>
+        <v>4544</v>
       </c>
       <c r="J173" s="3">
         <v>534</v>
@@ -13903,7 +13921,7 @@
         <v>4553</v>
       </c>
       <c r="I174" s="3">
-        <v>9</v>
+        <v>4553</v>
       </c>
       <c r="J174" s="3">
         <v>540</v>
@@ -13971,7 +13989,7 @@
         <v>4564</v>
       </c>
       <c r="I175" s="12">
-        <v>11</v>
+        <v>4564</v>
       </c>
       <c r="J175" s="12">
         <v>534</v>
@@ -14039,7 +14057,7 @@
         <v>4597</v>
       </c>
       <c r="I176" s="3">
-        <v>33</v>
+        <v>4597</v>
       </c>
       <c r="J176" s="3">
         <v>534</v>
@@ -14107,7 +14125,7 @@
         <v>4621</v>
       </c>
       <c r="I177" s="3">
-        <v>24</v>
+        <v>4621</v>
       </c>
       <c r="J177" s="3">
         <v>555</v>
@@ -14175,7 +14193,7 @@
         <v>4653</v>
       </c>
       <c r="I178" s="3">
-        <v>32</v>
+        <v>4653</v>
       </c>
       <c r="J178" s="3">
         <v>560</v>
@@ -14243,7 +14261,7 @@
         <v>4696</v>
       </c>
       <c r="I179" s="3">
-        <v>43</v>
+        <v>4696</v>
       </c>
       <c r="J179" s="3">
         <v>595</v>
@@ -14311,7 +14329,7 @@
         <v>4731</v>
       </c>
       <c r="I180" s="3">
-        <v>35</v>
+        <v>4731</v>
       </c>
       <c r="J180" s="3">
         <v>601</v>
@@ -14379,7 +14397,7 @@
         <v>4746</v>
       </c>
       <c r="I181" s="3">
-        <v>15</v>
+        <v>4746</v>
       </c>
       <c r="J181" s="3">
         <v>614</v>
@@ -14447,7 +14465,7 @@
         <v>4768</v>
       </c>
       <c r="I182" s="3">
-        <v>22</v>
+        <v>4768</v>
       </c>
       <c r="J182" s="3">
         <v>634</v>
@@ -14515,7 +14533,7 @@
         <v>4813</v>
       </c>
       <c r="I183" s="3">
-        <v>45</v>
+        <v>4813</v>
       </c>
       <c r="J183" s="3">
         <v>645</v>
@@ -14583,7 +14601,7 @@
         <v>4853</v>
       </c>
       <c r="I184" s="3">
-        <v>40</v>
+        <v>4853</v>
       </c>
       <c r="J184" s="3">
         <v>656</v>
@@ -14651,7 +14669,7 @@
         <v>4877</v>
       </c>
       <c r="I185" s="3">
-        <v>24</v>
+        <v>4877</v>
       </c>
       <c r="J185" s="3">
         <v>664</v>
@@ -14719,7 +14737,7 @@
         <v>4916</v>
       </c>
       <c r="I186" s="3">
-        <v>39</v>
+        <v>4916</v>
       </c>
       <c r="J186" s="3">
         <v>685</v>
@@ -14787,7 +14805,7 @@
         <v>4946</v>
       </c>
       <c r="I187" s="3">
-        <v>30</v>
+        <v>4946</v>
       </c>
       <c r="J187" s="3">
         <v>708</v>
@@ -14855,7 +14873,7 @@
         <v>4970</v>
       </c>
       <c r="I188" s="3">
-        <v>24</v>
+        <v>4970</v>
       </c>
       <c r="J188" s="3">
         <v>730</v>
@@ -14923,7 +14941,7 @@
         <v>5002</v>
       </c>
       <c r="I189" s="3">
-        <v>32</v>
+        <v>5002</v>
       </c>
       <c r="J189" s="3">
         <v>728</v>
@@ -14991,7 +15009,7 @@
         <v>5046</v>
       </c>
       <c r="I190" s="3">
-        <v>44</v>
+        <v>5046</v>
       </c>
       <c r="J190" s="3">
         <v>759</v>
@@ -15059,7 +15077,7 @@
         <v>5098</v>
       </c>
       <c r="I191" s="3">
-        <v>52</v>
+        <v>5098</v>
       </c>
       <c r="J191" s="3">
         <v>806</v>
@@ -15127,7 +15145,7 @@
         <v>5133</v>
       </c>
       <c r="I192" s="3">
-        <v>35</v>
+        <v>5133</v>
       </c>
       <c r="J192" s="3">
         <v>830</v>
@@ -15195,7 +15213,7 @@
         <v>5155</v>
       </c>
       <c r="I193" s="3">
-        <v>22</v>
+        <v>5155</v>
       </c>
       <c r="J193" s="3">
         <v>847</v>
@@ -15263,7 +15281,7 @@
         <v>5191</v>
       </c>
       <c r="I194" s="3">
-        <v>36</v>
+        <v>5191</v>
       </c>
       <c r="J194" s="3">
         <v>883</v>
@@ -15331,7 +15349,7 @@
         <v>5215</v>
       </c>
       <c r="I195" s="3">
-        <v>24</v>
+        <v>5215</v>
       </c>
       <c r="J195" s="3">
         <v>885</v>
@@ -15399,7 +15417,7 @@
         <v>5288</v>
       </c>
       <c r="I196" s="3">
-        <v>73</v>
+        <v>5288</v>
       </c>
       <c r="J196" s="3">
         <v>940</v>
@@ -15467,7 +15485,7 @@
         <v>5379</v>
       </c>
       <c r="I197" s="3">
-        <v>91</v>
+        <v>5379</v>
       </c>
       <c r="J197" s="3">
         <v>1008</v>
@@ -15535,7 +15553,7 @@
         <v>5511</v>
       </c>
       <c r="I198" s="3">
-        <v>132</v>
+        <v>5511</v>
       </c>
       <c r="J198" s="3">
         <v>1138</v>
@@ -15603,7 +15621,7 @@
         <v>5669</v>
       </c>
       <c r="I199" s="3">
-        <v>158</v>
+        <v>5669</v>
       </c>
       <c r="J199" s="3">
         <v>1296</v>
@@ -15671,7 +15689,7 @@
         <v>5961</v>
       </c>
       <c r="I200" s="3">
-        <v>292</v>
+        <v>5961</v>
       </c>
       <c r="J200" s="3">
         <v>1588</v>
@@ -15739,7 +15757,7 @@
         <v>6139</v>
       </c>
       <c r="I201" s="3">
-        <v>178</v>
+        <v>6139</v>
       </c>
       <c r="J201" s="3">
         <v>1763</v>
@@ -15807,7 +15825,7 @@
         <v>6257</v>
       </c>
       <c r="I202" s="3">
-        <v>118</v>
+        <v>6257</v>
       </c>
       <c r="J202" s="3">
         <v>1820</v>
@@ -15875,7 +15893,7 @@
         <v>6622</v>
       </c>
       <c r="I203" s="3">
-        <v>365</v>
+        <v>6622</v>
       </c>
       <c r="J203" s="3">
         <v>2100</v>
@@ -15943,7 +15961,7 @@
         <v>6923</v>
       </c>
       <c r="I204" s="3">
-        <v>301</v>
+        <v>6923</v>
       </c>
       <c r="J204" s="3">
         <v>2373</v>
@@ -16011,7 +16029,7 @@
         <v>7382</v>
       </c>
       <c r="I205" s="3">
-        <v>459</v>
+        <v>7382</v>
       </c>
       <c r="J205" s="3">
         <v>2817</v>
@@ -16079,7 +16097,7 @@
         <v>7892</v>
       </c>
       <c r="I206" s="3">
-        <v>510</v>
+        <v>7892</v>
       </c>
       <c r="J206" s="3">
         <v>3316</v>
@@ -16147,7 +16165,7 @@
         <v>8387</v>
       </c>
       <c r="I207" s="3">
-        <v>495</v>
+        <v>8387</v>
       </c>
       <c r="J207" s="3">
         <v>3805</v>
@@ -16215,7 +16233,7 @@
         <v>8963</v>
       </c>
       <c r="I208" s="3">
-        <v>576</v>
+        <v>8963</v>
       </c>
       <c r="J208" s="3">
         <v>4377</v>
@@ -16283,7 +16301,7 @@
         <v>9304</v>
       </c>
       <c r="I209" s="3">
-        <v>341</v>
+        <v>9304</v>
       </c>
       <c r="J209" s="3">
         <v>4706</v>
@@ -16351,7 +16369,7 @@
         <v>9715</v>
       </c>
       <c r="I210" s="3">
-        <v>411</v>
+        <v>9715</v>
       </c>
       <c r="J210" s="3">
         <v>5103</v>
@@ -16419,7 +16437,7 @@
         <v>10191</v>
       </c>
       <c r="I211" s="3">
-        <v>476</v>
+        <v>10191</v>
       </c>
       <c r="J211" s="3">
         <v>5571</v>
@@ -16487,7 +16505,7 @@
         <v>10909</v>
       </c>
       <c r="I212" s="3">
-        <v>718</v>
+        <v>10909</v>
       </c>
       <c r="J212" s="3">
         <v>6264</v>
@@ -16555,7 +16573,7 @@
         <v>11825</v>
       </c>
       <c r="I213" s="3">
-        <v>916</v>
+        <v>11825</v>
       </c>
       <c r="J213" s="3">
         <v>7134</v>
@@ -16623,7 +16641,7 @@
         <v>12309</v>
       </c>
       <c r="I214" s="3">
-        <v>484</v>
+        <v>12309</v>
       </c>
       <c r="J214" s="3">
         <v>7603</v>
@@ -16691,7 +16709,7 @@
         <v>13153</v>
       </c>
       <c r="I215" s="3">
-        <v>844</v>
+        <v>13153</v>
       </c>
       <c r="J215" s="3">
         <v>8394</v>
@@ -16759,7 +16777,7 @@
         <v>13879</v>
       </c>
       <c r="I216" s="3">
-        <v>726</v>
+        <v>13879</v>
       </c>
       <c r="J216" s="3">
         <v>9103</v>
@@ -16827,7 +16845,7 @@
         <v>14460</v>
       </c>
       <c r="I217" s="3">
-        <v>581</v>
+        <v>14460</v>
       </c>
       <c r="J217" s="3">
         <v>9653</v>
@@ -16895,7 +16913,7 @@
         <v>15170</v>
       </c>
       <c r="I218" s="3">
-        <v>710</v>
+        <v>15170</v>
       </c>
       <c r="J218" s="3">
         <v>10280</v>
@@ -16963,7 +16981,7 @@
         <v>16111</v>
       </c>
       <c r="I219" s="3">
-        <v>941</v>
+        <v>16111</v>
       </c>
       <c r="J219" s="3">
         <v>11202</v>
@@ -17031,7 +17049,7 @@
         <v>16920</v>
       </c>
       <c r="I220" s="3">
-        <v>809</v>
+        <v>16920</v>
       </c>
       <c r="J220" s="3">
         <v>11863</v>
@@ -17099,7 +17117,7 @@
         <v>17990</v>
       </c>
       <c r="I221" s="3">
-        <v>1070</v>
+        <v>17990</v>
       </c>
       <c r="J221" s="3">
         <v>12916</v>
@@ -17167,7 +17185,7 @@
         <v>18866</v>
       </c>
       <c r="I222" s="3">
-        <v>876</v>
+        <v>18866</v>
       </c>
       <c r="J222" s="3">
         <v>13779</v>
@@ -17235,7 +17253,7 @@
         <v>19499</v>
       </c>
       <c r="I223" s="3">
-        <v>633</v>
+        <v>19499</v>
       </c>
       <c r="J223" s="3">
         <v>14246</v>
@@ -17303,7 +17321,7 @@
         <v>20450</v>
       </c>
       <c r="I224" s="3">
-        <v>951</v>
+        <v>20450</v>
       </c>
       <c r="J224" s="3">
         <v>15104</v>
@@ -17371,7 +17389,7 @@
         <v>21200</v>
       </c>
       <c r="I225" s="3">
-        <v>750</v>
+        <v>21200</v>
       </c>
       <c r="J225" s="3">
         <v>15673</v>
@@ -17412,6 +17430,621 @@
       <c r="V225" s="7">
         <v>41</v>
       </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A226" s="10">
+        <v>44099</v>
+      </c>
+      <c r="B226" s="2">
+        <v>224</v>
+      </c>
+      <c r="C226" s="1">
+        <v>217899</v>
+      </c>
+      <c r="D226" s="1">
+        <v>5784</v>
+      </c>
+      <c r="E226" s="1">
+        <v>62913</v>
+      </c>
+      <c r="F226" s="1">
+        <v>1412</v>
+      </c>
+      <c r="G226" s="1">
+        <v>34</v>
+      </c>
+      <c r="H226" s="3">
+        <v>22127</v>
+      </c>
+      <c r="I226" s="3">
+        <v>22127</v>
+      </c>
+      <c r="J226" s="3">
+        <v>16464</v>
+      </c>
+      <c r="K226" s="3">
+        <v>718</v>
+      </c>
+      <c r="L226" s="3">
+        <v>9</v>
+      </c>
+      <c r="M226" s="4">
+        <v>41500</v>
+      </c>
+      <c r="N226" s="5">
+        <v>684</v>
+      </c>
+      <c r="O226" s="4">
+        <v>8413</v>
+      </c>
+      <c r="P226" s="6">
+        <v>786</v>
+      </c>
+      <c r="Q226" s="4">
+        <v>3</v>
+      </c>
+      <c r="R226" s="7">
+        <v>119683</v>
+      </c>
+      <c r="S226" s="7">
+        <v>1629</v>
+      </c>
+      <c r="T226" s="7">
+        <v>18892</v>
+      </c>
+      <c r="U226" s="7">
+        <v>4633</v>
+      </c>
+      <c r="V226" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A227" s="10">
+        <v>44100</v>
+      </c>
+      <c r="B227" s="2">
+        <v>225</v>
+      </c>
+      <c r="C227" s="1">
+        <v>227100</v>
+      </c>
+      <c r="D227" s="1">
+        <v>9201</v>
+      </c>
+      <c r="E227" s="1">
+        <v>68122</v>
+      </c>
+      <c r="F227" s="1">
+        <v>1441</v>
+      </c>
+      <c r="G227" s="1">
+        <v>29</v>
+      </c>
+      <c r="H227" s="3">
+        <v>23077</v>
+      </c>
+      <c r="I227" s="3">
+        <v>23077</v>
+      </c>
+      <c r="J227" s="3">
+        <v>17248</v>
+      </c>
+      <c r="K227" s="3">
+        <v>730</v>
+      </c>
+      <c r="L227" s="3">
+        <v>12</v>
+      </c>
+      <c r="M227" s="4">
+        <v>42214</v>
+      </c>
+      <c r="N227" s="5">
+        <v>714</v>
+      </c>
+      <c r="O227" s="4">
+        <v>8273</v>
+      </c>
+      <c r="P227" s="6">
+        <v>787</v>
+      </c>
+      <c r="Q227" s="4">
+        <v>1</v>
+      </c>
+      <c r="R227" s="7">
+        <v>121235</v>
+      </c>
+      <c r="S227" s="7">
+        <v>1552</v>
+      </c>
+      <c r="T227" s="7">
+        <v>18994</v>
+      </c>
+      <c r="U227" s="7">
+        <v>4687</v>
+      </c>
+      <c r="V227" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A228" s="10">
+        <v>44101</v>
+      </c>
+      <c r="B228" s="2">
+        <v>226</v>
+      </c>
+      <c r="C228" s="1">
+        <v>231026</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3926</v>
+      </c>
+      <c r="E228" s="1">
+        <v>69629</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1466</v>
+      </c>
+      <c r="G228" s="1">
+        <v>25</v>
+      </c>
+      <c r="H228" s="3">
+        <v>24014</v>
+      </c>
+      <c r="I228" s="3">
+        <v>24014</v>
+      </c>
+      <c r="J228" s="3">
+        <v>18137</v>
+      </c>
+      <c r="K228" s="3">
+        <v>736</v>
+      </c>
+      <c r="L228" s="3">
+        <v>6</v>
+      </c>
+      <c r="M228" s="4">
+        <v>42876</v>
+      </c>
+      <c r="N228" s="5">
+        <v>662</v>
+      </c>
+      <c r="O228" s="4">
+        <v>8500</v>
+      </c>
+      <c r="P228" s="6">
+        <v>787</v>
+      </c>
+      <c r="Q228" s="4">
+        <v>0</v>
+      </c>
+      <c r="R228" s="7">
+        <v>122673</v>
+      </c>
+      <c r="S228" s="7">
+        <v>1438</v>
+      </c>
+      <c r="T228" s="7">
+        <v>19348</v>
+      </c>
+      <c r="U228" s="7">
+        <v>4718</v>
+      </c>
+      <c r="V228" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A229" s="10">
+        <v>44102</v>
+      </c>
+      <c r="B229" s="2">
+        <v>227</v>
+      </c>
+      <c r="C229" s="1">
+        <v>233265</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2239</v>
+      </c>
+      <c r="E229" s="1">
+        <v>66567</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1507</v>
+      </c>
+      <c r="G229" s="1">
+        <v>41</v>
+      </c>
+      <c r="H229" s="3">
+        <v>24716</v>
+      </c>
+      <c r="I229" s="3">
+        <v>24716</v>
+      </c>
+      <c r="J229" s="3">
+        <v>18815</v>
+      </c>
+      <c r="K229" s="3">
+        <v>749</v>
+      </c>
+      <c r="L229" s="3">
+        <v>13</v>
+      </c>
+      <c r="M229" s="4">
+        <v>43432</v>
+      </c>
+      <c r="N229" s="5">
+        <v>556</v>
+      </c>
+      <c r="O229" s="4">
+        <v>8590</v>
+      </c>
+      <c r="P229" s="6">
+        <v>790</v>
+      </c>
+      <c r="Q229" s="4">
+        <v>3</v>
+      </c>
+      <c r="R229" s="7">
+        <v>123944</v>
+      </c>
+      <c r="S229" s="7">
+        <v>1271</v>
+      </c>
+      <c r="T229" s="7">
+        <v>19852</v>
+      </c>
+      <c r="U229" s="7">
+        <v>4748</v>
+      </c>
+      <c r="V229" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A230" s="10">
+        <v>44103</v>
+      </c>
+      <c r="B230" s="2">
+        <v>228</v>
+      </c>
+      <c r="C230" s="1">
+        <v>236926</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3661</v>
+      </c>
+      <c r="E230" s="1">
+        <v>67594</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1528</v>
+      </c>
+      <c r="G230" s="1">
+        <v>21</v>
+      </c>
+      <c r="H230" s="3">
+        <v>25567</v>
+      </c>
+      <c r="I230" s="3">
+        <v>25567</v>
+      </c>
+      <c r="J230" s="3">
+        <v>19637</v>
+      </c>
+      <c r="K230" s="3">
+        <v>757</v>
+      </c>
+      <c r="L230" s="3">
+        <v>8</v>
+      </c>
+      <c r="M230" s="4">
+        <v>44041</v>
+      </c>
+      <c r="N230" s="5">
+        <v>609</v>
+      </c>
+      <c r="O230" s="4">
+        <v>8329</v>
+      </c>
+      <c r="P230" s="6">
+        <v>796</v>
+      </c>
+      <c r="Q230" s="4">
+        <v>6</v>
+      </c>
+      <c r="R230" s="7">
+        <v>125414</v>
+      </c>
+      <c r="S230" s="7">
+        <v>1470</v>
+      </c>
+      <c r="T230" s="7">
+        <v>19986</v>
+      </c>
+      <c r="U230" s="7">
+        <v>4792</v>
+      </c>
+      <c r="V230" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A231" s="10">
+        <v>44104</v>
+      </c>
+      <c r="B231" s="2">
+        <v>229</v>
+      </c>
+      <c r="C231" s="1">
+        <v>245494</v>
+      </c>
+      <c r="D231" s="1">
+        <v>8568</v>
+      </c>
+      <c r="E231" s="1">
+        <v>69419</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1569</v>
+      </c>
+      <c r="G231" s="1">
+        <v>41</v>
+      </c>
+      <c r="H231" s="3">
+        <v>26461</v>
+      </c>
+      <c r="I231" s="3">
+        <v>26461</v>
+      </c>
+      <c r="J231" s="3">
+        <v>19806</v>
+      </c>
+      <c r="K231" s="3">
+        <v>765</v>
+      </c>
+      <c r="L231" s="3">
+        <v>8</v>
+      </c>
+      <c r="M231" s="4">
+        <v>44813</v>
+      </c>
+      <c r="N231" s="5">
+        <v>772</v>
+      </c>
+      <c r="O231" s="4">
+        <v>8370</v>
+      </c>
+      <c r="P231" s="6">
+        <v>799</v>
+      </c>
+      <c r="Q231" s="4">
+        <v>3</v>
+      </c>
+      <c r="R231" s="7">
+        <v>127572</v>
+      </c>
+      <c r="S231" s="7">
+        <v>2158</v>
+      </c>
+      <c r="T231" s="7">
+        <v>20271</v>
+      </c>
+      <c r="U231" s="7">
+        <v>4825</v>
+      </c>
+      <c r="V231" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A232" s="10">
+        <v>44105</v>
+      </c>
+      <c r="B232" s="2">
+        <v>230</v>
+      </c>
+      <c r="C232" s="1">
+        <v>253490</v>
+      </c>
+      <c r="D232" s="1">
+        <v>7996</v>
+      </c>
+      <c r="E232" s="1">
+        <v>72400</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1622</v>
+      </c>
+      <c r="G232" s="1">
+        <v>53</v>
+      </c>
+      <c r="H232" s="3">
+        <v>27309</v>
+      </c>
+      <c r="I232" s="3">
+        <v>27309</v>
+      </c>
+      <c r="J232" s="3">
+        <v>20410</v>
+      </c>
+      <c r="K232" s="3">
+        <v>781</v>
+      </c>
+      <c r="L232" s="3">
+        <v>16</v>
+      </c>
+      <c r="M232" s="4">
+        <v>45686</v>
+      </c>
+      <c r="N232" s="5">
+        <v>873</v>
+      </c>
+      <c r="O232" s="4">
+        <v>8408</v>
+      </c>
+      <c r="P232" s="6">
+        <v>802</v>
+      </c>
+      <c r="Q232" s="4">
+        <v>3</v>
+      </c>
+      <c r="R232" s="7">
+        <v>129658</v>
+      </c>
+      <c r="S232" s="7">
+        <v>2086</v>
+      </c>
+      <c r="T232" s="7">
+        <v>20802</v>
+      </c>
+      <c r="U232" s="7">
+        <v>4862</v>
+      </c>
+      <c r="V232" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A233" s="10">
+        <v>44106</v>
+      </c>
+      <c r="B233" s="2">
+        <v>231</v>
+      </c>
+      <c r="C233" s="1">
+        <v>258920</v>
+      </c>
+      <c r="D233" s="1">
+        <v>5430</v>
+      </c>
+      <c r="E233" s="1">
+        <v>72165</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1633</v>
+      </c>
+      <c r="G233" s="1">
+        <v>11</v>
+      </c>
+      <c r="H233" s="3">
+        <v>28631</v>
+      </c>
+      <c r="I233" s="3">
+        <v>28631</v>
+      </c>
+      <c r="J233" s="3">
+        <v>21484</v>
+      </c>
+      <c r="K233" s="3">
+        <v>798</v>
+      </c>
+      <c r="L233" s="3">
+        <v>17</v>
+      </c>
+      <c r="M233" s="4">
+        <v>46374</v>
+      </c>
+      <c r="N233" s="5">
+        <v>688</v>
+      </c>
+      <c r="O233" s="4">
+        <v>8385</v>
+      </c>
+      <c r="P233" s="6">
+        <v>803</v>
+      </c>
+      <c r="Q233" s="4">
+        <v>1</v>
+      </c>
+      <c r="R233" s="7">
+        <v>132001</v>
+      </c>
+      <c r="S233" s="7">
+        <v>2343</v>
+      </c>
+      <c r="T233" s="7">
+        <v>21504</v>
+      </c>
+      <c r="U233" s="7">
+        <v>4915</v>
+      </c>
+      <c r="V233" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A234" s="10">
+        <v>44107</v>
+      </c>
+      <c r="B234" s="2">
+        <v>232</v>
+      </c>
+      <c r="C234" s="1">
+        <v>264443</v>
+      </c>
+      <c r="D234" s="1">
+        <v>5523</v>
+      </c>
+      <c r="E234" s="1">
+        <v>71510</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1682</v>
+      </c>
+      <c r="G234" s="1">
+        <v>49</v>
+      </c>
+      <c r="H234" s="3">
+        <v>29717</v>
+      </c>
+      <c r="I234" s="3">
+        <v>29717</v>
+      </c>
+      <c r="J234" s="3">
+        <v>22081</v>
+      </c>
+      <c r="K234" s="3">
+        <v>812</v>
+      </c>
+      <c r="L234" s="3">
+        <v>14</v>
+      </c>
+      <c r="M234" s="4">
+        <v>47432</v>
+      </c>
+      <c r="N234" s="5">
+        <v>1058</v>
+      </c>
+      <c r="O234" s="4">
+        <v>8578</v>
+      </c>
+      <c r="P234" s="6">
+        <v>809</v>
+      </c>
+      <c r="Q234" s="4">
+        <v>6</v>
+      </c>
+      <c r="R234" s="7">
+        <v>134065</v>
+      </c>
+      <c r="S234" s="7">
+        <v>2064</v>
+      </c>
+      <c r="T234" s="7">
+        <v>22060</v>
+      </c>
+      <c r="U234" s="7">
+        <v>4947</v>
+      </c>
+      <c r="V234" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A235" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD6A94-5261-4D79-84C6-27744886311C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C624A7-8F32-40ED-96DF-7D3520E53C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Austria</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>28-4</t>
+  </si>
+  <si>
+    <t>sapt(caelndaristica)</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -728,6 +731,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -773,7 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,6 +872,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1202,17 +1256,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z235"/>
+  <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T249" sqref="T249"/>
+    <sheetView tabSelected="1" topLeftCell="H154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="6.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
     <col min="8" max="12" width="6.6328125" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.6328125" style="4" customWidth="1"/>
     <col min="14" max="14" width="6.6328125" style="5" customWidth="1"/>
@@ -1220,46 +1278,48 @@
     <col min="16" max="16" width="6.6328125" style="6" customWidth="1"/>
     <col min="17" max="17" width="6.6328125" style="4" customWidth="1"/>
     <col min="18" max="22" width="17.26953125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="19.453125" style="18" customWidth="1"/>
-    <col min="24" max="26" width="19.1796875" style="18" customWidth="1"/>
-    <col min="27" max="16384" width="8.7265625" style="9"/>
+    <col min="23" max="23" width="17.26953125" style="29" customWidth="1"/>
+    <col min="24" max="24" width="19.453125" style="18" customWidth="1"/>
+    <col min="25" max="27" width="19.1796875" style="18" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1326,20 +1386,23 @@
       <c r="V2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AA2" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>43876</v>
       </c>
@@ -1349,7 +1412,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="21">
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -1358,13 +1421,13 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="22">
         <v>0</v>
       </c>
       <c r="J3" s="3">
@@ -1373,13 +1436,13 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="22">
         <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="23">
         <v>0</v>
       </c>
       <c r="O3" s="4">
@@ -1388,13 +1451,13 @@
       <c r="P3" s="4">
         <v>0</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="23">
         <v>0</v>
       </c>
       <c r="R3" s="8">
         <v>0</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="24">
         <v>0</v>
       </c>
       <c r="T3" s="8">
@@ -1403,23 +1466,16 @@
       <c r="U3" s="8">
         <v>0</v>
       </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="17">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="V3" s="24">
+        <v>0</v>
+      </c>
+      <c r="W3" s="24"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>43877</v>
       </c>
@@ -1429,7 +1485,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="21">
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -1438,13 +1494,13 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="21">
         <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="22">
         <v>0</v>
       </c>
       <c r="J4" s="3">
@@ -1453,13 +1509,13 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="22">
         <v>0</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="23">
         <v>0</v>
       </c>
       <c r="O4" s="4">
@@ -1468,13 +1524,13 @@
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="23">
         <v>0</v>
       </c>
       <c r="R4" s="8">
         <v>0</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="24">
         <v>0</v>
       </c>
       <c r="T4" s="8">
@@ -1483,23 +1539,26 @@
       <c r="U4" s="8">
         <v>0</v>
       </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="20">
+      <c r="V4" s="24">
+        <v>0</v>
+      </c>
+      <c r="W4" s="24"/>
+      <c r="X4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="17">
+        <f t="shared" ref="Z4:Z38" ca="1" si="0">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
         <v>2</v>
       </c>
-      <c r="Y4" s="17">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA4" s="17">
+        <f t="shared" ref="AA4:AA38" ca="1" si="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>43878</v>
       </c>
@@ -1509,7 +1568,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="21">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -1518,13 +1577,13 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="21">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="22">
         <v>0</v>
       </c>
       <c r="J5" s="3">
@@ -1533,13 +1592,13 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="22">
         <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="23">
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -1548,13 +1607,13 @@
       <c r="P5" s="4">
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="23">
         <v>0</v>
       </c>
       <c r="R5" s="8">
         <v>0</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="24">
         <v>0</v>
       </c>
       <c r="T5" s="8">
@@ -1563,23 +1622,26 @@
       <c r="U5" s="8">
         <v>0</v>
       </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="20">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>124</v>
+      <c r="V5" s="24">
+        <v>0</v>
+      </c>
+      <c r="W5" s="24"/>
+      <c r="X5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>2</v>
       </c>
       <c r="Z5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AA5" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>43879</v>
       </c>
@@ -1589,7 +1651,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="21">
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -1598,13 +1660,13 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="21">
         <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="22">
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -1613,13 +1675,13 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="22">
         <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="23">
         <v>0</v>
       </c>
       <c r="O6" s="4">
@@ -1628,13 +1690,13 @@
       <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="23">
         <v>0</v>
       </c>
       <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="24">
         <v>0</v>
       </c>
       <c r="T6" s="8">
@@ -1643,23 +1705,26 @@
       <c r="U6" s="8">
         <v>0</v>
       </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="20">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>294</v>
+      <c r="V6" s="24">
+        <v>0</v>
+      </c>
+      <c r="W6" s="24"/>
+      <c r="X6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>3</v>
       </c>
       <c r="Z6" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="AA6" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>43880</v>
       </c>
@@ -1669,7 +1734,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -1678,13 +1743,13 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="21">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="22">
         <v>0</v>
       </c>
       <c r="J7" s="3">
@@ -1693,13 +1758,13 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="22">
         <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="23">
         <v>0</v>
       </c>
       <c r="O7" s="4">
@@ -1708,13 +1773,13 @@
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="23">
         <v>0</v>
       </c>
       <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="24">
         <v>0</v>
       </c>
       <c r="T7" s="8">
@@ -1723,23 +1788,26 @@
       <c r="U7" s="8">
         <v>0</v>
       </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="20">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="17">
-        <v>1382</v>
+      <c r="V7" s="24">
+        <v>0</v>
+      </c>
+      <c r="W7" s="24"/>
+      <c r="X7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>4</v>
       </c>
       <c r="Z7" s="17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="AA7" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>43881</v>
       </c>
@@ -1749,7 +1817,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="21">
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -1758,13 +1826,13 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="21">
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="22">
         <v>0</v>
       </c>
       <c r="J8" s="3">
@@ -1773,13 +1841,13 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="22">
         <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="23">
         <v>0</v>
       </c>
       <c r="O8" s="4">
@@ -1788,13 +1856,13 @@
       <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="23">
         <v>0</v>
       </c>
       <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="24">
         <v>0</v>
       </c>
       <c r="T8" s="8">
@@ -1803,23 +1871,26 @@
       <c r="U8" s="8">
         <v>0</v>
       </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="20">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>2049</v>
+      <c r="V8" s="24">
+        <v>0</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>5</v>
       </c>
       <c r="Z8" s="17">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1382</v>
+      </c>
+      <c r="AA8" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>43882</v>
       </c>
@@ -1829,7 +1900,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="21">
         <v>0</v>
       </c>
       <c r="E9" s="1">
@@ -1838,13 +1909,13 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="22">
         <v>0</v>
       </c>
       <c r="J9" s="3">
@@ -1853,13 +1924,13 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="22">
         <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="23">
         <v>0</v>
       </c>
       <c r="O9" s="4">
@@ -1868,13 +1939,13 @@
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="23">
         <v>0</v>
       </c>
       <c r="R9" s="8">
         <v>0</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="24">
         <v>0</v>
       </c>
       <c r="T9" s="8">
@@ -1883,23 +1954,26 @@
       <c r="U9" s="8">
         <v>0</v>
       </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="20">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>2436</v>
+      <c r="V9" s="24">
+        <v>0</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>6</v>
       </c>
       <c r="Z9" s="17">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AA9" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>43883</v>
       </c>
@@ -1924,7 +1998,7 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="22">
         <v>0</v>
       </c>
       <c r="J10" s="3">
@@ -1933,13 +2007,13 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="22">
         <v>0</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="23">
         <v>0</v>
       </c>
       <c r="O10" s="4">
@@ -1948,13 +2022,13 @@
       <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="23">
         <v>0</v>
       </c>
       <c r="R10" s="8">
         <v>0</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="24">
         <v>0</v>
       </c>
       <c r="T10" s="8">
@@ -1963,23 +2037,26 @@
       <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="20">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>2446</v>
+      <c r="V10" s="24">
+        <v>0</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>7</v>
       </c>
       <c r="Z10" s="17">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2436</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>43884</v>
       </c>
@@ -2004,7 +2081,7 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="22">
         <v>0</v>
       </c>
       <c r="J11" s="3">
@@ -2013,13 +2090,13 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="22">
         <v>0</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="23">
         <v>0</v>
       </c>
       <c r="O11" s="4">
@@ -2028,13 +2105,13 @@
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="23">
         <v>0</v>
       </c>
       <c r="R11" s="8">
         <v>0</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="24">
         <v>0</v>
       </c>
       <c r="T11" s="8">
@@ -2043,23 +2120,26 @@
       <c r="U11" s="8">
         <v>0</v>
       </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" s="20">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>2290</v>
+      <c r="V11" s="24">
+        <v>0</v>
+      </c>
+      <c r="W11" s="24"/>
+      <c r="X11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>8</v>
       </c>
       <c r="Z11" s="17">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2446</v>
+      </c>
+      <c r="AA11" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>43885</v>
       </c>
@@ -2084,7 +2164,7 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="3">
@@ -2093,13 +2173,13 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="22">
         <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="23">
         <v>0</v>
       </c>
       <c r="O12" s="4">
@@ -2108,13 +2188,13 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="23">
         <v>0</v>
       </c>
       <c r="R12" s="8">
         <v>0</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="24">
         <v>0</v>
       </c>
       <c r="T12" s="8">
@@ -2123,23 +2203,29 @@
       <c r="U12" s="8">
         <v>0</v>
       </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" s="20">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>2127</v>
+      <c r="V12" s="24">
+        <v>0</v>
+      </c>
+      <c r="W12" s="24">
+        <f>WEEKNUM(A12)</f>
+        <v>9</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>9</v>
       </c>
       <c r="Z12" s="17">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2290</v>
+      </c>
+      <c r="AA12" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>43886</v>
       </c>
@@ -2164,7 +2250,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="22">
         <v>0</v>
       </c>
       <c r="J13" s="3">
@@ -2173,13 +2259,13 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="22">
         <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="23">
         <v>0</v>
       </c>
       <c r="O13" s="4">
@@ -2188,13 +2274,13 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="23">
         <v>0</v>
       </c>
       <c r="R13" s="8">
         <v>0</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="24">
         <v>0</v>
       </c>
       <c r="T13" s="8">
@@ -2203,23 +2289,29 @@
       <c r="U13" s="8">
         <v>0</v>
       </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" s="20">
-        <v>11</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>2199</v>
+      <c r="V13" s="24">
+        <v>0</v>
+      </c>
+      <c r="W13" s="24">
+        <f t="shared" ref="W13:W76" si="2">WEEKNUM(A13)</f>
+        <v>9</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>10</v>
       </c>
       <c r="Z13" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2127</v>
+      </c>
+      <c r="AA13" s="17">
+        <f t="shared" ca="1" si="1"/>
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>43887</v>
       </c>
@@ -2244,7 +2336,7 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="3">
@@ -2253,7 +2345,7 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="22">
         <v>0</v>
       </c>
       <c r="M14" s="4">
@@ -2274,7 +2366,7 @@
       <c r="R14" s="8">
         <v>1</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="24">
         <v>0</v>
       </c>
       <c r="T14" s="8">
@@ -2283,23 +2375,29 @@
       <c r="U14" s="8">
         <v>0</v>
       </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14" s="20">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>1509</v>
+      <c r="V14" s="24">
+        <v>0</v>
+      </c>
+      <c r="W14" s="24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>11</v>
       </c>
       <c r="Z14" s="17">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2199</v>
+      </c>
+      <c r="AA14" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>43888</v>
       </c>
@@ -2324,7 +2422,7 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="22">
         <v>0</v>
       </c>
       <c r="J15" s="3">
@@ -2333,7 +2431,7 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="22">
         <v>0</v>
       </c>
       <c r="M15" s="4">
@@ -2366,20 +2464,26 @@
       <c r="V15" s="8">
         <v>0</v>
       </c>
-      <c r="W15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" s="20">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>1199</v>
+      <c r="W15" s="24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>12</v>
       </c>
       <c r="Z15" s="17">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1509</v>
+      </c>
+      <c r="AA15" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>43889</v>
       </c>
@@ -2404,7 +2508,7 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="22">
         <v>0</v>
       </c>
       <c r="J16" s="3">
@@ -2413,7 +2517,7 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="22">
         <v>0</v>
       </c>
       <c r="M16" s="4">
@@ -2446,20 +2550,26 @@
       <c r="V16" s="8">
         <v>0</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" s="20">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>1187</v>
+      <c r="W16" s="24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>13</v>
       </c>
       <c r="Z16" s="17">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1199</v>
+      </c>
+      <c r="AA16" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>43890</v>
       </c>
@@ -2484,7 +2594,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="22">
         <v>0</v>
       </c>
       <c r="J17" s="3">
@@ -2493,7 +2603,7 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="22">
         <v>0</v>
       </c>
       <c r="M17" s="4">
@@ -2526,20 +2636,26 @@
       <c r="V17" s="8">
         <v>0</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="X17" s="20">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>1222</v>
+      <c r="W17" s="24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="20">
+        <v>14</v>
       </c>
       <c r="Z17" s="17">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1187</v>
+      </c>
+      <c r="AA17" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>43891</v>
       </c>
@@ -2564,7 +2680,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="22">
         <v>0</v>
       </c>
       <c r="J18" s="3">
@@ -2573,7 +2689,7 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="22">
         <v>0</v>
       </c>
       <c r="M18" s="4">
@@ -2606,20 +2722,26 @@
       <c r="V18" s="8">
         <v>0</v>
       </c>
-      <c r="W18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X18" s="20">
-        <v>16</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>1520</v>
+      <c r="W18" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>15</v>
       </c>
       <c r="Z18" s="17">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1222</v>
+      </c>
+      <c r="AA18" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>43892</v>
       </c>
@@ -2644,7 +2766,7 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="22">
         <v>0</v>
       </c>
       <c r="J19" s="3">
@@ -2653,7 +2775,7 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="22">
         <v>0</v>
       </c>
       <c r="M19" s="4">
@@ -2686,20 +2808,26 @@
       <c r="V19" s="8">
         <v>0</v>
       </c>
-      <c r="W19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" s="20">
-        <v>17</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>2046</v>
+      <c r="W19" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>16</v>
       </c>
       <c r="Z19" s="17">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="AA19" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>43893</v>
       </c>
@@ -2724,7 +2852,7 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="22">
         <v>0</v>
       </c>
       <c r="J20" s="3">
@@ -2733,7 +2861,7 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="22">
         <v>0</v>
       </c>
       <c r="M20" s="4">
@@ -2766,20 +2894,26 @@
       <c r="V20" s="8">
         <v>0</v>
       </c>
-      <c r="W20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" s="20">
-        <v>18</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>2268</v>
+      <c r="W20" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>17</v>
       </c>
       <c r="Z20" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AA20" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>43894</v>
       </c>
@@ -2805,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>2</v>
@@ -2813,7 +2947,7 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="22">
         <v>0</v>
       </c>
       <c r="M21" s="4">
@@ -2846,20 +2980,26 @@
       <c r="V21" s="8">
         <v>0</v>
       </c>
-      <c r="W21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="20">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="17">
-        <v>2660</v>
+      <c r="W21" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="20">
+        <v>18</v>
       </c>
       <c r="Z21" s="17">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2268</v>
+      </c>
+      <c r="AA21" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>43895</v>
       </c>
@@ -2885,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3">
         <v>4</v>
@@ -2893,7 +3033,7 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="22">
         <v>0</v>
       </c>
       <c r="M22" s="4">
@@ -2926,20 +3066,26 @@
       <c r="V22" s="8">
         <v>0</v>
       </c>
-      <c r="W22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="X22" s="20">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="17">
-        <v>3562</v>
+      <c r="W22" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" s="20">
+        <v>19</v>
       </c>
       <c r="Z22" s="17">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>2660</v>
+      </c>
+      <c r="AA22" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>43896</v>
       </c>
@@ -2965,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>4</v>
@@ -2973,7 +3119,7 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="22">
         <v>0</v>
       </c>
       <c r="M23" s="4">
@@ -3006,20 +3152,26 @@
       <c r="V23" s="8">
         <v>0</v>
       </c>
-      <c r="W23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X23" s="20">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="17">
-        <v>4923</v>
+      <c r="W23" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" s="20">
+        <v>20</v>
       </c>
       <c r="Z23" s="17">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3562</v>
+      </c>
+      <c r="AA23" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>43897</v>
       </c>
@@ -3045,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>5</v>
@@ -3053,7 +3205,7 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="22">
         <v>0</v>
       </c>
       <c r="M24" s="4">
@@ -3086,20 +3238,26 @@
       <c r="V24" s="8">
         <v>0</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="X24" s="20">
-        <v>22</v>
-      </c>
-      <c r="Y24" s="17">
-        <v>7340</v>
+      <c r="W24" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="20">
+        <v>21</v>
       </c>
       <c r="Z24" s="17">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4923</v>
+      </c>
+      <c r="AA24" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>43898</v>
       </c>
@@ -3125,7 +3283,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
         <v>7</v>
@@ -3133,7 +3291,7 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="22">
         <v>0</v>
       </c>
       <c r="M25" s="4">
@@ -3166,20 +3324,26 @@
       <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X25" s="20">
-        <v>23</v>
-      </c>
-      <c r="Y25" s="17">
-        <v>8388</v>
+      <c r="W25" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="20">
+        <v>22</v>
       </c>
       <c r="Z25" s="17">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>7340</v>
+      </c>
+      <c r="AA25" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>43899</v>
       </c>
@@ -3205,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="I26" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
         <v>9</v>
@@ -3213,7 +3377,7 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="22">
         <v>0</v>
       </c>
       <c r="M26" s="4">
@@ -3246,20 +3410,26 @@
       <c r="V26" s="8">
         <v>0</v>
       </c>
-      <c r="W26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X26" s="20">
-        <v>24</v>
-      </c>
-      <c r="Y26" s="17">
-        <v>8582</v>
+      <c r="W26" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26" s="20">
+        <v>23</v>
       </c>
       <c r="Z26" s="17">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8388</v>
+      </c>
+      <c r="AA26" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>43900</v>
       </c>
@@ -3285,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J27" s="3">
         <v>12</v>
@@ -3293,7 +3463,7 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="22">
         <v>0</v>
       </c>
       <c r="M27" s="4">
@@ -3326,20 +3496,26 @@
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="X27" s="20">
-        <v>25</v>
-      </c>
-      <c r="Y27" s="17">
-        <v>8693</v>
+      <c r="W27" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" s="20">
+        <v>24</v>
       </c>
       <c r="Z27" s="17">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8582</v>
+      </c>
+      <c r="AA27" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>43901</v>
       </c>
@@ -3365,7 +3541,7 @@
         <v>13</v>
       </c>
       <c r="I28" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <v>13</v>
@@ -3373,7 +3549,7 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="22">
         <v>0</v>
       </c>
       <c r="M28" s="4">
@@ -3406,20 +3582,26 @@
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="20">
-        <v>26</v>
-      </c>
-      <c r="Y28" s="17">
-        <v>8044</v>
+      <c r="W28" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="20">
+        <v>25</v>
       </c>
       <c r="Z28" s="17">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8693</v>
+      </c>
+      <c r="AA28" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>43902</v>
       </c>
@@ -3445,7 +3627,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <v>16</v>
@@ -3453,7 +3635,7 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="22">
         <v>0</v>
       </c>
       <c r="M29" s="4">
@@ -3486,20 +3668,26 @@
       <c r="V29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="X29" s="20">
-        <v>27</v>
-      </c>
-      <c r="Y29" s="17">
-        <v>8280</v>
+      <c r="W29" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="20">
+        <v>26</v>
       </c>
       <c r="Z29" s="17">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8044</v>
+      </c>
+      <c r="AA29" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>43903</v>
       </c>
@@ -3525,7 +3713,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J30" s="3">
         <v>18</v>
@@ -3533,7 +3721,7 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="22">
         <v>0</v>
       </c>
       <c r="M30" s="4">
@@ -3566,20 +3754,26 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X30" s="20">
-        <v>28</v>
-      </c>
-      <c r="Y30" s="17">
-        <v>8229</v>
+      <c r="W30" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" s="20">
+        <v>27</v>
       </c>
       <c r="Z30" s="17">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8280</v>
+      </c>
+      <c r="AA30" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>43904</v>
       </c>
@@ -3605,7 +3799,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J31" s="3">
         <v>29</v>
@@ -3613,7 +3807,7 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="22">
         <v>0</v>
       </c>
       <c r="M31" s="4">
@@ -3646,20 +3840,26 @@
       <c r="V31" s="8">
         <v>0</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="X31" s="20">
-        <v>29</v>
-      </c>
-      <c r="Y31" s="17">
-        <v>8481</v>
+      <c r="W31" s="24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="20">
+        <v>28</v>
       </c>
       <c r="Z31" s="17">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8229</v>
+      </c>
+      <c r="AA31" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>43905</v>
       </c>
@@ -3685,7 +3885,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J32" s="3">
         <v>30</v>
@@ -3693,7 +3893,7 @@
       <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="22">
         <v>0</v>
       </c>
       <c r="M32" s="4">
@@ -3726,20 +3926,26 @@
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="X32" s="20">
-        <v>30</v>
-      </c>
-      <c r="Y32" s="17">
-        <v>9286</v>
+      <c r="W32" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="20">
+        <v>29</v>
       </c>
       <c r="Z32" s="17">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>8481</v>
+      </c>
+      <c r="AA32" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>43906</v>
       </c>
@@ -3765,7 +3971,7 @@
         <v>39</v>
       </c>
       <c r="I33" s="3">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J33" s="3">
         <v>36</v>
@@ -3806,20 +4012,26 @@
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="X33" s="20">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="17">
-        <v>9892</v>
+      <c r="W33" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" s="20">
+        <v>30</v>
       </c>
       <c r="Z33" s="17">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="0"/>
+        <v>9286</v>
+      </c>
+      <c r="AA33" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>43907</v>
       </c>
@@ -3845,7 +4057,7 @@
         <v>50</v>
       </c>
       <c r="I34" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J34" s="3">
         <v>47</v>
@@ -3886,16 +4098,26 @@
       <c r="V34" s="8">
         <v>0</v>
       </c>
-      <c r="W34" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="X34" s="20">
-        <v>32</v>
-      </c>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W34" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y34" s="20">
+        <v>31</v>
+      </c>
+      <c r="Z34" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9892</v>
+      </c>
+      <c r="AA34" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>43908</v>
       </c>
@@ -3921,7 +4143,7 @@
         <v>58</v>
       </c>
       <c r="I35" s="3">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J35" s="3">
         <v>55</v>
@@ -3962,12 +4184,26 @@
       <c r="V35" s="8">
         <v>0</v>
       </c>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W35" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y35" s="20">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>13227</v>
+      </c>
+      <c r="AA35" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>43909</v>
       </c>
@@ -3993,7 +4229,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="3">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="J36" s="3">
         <v>70</v>
@@ -4034,12 +4270,24 @@
       <c r="V36" s="8">
         <v>0</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y36" s="20">
+        <v>33</v>
+      </c>
+      <c r="Z36" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>19383</v>
+      </c>
+      <c r="AA36" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>43910</v>
       </c>
@@ -4065,7 +4313,7 @@
         <v>85</v>
       </c>
       <c r="I37" s="3">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J37" s="3">
         <v>74</v>
@@ -4106,12 +4354,24 @@
       <c r="V37" s="8">
         <v>0</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y37" s="20">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>25105</v>
+      </c>
+      <c r="AA37" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>43911</v>
       </c>
@@ -4137,7 +4397,7 @@
         <v>103</v>
       </c>
       <c r="I38" s="3">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="J38" s="3">
         <v>92</v>
@@ -4178,12 +4438,24 @@
       <c r="V38" s="8">
         <v>0</v>
       </c>
-      <c r="W38" s="17"/>
+      <c r="W38" s="24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y38" s="20">
+        <v>35</v>
+      </c>
+      <c r="Z38" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5866</v>
+      </c>
+      <c r="AA38" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>43912</v>
       </c>
@@ -4209,7 +4481,7 @@
         <v>131</v>
       </c>
       <c r="I39" s="3">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="J39" s="3">
         <v>109</v>
@@ -4250,12 +4522,16 @@
       <c r="V39" s="8">
         <v>3</v>
       </c>
-      <c r="W39" s="17"/>
+      <c r="W39" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA39" s="17"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>43913</v>
       </c>
@@ -4281,7 +4557,7 @@
         <v>167</v>
       </c>
       <c r="I40" s="3">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="J40" s="3">
         <v>138</v>
@@ -4322,12 +4598,16 @@
       <c r="V40" s="8">
         <v>4</v>
       </c>
-      <c r="W40" s="17"/>
+      <c r="W40" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA40" s="17"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>43914</v>
       </c>
@@ -4353,7 +4633,7 @@
         <v>187</v>
       </c>
       <c r="I41" s="3">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3">
         <v>157</v>
@@ -4394,12 +4674,16 @@
       <c r="V41" s="8">
         <v>5</v>
       </c>
-      <c r="W41" s="17"/>
+      <c r="W41" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA41" s="17"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>43915</v>
       </c>
@@ -4425,7 +4709,7 @@
         <v>226</v>
       </c>
       <c r="I42" s="3">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="J42" s="3">
         <v>195</v>
@@ -4466,12 +4750,16 @@
       <c r="V42" s="8">
         <v>5</v>
       </c>
-      <c r="W42" s="17"/>
+      <c r="W42" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA42" s="17"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>43916</v>
       </c>
@@ -4497,7 +4785,7 @@
         <v>261</v>
       </c>
       <c r="I43" s="3">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="J43" s="3">
         <v>223</v>
@@ -4538,12 +4826,16 @@
       <c r="V43" s="8">
         <v>6</v>
       </c>
-      <c r="W43" s="17"/>
+      <c r="W43" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X43" s="17"/>
       <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA43" s="17"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>43917</v>
       </c>
@@ -4569,7 +4861,7 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="J44" s="3">
         <v>256</v>
@@ -4610,12 +4902,16 @@
       <c r="V44" s="8">
         <v>3</v>
       </c>
-      <c r="W44" s="17"/>
+      <c r="W44" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X44" s="17"/>
       <c r="Y44" s="17"/>
       <c r="Z44" s="17"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA44" s="17"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>43918</v>
       </c>
@@ -4641,7 +4937,7 @@
         <v>343</v>
       </c>
       <c r="I45" s="3">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="J45" s="3">
         <v>298</v>
@@ -4682,12 +4978,16 @@
       <c r="V45" s="8">
         <v>11</v>
       </c>
-      <c r="W45" s="17"/>
+      <c r="W45" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="X45" s="17"/>
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA45" s="17"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>43919</v>
       </c>
@@ -4713,7 +5013,7 @@
         <v>408</v>
       </c>
       <c r="I46" s="3">
-        <v>408</v>
+        <v>65</v>
       </c>
       <c r="J46" s="3">
         <v>361</v>
@@ -4754,12 +5054,16 @@
       <c r="V46" s="8">
         <v>6</v>
       </c>
-      <c r="W46" s="17"/>
+      <c r="W46" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA46" s="17"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>43920</v>
       </c>
@@ -4785,7 +5089,7 @@
         <v>447</v>
       </c>
       <c r="I47" s="3">
-        <v>447</v>
+        <v>39</v>
       </c>
       <c r="J47" s="3">
         <v>398</v>
@@ -4826,12 +5130,16 @@
       <c r="V47" s="8">
         <v>22</v>
       </c>
-      <c r="W47" s="17"/>
+      <c r="W47" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA47" s="17"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>43921</v>
       </c>
@@ -4857,7 +5165,7 @@
         <v>492</v>
       </c>
       <c r="I48" s="3">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="J48" s="3">
         <v>439</v>
@@ -4898,12 +5206,16 @@
       <c r="V48" s="8">
         <v>17</v>
       </c>
-      <c r="W48" s="17"/>
+      <c r="W48" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
       <c r="Z48" s="17"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA48" s="17"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>43922</v>
       </c>
@@ -4929,7 +5241,7 @@
         <v>525</v>
       </c>
       <c r="I49" s="3">
-        <v>525</v>
+        <v>33</v>
       </c>
       <c r="J49" s="3">
         <v>465</v>
@@ -4970,12 +5282,16 @@
       <c r="V49" s="8">
         <v>10</v>
       </c>
-      <c r="W49" s="17"/>
+      <c r="W49" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
       <c r="Z49" s="17"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA49" s="17"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>43923</v>
       </c>
@@ -5001,7 +5317,7 @@
         <v>585</v>
       </c>
       <c r="I50" s="3">
-        <v>585</v>
+        <v>60</v>
       </c>
       <c r="J50" s="3">
         <v>522</v>
@@ -5042,12 +5358,16 @@
       <c r="V50" s="8">
         <v>23</v>
       </c>
-      <c r="W50" s="17"/>
+      <c r="W50" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
       <c r="Z50" s="17"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA50" s="17"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>43924</v>
       </c>
@@ -5073,7 +5393,7 @@
         <v>623</v>
       </c>
       <c r="I51" s="3">
-        <v>623</v>
+        <v>38</v>
       </c>
       <c r="J51" s="3">
         <v>554</v>
@@ -5114,12 +5434,16 @@
       <c r="V51" s="8">
         <v>18</v>
       </c>
-      <c r="W51" s="17"/>
+      <c r="W51" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
       <c r="Z51" s="17"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA51" s="17"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>43925</v>
       </c>
@@ -5145,7 +5469,7 @@
         <v>678</v>
       </c>
       <c r="I52" s="3">
-        <v>678</v>
+        <v>55</v>
       </c>
       <c r="J52" s="3">
         <v>588</v>
@@ -5186,12 +5510,16 @@
       <c r="V52" s="8">
         <v>13</v>
       </c>
-      <c r="W52" s="17"/>
+      <c r="W52" s="24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA52" s="17"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>43926</v>
       </c>
@@ -5217,7 +5545,7 @@
         <v>733</v>
       </c>
       <c r="I53" s="3">
-        <v>733</v>
+        <v>55</v>
       </c>
       <c r="J53" s="3">
         <v>633</v>
@@ -5258,12 +5586,16 @@
       <c r="V53" s="8">
         <v>5</v>
       </c>
-      <c r="W53" s="17"/>
+      <c r="W53" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA53" s="17"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>43927</v>
       </c>
@@ -5289,7 +5621,7 @@
         <v>744</v>
       </c>
       <c r="I54" s="3">
-        <v>744</v>
+        <v>11</v>
       </c>
       <c r="J54" s="3">
         <v>639</v>
@@ -5330,12 +5662,16 @@
       <c r="V54" s="8">
         <v>25</v>
       </c>
-      <c r="W54" s="17"/>
+      <c r="W54" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA54" s="17"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>43928</v>
       </c>
@@ -5361,7 +5697,7 @@
         <v>817</v>
       </c>
       <c r="I55" s="3">
-        <v>817</v>
+        <v>73</v>
       </c>
       <c r="J55" s="3">
         <v>699</v>
@@ -5402,12 +5738,16 @@
       <c r="V55" s="8">
         <v>21</v>
       </c>
-      <c r="W55" s="17"/>
+      <c r="W55" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
       <c r="Z55" s="17"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA55" s="17"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>43929</v>
       </c>
@@ -5433,7 +5773,7 @@
         <v>895</v>
       </c>
       <c r="I56" s="3">
-        <v>895</v>
+        <v>78</v>
       </c>
       <c r="J56" s="3">
         <v>743</v>
@@ -5474,12 +5814,16 @@
       <c r="V56" s="8">
         <v>23</v>
       </c>
-      <c r="W56" s="17"/>
+      <c r="W56" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA56" s="17"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>43930</v>
       </c>
@@ -5505,7 +5849,7 @@
         <v>980</v>
       </c>
       <c r="I57" s="3">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="J57" s="3">
         <v>818</v>
@@ -5546,12 +5890,16 @@
       <c r="V57" s="8">
         <v>28</v>
       </c>
-      <c r="W57" s="17"/>
+      <c r="W57" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
       <c r="Z57" s="17"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA57" s="17"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>43931</v>
       </c>
@@ -5577,7 +5925,7 @@
         <v>1190</v>
       </c>
       <c r="I58" s="3">
-        <v>1190</v>
+        <v>210</v>
       </c>
       <c r="J58" s="3">
         <v>1001</v>
@@ -5618,12 +5966,16 @@
       <c r="V58" s="8">
         <v>22</v>
       </c>
-      <c r="W58" s="17"/>
+      <c r="W58" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
       <c r="Z58" s="17"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA58" s="17"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>43932</v>
       </c>
@@ -5649,7 +6001,7 @@
         <v>1310</v>
       </c>
       <c r="I59" s="3">
-        <v>1310</v>
+        <v>120</v>
       </c>
       <c r="J59" s="3">
         <v>1110</v>
@@ -5690,12 +6042,16 @@
       <c r="V59" s="8">
         <v>21</v>
       </c>
-      <c r="W59" s="17"/>
+      <c r="W59" s="24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA59" s="17"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>43933</v>
       </c>
@@ -5721,7 +6077,7 @@
         <v>1410</v>
       </c>
       <c r="I60" s="3">
-        <v>1410</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>1193</v>
@@ -5762,12 +6118,16 @@
       <c r="V60" s="8">
         <v>25</v>
       </c>
-      <c r="W60" s="17"/>
+      <c r="W60" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
       <c r="Z60" s="17"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA60" s="17"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>43934</v>
       </c>
@@ -5793,7 +6153,7 @@
         <v>1458</v>
       </c>
       <c r="I61" s="3">
-        <v>1458</v>
+        <v>48</v>
       </c>
       <c r="J61" s="3">
         <v>1229</v>
@@ -5834,12 +6194,16 @@
       <c r="V61" s="8">
         <v>15</v>
       </c>
-      <c r="W61" s="17"/>
+      <c r="W61" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
       <c r="Z61" s="17"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA61" s="17"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>43935</v>
       </c>
@@ -5865,7 +6229,7 @@
         <v>1512</v>
       </c>
       <c r="I62" s="3">
-        <v>1512</v>
+        <v>54</v>
       </c>
       <c r="J62" s="3">
         <v>1268</v>
@@ -5906,12 +6270,16 @@
       <c r="V62" s="8">
         <v>20</v>
       </c>
-      <c r="W62" s="17"/>
+      <c r="W62" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
       <c r="Z62" s="17"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA62" s="17"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>43936</v>
       </c>
@@ -5937,7 +6305,7 @@
         <v>1579</v>
       </c>
       <c r="I63" s="3">
-        <v>1579</v>
+        <v>67</v>
       </c>
       <c r="J63" s="3">
         <v>1253</v>
@@ -5978,12 +6346,16 @@
       <c r="V63" s="8">
         <v>21</v>
       </c>
-      <c r="W63" s="17"/>
+      <c r="W63" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA63" s="17"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>43937</v>
       </c>
@@ -6009,7 +6381,7 @@
         <v>1652</v>
       </c>
       <c r="I64" s="3">
-        <v>1652</v>
+        <v>73</v>
       </c>
       <c r="J64" s="3">
         <v>1311</v>
@@ -6050,12 +6422,16 @@
       <c r="V64" s="8">
         <v>20</v>
       </c>
-      <c r="W64" s="17"/>
+      <c r="W64" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
       <c r="Z64" s="17"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA64" s="17"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <v>43938</v>
       </c>
@@ -6081,7 +6457,7 @@
         <v>1763</v>
       </c>
       <c r="I65" s="3">
-        <v>1763</v>
+        <v>111</v>
       </c>
       <c r="J65" s="3">
         <v>1400</v>
@@ -6122,12 +6498,16 @@
       <c r="V65" s="8">
         <v>19</v>
       </c>
-      <c r="W65" s="17"/>
+      <c r="W65" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
       <c r="Z65" s="17"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA65" s="17"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>43939</v>
       </c>
@@ -6153,7 +6533,7 @@
         <v>1834</v>
       </c>
       <c r="I66" s="3">
-        <v>1834</v>
+        <v>71</v>
       </c>
       <c r="J66" s="3">
         <v>1431</v>
@@ -6194,12 +6574,16 @@
       <c r="V66" s="8">
         <v>10</v>
       </c>
-      <c r="W66" s="17"/>
+      <c r="W66" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
       <c r="Z66" s="17"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA66" s="17"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>43940</v>
       </c>
@@ -6225,7 +6609,7 @@
         <v>1916</v>
       </c>
       <c r="I67" s="3">
-        <v>1916</v>
+        <v>82</v>
       </c>
       <c r="J67" s="3">
         <v>1477</v>
@@ -6266,12 +6650,16 @@
       <c r="V67" s="8">
         <v>30</v>
       </c>
-      <c r="W67" s="17"/>
+      <c r="W67" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
       <c r="Z67" s="17"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA67" s="17"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>43941</v>
       </c>
@@ -6297,7 +6685,7 @@
         <v>1984</v>
       </c>
       <c r="I68" s="3">
-        <v>1984</v>
+        <v>68</v>
       </c>
       <c r="J68" s="3">
         <v>1518</v>
@@ -6338,12 +6726,16 @@
       <c r="V68" s="8">
         <v>27</v>
       </c>
-      <c r="W68" s="17"/>
+      <c r="W68" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
       <c r="Z68" s="17"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA68" s="17"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>43942</v>
       </c>
@@ -6369,7 +6761,7 @@
         <v>2098</v>
       </c>
       <c r="I69" s="3">
-        <v>2098</v>
+        <v>114</v>
       </c>
       <c r="J69" s="3">
         <v>1598</v>
@@ -6410,12 +6802,16 @@
       <c r="V69" s="8">
         <v>20</v>
       </c>
-      <c r="W69" s="17"/>
+      <c r="W69" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
       <c r="Z69" s="17"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA69" s="17"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>43943</v>
       </c>
@@ -6441,7 +6837,7 @@
         <v>2168</v>
       </c>
       <c r="I70" s="3">
-        <v>2168</v>
+        <v>70</v>
       </c>
       <c r="J70" s="3">
         <v>1648</v>
@@ -6482,12 +6878,16 @@
       <c r="V70" s="8">
         <v>26</v>
       </c>
-      <c r="W70" s="17"/>
+      <c r="W70" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
       <c r="Z70" s="17"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA70" s="17"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>43944</v>
       </c>
@@ -6513,7 +6913,7 @@
         <v>2284</v>
       </c>
       <c r="I71" s="3">
-        <v>2284</v>
+        <v>116</v>
       </c>
       <c r="J71" s="3">
         <v>1655</v>
@@ -6554,12 +6954,16 @@
       <c r="V71" s="8">
         <v>21</v>
       </c>
-      <c r="W71" s="17"/>
+      <c r="W71" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X71" s="17"/>
       <c r="Y71" s="17"/>
       <c r="Z71" s="17"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA71" s="17"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>43945</v>
       </c>
@@ -6585,7 +6989,7 @@
         <v>2383</v>
       </c>
       <c r="I72" s="3">
-        <v>2383</v>
+        <v>99</v>
       </c>
       <c r="J72" s="3">
         <v>1732</v>
@@ -6626,12 +7030,16 @@
       <c r="V72" s="8">
         <v>22</v>
       </c>
-      <c r="W72" s="17"/>
+      <c r="W72" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X72" s="17"/>
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA72" s="17"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>43946</v>
       </c>
@@ -6657,7 +7065,7 @@
         <v>2443</v>
       </c>
       <c r="I73" s="3">
-        <v>2443</v>
+        <v>60</v>
       </c>
       <c r="J73" s="3">
         <v>1723</v>
@@ -6698,12 +7106,16 @@
       <c r="V73" s="8">
         <v>34</v>
       </c>
-      <c r="W73" s="17"/>
+      <c r="W73" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="X73" s="17"/>
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA73" s="17"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
         <v>43947</v>
       </c>
@@ -6729,7 +7141,7 @@
         <v>2500</v>
       </c>
       <c r="I74" s="3">
-        <v>2500</v>
+        <v>57</v>
       </c>
       <c r="J74" s="3">
         <v>1743</v>
@@ -6770,12 +7182,16 @@
       <c r="V74" s="8">
         <v>18</v>
       </c>
-      <c r="W74" s="17"/>
+      <c r="W74" s="24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="X74" s="17"/>
       <c r="Y74" s="17"/>
       <c r="Z74" s="17"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA74" s="17"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>43948</v>
       </c>
@@ -6801,7 +7217,7 @@
         <v>2583</v>
       </c>
       <c r="I75" s="3">
-        <v>2583</v>
+        <v>83</v>
       </c>
       <c r="J75" s="3">
         <v>1805</v>
@@ -6842,12 +7258,16 @@
       <c r="V75" s="8">
         <v>22</v>
       </c>
-      <c r="W75" s="17"/>
+      <c r="W75" s="24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
       <c r="Z75" s="17"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA75" s="17"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>43949</v>
       </c>
@@ -6873,7 +7293,7 @@
         <v>2649</v>
       </c>
       <c r="I76" s="3">
-        <v>2649</v>
+        <v>66</v>
       </c>
       <c r="J76" s="3">
         <v>1842</v>
@@ -6914,12 +7334,16 @@
       <c r="V76" s="8">
         <v>22</v>
       </c>
-      <c r="W76" s="17"/>
+      <c r="W76" s="24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="X76" s="17"/>
       <c r="Y76" s="17"/>
       <c r="Z76" s="17"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA76" s="17"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>43950</v>
       </c>
@@ -6945,7 +7369,7 @@
         <v>2727</v>
       </c>
       <c r="I77" s="3">
-        <v>2727</v>
+        <v>78</v>
       </c>
       <c r="J77" s="3">
         <v>1891</v>
@@ -6986,12 +7410,16 @@
       <c r="V77" s="8">
         <v>30</v>
       </c>
-      <c r="W77" s="17"/>
+      <c r="W77" s="24">
+        <f t="shared" ref="W77:W140" si="3">WEEKNUM(A77)</f>
+        <v>18</v>
+      </c>
       <c r="X77" s="17"/>
       <c r="Y77" s="17"/>
       <c r="Z77" s="17"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA77" s="17"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>43951</v>
       </c>
@@ -7017,7 +7445,7 @@
         <v>2775</v>
       </c>
       <c r="I78" s="3">
-        <v>2775</v>
+        <v>48</v>
       </c>
       <c r="J78" s="3">
         <v>1882</v>
@@ -7058,12 +7486,16 @@
       <c r="V78" s="8">
         <v>24</v>
       </c>
-      <c r="W78" s="17"/>
+      <c r="W78" s="24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="X78" s="17"/>
       <c r="Y78" s="17"/>
       <c r="Z78" s="17"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA78" s="17"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>43952</v>
       </c>
@@ -7089,7 +7521,7 @@
         <v>2863</v>
       </c>
       <c r="I79" s="3">
-        <v>2863</v>
+        <v>88</v>
       </c>
       <c r="J79" s="3">
         <v>1931</v>
@@ -7130,12 +7562,16 @@
       <c r="V79" s="8">
         <v>27</v>
       </c>
-      <c r="W79" s="17"/>
+      <c r="W79" s="24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="17"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA79" s="17"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>43953</v>
       </c>
@@ -7161,7 +7597,7 @@
         <v>2942</v>
       </c>
       <c r="I80" s="3">
-        <v>2942</v>
+        <v>79</v>
       </c>
       <c r="J80" s="3">
         <v>1982</v>
@@ -7202,12 +7638,16 @@
       <c r="V80" s="8">
         <v>27</v>
       </c>
-      <c r="W80" s="17"/>
+      <c r="W80" s="24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="17"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA80" s="17"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>43954</v>
       </c>
@@ -7233,7 +7673,7 @@
         <v>2998</v>
       </c>
       <c r="I81" s="3">
-        <v>2998</v>
+        <v>56</v>
       </c>
       <c r="J81" s="3">
         <v>2029</v>
@@ -7274,12 +7714,16 @@
       <c r="V81" s="8">
         <v>19</v>
       </c>
-      <c r="W81" s="17"/>
+      <c r="W81" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="17"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA81" s="17"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>43955</v>
       </c>
@@ -7305,7 +7749,7 @@
         <v>3035</v>
       </c>
       <c r="I82" s="3">
-        <v>3035</v>
+        <v>37</v>
       </c>
       <c r="J82" s="3">
         <v>2054</v>
@@ -7346,12 +7790,16 @@
       <c r="V82" s="8">
         <v>28</v>
       </c>
-      <c r="W82" s="17"/>
+      <c r="W82" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="17"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA82" s="17"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
         <v>43956</v>
       </c>
@@ -7377,7 +7825,7 @@
         <v>3065</v>
       </c>
       <c r="I83" s="3">
-        <v>3065</v>
+        <v>30</v>
       </c>
       <c r="J83" s="3">
         <v>1993</v>
@@ -7418,12 +7866,16 @@
       <c r="V83" s="8">
         <v>23</v>
       </c>
-      <c r="W83" s="17"/>
+      <c r="W83" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="17"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA83" s="17"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
         <v>43957</v>
       </c>
@@ -7449,7 +7901,7 @@
         <v>3111</v>
       </c>
       <c r="I84" s="3">
-        <v>3111</v>
+        <v>46</v>
       </c>
       <c r="J84" s="3">
         <v>1979</v>
@@ -7490,12 +7942,16 @@
       <c r="V84" s="8">
         <v>23</v>
       </c>
-      <c r="W84" s="17"/>
+      <c r="W84" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA84" s="17"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>43958</v>
       </c>
@@ -7521,7 +7977,7 @@
         <v>3150</v>
       </c>
       <c r="I85" s="3">
-        <v>3150</v>
+        <v>39</v>
       </c>
       <c r="J85" s="3">
         <v>1966</v>
@@ -7562,12 +8018,16 @@
       <c r="V85" s="8">
         <v>24</v>
       </c>
-      <c r="W85" s="17"/>
+      <c r="W85" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA85" s="17"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
         <v>43959</v>
       </c>
@@ -7593,7 +8053,7 @@
         <v>3178</v>
       </c>
       <c r="I86" s="3">
-        <v>3178</v>
+        <v>28</v>
       </c>
       <c r="J86" s="3">
         <v>1921</v>
@@ -7634,12 +8094,16 @@
       <c r="V86" s="8">
         <v>35</v>
       </c>
-      <c r="W86" s="17"/>
+      <c r="W86" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA86" s="17"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>43960</v>
       </c>
@@ -7665,7 +8129,7 @@
         <v>3213</v>
       </c>
       <c r="I87" s="3">
-        <v>3213</v>
+        <v>35</v>
       </c>
       <c r="J87" s="3">
         <v>1904</v>
@@ -7706,12 +8170,16 @@
       <c r="V87" s="8">
         <v>16</v>
       </c>
-      <c r="W87" s="17"/>
+      <c r="W87" s="24">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA87" s="17"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
         <v>43961</v>
       </c>
@@ -7737,7 +8205,7 @@
         <v>3263</v>
       </c>
       <c r="I88" s="3">
-        <v>3263</v>
+        <v>50</v>
       </c>
       <c r="J88" s="3">
         <v>1917</v>
@@ -7778,12 +8246,16 @@
       <c r="V88" s="8">
         <v>22</v>
       </c>
-      <c r="W88" s="17"/>
+      <c r="W88" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA88" s="17"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>43962</v>
       </c>
@@ -7809,7 +8281,7 @@
         <v>3284</v>
       </c>
       <c r="I89" s="3">
-        <v>3284</v>
+        <v>21</v>
       </c>
       <c r="J89" s="3">
         <v>1905</v>
@@ -7850,12 +8322,16 @@
       <c r="V89" s="8">
         <v>21</v>
       </c>
-      <c r="W89" s="17"/>
+      <c r="W89" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA89" s="17"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>43963</v>
       </c>
@@ -7881,7 +8357,7 @@
         <v>3313</v>
       </c>
       <c r="I90" s="3">
-        <v>3313</v>
+        <v>29</v>
       </c>
       <c r="J90" s="3">
         <v>1881</v>
@@ -7922,12 +8398,16 @@
       <c r="V90" s="8">
         <v>20</v>
       </c>
-      <c r="W90" s="17"/>
+      <c r="W90" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA90" s="17"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>43964</v>
       </c>
@@ -7953,7 +8433,7 @@
         <v>3341</v>
       </c>
       <c r="I91" s="3">
-        <v>3341</v>
+        <v>28</v>
       </c>
       <c r="J91" s="3">
         <v>1809</v>
@@ -7994,12 +8474,16 @@
       <c r="V91" s="8">
         <v>34</v>
       </c>
-      <c r="W91" s="17"/>
+      <c r="W91" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X91" s="17"/>
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA91" s="17"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
         <v>43965</v>
       </c>
@@ -8025,7 +8509,7 @@
         <v>3380</v>
       </c>
       <c r="I92" s="3">
-        <v>3380</v>
+        <v>39</v>
       </c>
       <c r="J92" s="3">
         <v>1775</v>
@@ -8066,12 +8550,16 @@
       <c r="V92" s="8">
         <v>17</v>
       </c>
-      <c r="W92" s="17"/>
+      <c r="W92" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X92" s="17"/>
       <c r="Y92" s="17"/>
       <c r="Z92" s="17"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA92" s="17"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>43966</v>
       </c>
@@ -8097,7 +8585,7 @@
         <v>3417</v>
       </c>
       <c r="I93" s="3">
-        <v>3417</v>
+        <v>37</v>
       </c>
       <c r="J93" s="3">
         <v>1688</v>
@@ -8138,12 +8626,16 @@
       <c r="V93" s="8">
         <v>17</v>
       </c>
-      <c r="W93" s="17"/>
+      <c r="W93" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X93" s="17"/>
       <c r="Y93" s="17"/>
       <c r="Z93" s="17"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA93" s="17"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>43967</v>
       </c>
@@ -8169,7 +8661,7 @@
         <v>3473</v>
       </c>
       <c r="I94" s="3">
-        <v>3473</v>
+        <v>56</v>
       </c>
       <c r="J94" s="3">
         <v>1654</v>
@@ -8210,12 +8702,16 @@
       <c r="V94" s="8">
         <v>24</v>
       </c>
-      <c r="W94" s="17"/>
+      <c r="W94" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="X94" s="17"/>
       <c r="Y94" s="17"/>
       <c r="Z94" s="17"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA94" s="17"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
         <v>43968</v>
       </c>
@@ -8241,7 +8737,7 @@
         <v>3509</v>
       </c>
       <c r="I95" s="3">
-        <v>3509</v>
+        <v>36</v>
       </c>
       <c r="J95" s="3">
         <v>1662</v>
@@ -8282,12 +8778,16 @@
       <c r="V95" s="8">
         <v>13</v>
       </c>
-      <c r="W95" s="17"/>
+      <c r="W95" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X95" s="17"/>
       <c r="Y95" s="17"/>
       <c r="Z95" s="17"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA95" s="17"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
         <v>43969</v>
       </c>
@@ -8313,7 +8813,7 @@
         <v>3535</v>
       </c>
       <c r="I96" s="3">
-        <v>3535</v>
+        <v>26</v>
       </c>
       <c r="J96" s="3">
         <v>1673</v>
@@ -8354,12 +8854,16 @@
       <c r="V96" s="8">
         <v>13</v>
       </c>
-      <c r="W96" s="17"/>
+      <c r="W96" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X96" s="17"/>
       <c r="Y96" s="17"/>
       <c r="Z96" s="17"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA96" s="17"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>43970</v>
       </c>
@@ -8385,7 +8889,7 @@
         <v>3556</v>
       </c>
       <c r="I97" s="3">
-        <v>3556</v>
+        <v>21</v>
       </c>
       <c r="J97" s="3">
         <v>1677</v>
@@ -8426,12 +8930,16 @@
       <c r="V97" s="8">
         <v>17</v>
       </c>
-      <c r="W97" s="17"/>
+      <c r="W97" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X97" s="17"/>
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA97" s="17"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>43971</v>
       </c>
@@ -8457,7 +8965,7 @@
         <v>3598</v>
       </c>
       <c r="I98" s="3">
-        <v>3598</v>
+        <v>42</v>
       </c>
       <c r="J98" s="3">
         <v>1674</v>
@@ -8498,12 +9006,16 @@
       <c r="V98" s="8">
         <v>10</v>
       </c>
-      <c r="W98" s="17"/>
+      <c r="W98" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X98" s="17"/>
       <c r="Y98" s="17"/>
       <c r="Z98" s="17"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA98" s="17"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>43972</v>
       </c>
@@ -8529,7 +9041,7 @@
         <v>3641</v>
       </c>
       <c r="I99" s="3">
-        <v>3641</v>
+        <v>43</v>
       </c>
       <c r="J99" s="3">
         <v>1659</v>
@@ -8570,12 +9082,16 @@
       <c r="V99" s="8">
         <v>9</v>
       </c>
-      <c r="W99" s="17"/>
+      <c r="W99" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X99" s="17"/>
       <c r="Y99" s="17"/>
       <c r="Z99" s="17"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA99" s="17"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
         <v>43973</v>
       </c>
@@ -8601,7 +9117,7 @@
         <v>3678</v>
       </c>
       <c r="I100" s="3">
-        <v>3678</v>
+        <v>37</v>
       </c>
       <c r="J100" s="3">
         <v>1615</v>
@@ -8642,12 +9158,16 @@
       <c r="V100" s="8">
         <v>10</v>
       </c>
-      <c r="W100" s="17"/>
+      <c r="W100" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X100" s="17"/>
       <c r="Y100" s="17"/>
       <c r="Z100" s="17"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA100" s="17"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>43974</v>
       </c>
@@ -8673,7 +9193,7 @@
         <v>3713</v>
       </c>
       <c r="I101" s="3">
-        <v>3713</v>
+        <v>35</v>
       </c>
       <c r="J101" s="3">
         <v>1576</v>
@@ -8714,12 +9234,16 @@
       <c r="V101" s="8">
         <v>10</v>
       </c>
-      <c r="W101" s="17"/>
+      <c r="W101" s="24">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="X101" s="17"/>
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA101" s="17"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>43975</v>
       </c>
@@ -8745,7 +9269,7 @@
         <v>3741</v>
       </c>
       <c r="I102" s="3">
-        <v>3741</v>
+        <v>28</v>
       </c>
       <c r="J102" s="3">
         <v>1565</v>
@@ -8786,12 +9310,16 @@
       <c r="V102" s="8">
         <v>9</v>
       </c>
-      <c r="W102" s="17"/>
+      <c r="W102" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X102" s="17"/>
       <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA102" s="17"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>43976</v>
       </c>
@@ -8817,7 +9345,7 @@
         <v>3756</v>
       </c>
       <c r="I103" s="3">
-        <v>3756</v>
+        <v>15</v>
       </c>
       <c r="J103" s="3">
         <v>1554</v>
@@ -8858,12 +9386,16 @@
       <c r="V103" s="8">
         <v>20</v>
       </c>
-      <c r="W103" s="17"/>
+      <c r="W103" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X103" s="17"/>
       <c r="Y103" s="17"/>
       <c r="Z103" s="17"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA103" s="17"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
         <v>43977</v>
       </c>
@@ -8889,7 +9421,7 @@
         <v>3771</v>
       </c>
       <c r="I104" s="3">
-        <v>3771</v>
+        <v>15</v>
       </c>
       <c r="J104" s="3">
         <v>1436</v>
@@ -8930,12 +9462,16 @@
       <c r="V104" s="8">
         <v>11</v>
       </c>
-      <c r="W104" s="17"/>
+      <c r="W104" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X104" s="17"/>
       <c r="Y104" s="17"/>
       <c r="Z104" s="17"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA104" s="17"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>43978</v>
       </c>
@@ -8961,7 +9497,7 @@
         <v>3793</v>
       </c>
       <c r="I105" s="3">
-        <v>3793</v>
+        <v>22</v>
       </c>
       <c r="J105" s="3">
         <v>1432</v>
@@ -9002,12 +9538,16 @@
       <c r="V105" s="8">
         <v>11</v>
       </c>
-      <c r="W105" s="17"/>
+      <c r="W105" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X105" s="17"/>
       <c r="Y105" s="17"/>
       <c r="Z105" s="17"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA105" s="17"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106" s="10">
         <v>43979</v>
       </c>
@@ -9033,7 +9573,7 @@
         <v>3816</v>
       </c>
       <c r="I106" s="3">
-        <v>3816</v>
+        <v>23</v>
       </c>
       <c r="J106" s="3">
         <v>1311</v>
@@ -9074,12 +9614,16 @@
       <c r="V106" s="8">
         <v>8</v>
       </c>
-      <c r="W106" s="17"/>
+      <c r="W106" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X106" s="17"/>
       <c r="Y106" s="17"/>
       <c r="Z106" s="17"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA106" s="17"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>43980</v>
       </c>
@@ -9105,7 +9649,7 @@
         <v>3841</v>
       </c>
       <c r="I107" s="3">
-        <v>3841</v>
+        <v>25</v>
       </c>
       <c r="J107" s="3">
         <v>1300</v>
@@ -9146,12 +9690,16 @@
       <c r="V107" s="8">
         <v>13</v>
       </c>
-      <c r="W107" s="17"/>
+      <c r="W107" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X107" s="17"/>
       <c r="Y107" s="17"/>
       <c r="Z107" s="17"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA107" s="17"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>43981</v>
       </c>
@@ -9177,7 +9725,7 @@
         <v>3867</v>
       </c>
       <c r="I108" s="3">
-        <v>3867</v>
+        <v>26</v>
       </c>
       <c r="J108" s="3">
         <v>1201</v>
@@ -9218,12 +9766,16 @@
       <c r="V108" s="8">
         <v>11</v>
       </c>
-      <c r="W108" s="17"/>
+      <c r="W108" s="24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="X108" s="17"/>
       <c r="Y108" s="17"/>
       <c r="Z108" s="17"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA108" s="17"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>43982</v>
       </c>
@@ -9249,7 +9801,7 @@
         <v>3876</v>
       </c>
       <c r="I109" s="3">
-        <v>3876</v>
+        <v>9</v>
       </c>
       <c r="J109" s="3">
         <v>1203</v>
@@ -9290,12 +9842,16 @@
       <c r="V109" s="8">
         <v>7</v>
       </c>
-      <c r="W109" s="17"/>
+      <c r="W109" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X109" s="17"/>
       <c r="Y109" s="17"/>
       <c r="Z109" s="17"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA109" s="17"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
         <v>43983</v>
       </c>
@@ -9321,7 +9877,7 @@
         <v>3892</v>
       </c>
       <c r="I110" s="3">
-        <v>3892</v>
+        <v>16</v>
       </c>
       <c r="J110" s="3">
         <v>1209</v>
@@ -9362,12 +9918,16 @@
       <c r="V110" s="8">
         <v>10</v>
       </c>
-      <c r="W110" s="17"/>
+      <c r="W110" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X110" s="17"/>
       <c r="Y110" s="17"/>
       <c r="Z110" s="17"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA110" s="17"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>43984</v>
       </c>
@@ -9393,7 +9953,7 @@
         <v>3921</v>
       </c>
       <c r="I111" s="3">
-        <v>3921</v>
+        <v>29</v>
       </c>
       <c r="J111" s="3">
         <v>1229</v>
@@ -9434,12 +9994,16 @@
       <c r="V111" s="8">
         <v>12</v>
       </c>
-      <c r="W111" s="17"/>
+      <c r="W111" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="17"/>
       <c r="Z111" s="17"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA111" s="17"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
         <v>43985</v>
       </c>
@@ -9465,7 +10029,7 @@
         <v>3931</v>
       </c>
       <c r="I112" s="3">
-        <v>3931</v>
+        <v>10</v>
       </c>
       <c r="J112" s="3">
         <v>1207</v>
@@ -9506,12 +10070,16 @@
       <c r="V112" s="8">
         <v>8</v>
       </c>
-      <c r="W112" s="17"/>
+      <c r="W112" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
       <c r="Z112" s="17"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA112" s="17"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>43986</v>
       </c>
@@ -9537,7 +10105,7 @@
         <v>3954</v>
       </c>
       <c r="I113" s="3">
-        <v>3954</v>
+        <v>23</v>
       </c>
       <c r="J113" s="3">
         <v>1210</v>
@@ -9578,12 +10146,16 @@
       <c r="V113" s="8">
         <v>9</v>
       </c>
-      <c r="W113" s="17"/>
+      <c r="W113" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="17"/>
       <c r="Z113" s="17"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA113" s="17"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A114" s="10">
         <v>43987</v>
       </c>
@@ -9609,7 +10181,7 @@
         <v>3970</v>
       </c>
       <c r="I114" s="3">
-        <v>3970</v>
+        <v>16</v>
       </c>
       <c r="J114" s="3">
         <v>1183</v>
@@ -9650,12 +10222,16 @@
       <c r="V114" s="8">
         <v>11</v>
       </c>
-      <c r="W114" s="17"/>
+      <c r="W114" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="17"/>
       <c r="Z114" s="17"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA114" s="17"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>43988</v>
       </c>
@@ -9681,7 +10257,7 @@
         <v>3990</v>
       </c>
       <c r="I115" s="3">
-        <v>3990</v>
+        <v>20</v>
       </c>
       <c r="J115" s="3">
         <v>1166</v>
@@ -9722,12 +10298,16 @@
       <c r="V115" s="8">
         <v>6</v>
       </c>
-      <c r="W115" s="17"/>
+      <c r="W115" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="17"/>
       <c r="Z115" s="17"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA115" s="17"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
         <v>43989</v>
       </c>
@@ -9753,7 +10333,7 @@
         <v>4008</v>
       </c>
       <c r="I116" s="3">
-        <v>4008</v>
+        <v>18</v>
       </c>
       <c r="J116" s="3">
         <v>1183</v>
@@ -9794,12 +10374,16 @@
       <c r="V116" s="8">
         <v>11</v>
       </c>
-      <c r="W116" s="17"/>
+      <c r="W116" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X116" s="17"/>
       <c r="Y116" s="17"/>
       <c r="Z116" s="17"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA116" s="17"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A117" s="10">
         <v>43990</v>
       </c>
@@ -9825,7 +10409,7 @@
         <v>4014</v>
       </c>
       <c r="I117" s="3">
-        <v>4014</v>
+        <v>6</v>
       </c>
       <c r="J117" s="3">
         <v>1182</v>
@@ -9866,12 +10450,16 @@
       <c r="V117" s="8">
         <v>6</v>
       </c>
-      <c r="W117" s="17"/>
+      <c r="W117" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X117" s="17"/>
       <c r="Y117" s="17"/>
       <c r="Z117" s="17"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA117" s="17"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
         <v>43991</v>
       </c>
@@ -9897,7 +10485,7 @@
         <v>4017</v>
       </c>
       <c r="I118" s="3">
-        <v>4017</v>
+        <v>3</v>
       </c>
       <c r="J118" s="3">
         <v>1143</v>
@@ -9938,12 +10526,16 @@
       <c r="V118" s="8">
         <v>15</v>
       </c>
-      <c r="W118" s="17"/>
+      <c r="W118" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X118" s="17"/>
       <c r="Y118" s="17"/>
       <c r="Z118" s="17"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA118" s="17"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
         <v>43992</v>
       </c>
@@ -9969,7 +10561,7 @@
         <v>4027</v>
       </c>
       <c r="I119" s="3">
-        <v>4027</v>
+        <v>10</v>
       </c>
       <c r="J119" s="3">
         <v>1121</v>
@@ -10010,12 +10602,16 @@
       <c r="V119" s="8">
         <v>6</v>
       </c>
-      <c r="W119" s="17"/>
+      <c r="W119" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X119" s="17"/>
       <c r="Y119" s="17"/>
       <c r="Z119" s="17"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA119" s="17"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
         <v>43993</v>
       </c>
@@ -10041,7 +10637,7 @@
         <v>4039</v>
       </c>
       <c r="I120" s="3">
-        <v>4039</v>
+        <v>12</v>
       </c>
       <c r="J120" s="3">
         <v>1095</v>
@@ -10082,12 +10678,16 @@
       <c r="V120" s="8">
         <v>9</v>
       </c>
-      <c r="W120" s="17"/>
+      <c r="W120" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
       <c r="Z120" s="17"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA120" s="17"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
         <v>43994</v>
       </c>
@@ -10113,7 +10713,7 @@
         <v>4053</v>
       </c>
       <c r="I121" s="3">
-        <v>4053</v>
+        <v>14</v>
       </c>
       <c r="J121" s="3">
         <v>1051</v>
@@ -10154,12 +10754,16 @@
       <c r="V121" s="8">
         <v>11</v>
       </c>
-      <c r="W121" s="17"/>
+      <c r="W121" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X121" s="17"/>
       <c r="Y121" s="17"/>
       <c r="Z121" s="17"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA121" s="17"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A122" s="10">
         <v>43995</v>
       </c>
@@ -10185,7 +10789,7 @@
         <v>4064</v>
       </c>
       <c r="I122" s="3">
-        <v>4064</v>
+        <v>11</v>
       </c>
       <c r="J122" s="3">
         <v>1029</v>
@@ -10226,12 +10830,16 @@
       <c r="V122" s="8">
         <v>14</v>
       </c>
-      <c r="W122" s="17"/>
+      <c r="W122" s="24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="X122" s="17"/>
       <c r="Y122" s="17"/>
       <c r="Z122" s="17"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA122" s="17"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
         <v>43996</v>
       </c>
@@ -10257,7 +10865,7 @@
         <v>4069</v>
       </c>
       <c r="I123" s="3">
-        <v>4069</v>
+        <v>5</v>
       </c>
       <c r="J123" s="3">
         <v>1025</v>
@@ -10298,12 +10906,16 @@
       <c r="V123" s="8">
         <v>16</v>
       </c>
-      <c r="W123" s="17"/>
+      <c r="W123" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X123" s="17"/>
       <c r="Y123" s="17"/>
       <c r="Z123" s="17"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA123" s="17"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
         <v>43997</v>
       </c>
@@ -10329,7 +10941,7 @@
         <v>4076</v>
       </c>
       <c r="I124" s="3">
-        <v>4076</v>
+        <v>7</v>
       </c>
       <c r="J124" s="3">
         <v>1028</v>
@@ -10370,12 +10982,16 @@
       <c r="V124" s="8">
         <v>17</v>
       </c>
-      <c r="W124" s="17"/>
+      <c r="W124" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X124" s="17"/>
       <c r="Y124" s="17"/>
       <c r="Z124" s="17"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA124" s="17"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
         <v>43998</v>
       </c>
@@ -10401,7 +11017,7 @@
         <v>4077</v>
       </c>
       <c r="I125" s="3">
-        <v>4077</v>
+        <v>1</v>
       </c>
       <c r="J125" s="3">
         <v>996</v>
@@ -10442,12 +11058,16 @@
       <c r="V125" s="8">
         <v>10</v>
       </c>
-      <c r="W125" s="17"/>
+      <c r="W125" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X125" s="17"/>
       <c r="Y125" s="17"/>
       <c r="Z125" s="17"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA125" s="17"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A126" s="10">
         <v>43999</v>
       </c>
@@ -10473,7 +11093,7 @@
         <v>4078</v>
       </c>
       <c r="I126" s="3">
-        <v>4078</v>
+        <v>1</v>
       </c>
       <c r="J126" s="3">
         <v>964</v>
@@ -10514,12 +11134,16 @@
       <c r="V126" s="8">
         <v>14</v>
       </c>
-      <c r="W126" s="17"/>
+      <c r="W126" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X126" s="17"/>
       <c r="Y126" s="17"/>
       <c r="Z126" s="17"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA126" s="17"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
         <v>44000</v>
       </c>
@@ -10545,7 +11169,7 @@
         <v>4079</v>
       </c>
       <c r="I127" s="3">
-        <v>4079</v>
+        <v>1</v>
       </c>
       <c r="J127" s="3">
         <v>947</v>
@@ -10586,12 +11210,16 @@
       <c r="V127" s="8">
         <v>22</v>
       </c>
-      <c r="W127" s="17"/>
+      <c r="W127" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X127" s="17"/>
       <c r="Y127" s="17"/>
       <c r="Z127" s="17"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA127" s="17"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A128" s="10">
         <v>44001</v>
       </c>
@@ -10617,7 +11245,7 @@
         <v>4081</v>
       </c>
       <c r="I128" s="3">
-        <v>4081</v>
+        <v>2</v>
       </c>
       <c r="J128" s="3">
         <v>932</v>
@@ -10658,12 +11286,16 @@
       <c r="V128" s="8">
         <v>11</v>
       </c>
-      <c r="W128" s="17"/>
+      <c r="W128" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X128" s="17"/>
       <c r="Y128" s="17"/>
       <c r="Z128" s="17"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA128" s="17"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
         <v>44002</v>
       </c>
@@ -10689,7 +11321,7 @@
         <v>4086</v>
       </c>
       <c r="I129" s="3">
-        <v>4086</v>
+        <v>5</v>
       </c>
       <c r="J129" s="3">
         <v>931</v>
@@ -10730,12 +11362,16 @@
       <c r="V129" s="8">
         <v>16</v>
       </c>
-      <c r="W129" s="17"/>
+      <c r="W129" s="24">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="X129" s="17"/>
       <c r="Y129" s="17"/>
       <c r="Z129" s="17"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA129" s="17"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
         <v>44003</v>
       </c>
@@ -10761,7 +11397,7 @@
         <v>4094</v>
       </c>
       <c r="I130" s="3">
-        <v>4094</v>
+        <v>8</v>
       </c>
       <c r="J130" s="3">
         <v>935</v>
@@ -10802,12 +11438,16 @@
       <c r="V130" s="8">
         <v>12</v>
       </c>
-      <c r="W130" s="17"/>
+      <c r="W130" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X130" s="17"/>
       <c r="Y130" s="17"/>
       <c r="Z130" s="17"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA130" s="17"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
         <v>44004</v>
       </c>
@@ -10833,7 +11473,7 @@
         <v>4102</v>
       </c>
       <c r="I131" s="3">
-        <v>4102</v>
+        <v>8</v>
       </c>
       <c r="J131" s="3">
         <v>940</v>
@@ -10874,12 +11514,16 @@
       <c r="V131" s="8">
         <v>11</v>
       </c>
-      <c r="W131" s="17"/>
+      <c r="W131" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X131" s="17"/>
       <c r="Y131" s="17"/>
       <c r="Z131" s="17"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA131" s="17"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A132" s="10">
         <v>44005</v>
       </c>
@@ -10905,7 +11549,7 @@
         <v>4107</v>
       </c>
       <c r="I132" s="3">
-        <v>4107</v>
+        <v>5</v>
       </c>
       <c r="J132" s="3">
         <v>934</v>
@@ -10946,12 +11590,16 @@
       <c r="V132" s="8">
         <v>16</v>
       </c>
-      <c r="W132" s="17"/>
+      <c r="W132" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X132" s="17"/>
       <c r="Y132" s="17"/>
       <c r="Z132" s="17"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA132" s="17"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
         <v>44006</v>
       </c>
@@ -10977,7 +11625,7 @@
         <v>4114</v>
       </c>
       <c r="I133" s="3">
-        <v>4114</v>
+        <v>7</v>
       </c>
       <c r="J133" s="3">
         <v>920</v>
@@ -11018,12 +11666,16 @@
       <c r="V133" s="8">
         <v>16</v>
       </c>
-      <c r="W133" s="17"/>
+      <c r="W133" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X133" s="17"/>
       <c r="Y133" s="17"/>
       <c r="Z133" s="17"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA133" s="17"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A134" s="10">
         <v>44007</v>
       </c>
@@ -11049,7 +11701,7 @@
         <v>4123</v>
       </c>
       <c r="I134" s="3">
-        <v>4123</v>
+        <v>9</v>
       </c>
       <c r="J134" s="3">
         <v>906</v>
@@ -11090,12 +11742,16 @@
       <c r="V134" s="8">
         <v>10</v>
       </c>
-      <c r="W134" s="17"/>
+      <c r="W134" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X134" s="17"/>
       <c r="Y134" s="17"/>
       <c r="Z134" s="17"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA134" s="17"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>44008</v>
       </c>
@@ -11121,7 +11777,7 @@
         <v>4127</v>
       </c>
       <c r="I135" s="3">
-        <v>4127</v>
+        <v>4</v>
       </c>
       <c r="J135" s="3">
         <v>886</v>
@@ -11162,12 +11818,16 @@
       <c r="V135" s="8">
         <v>14</v>
       </c>
-      <c r="W135" s="17"/>
+      <c r="W135" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X135" s="17"/>
       <c r="Y135" s="17"/>
       <c r="Z135" s="17"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA135" s="17"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A136" s="10">
         <v>44009</v>
       </c>
@@ -11193,7 +11853,7 @@
         <v>4138</v>
       </c>
       <c r="I136" s="3">
-        <v>4138</v>
+        <v>11</v>
       </c>
       <c r="J136" s="3">
         <v>879</v>
@@ -11234,12 +11894,16 @@
       <c r="V136" s="8">
         <v>10</v>
       </c>
-      <c r="W136" s="17"/>
+      <c r="W136" s="24">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="X136" s="17"/>
       <c r="Y136" s="17"/>
       <c r="Z136" s="17"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA136" s="17"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A137" s="10">
         <v>44010</v>
       </c>
@@ -11265,7 +11929,7 @@
         <v>4142</v>
       </c>
       <c r="I137" s="3">
-        <v>4142</v>
+        <v>4</v>
       </c>
       <c r="J137" s="3">
         <v>876</v>
@@ -11306,12 +11970,16 @@
       <c r="V137" s="8">
         <v>23</v>
       </c>
-      <c r="W137" s="17"/>
+      <c r="W137" s="24">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="X137" s="17"/>
       <c r="Y137" s="17"/>
       <c r="Z137" s="17"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA137" s="17"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A138" s="10">
         <v>44011</v>
       </c>
@@ -11337,7 +12005,7 @@
         <v>4145</v>
       </c>
       <c r="I138" s="3">
-        <v>4145</v>
+        <v>3</v>
       </c>
       <c r="J138" s="3">
         <v>875</v>
@@ -11378,12 +12046,16 @@
       <c r="V138" s="8">
         <v>22</v>
       </c>
-      <c r="W138" s="17"/>
+      <c r="W138" s="24">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="X138" s="17"/>
       <c r="Y138" s="17"/>
       <c r="Z138" s="17"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA138" s="17"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
         <v>44012</v>
       </c>
@@ -11409,7 +12081,7 @@
         <v>4155</v>
       </c>
       <c r="I139" s="3">
-        <v>4155</v>
+        <v>10</v>
       </c>
       <c r="J139" s="3">
         <v>878</v>
@@ -11450,12 +12122,16 @@
       <c r="V139" s="8">
         <v>17</v>
       </c>
-      <c r="W139" s="17"/>
+      <c r="W139" s="24">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="X139" s="17"/>
       <c r="Y139" s="17"/>
       <c r="Z139" s="17"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA139" s="17"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
         <v>44013</v>
       </c>
@@ -11481,7 +12157,7 @@
         <v>4157</v>
       </c>
       <c r="I140" s="3">
-        <v>4157</v>
+        <v>2</v>
       </c>
       <c r="J140" s="3">
         <v>857</v>
@@ -11522,12 +12198,16 @@
       <c r="V140" s="8">
         <v>16</v>
       </c>
-      <c r="W140" s="17"/>
+      <c r="W140" s="24">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="X140" s="17"/>
       <c r="Y140" s="17"/>
       <c r="Z140" s="17"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA140" s="17"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
         <v>44014</v>
       </c>
@@ -11553,7 +12233,7 @@
         <v>4166</v>
       </c>
       <c r="I141" s="3">
-        <v>4166</v>
+        <v>9</v>
       </c>
       <c r="J141" s="3">
         <v>858</v>
@@ -11594,12 +12274,16 @@
       <c r="V141" s="8">
         <v>20</v>
       </c>
-      <c r="W141" s="17"/>
+      <c r="W141" s="24">
+        <f t="shared" ref="W141:W204" si="4">WEEKNUM(A141)</f>
+        <v>27</v>
+      </c>
       <c r="X141" s="17"/>
       <c r="Y141" s="17"/>
       <c r="Z141" s="17"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA141" s="17"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A142" s="10">
         <v>44015</v>
       </c>
@@ -11625,7 +12309,7 @@
         <v>4172</v>
       </c>
       <c r="I142" s="3">
-        <v>4172</v>
+        <v>6</v>
       </c>
       <c r="J142" s="3">
         <v>832</v>
@@ -11666,12 +12350,16 @@
       <c r="V142" s="8">
         <v>21</v>
       </c>
-      <c r="W142" s="17"/>
+      <c r="W142" s="24">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
       <c r="X142" s="17"/>
       <c r="Y142" s="17"/>
       <c r="Z142" s="17"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA142" s="17"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
         <v>44016</v>
       </c>
@@ -11697,7 +12385,7 @@
         <v>4174</v>
       </c>
       <c r="I143" s="3">
-        <v>4174</v>
+        <v>2</v>
       </c>
       <c r="J143" s="3">
         <v>801</v>
@@ -11738,12 +12426,16 @@
       <c r="V143" s="8">
         <v>23</v>
       </c>
-      <c r="W143" s="17"/>
+      <c r="W143" s="24">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
       <c r="X143" s="17"/>
       <c r="Y143" s="17"/>
       <c r="Z143" s="17"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA143" s="17"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A144" s="10">
         <v>44017</v>
       </c>
@@ -11769,7 +12461,7 @@
         <v>4183</v>
       </c>
       <c r="I144" s="3">
-        <v>4183</v>
+        <v>9</v>
       </c>
       <c r="J144" s="3">
         <v>783</v>
@@ -11810,12 +12502,16 @@
       <c r="V144" s="8">
         <v>19</v>
       </c>
-      <c r="W144" s="17"/>
+      <c r="W144" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X144" s="17"/>
       <c r="Y144" s="17"/>
       <c r="Z144" s="17"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA144" s="17"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
         <v>44018</v>
       </c>
@@ -11841,7 +12537,7 @@
         <v>4189</v>
       </c>
       <c r="I145" s="3">
-        <v>4189</v>
+        <v>6</v>
       </c>
       <c r="J145" s="3">
         <v>740</v>
@@ -11882,12 +12578,16 @@
       <c r="V145" s="8">
         <v>18</v>
       </c>
-      <c r="W145" s="17"/>
+      <c r="W145" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X145" s="17"/>
       <c r="Y145" s="17"/>
       <c r="Z145" s="17"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA145" s="17"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A146" s="10">
         <v>44019</v>
       </c>
@@ -11913,7 +12613,7 @@
         <v>4205</v>
       </c>
       <c r="I146" s="3">
-        <v>4205</v>
+        <v>16</v>
       </c>
       <c r="J146" s="3">
         <v>742</v>
@@ -11954,12 +12654,16 @@
       <c r="V146" s="8">
         <v>31</v>
       </c>
-      <c r="W146" s="17"/>
+      <c r="W146" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X146" s="17"/>
       <c r="Y146" s="17"/>
       <c r="Z146" s="17"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA146" s="17"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>44020</v>
       </c>
@@ -11985,7 +12689,7 @@
         <v>4210</v>
       </c>
       <c r="I147" s="3">
-        <v>4210</v>
+        <v>5</v>
       </c>
       <c r="J147" s="3">
         <v>736</v>
@@ -12026,12 +12730,16 @@
       <c r="V147" s="8">
         <v>18</v>
       </c>
-      <c r="W147" s="17"/>
+      <c r="W147" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X147" s="17"/>
       <c r="Y147" s="17"/>
       <c r="Z147" s="17"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA147" s="17"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
         <v>44021</v>
       </c>
@@ -12057,7 +12765,7 @@
         <v>4220</v>
       </c>
       <c r="I148" s="3">
-        <v>4220</v>
+        <v>10</v>
       </c>
       <c r="J148" s="3">
         <v>742</v>
@@ -12098,12 +12806,16 @@
       <c r="V148" s="8">
         <v>17</v>
       </c>
-      <c r="W148" s="17"/>
+      <c r="W148" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X148" s="17"/>
       <c r="Y148" s="17"/>
       <c r="Z148" s="17"/>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA148" s="17"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>44022</v>
       </c>
@@ -12129,7 +12841,7 @@
         <v>4223</v>
       </c>
       <c r="I149" s="3">
-        <v>4223</v>
+        <v>3</v>
       </c>
       <c r="J149" s="3">
         <v>689</v>
@@ -12170,12 +12882,16 @@
       <c r="V149" s="8">
         <v>13</v>
       </c>
-      <c r="W149" s="17"/>
+      <c r="W149" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X149" s="17"/>
       <c r="Y149" s="17"/>
       <c r="Z149" s="17"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA149" s="17"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
         <v>44023</v>
       </c>
@@ -12201,7 +12917,7 @@
         <v>4229</v>
       </c>
       <c r="I150" s="3">
-        <v>4229</v>
+        <v>6</v>
       </c>
       <c r="J150" s="3">
         <v>660</v>
@@ -12242,12 +12958,16 @@
       <c r="V150" s="8">
         <v>24</v>
       </c>
-      <c r="W150" s="17"/>
+      <c r="W150" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="X150" s="17"/>
       <c r="Y150" s="17"/>
       <c r="Z150" s="17"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA150" s="17"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>44024</v>
       </c>
@@ -12273,7 +12993,7 @@
         <v>4234</v>
       </c>
       <c r="I151" s="3">
-        <v>4234</v>
+        <v>5</v>
       </c>
       <c r="J151" s="3">
         <v>603</v>
@@ -12314,12 +13034,16 @@
       <c r="V151" s="8">
         <v>13</v>
       </c>
-      <c r="W151" s="17"/>
+      <c r="W151" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X151" s="17"/>
       <c r="Y151" s="17"/>
       <c r="Z151" s="17"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA151" s="17"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A152" s="10">
         <v>44025</v>
       </c>
@@ -12345,7 +13069,7 @@
         <v>4247</v>
       </c>
       <c r="I152" s="3">
-        <v>4247</v>
+        <v>13</v>
       </c>
       <c r="J152" s="3">
         <v>579</v>
@@ -12386,12 +13110,16 @@
       <c r="V152" s="8">
         <v>17</v>
       </c>
-      <c r="W152" s="17"/>
+      <c r="W152" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X152" s="17"/>
       <c r="Y152" s="17"/>
       <c r="Z152" s="17"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA152" s="17"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153" s="10">
         <v>44026</v>
       </c>
@@ -12417,7 +13145,7 @@
         <v>4258</v>
       </c>
       <c r="I153" s="3">
-        <v>4258</v>
+        <v>11</v>
       </c>
       <c r="J153" s="3">
         <v>557</v>
@@ -12458,12 +13186,16 @@
       <c r="V153" s="8">
         <v>30</v>
       </c>
-      <c r="W153" s="17"/>
+      <c r="W153" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X153" s="17"/>
       <c r="Y153" s="17"/>
       <c r="Z153" s="17"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA153" s="17"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154" s="10">
         <v>44027</v>
       </c>
@@ -12489,7 +13221,7 @@
         <v>4263</v>
       </c>
       <c r="I154" s="3">
-        <v>4263</v>
+        <v>5</v>
       </c>
       <c r="J154" s="3">
         <v>542</v>
@@ -12530,12 +13262,16 @@
       <c r="V154" s="8">
         <v>21</v>
       </c>
-      <c r="W154" s="17"/>
+      <c r="W154" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X154" s="17"/>
       <c r="Y154" s="17"/>
       <c r="Z154" s="17"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA154" s="17"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155" s="10">
         <v>44028</v>
       </c>
@@ -12561,7 +13297,7 @@
         <v>4279</v>
       </c>
       <c r="I155" s="3">
-        <v>4279</v>
+        <v>16</v>
       </c>
       <c r="J155" s="3">
         <v>528</v>
@@ -12602,12 +13338,16 @@
       <c r="V155" s="8">
         <v>19</v>
       </c>
-      <c r="W155" s="17"/>
+      <c r="W155" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X155" s="17"/>
       <c r="Y155" s="17"/>
       <c r="Z155" s="17"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA155" s="17"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156" s="10">
         <v>44029</v>
       </c>
@@ -12633,7 +13373,7 @@
         <v>4293</v>
       </c>
       <c r="I156" s="3">
-        <v>4293</v>
+        <v>14</v>
       </c>
       <c r="J156" s="3">
         <v>478</v>
@@ -12674,12 +13414,16 @@
       <c r="V156" s="8">
         <v>17</v>
       </c>
-      <c r="W156" s="17"/>
+      <c r="W156" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X156" s="17"/>
       <c r="Y156" s="17"/>
       <c r="Z156" s="17"/>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA156" s="17"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A157" s="10">
         <v>44030</v>
       </c>
@@ -12705,7 +13449,7 @@
         <v>4315</v>
       </c>
       <c r="I157" s="3">
-        <v>4315</v>
+        <v>22</v>
       </c>
       <c r="J157" s="3">
         <v>497</v>
@@ -12746,12 +13490,16 @@
       <c r="V157" s="8">
         <v>21</v>
       </c>
-      <c r="W157" s="17"/>
+      <c r="W157" s="24">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
       <c r="X157" s="17"/>
       <c r="Y157" s="17"/>
       <c r="Z157" s="17"/>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA157" s="17"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158" s="10">
         <v>44031</v>
       </c>
@@ -12777,7 +13525,7 @@
         <v>4333</v>
       </c>
       <c r="I158" s="3">
-        <v>4333</v>
+        <v>18</v>
       </c>
       <c r="J158" s="3">
         <v>514</v>
@@ -12818,12 +13566,16 @@
       <c r="V158" s="8">
         <v>17</v>
       </c>
-      <c r="W158" s="17"/>
+      <c r="W158" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X158" s="17"/>
       <c r="Y158" s="17"/>
       <c r="Z158" s="17"/>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA158" s="17"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159" s="10">
         <v>44032</v>
       </c>
@@ -12849,7 +13601,7 @@
         <v>4339</v>
       </c>
       <c r="I159" s="3">
-        <v>4339</v>
+        <v>6</v>
       </c>
       <c r="J159" s="3">
         <v>511</v>
@@ -12890,12 +13642,16 @@
       <c r="V159" s="8">
         <v>12</v>
       </c>
-      <c r="W159" s="17"/>
+      <c r="W159" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X159" s="17"/>
       <c r="Y159" s="17"/>
       <c r="Z159" s="17"/>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA159" s="17"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160" s="10">
         <v>44033</v>
       </c>
@@ -12921,7 +13677,7 @@
         <v>4347</v>
       </c>
       <c r="I160" s="3">
-        <v>4347</v>
+        <v>8</v>
       </c>
       <c r="J160" s="3">
         <v>494</v>
@@ -12962,12 +13718,16 @@
       <c r="V160" s="8">
         <v>36</v>
       </c>
-      <c r="W160" s="17"/>
+      <c r="W160" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X160" s="17"/>
       <c r="Y160" s="17"/>
       <c r="Z160" s="17"/>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA160" s="17"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A161" s="10">
         <v>44034</v>
       </c>
@@ -12993,7 +13753,7 @@
         <v>4366</v>
       </c>
       <c r="I161" s="3">
-        <v>4366</v>
+        <v>19</v>
       </c>
       <c r="J161" s="3">
         <v>487</v>
@@ -13034,12 +13794,16 @@
       <c r="V161" s="8">
         <v>27</v>
       </c>
-      <c r="W161" s="17"/>
+      <c r="W161" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X161" s="17"/>
       <c r="Y161" s="17"/>
       <c r="Z161" s="17"/>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA161" s="17"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A162" s="10">
         <v>44035</v>
       </c>
@@ -13065,7 +13829,7 @@
         <v>4380</v>
       </c>
       <c r="I162" s="3">
-        <v>4380</v>
+        <v>14</v>
       </c>
       <c r="J162" s="3">
         <v>484</v>
@@ -13106,12 +13870,16 @@
       <c r="V162" s="8">
         <v>25</v>
       </c>
-      <c r="W162" s="17"/>
+      <c r="W162" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X162" s="17"/>
       <c r="Y162" s="17"/>
       <c r="Z162" s="17"/>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA162" s="17"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A163" s="10">
         <v>44036</v>
       </c>
@@ -13137,7 +13905,7 @@
         <v>4398</v>
       </c>
       <c r="I163" s="3">
-        <v>4398</v>
+        <v>18</v>
       </c>
       <c r="J163" s="3">
         <v>490</v>
@@ -13178,12 +13946,16 @@
       <c r="V163" s="8">
         <v>24</v>
       </c>
-      <c r="W163" s="17"/>
+      <c r="W163" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X163" s="17"/>
       <c r="Y163" s="17"/>
       <c r="Z163" s="17"/>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA163" s="17"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A164" s="10">
         <v>44037</v>
       </c>
@@ -13209,7 +13981,7 @@
         <v>4424</v>
       </c>
       <c r="I164" s="3">
-        <v>4424</v>
+        <v>26</v>
       </c>
       <c r="J164" s="3">
         <v>504</v>
@@ -13250,12 +14022,16 @@
       <c r="V164" s="8">
         <v>15</v>
       </c>
-      <c r="W164" s="17"/>
+      <c r="W164" s="24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="X164" s="17"/>
       <c r="Y164" s="17"/>
       <c r="Z164" s="17"/>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA164" s="17"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A165" s="10">
         <v>44038</v>
       </c>
@@ -13281,7 +14057,7 @@
         <v>4435</v>
       </c>
       <c r="I165" s="3">
-        <v>4435</v>
+        <v>11</v>
       </c>
       <c r="J165" s="3">
         <v>510</v>
@@ -13322,12 +14098,16 @@
       <c r="V165" s="8">
         <v>22</v>
       </c>
-      <c r="W165" s="17"/>
+      <c r="W165" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X165" s="17"/>
       <c r="Y165" s="17"/>
       <c r="Z165" s="17"/>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA165" s="17"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A166" s="10">
         <v>44039</v>
       </c>
@@ -13353,7 +14133,7 @@
         <v>4448</v>
       </c>
       <c r="I166" s="3">
-        <v>4448</v>
+        <v>13</v>
       </c>
       <c r="J166" s="3">
         <v>523</v>
@@ -13394,12 +14174,16 @@
       <c r="V166" s="8">
         <v>19</v>
       </c>
-      <c r="W166" s="17"/>
+      <c r="W166" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X166" s="17"/>
       <c r="Y166" s="17"/>
       <c r="Z166" s="17"/>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA166" s="17"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A167" s="10">
         <v>44040</v>
       </c>
@@ -13425,7 +14209,7 @@
         <v>4456</v>
       </c>
       <c r="I167" s="3">
-        <v>4456</v>
+        <v>8</v>
       </c>
       <c r="J167" s="3">
         <v>529</v>
@@ -13466,12 +14250,16 @@
       <c r="V167" s="8">
         <v>33</v>
       </c>
-      <c r="W167" s="17"/>
+      <c r="W167" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X167" s="17"/>
       <c r="Y167" s="17"/>
       <c r="Z167" s="17"/>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA167" s="17"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A168" s="10">
         <v>44041</v>
       </c>
@@ -13497,7 +14285,7 @@
         <v>4465</v>
       </c>
       <c r="I168" s="3">
-        <v>4465</v>
+        <v>9</v>
       </c>
       <c r="J168" s="3">
         <v>530</v>
@@ -13538,12 +14326,16 @@
       <c r="V168" s="8">
         <v>30</v>
       </c>
-      <c r="W168" s="17"/>
+      <c r="W168" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X168" s="17"/>
       <c r="Y168" s="17"/>
       <c r="Z168" s="17"/>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA168" s="17"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A169" s="10">
         <v>44042</v>
       </c>
@@ -13569,7 +14361,7 @@
         <v>4484</v>
       </c>
       <c r="I169" s="3">
-        <v>4484</v>
+        <v>19</v>
       </c>
       <c r="J169" s="3">
         <v>542</v>
@@ -13610,12 +14402,16 @@
       <c r="V169" s="8">
         <v>35</v>
       </c>
-      <c r="W169" s="17"/>
+      <c r="W169" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X169" s="17"/>
       <c r="Y169" s="17"/>
       <c r="Z169" s="17"/>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA169" s="17"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A170" s="10">
         <v>44043</v>
       </c>
@@ -13641,7 +14437,7 @@
         <v>4505</v>
       </c>
       <c r="I170" s="3">
-        <v>4505</v>
+        <v>21</v>
       </c>
       <c r="J170" s="3">
         <v>556</v>
@@ -13682,12 +14478,16 @@
       <c r="V170" s="8">
         <v>39</v>
       </c>
-      <c r="W170" s="17"/>
+      <c r="W170" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X170" s="17"/>
       <c r="Y170" s="17"/>
       <c r="Z170" s="17"/>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA170" s="17"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A171" s="10">
         <v>44044</v>
       </c>
@@ -13713,7 +14513,7 @@
         <v>4526</v>
       </c>
       <c r="I171" s="3">
-        <v>4526</v>
+        <v>21</v>
       </c>
       <c r="J171" s="3">
         <v>565</v>
@@ -13754,12 +14554,16 @@
       <c r="V171" s="8">
         <v>36</v>
       </c>
-      <c r="W171" s="17"/>
+      <c r="W171" s="24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="X171" s="17"/>
       <c r="Y171" s="17"/>
       <c r="Z171" s="17"/>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA171" s="17"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A172" s="10">
         <v>44045</v>
       </c>
@@ -13785,7 +14589,7 @@
         <v>4535</v>
       </c>
       <c r="I172" s="3">
-        <v>4535</v>
+        <v>9</v>
       </c>
       <c r="J172" s="3">
         <v>549</v>
@@ -13826,8 +14630,12 @@
       <c r="V172" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W172" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A173" s="10">
         <v>44046</v>
       </c>
@@ -13853,7 +14661,7 @@
         <v>4544</v>
       </c>
       <c r="I173" s="3">
-        <v>4544</v>
+        <v>9</v>
       </c>
       <c r="J173" s="3">
         <v>534</v>
@@ -13894,8 +14702,12 @@
       <c r="V173" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W173" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A174" s="10">
         <v>44047</v>
       </c>
@@ -13921,7 +14733,7 @@
         <v>4553</v>
       </c>
       <c r="I174" s="3">
-        <v>4553</v>
+        <v>9</v>
       </c>
       <c r="J174" s="3">
         <v>540</v>
@@ -13962,8 +14774,12 @@
       <c r="V174" s="8">
         <v>48</v>
       </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W174" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A175" s="10">
         <v>44048</v>
       </c>
@@ -13989,7 +14805,7 @@
         <v>4564</v>
       </c>
       <c r="I175" s="12">
-        <v>4564</v>
+        <v>11</v>
       </c>
       <c r="J175" s="12">
         <v>534</v>
@@ -14030,8 +14846,12 @@
       <c r="V175" s="16">
         <v>41</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W175" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A176" s="10">
         <v>44049</v>
       </c>
@@ -14057,7 +14877,7 @@
         <v>4597</v>
       </c>
       <c r="I176" s="3">
-        <v>4597</v>
+        <v>33</v>
       </c>
       <c r="J176" s="3">
         <v>534</v>
@@ -14098,8 +14918,12 @@
       <c r="V176" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W176" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="10">
         <v>44050</v>
       </c>
@@ -14125,7 +14949,7 @@
         <v>4621</v>
       </c>
       <c r="I177" s="3">
-        <v>4621</v>
+        <v>24</v>
       </c>
       <c r="J177" s="3">
         <v>555</v>
@@ -14166,8 +14990,12 @@
       <c r="V177" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W177" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="10">
         <v>44051</v>
       </c>
@@ -14193,7 +15021,7 @@
         <v>4653</v>
       </c>
       <c r="I178" s="3">
-        <v>4653</v>
+        <v>32</v>
       </c>
       <c r="J178" s="3">
         <v>560</v>
@@ -14234,8 +15062,12 @@
       <c r="V178" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W178" s="24">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="10">
         <v>44052</v>
       </c>
@@ -14261,7 +15093,7 @@
         <v>4696</v>
       </c>
       <c r="I179" s="3">
-        <v>4696</v>
+        <v>43</v>
       </c>
       <c r="J179" s="3">
         <v>595</v>
@@ -14302,8 +15134,12 @@
       <c r="V179" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W179" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="10">
         <v>44053</v>
       </c>
@@ -14329,7 +15165,7 @@
         <v>4731</v>
       </c>
       <c r="I180" s="3">
-        <v>4731</v>
+        <v>35</v>
       </c>
       <c r="J180" s="3">
         <v>601</v>
@@ -14370,8 +15206,12 @@
       <c r="V180" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W180" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="10">
         <v>44054</v>
       </c>
@@ -14397,7 +15237,7 @@
         <v>4746</v>
       </c>
       <c r="I181" s="3">
-        <v>4746</v>
+        <v>15</v>
       </c>
       <c r="J181" s="3">
         <v>614</v>
@@ -14438,8 +15278,12 @@
       <c r="V181" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W181" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="10">
         <v>44055</v>
       </c>
@@ -14465,7 +15309,7 @@
         <v>4768</v>
       </c>
       <c r="I182" s="3">
-        <v>4768</v>
+        <v>22</v>
       </c>
       <c r="J182" s="3">
         <v>634</v>
@@ -14506,8 +15350,12 @@
       <c r="V182" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W182" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="10">
         <v>44056</v>
       </c>
@@ -14533,7 +15381,7 @@
         <v>4813</v>
       </c>
       <c r="I183" s="3">
-        <v>4813</v>
+        <v>45</v>
       </c>
       <c r="J183" s="3">
         <v>645</v>
@@ -14574,8 +15422,12 @@
       <c r="V183" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W183" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="10">
         <v>44057</v>
       </c>
@@ -14601,7 +15453,7 @@
         <v>4853</v>
       </c>
       <c r="I184" s="3">
-        <v>4853</v>
+        <v>40</v>
       </c>
       <c r="J184" s="3">
         <v>656</v>
@@ -14642,8 +15494,12 @@
       <c r="V184" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W184" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="10">
         <v>44058</v>
       </c>
@@ -14669,7 +15525,7 @@
         <v>4877</v>
       </c>
       <c r="I185" s="3">
-        <v>4877</v>
+        <v>24</v>
       </c>
       <c r="J185" s="3">
         <v>664</v>
@@ -14710,8 +15566,12 @@
       <c r="V185" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W185" s="24">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="10">
         <v>44059</v>
       </c>
@@ -14737,7 +15597,7 @@
         <v>4916</v>
       </c>
       <c r="I186" s="3">
-        <v>4916</v>
+        <v>39</v>
       </c>
       <c r="J186" s="3">
         <v>685</v>
@@ -14778,8 +15638,12 @@
       <c r="V186" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W186" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="10">
         <v>44060</v>
       </c>
@@ -14805,7 +15669,7 @@
         <v>4946</v>
       </c>
       <c r="I187" s="3">
-        <v>4946</v>
+        <v>30</v>
       </c>
       <c r="J187" s="3">
         <v>708</v>
@@ -14846,8 +15710,12 @@
       <c r="V187" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W187" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="10">
         <v>44061</v>
       </c>
@@ -14873,7 +15741,7 @@
         <v>4970</v>
       </c>
       <c r="I188" s="3">
-        <v>4970</v>
+        <v>24</v>
       </c>
       <c r="J188" s="3">
         <v>730</v>
@@ -14914,8 +15782,12 @@
       <c r="V188" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W188" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="10">
         <v>44062</v>
       </c>
@@ -14941,7 +15813,7 @@
         <v>5002</v>
       </c>
       <c r="I189" s="3">
-        <v>5002</v>
+        <v>32</v>
       </c>
       <c r="J189" s="3">
         <v>728</v>
@@ -14982,8 +15854,12 @@
       <c r="V189" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W189" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="10">
         <v>44063</v>
       </c>
@@ -15009,7 +15885,7 @@
         <v>5046</v>
       </c>
       <c r="I190" s="3">
-        <v>5046</v>
+        <v>44</v>
       </c>
       <c r="J190" s="3">
         <v>759</v>
@@ -15050,8 +15926,12 @@
       <c r="V190" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W190" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="10">
         <v>44064</v>
       </c>
@@ -15077,7 +15957,7 @@
         <v>5098</v>
       </c>
       <c r="I191" s="3">
-        <v>5098</v>
+        <v>52</v>
       </c>
       <c r="J191" s="3">
         <v>806</v>
@@ -15118,8 +15998,12 @@
       <c r="V191" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W191" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="10">
         <v>44065</v>
       </c>
@@ -15145,7 +16029,7 @@
         <v>5133</v>
       </c>
       <c r="I192" s="3">
-        <v>5133</v>
+        <v>35</v>
       </c>
       <c r="J192" s="3">
         <v>830</v>
@@ -15186,8 +16070,12 @@
       <c r="V192" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W192" s="24">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="10">
         <v>44066</v>
       </c>
@@ -15213,7 +16101,7 @@
         <v>5155</v>
       </c>
       <c r="I193" s="3">
-        <v>5155</v>
+        <v>22</v>
       </c>
       <c r="J193" s="3">
         <v>847</v>
@@ -15254,8 +16142,12 @@
       <c r="V193" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W193" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="10">
         <v>44067</v>
       </c>
@@ -15281,7 +16173,7 @@
         <v>5191</v>
       </c>
       <c r="I194" s="3">
-        <v>5191</v>
+        <v>36</v>
       </c>
       <c r="J194" s="3">
         <v>883</v>
@@ -15322,8 +16214,12 @@
       <c r="V194" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W194" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="10">
         <v>44068</v>
       </c>
@@ -15349,7 +16245,7 @@
         <v>5215</v>
       </c>
       <c r="I195" s="3">
-        <v>5215</v>
+        <v>24</v>
       </c>
       <c r="J195" s="3">
         <v>885</v>
@@ -15390,8 +16286,12 @@
       <c r="V195" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W195" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="10">
         <v>44069</v>
       </c>
@@ -15417,7 +16317,7 @@
         <v>5288</v>
       </c>
       <c r="I196" s="3">
-        <v>5288</v>
+        <v>73</v>
       </c>
       <c r="J196" s="3">
         <v>940</v>
@@ -15458,8 +16358,12 @@
       <c r="V196" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W196" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="10">
         <v>44070</v>
       </c>
@@ -15485,7 +16389,7 @@
         <v>5379</v>
       </c>
       <c r="I197" s="3">
-        <v>5379</v>
+        <v>91</v>
       </c>
       <c r="J197" s="3">
         <v>1008</v>
@@ -15526,8 +16430,12 @@
       <c r="V197" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W197" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="10">
         <v>44071</v>
       </c>
@@ -15553,7 +16461,7 @@
         <v>5511</v>
       </c>
       <c r="I198" s="3">
-        <v>5511</v>
+        <v>132</v>
       </c>
       <c r="J198" s="3">
         <v>1138</v>
@@ -15594,8 +16502,12 @@
       <c r="V198" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W198" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="10">
         <v>44072</v>
       </c>
@@ -15621,7 +16533,7 @@
         <v>5669</v>
       </c>
       <c r="I199" s="3">
-        <v>5669</v>
+        <v>158</v>
       </c>
       <c r="J199" s="3">
         <v>1296</v>
@@ -15662,8 +16574,12 @@
       <c r="V199" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W199" s="24">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="10">
         <v>44073</v>
       </c>
@@ -15689,7 +16605,7 @@
         <v>5961</v>
       </c>
       <c r="I200" s="3">
-        <v>5961</v>
+        <v>292</v>
       </c>
       <c r="J200" s="3">
         <v>1588</v>
@@ -15730,8 +16646,12 @@
       <c r="V200" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W200" s="24">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="10">
         <v>44074</v>
       </c>
@@ -15757,7 +16677,7 @@
         <v>6139</v>
       </c>
       <c r="I201" s="3">
-        <v>6139</v>
+        <v>178</v>
       </c>
       <c r="J201" s="3">
         <v>1763</v>
@@ -15798,8 +16718,12 @@
       <c r="V201" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W201" s="24">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="10">
         <v>44075</v>
       </c>
@@ -15825,7 +16749,7 @@
         <v>6257</v>
       </c>
       <c r="I202" s="3">
-        <v>6257</v>
+        <v>118</v>
       </c>
       <c r="J202" s="3">
         <v>1820</v>
@@ -15866,8 +16790,12 @@
       <c r="V202" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W202" s="24">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="10">
         <v>44076</v>
       </c>
@@ -15893,7 +16821,7 @@
         <v>6622</v>
       </c>
       <c r="I203" s="3">
-        <v>6622</v>
+        <v>365</v>
       </c>
       <c r="J203" s="3">
         <v>2100</v>
@@ -15934,8 +16862,12 @@
       <c r="V203" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W203" s="24">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="10">
         <v>44077</v>
       </c>
@@ -15961,7 +16893,7 @@
         <v>6923</v>
       </c>
       <c r="I204" s="3">
-        <v>6923</v>
+        <v>301</v>
       </c>
       <c r="J204" s="3">
         <v>2373</v>
@@ -16002,8 +16934,12 @@
       <c r="V204" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W204" s="24">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="10">
         <v>44078</v>
       </c>
@@ -16029,7 +16965,7 @@
         <v>7382</v>
       </c>
       <c r="I205" s="3">
-        <v>7382</v>
+        <v>459</v>
       </c>
       <c r="J205" s="3">
         <v>2817</v>
@@ -16070,8 +17006,12 @@
       <c r="V205" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W205" s="24">
+        <f t="shared" ref="W205:W251" si="5">WEEKNUM(A205)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="10">
         <v>44079</v>
       </c>
@@ -16097,7 +17037,7 @@
         <v>7892</v>
       </c>
       <c r="I206" s="3">
-        <v>7892</v>
+        <v>510</v>
       </c>
       <c r="J206" s="3">
         <v>3316</v>
@@ -16138,8 +17078,12 @@
       <c r="V206" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W206" s="24">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="10">
         <v>44080</v>
       </c>
@@ -16165,7 +17109,7 @@
         <v>8387</v>
       </c>
       <c r="I207" s="3">
-        <v>8387</v>
+        <v>495</v>
       </c>
       <c r="J207" s="3">
         <v>3805</v>
@@ -16206,8 +17150,12 @@
       <c r="V207" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W207" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="10">
         <v>44081</v>
       </c>
@@ -16233,7 +17181,7 @@
         <v>8963</v>
       </c>
       <c r="I208" s="3">
-        <v>8963</v>
+        <v>576</v>
       </c>
       <c r="J208" s="3">
         <v>4377</v>
@@ -16274,8 +17222,12 @@
       <c r="V208" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W208" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="10">
         <v>44082</v>
       </c>
@@ -16301,7 +17253,7 @@
         <v>9304</v>
       </c>
       <c r="I209" s="3">
-        <v>9304</v>
+        <v>341</v>
       </c>
       <c r="J209" s="3">
         <v>4706</v>
@@ -16342,8 +17294,12 @@
       <c r="V209" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W209" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="10">
         <v>44083</v>
       </c>
@@ -16369,7 +17325,7 @@
         <v>9715</v>
       </c>
       <c r="I210" s="3">
-        <v>9715</v>
+        <v>411</v>
       </c>
       <c r="J210" s="3">
         <v>5103</v>
@@ -16410,8 +17366,12 @@
       <c r="V210" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W210" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="10">
         <v>44084</v>
       </c>
@@ -16437,7 +17397,7 @@
         <v>10191</v>
       </c>
       <c r="I211" s="3">
-        <v>10191</v>
+        <v>476</v>
       </c>
       <c r="J211" s="3">
         <v>5571</v>
@@ -16478,8 +17438,12 @@
       <c r="V211" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W211" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="10">
         <v>44085</v>
       </c>
@@ -16505,7 +17469,7 @@
         <v>10909</v>
       </c>
       <c r="I212" s="3">
-        <v>10909</v>
+        <v>718</v>
       </c>
       <c r="J212" s="3">
         <v>6264</v>
@@ -16546,8 +17510,12 @@
       <c r="V212" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W212" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="10">
         <v>44086</v>
       </c>
@@ -16573,7 +17541,7 @@
         <v>11825</v>
       </c>
       <c r="I213" s="3">
-        <v>11825</v>
+        <v>916</v>
       </c>
       <c r="J213" s="3">
         <v>7134</v>
@@ -16614,8 +17582,12 @@
       <c r="V213" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W213" s="24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="10">
         <v>44087</v>
       </c>
@@ -16641,7 +17613,7 @@
         <v>12309</v>
       </c>
       <c r="I214" s="3">
-        <v>12309</v>
+        <v>484</v>
       </c>
       <c r="J214" s="3">
         <v>7603</v>
@@ -16682,8 +17654,12 @@
       <c r="V214" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W214" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="10">
         <v>44088</v>
       </c>
@@ -16709,7 +17685,7 @@
         <v>13153</v>
       </c>
       <c r="I215" s="3">
-        <v>13153</v>
+        <v>844</v>
       </c>
       <c r="J215" s="3">
         <v>8394</v>
@@ -16750,8 +17726,12 @@
       <c r="V215" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W215" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="10">
         <v>44089</v>
       </c>
@@ -16777,7 +17757,7 @@
         <v>13879</v>
       </c>
       <c r="I216" s="3">
-        <v>13879</v>
+        <v>726</v>
       </c>
       <c r="J216" s="3">
         <v>9103</v>
@@ -16818,8 +17798,12 @@
       <c r="V216" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W216" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="10">
         <v>44090</v>
       </c>
@@ -16845,7 +17829,7 @@
         <v>14460</v>
       </c>
       <c r="I217" s="3">
-        <v>14460</v>
+        <v>581</v>
       </c>
       <c r="J217" s="3">
         <v>9653</v>
@@ -16886,8 +17870,12 @@
       <c r="V217" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W217" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="10">
         <v>44091</v>
       </c>
@@ -16913,7 +17901,7 @@
         <v>15170</v>
       </c>
       <c r="I218" s="3">
-        <v>15170</v>
+        <v>710</v>
       </c>
       <c r="J218" s="3">
         <v>10280</v>
@@ -16954,8 +17942,12 @@
       <c r="V218" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W218" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="10">
         <v>44092</v>
       </c>
@@ -16981,7 +17973,7 @@
         <v>16111</v>
       </c>
       <c r="I219" s="3">
-        <v>16111</v>
+        <v>941</v>
       </c>
       <c r="J219" s="3">
         <v>11202</v>
@@ -17022,8 +18014,12 @@
       <c r="V219" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W219" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="10">
         <v>44093</v>
       </c>
@@ -17049,7 +18045,7 @@
         <v>16920</v>
       </c>
       <c r="I220" s="3">
-        <v>16920</v>
+        <v>809</v>
       </c>
       <c r="J220" s="3">
         <v>11863</v>
@@ -17090,8 +18086,12 @@
       <c r="V220" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W220" s="24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="10">
         <v>44094</v>
       </c>
@@ -17117,7 +18117,7 @@
         <v>17990</v>
       </c>
       <c r="I221" s="3">
-        <v>17990</v>
+        <v>1070</v>
       </c>
       <c r="J221" s="3">
         <v>12916</v>
@@ -17158,8 +18158,12 @@
       <c r="V221" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W221" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="10">
         <v>44095</v>
       </c>
@@ -17185,7 +18189,7 @@
         <v>18866</v>
       </c>
       <c r="I222" s="3">
-        <v>18866</v>
+        <v>876</v>
       </c>
       <c r="J222" s="3">
         <v>13779</v>
@@ -17226,8 +18230,12 @@
       <c r="V222" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W222" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="10">
         <v>44096</v>
       </c>
@@ -17253,7 +18261,7 @@
         <v>19499</v>
       </c>
       <c r="I223" s="3">
-        <v>19499</v>
+        <v>633</v>
       </c>
       <c r="J223" s="3">
         <v>14246</v>
@@ -17294,8 +18302,12 @@
       <c r="V223" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W223" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="10">
         <v>44097</v>
       </c>
@@ -17321,7 +18333,7 @@
         <v>20450</v>
       </c>
       <c r="I224" s="3">
-        <v>20450</v>
+        <v>951</v>
       </c>
       <c r="J224" s="3">
         <v>15104</v>
@@ -17362,8 +18374,12 @@
       <c r="V224" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W224" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="10">
         <v>44098</v>
       </c>
@@ -17389,7 +18405,7 @@
         <v>21200</v>
       </c>
       <c r="I225" s="3">
-        <v>21200</v>
+        <v>750</v>
       </c>
       <c r="J225" s="3">
         <v>15673</v>
@@ -17430,8 +18446,12 @@
       <c r="V225" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W225" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="10">
         <v>44099</v>
       </c>
@@ -17457,7 +18477,7 @@
         <v>22127</v>
       </c>
       <c r="I226" s="3">
-        <v>22127</v>
+        <v>927</v>
       </c>
       <c r="J226" s="3">
         <v>16464</v>
@@ -17498,8 +18518,12 @@
       <c r="V226" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W226" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="10">
         <v>44100</v>
       </c>
@@ -17525,7 +18549,7 @@
         <v>23077</v>
       </c>
       <c r="I227" s="3">
-        <v>23077</v>
+        <v>950</v>
       </c>
       <c r="J227" s="3">
         <v>17248</v>
@@ -17566,8 +18590,12 @@
       <c r="V227" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W227" s="24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="10">
         <v>44101</v>
       </c>
@@ -17593,7 +18621,7 @@
         <v>24014</v>
       </c>
       <c r="I228" s="3">
-        <v>24014</v>
+        <v>937</v>
       </c>
       <c r="J228" s="3">
         <v>18137</v>
@@ -17634,8 +18662,12 @@
       <c r="V228" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W228" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="10">
         <v>44102</v>
       </c>
@@ -17661,7 +18693,7 @@
         <v>24716</v>
       </c>
       <c r="I229" s="3">
-        <v>24716</v>
+        <v>702</v>
       </c>
       <c r="J229" s="3">
         <v>18815</v>
@@ -17702,8 +18734,12 @@
       <c r="V229" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W229" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="10">
         <v>44103</v>
       </c>
@@ -17729,7 +18765,7 @@
         <v>25567</v>
       </c>
       <c r="I230" s="3">
-        <v>25567</v>
+        <v>851</v>
       </c>
       <c r="J230" s="3">
         <v>19637</v>
@@ -17770,8 +18806,12 @@
       <c r="V230" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W230" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="10">
         <v>44104</v>
       </c>
@@ -17797,7 +18837,7 @@
         <v>26461</v>
       </c>
       <c r="I231" s="3">
-        <v>26461</v>
+        <v>894</v>
       </c>
       <c r="J231" s="3">
         <v>19806</v>
@@ -17838,8 +18878,12 @@
       <c r="V231" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W231" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="10">
         <v>44105</v>
       </c>
@@ -17865,7 +18909,7 @@
         <v>27309</v>
       </c>
       <c r="I232" s="3">
-        <v>27309</v>
+        <v>848</v>
       </c>
       <c r="J232" s="3">
         <v>20410</v>
@@ -17906,8 +18950,12 @@
       <c r="V232" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W232" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="10">
         <v>44106</v>
       </c>
@@ -17933,7 +18981,7 @@
         <v>28631</v>
       </c>
       <c r="I233" s="3">
-        <v>28631</v>
+        <v>1322</v>
       </c>
       <c r="J233" s="3">
         <v>21484</v>
@@ -17974,8 +19022,12 @@
       <c r="V233" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W233" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="10">
         <v>44107</v>
       </c>
@@ -18001,7 +19053,7 @@
         <v>29717</v>
       </c>
       <c r="I234" s="3">
-        <v>29717</v>
+        <v>1086</v>
       </c>
       <c r="J234" s="3">
         <v>22081</v>
@@ -18042,18 +19094,1248 @@
       <c r="V234" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A235" s="10"/>
+      <c r="W234" s="24">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A235" s="10">
+        <v>44108</v>
+      </c>
+      <c r="B235" s="2">
+        <v>233</v>
+      </c>
+      <c r="C235" s="1">
+        <v>266775</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2332</v>
+      </c>
+      <c r="E235" s="1">
+        <v>69427</v>
+      </c>
+      <c r="F235" s="1">
+        <v>1719</v>
+      </c>
+      <c r="G235" s="1">
+        <v>37</v>
+      </c>
+      <c r="H235" s="3">
+        <v>30575</v>
+      </c>
+      <c r="I235" s="3">
+        <v>858</v>
+      </c>
+      <c r="J235" s="3">
+        <v>22283</v>
+      </c>
+      <c r="K235" s="3">
+        <v>822</v>
+      </c>
+      <c r="L235" s="3">
+        <v>10</v>
+      </c>
+      <c r="M235" s="4">
+        <v>48146</v>
+      </c>
+      <c r="N235" s="5">
+        <v>714</v>
+      </c>
+      <c r="O235" s="4">
+        <v>8704</v>
+      </c>
+      <c r="P235" s="6">
+        <v>813</v>
+      </c>
+      <c r="Q235" s="4">
+        <v>4</v>
+      </c>
+      <c r="R235" s="7">
+        <v>135900</v>
+      </c>
+      <c r="S235" s="7">
+        <v>1835</v>
+      </c>
+      <c r="T235" s="7">
+        <v>22762</v>
+      </c>
+      <c r="U235" s="7">
+        <v>5003</v>
+      </c>
+      <c r="V235" s="7">
+        <v>56</v>
+      </c>
+      <c r="W235" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A236" s="10">
+        <v>44109</v>
+      </c>
+      <c r="B236" s="2">
+        <v>234</v>
+      </c>
+      <c r="C236" s="1">
+        <v>272309</v>
+      </c>
+      <c r="D236" s="1">
+        <v>5534</v>
+      </c>
+      <c r="E236" s="1">
+        <v>66197</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1757</v>
+      </c>
+      <c r="G236" s="1">
+        <v>38</v>
+      </c>
+      <c r="H236" s="3">
+        <v>31480</v>
+      </c>
+      <c r="I236" s="3">
+        <v>905</v>
+      </c>
+      <c r="J236" s="3">
+        <v>22482</v>
+      </c>
+      <c r="K236" s="3">
+        <v>833</v>
+      </c>
+      <c r="L236" s="3">
+        <v>11</v>
+      </c>
+      <c r="M236" s="4">
+        <v>48896</v>
+      </c>
+      <c r="N236" s="5">
+        <v>750</v>
+      </c>
+      <c r="O236" s="4">
+        <v>9020</v>
+      </c>
+      <c r="P236" s="6">
+        <v>818</v>
+      </c>
+      <c r="Q236" s="4">
+        <v>5</v>
+      </c>
+      <c r="R236" s="7">
+        <v>137491</v>
+      </c>
+      <c r="S236" s="7">
+        <v>1591</v>
+      </c>
+      <c r="T236" s="7">
+        <v>23917</v>
+      </c>
+      <c r="U236" s="7">
+        <v>5048</v>
+      </c>
+      <c r="V236" s="7">
+        <v>45</v>
+      </c>
+      <c r="W236" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A237" s="10">
+        <v>44110</v>
+      </c>
+      <c r="B237" s="2">
+        <v>235</v>
+      </c>
+      <c r="C237" s="1">
+        <v>277026</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4717</v>
+      </c>
+      <c r="E237" s="1">
+        <v>63832</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1797</v>
+      </c>
+      <c r="G237" s="1">
+        <v>40</v>
+      </c>
+      <c r="H237" s="3">
+        <v>32298</v>
+      </c>
+      <c r="I237" s="3">
+        <v>818</v>
+      </c>
+      <c r="J237" s="3">
+        <v>22722</v>
+      </c>
+      <c r="K237" s="3">
+        <v>853</v>
+      </c>
+      <c r="L237" s="3">
+        <v>20</v>
+      </c>
+      <c r="M237" s="4">
+        <v>49819</v>
+      </c>
+      <c r="N237" s="5">
+        <v>923</v>
+      </c>
+      <c r="O237" s="4">
+        <v>9207</v>
+      </c>
+      <c r="P237" s="6">
+        <v>822</v>
+      </c>
+      <c r="Q237" s="4">
+        <v>4</v>
+      </c>
+      <c r="R237" s="7">
+        <v>139612</v>
+      </c>
+      <c r="S237" s="7">
+        <v>2121</v>
+      </c>
+      <c r="T237" s="7">
+        <v>24593</v>
+      </c>
+      <c r="U237" s="7">
+        <v>5121</v>
+      </c>
+      <c r="V237" s="7">
+        <v>73</v>
+      </c>
+      <c r="W237" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A238" s="10">
+        <v>44111</v>
+      </c>
+      <c r="B238" s="2">
+        <v>236</v>
+      </c>
+      <c r="C238" s="1">
+        <v>281481</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4455</v>
+      </c>
+      <c r="E238" s="1">
+        <v>63044</v>
+      </c>
+      <c r="F238" s="1">
+        <v>1824</v>
+      </c>
+      <c r="G238" s="1">
+        <v>27</v>
+      </c>
+      <c r="H238" s="3">
+        <v>33114</v>
+      </c>
+      <c r="I238" s="3">
+        <v>816</v>
+      </c>
+      <c r="J238" s="3">
+        <v>23088</v>
+      </c>
+      <c r="K238" s="3">
+        <v>877</v>
+      </c>
+      <c r="L238" s="3">
+        <v>24</v>
+      </c>
+      <c r="M238" s="4">
+        <v>50848</v>
+      </c>
+      <c r="N238" s="5">
+        <v>1029</v>
+      </c>
+      <c r="O238" s="4">
+        <v>9519</v>
+      </c>
+      <c r="P238" s="6">
+        <v>830</v>
+      </c>
+      <c r="Q238" s="4">
+        <v>8</v>
+      </c>
+      <c r="R238" s="7">
+        <v>142570</v>
+      </c>
+      <c r="S238" s="7">
+        <v>2958</v>
+      </c>
+      <c r="T238" s="7">
+        <v>25803</v>
+      </c>
+      <c r="U238" s="7">
+        <v>5203</v>
+      </c>
+      <c r="V238" s="7">
+        <v>82</v>
+      </c>
+      <c r="W238" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A239" s="10">
+        <v>44112</v>
+      </c>
+      <c r="B239" s="2">
+        <v>237</v>
+      </c>
+      <c r="C239" s="1">
+        <v>285336</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3855</v>
+      </c>
+      <c r="E239" s="1">
+        <v>61901</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1864</v>
+      </c>
+      <c r="G239" s="1">
+        <v>40</v>
+      </c>
+      <c r="H239" s="3">
+        <v>34046</v>
+      </c>
+      <c r="I239" s="3">
+        <v>932</v>
+      </c>
+      <c r="J239" s="3">
+        <v>23961</v>
+      </c>
+      <c r="K239" s="3">
+        <v>898</v>
+      </c>
+      <c r="L239" s="3">
+        <v>21</v>
+      </c>
+      <c r="M239" s="4">
+        <v>52057</v>
+      </c>
+      <c r="N239" s="5">
+        <v>1209</v>
+      </c>
+      <c r="O239" s="4">
+        <v>9930</v>
+      </c>
+      <c r="P239" s="6">
+        <v>838</v>
+      </c>
+      <c r="Q239" s="4">
+        <v>8</v>
+      </c>
+      <c r="R239" s="7">
+        <v>145700</v>
+      </c>
+      <c r="S239" s="7">
+        <v>3130</v>
+      </c>
+      <c r="T239" s="7">
+        <v>27341</v>
+      </c>
+      <c r="U239" s="7">
+        <v>5247</v>
+      </c>
+      <c r="V239" s="7">
+        <v>44</v>
+      </c>
+      <c r="W239" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A240" s="10">
+        <v>44113</v>
+      </c>
+      <c r="B240" s="2">
+        <v>238</v>
+      </c>
+      <c r="C240" s="1">
+        <v>287858</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2522</v>
+      </c>
+      <c r="E240" s="1">
+        <v>60724</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1886</v>
+      </c>
+      <c r="G240" s="1">
+        <v>22</v>
+      </c>
+      <c r="H240" s="3">
+        <v>35222</v>
+      </c>
+      <c r="I240" s="3">
+        <v>1176</v>
+      </c>
+      <c r="J240" s="3">
+        <v>25107</v>
+      </c>
+      <c r="K240" s="3">
+        <v>913</v>
+      </c>
+      <c r="L240" s="3">
+        <v>15</v>
+      </c>
+      <c r="M240" s="4">
+        <v>53188</v>
+      </c>
+      <c r="N240" s="5">
+        <v>1131</v>
+      </c>
+      <c r="O240" s="4">
+        <v>10307</v>
+      </c>
+      <c r="P240" s="6">
+        <v>842</v>
+      </c>
+      <c r="Q240" s="4">
+        <v>4</v>
+      </c>
+      <c r="R240" s="7">
+        <v>148886</v>
+      </c>
+      <c r="S240" s="7">
+        <v>3186</v>
+      </c>
+      <c r="T240" s="7">
+        <v>28795</v>
+      </c>
+      <c r="U240" s="7">
+        <v>5299</v>
+      </c>
+      <c r="V240" s="7">
+        <v>52</v>
+      </c>
+      <c r="W240" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A241" s="10">
+        <v>44114</v>
+      </c>
+      <c r="B241" s="2">
+        <v>239</v>
+      </c>
+      <c r="C241" s="1">
+        <v>289875</v>
+      </c>
+      <c r="D241" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E241" s="1">
+        <v>62209</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1941</v>
+      </c>
+      <c r="G241" s="1">
+        <v>55</v>
+      </c>
+      <c r="H241" s="3">
+        <v>36596</v>
+      </c>
+      <c r="I241" s="3">
+        <v>1374</v>
+      </c>
+      <c r="J241" s="3">
+        <v>25980</v>
+      </c>
+      <c r="K241" s="3">
+        <v>933</v>
+      </c>
+      <c r="L241" s="3">
+        <v>20</v>
+      </c>
+      <c r="M241" s="4">
+        <v>54423</v>
+      </c>
+      <c r="N241" s="5">
+        <v>1235</v>
+      </c>
+      <c r="O241" s="4">
+        <v>10743</v>
+      </c>
+      <c r="P241" s="6">
+        <v>851</v>
+      </c>
+      <c r="Q241" s="4">
+        <v>9</v>
+      </c>
+      <c r="R241" s="7">
+        <v>152403</v>
+      </c>
+      <c r="S241" s="7">
+        <v>3517</v>
+      </c>
+      <c r="T241" s="7">
+        <v>30417</v>
+      </c>
+      <c r="U241" s="7">
+        <v>5358</v>
+      </c>
+      <c r="V241" s="7">
+        <v>59</v>
+      </c>
+      <c r="W241" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A242" s="10">
+        <v>44115</v>
+      </c>
+      <c r="B242" s="2">
+        <v>240</v>
+      </c>
+      <c r="C242" s="1">
+        <v>290493</v>
+      </c>
+      <c r="D242" s="1">
+        <v>618</v>
+      </c>
+      <c r="E242" s="1">
+        <v>59855</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1980</v>
+      </c>
+      <c r="G242" s="1">
+        <v>39</v>
+      </c>
+      <c r="H242" s="3">
+        <v>37664</v>
+      </c>
+      <c r="I242" s="3">
+        <v>1068</v>
+      </c>
+      <c r="J242" s="3">
+        <v>25862</v>
+      </c>
+      <c r="K242" s="3">
+        <v>954</v>
+      </c>
+      <c r="L242" s="3">
+        <v>21</v>
+      </c>
+      <c r="M242" s="4">
+        <v>55319</v>
+      </c>
+      <c r="N242" s="5">
+        <v>896</v>
+      </c>
+      <c r="O242" s="4">
+        <v>11020</v>
+      </c>
+      <c r="P242" s="6">
+        <v>851</v>
+      </c>
+      <c r="Q242" s="4">
+        <v>0</v>
+      </c>
+      <c r="R242" s="7">
+        <v>155283</v>
+      </c>
+      <c r="S242" s="7">
+        <v>2880</v>
+      </c>
+      <c r="T242" s="7">
+        <v>31930</v>
+      </c>
+      <c r="U242" s="7">
+        <v>5411</v>
+      </c>
+      <c r="V242" s="7">
+        <v>53</v>
+      </c>
+      <c r="W242" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A243" s="10">
+        <v>44116</v>
+      </c>
+      <c r="B243" s="2">
+        <v>241</v>
+      </c>
+      <c r="C243" s="1">
+        <v>294031</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3538</v>
+      </c>
+      <c r="E243" s="1">
+        <v>53329</v>
+      </c>
+      <c r="F243" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G243" s="1">
+        <v>41</v>
+      </c>
+      <c r="H243" s="3">
+        <v>38837</v>
+      </c>
+      <c r="I243" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J243" s="3">
+        <v>26832</v>
+      </c>
+      <c r="K243" s="3">
+        <v>968</v>
+      </c>
+      <c r="L243" s="3">
+        <v>14</v>
+      </c>
+      <c r="M243" s="4">
+        <v>56298</v>
+      </c>
+      <c r="N243" s="5">
+        <v>979</v>
+      </c>
+      <c r="O243" s="4">
+        <v>11378</v>
+      </c>
+      <c r="P243" s="6">
+        <v>855</v>
+      </c>
+      <c r="Q243" s="4">
+        <v>4</v>
+      </c>
+      <c r="R243" s="7">
+        <v>157352</v>
+      </c>
+      <c r="S243" s="7">
+        <v>2069</v>
+      </c>
+      <c r="T243" s="7">
+        <v>32973</v>
+      </c>
+      <c r="U243" s="7">
+        <v>5467</v>
+      </c>
+      <c r="V243" s="7">
+        <v>56</v>
+      </c>
+      <c r="W243" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A244" s="10">
+        <v>44117</v>
+      </c>
+      <c r="B244" s="2">
+        <v>242</v>
+      </c>
+      <c r="C244" s="1">
+        <v>296652</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2621</v>
+      </c>
+      <c r="E244" s="1">
+        <v>48786</v>
+      </c>
+      <c r="F244" s="1">
+        <v>2055</v>
+      </c>
+      <c r="G244" s="1">
+        <v>34</v>
+      </c>
+      <c r="H244" s="3">
+        <v>39862</v>
+      </c>
+      <c r="I244" s="3">
+        <v>1025</v>
+      </c>
+      <c r="J244" s="3">
+        <v>27113</v>
+      </c>
+      <c r="K244" s="3">
+        <v>996</v>
+      </c>
+      <c r="L244" s="3">
+        <v>28</v>
+      </c>
+      <c r="M244" s="4">
+        <v>57326</v>
+      </c>
+      <c r="N244" s="5">
+        <v>1028</v>
+      </c>
+      <c r="O244" s="4">
+        <v>11516</v>
+      </c>
+      <c r="P244" s="6">
+        <v>861</v>
+      </c>
+      <c r="Q244" s="4">
+        <v>6</v>
+      </c>
+      <c r="R244" s="7">
+        <v>160461</v>
+      </c>
+      <c r="S244" s="7">
+        <v>3109</v>
+      </c>
+      <c r="T244" s="7">
+        <v>34411</v>
+      </c>
+      <c r="U244" s="7">
+        <v>5535</v>
+      </c>
+      <c r="V244" s="7">
+        <v>68</v>
+      </c>
+      <c r="W244" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A245" s="10">
+        <v>44118</v>
+      </c>
+      <c r="B245" s="2">
+        <v>243</v>
+      </c>
+      <c r="C245" s="1">
+        <v>298500</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1848</v>
+      </c>
+      <c r="E245" s="1">
+        <v>44691</v>
+      </c>
+      <c r="F245" s="1">
+        <v>2098</v>
+      </c>
+      <c r="G245" s="1">
+        <v>43</v>
+      </c>
+      <c r="H245" s="3">
+        <v>40782</v>
+      </c>
+      <c r="I245" s="3">
+        <v>920</v>
+      </c>
+      <c r="J245" s="3">
+        <v>27595</v>
+      </c>
+      <c r="K245" s="3">
+        <v>1023</v>
+      </c>
+      <c r="L245" s="3">
+        <v>27</v>
+      </c>
+      <c r="M245" s="4">
+        <v>58672</v>
+      </c>
+      <c r="N245" s="5">
+        <v>1346</v>
+      </c>
+      <c r="O245" s="4">
+        <v>11954</v>
+      </c>
+      <c r="P245" s="6">
+        <v>872</v>
+      </c>
+      <c r="Q245" s="4">
+        <v>11</v>
+      </c>
+      <c r="R245" s="7">
+        <v>164477</v>
+      </c>
+      <c r="S245" s="7">
+        <v>4016</v>
+      </c>
+      <c r="T245" s="7">
+        <v>36162</v>
+      </c>
+      <c r="U245" s="7">
+        <v>5601</v>
+      </c>
+      <c r="V245" s="7">
+        <v>66</v>
+      </c>
+      <c r="W245" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A246" s="10">
+        <v>44119</v>
+      </c>
+      <c r="B246" s="2">
+        <v>244</v>
+      </c>
+      <c r="C246" s="1">
+        <v>300201</v>
+      </c>
+      <c r="D246" s="1">
+        <v>1701</v>
+      </c>
+      <c r="E246" s="1">
+        <v>40848</v>
+      </c>
+      <c r="F246" s="1">
+        <v>2127</v>
+      </c>
+      <c r="G246" s="1">
+        <v>29</v>
+      </c>
+      <c r="H246" s="3">
+        <v>41732</v>
+      </c>
+      <c r="I246" s="3">
+        <v>950</v>
+      </c>
+      <c r="J246" s="3">
+        <v>28052</v>
+      </c>
+      <c r="K246" s="3">
+        <v>1052</v>
+      </c>
+      <c r="L246" s="3">
+        <v>29</v>
+      </c>
+      <c r="M246" s="4">
+        <v>60224</v>
+      </c>
+      <c r="N246" s="5">
+        <v>1552</v>
+      </c>
+      <c r="O246" s="4">
+        <v>12549</v>
+      </c>
+      <c r="P246" s="6">
+        <v>877</v>
+      </c>
+      <c r="Q246" s="4">
+        <v>5</v>
+      </c>
+      <c r="R246" s="7">
+        <v>168490</v>
+      </c>
+      <c r="S246" s="7">
+        <v>4013</v>
+      </c>
+      <c r="T246" s="7">
+        <v>37807</v>
+      </c>
+      <c r="U246" s="7">
+        <v>5674</v>
+      </c>
+      <c r="V246" s="7">
+        <v>73</v>
+      </c>
+      <c r="W246" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A247" s="10">
+        <v>44120</v>
+      </c>
+      <c r="B247" s="2">
+        <v>245</v>
+      </c>
+      <c r="C247" s="1">
+        <v>301896</v>
+      </c>
+      <c r="D247" s="1">
+        <v>1695</v>
+      </c>
+      <c r="E247" s="1">
+        <v>37252</v>
+      </c>
+      <c r="F247" s="1">
+        <v>2141</v>
+      </c>
+      <c r="G247" s="1">
+        <v>14</v>
+      </c>
+      <c r="H247" s="3">
+        <v>43025</v>
+      </c>
+      <c r="I247" s="3">
+        <v>1293</v>
+      </c>
+      <c r="J247" s="3">
+        <v>28806</v>
+      </c>
+      <c r="K247" s="3">
+        <v>1085</v>
+      </c>
+      <c r="L247" s="3">
+        <v>33</v>
+      </c>
+      <c r="M247" s="4">
+        <v>61387</v>
+      </c>
+      <c r="N247" s="5">
+        <v>1163</v>
+      </c>
+      <c r="O247" s="4">
+        <v>12887</v>
+      </c>
+      <c r="P247" s="6">
+        <v>882</v>
+      </c>
+      <c r="Q247" s="4">
+        <v>5</v>
+      </c>
+      <c r="R247" s="7">
+        <v>172516</v>
+      </c>
+      <c r="S247" s="7">
+        <v>4026</v>
+      </c>
+      <c r="T247" s="7">
+        <v>39691</v>
+      </c>
+      <c r="U247" s="7">
+        <v>5749</v>
+      </c>
+      <c r="V247" s="7">
+        <v>75</v>
+      </c>
+      <c r="W247" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A248" s="10">
+        <v>44121</v>
+      </c>
+      <c r="B248" s="2">
+        <v>246</v>
+      </c>
+      <c r="C248" s="1">
+        <v>302770</v>
+      </c>
+      <c r="D248" s="1">
+        <v>874</v>
+      </c>
+      <c r="E248" s="1">
+        <v>35135</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2190</v>
+      </c>
+      <c r="G248" s="1">
+        <v>49</v>
+      </c>
+      <c r="H248" s="3">
+        <v>44816</v>
+      </c>
+      <c r="I248" s="3">
+        <v>1791</v>
+      </c>
+      <c r="J248" s="3">
+        <v>30127</v>
+      </c>
+      <c r="K248" s="3">
+        <v>1109</v>
+      </c>
+      <c r="L248" s="3">
+        <v>24</v>
+      </c>
+      <c r="M248" s="4">
+        <v>63134</v>
+      </c>
+      <c r="N248" s="5">
+        <v>1747</v>
+      </c>
+      <c r="O248" s="4">
+        <v>13474</v>
+      </c>
+      <c r="P248" s="6">
+        <v>889</v>
+      </c>
+      <c r="Q248" s="4">
+        <v>7</v>
+      </c>
+      <c r="R248" s="7">
+        <v>176468</v>
+      </c>
+      <c r="S248" s="7">
+        <v>3952</v>
+      </c>
+      <c r="T248" s="7">
+        <v>41100</v>
+      </c>
+      <c r="U248" s="7">
+        <v>5812</v>
+      </c>
+      <c r="V248" s="7">
+        <v>63</v>
+      </c>
+      <c r="W248" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A249" s="10">
+        <v>44122</v>
+      </c>
+      <c r="B249" s="2">
+        <v>247</v>
+      </c>
+      <c r="C249" s="1">
+        <v>303109</v>
+      </c>
+      <c r="D249" s="1">
+        <v>339</v>
+      </c>
+      <c r="E249" s="1">
+        <v>32807</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2209</v>
+      </c>
+      <c r="G249" s="1">
+        <v>19</v>
+      </c>
+      <c r="H249" s="3">
+        <v>46290</v>
+      </c>
+      <c r="I249" s="3">
+        <v>1474</v>
+      </c>
+      <c r="J249" s="3">
+        <v>31060</v>
+      </c>
+      <c r="K249" s="3">
+        <v>1142</v>
+      </c>
+      <c r="L249" s="3">
+        <v>33</v>
+      </c>
+      <c r="M249" s="4">
+        <v>64806</v>
+      </c>
+      <c r="N249" s="5">
+        <v>1672</v>
+      </c>
+      <c r="O249" s="4">
+        <v>14352</v>
+      </c>
+      <c r="P249" s="6">
+        <v>893</v>
+      </c>
+      <c r="Q249" s="4">
+        <v>4</v>
+      </c>
+      <c r="R249" s="7">
+        <v>180388</v>
+      </c>
+      <c r="S249" s="7">
+        <v>3920</v>
+      </c>
+      <c r="T249" s="7">
+        <v>43622</v>
+      </c>
+      <c r="U249" s="7">
+        <v>5872</v>
+      </c>
+      <c r="V249" s="7">
+        <v>60</v>
+      </c>
+      <c r="W249" s="24">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A250" s="10">
+        <v>44123</v>
+      </c>
+      <c r="B250" s="2">
+        <v>248</v>
+      </c>
+      <c r="C250" s="1">
+        <v>304876</v>
+      </c>
+      <c r="D250" s="1">
+        <v>1767</v>
+      </c>
+      <c r="E250" s="1">
+        <v>24219</v>
+      </c>
+      <c r="F250" s="1">
+        <v>2263</v>
+      </c>
+      <c r="G250" s="1">
+        <v>54</v>
+      </c>
+      <c r="H250" s="3">
+        <v>47768</v>
+      </c>
+      <c r="I250" s="3">
+        <v>1478</v>
+      </c>
+      <c r="J250" s="3">
+        <v>32283</v>
+      </c>
+      <c r="K250" s="3">
+        <v>1173</v>
+      </c>
+      <c r="L250" s="3">
+        <v>31</v>
+      </c>
+      <c r="M250" s="4">
+        <v>65927</v>
+      </c>
+      <c r="N250" s="5">
+        <v>1121</v>
+      </c>
+      <c r="O250" s="4">
+        <v>14664</v>
+      </c>
+      <c r="P250" s="6">
+        <v>904</v>
+      </c>
+      <c r="Q250" s="4">
+        <v>11</v>
+      </c>
+      <c r="R250" s="7">
+        <v>182854</v>
+      </c>
+      <c r="S250" s="7">
+        <v>2466</v>
+      </c>
+      <c r="T250" s="7">
+        <v>44841</v>
+      </c>
+      <c r="U250" s="7">
+        <v>5931</v>
+      </c>
+      <c r="V250" s="7">
+        <v>59</v>
+      </c>
+      <c r="W250" s="24">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A251" s="10">
+        <v>44124</v>
+      </c>
+      <c r="B251" s="2">
+        <v>249</v>
+      </c>
+      <c r="C251" s="1">
+        <v>306162</v>
+      </c>
+      <c r="D251" s="1">
+        <v>1286</v>
+      </c>
+      <c r="E251" s="1">
+        <v>21379</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2278</v>
+      </c>
+      <c r="G251" s="1">
+        <v>15</v>
+      </c>
+      <c r="H251" s="3">
+        <v>48757</v>
+      </c>
+      <c r="I251" s="3">
+        <v>989</v>
+      </c>
+      <c r="J251" s="3">
+        <v>32909</v>
+      </c>
+      <c r="K251" s="3">
+        <v>1211</v>
+      </c>
+      <c r="L251" s="3">
+        <v>38</v>
+      </c>
+      <c r="M251" s="4">
+        <v>67451</v>
+      </c>
+      <c r="N251" s="5">
+        <v>1524</v>
+      </c>
+      <c r="O251" s="4">
+        <v>15130</v>
+      </c>
+      <c r="P251" s="6">
+        <v>914</v>
+      </c>
+      <c r="Q251" s="4">
+        <v>10</v>
+      </c>
+      <c r="R251" s="7">
+        <v>186254</v>
+      </c>
+      <c r="S251" s="7">
+        <v>3400</v>
+      </c>
+      <c r="T251" s="7">
+        <v>45863</v>
+      </c>
+      <c r="U251" s="7">
+        <v>5996</v>
+      </c>
+      <c r="V251" s="7">
+        <v>65</v>
+      </c>
+      <c r="W251" s="24">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C624A7-8F32-40ED-96DF-7D3520E53C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0B0D50-D0F9-475B-B32E-C3D87C8820D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time_series_19-covid-Confirmed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Austria</t>
   </si>
@@ -156,25 +156,37 @@
     <t>17-23-aug</t>
   </si>
   <si>
-    <t>24-30-aug</t>
+    <t>sapt(caelndaristica)</t>
   </si>
   <si>
-    <t>31-6-sept</t>
+    <t>24-30aug</t>
   </si>
   <si>
-    <t>7-13</t>
+    <t>31-6sept</t>
   </si>
   <si>
-    <t>14-20</t>
+    <t>7-13sept</t>
   </si>
   <si>
-    <t>21-27</t>
+    <t>14-20sept</t>
   </si>
   <si>
-    <t>28-4</t>
+    <t>21-27sept</t>
   </si>
   <si>
-    <t>sapt(caelndaristica)</t>
+    <t>28-4sept-oct</t>
+  </si>
+  <si>
+    <t>5-11oct</t>
+  </si>
+  <si>
+    <t>12-18oct</t>
+  </si>
+  <si>
+    <t>19-25oct</t>
+  </si>
+  <si>
+    <t>26-1oct-nov</t>
   </si>
 </sst>
 </file>
@@ -800,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,15 +874,6 @@
     <xf numFmtId="1" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,16 +892,28 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1256,68 +1271,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA251"/>
+  <dimension ref="A1:AA262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA55" sqref="AA55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="6.6328125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.6328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.6328125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="6.6328125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="6.6328125" style="4" customWidth="1"/>
+    <col min="3" max="7" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5.26953125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="5" style="4" customWidth="1"/>
     <col min="18" max="22" width="17.26953125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="17.26953125" style="29" customWidth="1"/>
+    <col min="23" max="23" width="17.26953125" style="26" customWidth="1"/>
     <col min="24" max="24" width="19.453125" style="18" customWidth="1"/>
     <col min="25" max="27" width="19.1796875" style="18" customWidth="1"/>
     <col min="28" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1386,19 +1397,19 @@
       <c r="V2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="32" t="s">
+      <c r="W2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1412,7 +1423,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -1421,13 +1432,13 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="22">
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="23">
         <v>0</v>
       </c>
       <c r="J3" s="3">
@@ -1436,13 +1447,13 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="23">
         <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="24">
         <v>0</v>
       </c>
       <c r="O3" s="4">
@@ -1451,13 +1462,13 @@
       <c r="P3" s="4">
         <v>0</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="24">
         <v>0</v>
       </c>
       <c r="R3" s="8">
         <v>0</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="25">
         <v>0</v>
       </c>
       <c r="T3" s="8">
@@ -1466,14 +1477,14 @@
       <c r="U3" s="8">
         <v>0</v>
       </c>
-      <c r="V3" s="24">
-        <v>0</v>
-      </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
+      <c r="V3" s="25">
+        <v>0</v>
+      </c>
+      <c r="W3" s="21"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
@@ -1485,7 +1496,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -1494,13 +1505,13 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="23">
         <v>0</v>
       </c>
       <c r="J4" s="3">
@@ -1509,13 +1520,13 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="23">
         <v>0</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="24">
         <v>0</v>
       </c>
       <c r="O4" s="4">
@@ -1524,13 +1535,13 @@
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="24">
         <v>0</v>
       </c>
       <c r="R4" s="8">
         <v>0</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="25">
         <v>0</v>
       </c>
       <c r="T4" s="8">
@@ -1539,10 +1550,10 @@
       <c r="U4" s="8">
         <v>0</v>
       </c>
-      <c r="V4" s="24">
-        <v>0</v>
-      </c>
-      <c r="W4" s="24"/>
+      <c r="V4" s="25">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21"/>
       <c r="X4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1550,11 +1561,11 @@
         <v>1</v>
       </c>
       <c r="Z4" s="17">
-        <f t="shared" ref="Z4:Z38" ca="1" si="0">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ref="Z4:Z39" ca="1" si="0">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
         <v>2</v>
       </c>
       <c r="AA4" s="17">
-        <f t="shared" ref="AA4:AA38" ca="1" si="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ref="AA4:AA39" ca="1" si="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
         <v>0</v>
       </c>
     </row>
@@ -1568,7 +1579,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -1577,13 +1588,13 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="23">
         <v>0</v>
       </c>
       <c r="J5" s="3">
@@ -1592,13 +1603,13 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="23">
         <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="24">
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -1607,13 +1618,13 @@
       <c r="P5" s="4">
         <v>0</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="24">
         <v>0</v>
       </c>
       <c r="R5" s="8">
         <v>0</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="25">
         <v>0</v>
       </c>
       <c r="T5" s="8">
@@ -1622,10 +1633,10 @@
       <c r="U5" s="8">
         <v>0</v>
       </c>
-      <c r="V5" s="24">
-        <v>0</v>
-      </c>
-      <c r="W5" s="24"/>
+      <c r="V5" s="25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21"/>
       <c r="X5" s="17" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1662,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -1660,13 +1671,13 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="22">
         <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -1675,13 +1686,13 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="23">
         <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="24">
         <v>0</v>
       </c>
       <c r="O6" s="4">
@@ -1690,13 +1701,13 @@
       <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="24">
         <v>0</v>
       </c>
       <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="25">
         <v>0</v>
       </c>
       <c r="T6" s="8">
@@ -1705,10 +1716,10 @@
       <c r="U6" s="8">
         <v>0</v>
       </c>
-      <c r="V6" s="24">
-        <v>0</v>
-      </c>
-      <c r="W6" s="24"/>
+      <c r="V6" s="25">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21"/>
       <c r="X6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1745,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -1743,13 +1754,13 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <v>0</v>
       </c>
       <c r="J7" s="3">
@@ -1758,13 +1769,13 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="23">
         <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="24">
         <v>0</v>
       </c>
       <c r="O7" s="4">
@@ -1773,13 +1784,13 @@
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="24">
         <v>0</v>
       </c>
       <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="25">
         <v>0</v>
       </c>
       <c r="T7" s="8">
@@ -1788,10 +1799,10 @@
       <c r="U7" s="8">
         <v>0</v>
       </c>
-      <c r="V7" s="24">
-        <v>0</v>
-      </c>
-      <c r="W7" s="24"/>
+      <c r="V7" s="25">
+        <v>0</v>
+      </c>
+      <c r="W7" s="21"/>
       <c r="X7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1817,7 +1828,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -1826,13 +1837,13 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="22">
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>0</v>
       </c>
       <c r="J8" s="3">
@@ -1841,13 +1852,13 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="23">
         <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="24">
         <v>0</v>
       </c>
       <c r="O8" s="4">
@@ -1856,13 +1867,13 @@
       <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="24">
         <v>0</v>
       </c>
       <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="25">
         <v>0</v>
       </c>
       <c r="T8" s="8">
@@ -1871,10 +1882,10 @@
       <c r="U8" s="8">
         <v>0</v>
       </c>
-      <c r="V8" s="24">
-        <v>0</v>
-      </c>
-      <c r="W8" s="24"/>
+      <c r="V8" s="25">
+        <v>0</v>
+      </c>
+      <c r="W8" s="21"/>
       <c r="X8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1900,7 +1911,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0</v>
       </c>
       <c r="E9" s="1">
@@ -1909,13 +1920,13 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="22">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <v>0</v>
       </c>
       <c r="J9" s="3">
@@ -1924,13 +1935,13 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="23">
         <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="24">
         <v>0</v>
       </c>
       <c r="O9" s="4">
@@ -1939,13 +1950,13 @@
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="24">
         <v>0</v>
       </c>
       <c r="R9" s="8">
         <v>0</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="25">
         <v>0</v>
       </c>
       <c r="T9" s="8">
@@ -1954,10 +1965,10 @@
       <c r="U9" s="8">
         <v>0</v>
       </c>
-      <c r="V9" s="24">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24"/>
+      <c r="V9" s="25">
+        <v>0</v>
+      </c>
+      <c r="W9" s="21"/>
       <c r="X9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +2009,7 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>0</v>
       </c>
       <c r="J10" s="3">
@@ -2007,13 +2018,13 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="23">
         <v>0</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="24">
         <v>0</v>
       </c>
       <c r="O10" s="4">
@@ -2022,13 +2033,13 @@
       <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="24">
         <v>0</v>
       </c>
       <c r="R10" s="8">
         <v>0</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="25">
         <v>0</v>
       </c>
       <c r="T10" s="8">
@@ -2037,10 +2048,10 @@
       <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="V10" s="24">
-        <v>0</v>
-      </c>
-      <c r="W10" s="24"/>
+      <c r="V10" s="25">
+        <v>0</v>
+      </c>
+      <c r="W10" s="21"/>
       <c r="X10" s="17" t="s">
         <v>21</v>
       </c>
@@ -2081,7 +2092,7 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <v>0</v>
       </c>
       <c r="J11" s="3">
@@ -2090,13 +2101,13 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="23">
         <v>0</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="24">
         <v>0</v>
       </c>
       <c r="O11" s="4">
@@ -2105,13 +2116,13 @@
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="24">
         <v>0</v>
       </c>
       <c r="R11" s="8">
         <v>0</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="25">
         <v>0</v>
       </c>
       <c r="T11" s="8">
@@ -2120,10 +2131,10 @@
       <c r="U11" s="8">
         <v>0</v>
       </c>
-      <c r="V11" s="24">
-        <v>0</v>
-      </c>
-      <c r="W11" s="24"/>
+      <c r="V11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21"/>
       <c r="X11" s="17" t="s">
         <v>22</v>
       </c>
@@ -2164,7 +2175,7 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <v>0</v>
       </c>
       <c r="J12" s="3">
@@ -2173,13 +2184,13 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="23">
         <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="24">
         <v>0</v>
       </c>
       <c r="O12" s="4">
@@ -2188,13 +2199,13 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="24">
         <v>0</v>
       </c>
       <c r="R12" s="8">
         <v>0</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="25">
         <v>0</v>
       </c>
       <c r="T12" s="8">
@@ -2203,10 +2214,10 @@
       <c r="U12" s="8">
         <v>0</v>
       </c>
-      <c r="V12" s="24">
-        <v>0</v>
-      </c>
-      <c r="W12" s="24">
+      <c r="V12" s="25">
+        <v>0</v>
+      </c>
+      <c r="W12" s="21">
         <f>WEEKNUM(A12)</f>
         <v>9</v>
       </c>
@@ -2250,7 +2261,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="23">
         <v>0</v>
       </c>
       <c r="J13" s="3">
@@ -2259,13 +2270,13 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="23">
         <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="24">
         <v>0</v>
       </c>
       <c r="O13" s="4">
@@ -2274,13 +2285,13 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="24">
         <v>0</v>
       </c>
       <c r="R13" s="8">
         <v>0</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="25">
         <v>0</v>
       </c>
       <c r="T13" s="8">
@@ -2289,10 +2300,10 @@
       <c r="U13" s="8">
         <v>0</v>
       </c>
-      <c r="V13" s="24">
-        <v>0</v>
-      </c>
-      <c r="W13" s="24">
+      <c r="V13" s="25">
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
         <f t="shared" ref="W13:W76" si="2">WEEKNUM(A13)</f>
         <v>9</v>
       </c>
@@ -2336,7 +2347,7 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>0</v>
       </c>
       <c r="J14" s="3">
@@ -2345,7 +2356,7 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="23">
         <v>0</v>
       </c>
       <c r="M14" s="4">
@@ -2366,7 +2377,7 @@
       <c r="R14" s="8">
         <v>1</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="25">
         <v>0</v>
       </c>
       <c r="T14" s="8">
@@ -2375,10 +2386,10 @@
       <c r="U14" s="8">
         <v>0</v>
       </c>
-      <c r="V14" s="24">
-        <v>0</v>
-      </c>
-      <c r="W14" s="24">
+      <c r="V14" s="25">
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2422,7 +2433,7 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="23">
         <v>0</v>
       </c>
       <c r="J15" s="3">
@@ -2431,7 +2442,7 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="23">
         <v>0</v>
       </c>
       <c r="M15" s="4">
@@ -2464,7 +2475,7 @@
       <c r="V15" s="8">
         <v>0</v>
       </c>
-      <c r="W15" s="24">
+      <c r="W15" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2508,7 +2519,7 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>0</v>
       </c>
       <c r="J16" s="3">
@@ -2517,7 +2528,7 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="23">
         <v>0</v>
       </c>
       <c r="M16" s="4">
@@ -2550,7 +2561,7 @@
       <c r="V16" s="8">
         <v>0</v>
       </c>
-      <c r="W16" s="24">
+      <c r="W16" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2594,7 +2605,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>0</v>
       </c>
       <c r="J17" s="3">
@@ -2603,7 +2614,7 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="23">
         <v>0</v>
       </c>
       <c r="M17" s="4">
@@ -2636,7 +2647,7 @@
       <c r="V17" s="8">
         <v>0</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2680,7 +2691,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>0</v>
       </c>
       <c r="J18" s="3">
@@ -2689,7 +2700,7 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="23">
         <v>0</v>
       </c>
       <c r="M18" s="4">
@@ -2722,7 +2733,7 @@
       <c r="V18" s="8">
         <v>0</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2766,7 +2777,7 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>0</v>
       </c>
       <c r="J19" s="3">
@@ -2775,7 +2786,7 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="23">
         <v>0</v>
       </c>
       <c r="M19" s="4">
@@ -2808,7 +2819,7 @@
       <c r="V19" s="8">
         <v>0</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2852,7 +2863,7 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>0</v>
       </c>
       <c r="J20" s="3">
@@ -2861,7 +2872,7 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="23">
         <v>0</v>
       </c>
       <c r="M20" s="4">
@@ -2894,7 +2905,7 @@
       <c r="V20" s="8">
         <v>0</v>
       </c>
-      <c r="W20" s="24">
+      <c r="W20" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2947,7 +2958,7 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="23">
         <v>0</v>
       </c>
       <c r="M21" s="4">
@@ -2980,7 +2991,7 @@
       <c r="V21" s="8">
         <v>0</v>
       </c>
-      <c r="W21" s="24">
+      <c r="W21" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3033,7 +3044,7 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="23">
         <v>0</v>
       </c>
       <c r="M22" s="4">
@@ -3066,7 +3077,7 @@
       <c r="V22" s="8">
         <v>0</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3119,7 +3130,7 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="23">
         <v>0</v>
       </c>
       <c r="M23" s="4">
@@ -3152,7 +3163,7 @@
       <c r="V23" s="8">
         <v>0</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3205,7 +3216,7 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="23">
         <v>0</v>
       </c>
       <c r="M24" s="4">
@@ -3238,7 +3249,7 @@
       <c r="V24" s="8">
         <v>0</v>
       </c>
-      <c r="W24" s="24">
+      <c r="W24" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3291,7 +3302,7 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="23">
         <v>0</v>
       </c>
       <c r="M25" s="4">
@@ -3324,7 +3335,7 @@
       <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="24">
+      <c r="W25" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -3377,7 +3388,7 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="23">
         <v>0</v>
       </c>
       <c r="M26" s="4">
@@ -3410,7 +3421,7 @@
       <c r="V26" s="8">
         <v>0</v>
       </c>
-      <c r="W26" s="24">
+      <c r="W26" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -3463,7 +3474,7 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="23">
         <v>0</v>
       </c>
       <c r="M27" s="4">
@@ -3496,7 +3507,7 @@
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="24">
+      <c r="W27" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -3549,7 +3560,7 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="23">
         <v>0</v>
       </c>
       <c r="M28" s="4">
@@ -3582,7 +3593,7 @@
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="24">
+      <c r="W28" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -3635,7 +3646,7 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="23">
         <v>0</v>
       </c>
       <c r="M29" s="4">
@@ -3668,7 +3679,7 @@
       <c r="V29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="24">
+      <c r="W29" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -3721,7 +3732,7 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="23">
         <v>0</v>
       </c>
       <c r="M30" s="4">
@@ -3754,12 +3765,12 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="24">
+      <c r="W30" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y30" s="20">
         <v>27</v>
@@ -3807,7 +3818,7 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="23">
         <v>0</v>
       </c>
       <c r="M31" s="4">
@@ -3840,12 +3851,12 @@
       <c r="V31" s="8">
         <v>0</v>
       </c>
-      <c r="W31" s="24">
+      <c r="W31" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y31" s="20">
         <v>28</v>
@@ -3893,7 +3904,7 @@
       <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="23">
         <v>0</v>
       </c>
       <c r="M32" s="4">
@@ -3926,12 +3937,12 @@
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="24">
+      <c r="W32" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="X32" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y32" s="20">
         <v>29</v>
@@ -4012,12 +4023,12 @@
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y33" s="20">
         <v>30</v>
@@ -4098,12 +4109,12 @@
       <c r="V34" s="8">
         <v>0</v>
       </c>
-      <c r="W34" s="24">
+      <c r="W34" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="X34" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y34" s="20">
         <v>31</v>
@@ -4184,12 +4195,12 @@
       <c r="V35" s="8">
         <v>0</v>
       </c>
-      <c r="W35" s="24">
+      <c r="W35" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y35" s="20">
         <v>32</v>
@@ -4270,11 +4281,13 @@
       <c r="V36" s="8">
         <v>0</v>
       </c>
-      <c r="W36" s="24">
+      <c r="W36" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="X36" s="17"/>
+      <c r="X36" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="Y36" s="20">
         <v>33</v>
       </c>
@@ -4354,11 +4367,13 @@
       <c r="V37" s="8">
         <v>0</v>
       </c>
-      <c r="W37" s="24">
+      <c r="W37" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="X37" s="17"/>
+      <c r="X37" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="Y37" s="20">
         <v>34</v>
       </c>
@@ -4438,21 +4453,23 @@
       <c r="V38" s="8">
         <v>0</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W38" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="X38" s="17"/>
+      <c r="X38" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="Y38" s="20">
         <v>35</v>
       </c>
       <c r="Z38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5866</v>
+        <v>29260</v>
       </c>
       <c r="AA38" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
@@ -4522,14 +4539,24 @@
       <c r="V39" s="8">
         <v>3</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
+      <c r="X39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y39" s="20">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>31691</v>
+      </c>
+      <c r="AA39" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>577</v>
+      </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
@@ -4598,7 +4625,7 @@
       <c r="V40" s="8">
         <v>4</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -4674,7 +4701,7 @@
       <c r="V41" s="8">
         <v>5</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -4750,7 +4777,7 @@
       <c r="V42" s="8">
         <v>5</v>
       </c>
-      <c r="W42" s="24">
+      <c r="W42" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -4826,7 +4853,7 @@
       <c r="V43" s="8">
         <v>6</v>
       </c>
-      <c r="W43" s="24">
+      <c r="W43" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -4902,7 +4929,7 @@
       <c r="V44" s="8">
         <v>3</v>
       </c>
-      <c r="W44" s="24">
+      <c r="W44" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -4978,7 +5005,7 @@
       <c r="V45" s="8">
         <v>11</v>
       </c>
-      <c r="W45" s="24">
+      <c r="W45" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -5054,7 +5081,7 @@
       <c r="V46" s="8">
         <v>6</v>
       </c>
-      <c r="W46" s="24">
+      <c r="W46" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5130,7 +5157,7 @@
       <c r="V47" s="8">
         <v>22</v>
       </c>
-      <c r="W47" s="24">
+      <c r="W47" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5206,7 +5233,7 @@
       <c r="V48" s="8">
         <v>17</v>
       </c>
-      <c r="W48" s="24">
+      <c r="W48" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5282,7 +5309,7 @@
       <c r="V49" s="8">
         <v>10</v>
       </c>
-      <c r="W49" s="24">
+      <c r="W49" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5358,7 +5385,7 @@
       <c r="V50" s="8">
         <v>23</v>
       </c>
-      <c r="W50" s="24">
+      <c r="W50" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5434,7 +5461,7 @@
       <c r="V51" s="8">
         <v>18</v>
       </c>
-      <c r="W51" s="24">
+      <c r="W51" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5510,7 +5537,7 @@
       <c r="V52" s="8">
         <v>13</v>
       </c>
-      <c r="W52" s="24">
+      <c r="W52" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5586,7 +5613,7 @@
       <c r="V53" s="8">
         <v>5</v>
       </c>
-      <c r="W53" s="24">
+      <c r="W53" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -5662,7 +5689,7 @@
       <c r="V54" s="8">
         <v>25</v>
       </c>
-      <c r="W54" s="24">
+      <c r="W54" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -5738,7 +5765,7 @@
       <c r="V55" s="8">
         <v>21</v>
       </c>
-      <c r="W55" s="24">
+      <c r="W55" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -5814,7 +5841,7 @@
       <c r="V56" s="8">
         <v>23</v>
       </c>
-      <c r="W56" s="24">
+      <c r="W56" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -5890,7 +5917,7 @@
       <c r="V57" s="8">
         <v>28</v>
       </c>
-      <c r="W57" s="24">
+      <c r="W57" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -5966,7 +5993,7 @@
       <c r="V58" s="8">
         <v>22</v>
       </c>
-      <c r="W58" s="24">
+      <c r="W58" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -6042,7 +6069,7 @@
       <c r="V59" s="8">
         <v>21</v>
       </c>
-      <c r="W59" s="24">
+      <c r="W59" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -6118,7 +6145,7 @@
       <c r="V60" s="8">
         <v>25</v>
       </c>
-      <c r="W60" s="24">
+      <c r="W60" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6194,7 +6221,7 @@
       <c r="V61" s="8">
         <v>15</v>
       </c>
-      <c r="W61" s="24">
+      <c r="W61" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6270,7 +6297,7 @@
       <c r="V62" s="8">
         <v>20</v>
       </c>
-      <c r="W62" s="24">
+      <c r="W62" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6346,7 +6373,7 @@
       <c r="V63" s="8">
         <v>21</v>
       </c>
-      <c r="W63" s="24">
+      <c r="W63" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6422,7 +6449,7 @@
       <c r="V64" s="8">
         <v>20</v>
       </c>
-      <c r="W64" s="24">
+      <c r="W64" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6498,7 +6525,7 @@
       <c r="V65" s="8">
         <v>19</v>
       </c>
-      <c r="W65" s="24">
+      <c r="W65" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6574,7 +6601,7 @@
       <c r="V66" s="8">
         <v>10</v>
       </c>
-      <c r="W66" s="24">
+      <c r="W66" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -6650,7 +6677,7 @@
       <c r="V67" s="8">
         <v>30</v>
       </c>
-      <c r="W67" s="24">
+      <c r="W67" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -6726,7 +6753,7 @@
       <c r="V68" s="8">
         <v>27</v>
       </c>
-      <c r="W68" s="24">
+      <c r="W68" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -6802,7 +6829,7 @@
       <c r="V69" s="8">
         <v>20</v>
       </c>
-      <c r="W69" s="24">
+      <c r="W69" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -6878,7 +6905,7 @@
       <c r="V70" s="8">
         <v>26</v>
       </c>
-      <c r="W70" s="24">
+      <c r="W70" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -6954,7 +6981,7 @@
       <c r="V71" s="8">
         <v>21</v>
       </c>
-      <c r="W71" s="24">
+      <c r="W71" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -7030,7 +7057,7 @@
       <c r="V72" s="8">
         <v>22</v>
       </c>
-      <c r="W72" s="24">
+      <c r="W72" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -7106,7 +7133,7 @@
       <c r="V73" s="8">
         <v>34</v>
       </c>
-      <c r="W73" s="24">
+      <c r="W73" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -7182,7 +7209,7 @@
       <c r="V74" s="8">
         <v>18</v>
       </c>
-      <c r="W74" s="24">
+      <c r="W74" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -7258,7 +7285,7 @@
       <c r="V75" s="8">
         <v>22</v>
       </c>
-      <c r="W75" s="24">
+      <c r="W75" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -7334,7 +7361,7 @@
       <c r="V76" s="8">
         <v>22</v>
       </c>
-      <c r="W76" s="24">
+      <c r="W76" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -7410,7 +7437,7 @@
       <c r="V77" s="8">
         <v>30</v>
       </c>
-      <c r="W77" s="24">
+      <c r="W77" s="21">
         <f t="shared" ref="W77:W140" si="3">WEEKNUM(A77)</f>
         <v>18</v>
       </c>
@@ -7486,7 +7513,7 @@
       <c r="V78" s="8">
         <v>24</v>
       </c>
-      <c r="W78" s="24">
+      <c r="W78" s="21">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -7562,7 +7589,7 @@
       <c r="V79" s="8">
         <v>27</v>
       </c>
-      <c r="W79" s="24">
+      <c r="W79" s="21">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -7638,7 +7665,7 @@
       <c r="V80" s="8">
         <v>27</v>
       </c>
-      <c r="W80" s="24">
+      <c r="W80" s="21">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -7714,7 +7741,7 @@
       <c r="V81" s="8">
         <v>19</v>
       </c>
-      <c r="W81" s="24">
+      <c r="W81" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -7790,7 +7817,7 @@
       <c r="V82" s="8">
         <v>28</v>
       </c>
-      <c r="W82" s="24">
+      <c r="W82" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -7866,7 +7893,7 @@
       <c r="V83" s="8">
         <v>23</v>
       </c>
-      <c r="W83" s="24">
+      <c r="W83" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -7942,7 +7969,7 @@
       <c r="V84" s="8">
         <v>23</v>
       </c>
-      <c r="W84" s="24">
+      <c r="W84" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -8018,7 +8045,7 @@
       <c r="V85" s="8">
         <v>24</v>
       </c>
-      <c r="W85" s="24">
+      <c r="W85" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -8094,7 +8121,7 @@
       <c r="V86" s="8">
         <v>35</v>
       </c>
-      <c r="W86" s="24">
+      <c r="W86" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -8170,7 +8197,7 @@
       <c r="V87" s="8">
         <v>16</v>
       </c>
-      <c r="W87" s="24">
+      <c r="W87" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -8246,7 +8273,7 @@
       <c r="V88" s="8">
         <v>22</v>
       </c>
-      <c r="W88" s="24">
+      <c r="W88" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8322,7 +8349,7 @@
       <c r="V89" s="8">
         <v>21</v>
       </c>
-      <c r="W89" s="24">
+      <c r="W89" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8398,7 +8425,7 @@
       <c r="V90" s="8">
         <v>20</v>
       </c>
-      <c r="W90" s="24">
+      <c r="W90" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8474,7 +8501,7 @@
       <c r="V91" s="8">
         <v>34</v>
       </c>
-      <c r="W91" s="24">
+      <c r="W91" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8550,7 +8577,7 @@
       <c r="V92" s="8">
         <v>17</v>
       </c>
-      <c r="W92" s="24">
+      <c r="W92" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8626,7 +8653,7 @@
       <c r="V93" s="8">
         <v>17</v>
       </c>
-      <c r="W93" s="24">
+      <c r="W93" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8702,7 +8729,7 @@
       <c r="V94" s="8">
         <v>24</v>
       </c>
-      <c r="W94" s="24">
+      <c r="W94" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8778,7 +8805,7 @@
       <c r="V95" s="8">
         <v>13</v>
       </c>
-      <c r="W95" s="24">
+      <c r="W95" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -8854,7 +8881,7 @@
       <c r="V96" s="8">
         <v>13</v>
       </c>
-      <c r="W96" s="24">
+      <c r="W96" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -8930,7 +8957,7 @@
       <c r="V97" s="8">
         <v>17</v>
       </c>
-      <c r="W97" s="24">
+      <c r="W97" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -9006,7 +9033,7 @@
       <c r="V98" s="8">
         <v>10</v>
       </c>
-      <c r="W98" s="24">
+      <c r="W98" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -9082,7 +9109,7 @@
       <c r="V99" s="8">
         <v>9</v>
       </c>
-      <c r="W99" s="24">
+      <c r="W99" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -9158,7 +9185,7 @@
       <c r="V100" s="8">
         <v>10</v>
       </c>
-      <c r="W100" s="24">
+      <c r="W100" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -9234,7 +9261,7 @@
       <c r="V101" s="8">
         <v>10</v>
       </c>
-      <c r="W101" s="24">
+      <c r="W101" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -9310,7 +9337,7 @@
       <c r="V102" s="8">
         <v>9</v>
       </c>
-      <c r="W102" s="24">
+      <c r="W102" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9386,7 +9413,7 @@
       <c r="V103" s="8">
         <v>20</v>
       </c>
-      <c r="W103" s="24">
+      <c r="W103" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9462,7 +9489,7 @@
       <c r="V104" s="8">
         <v>11</v>
       </c>
-      <c r="W104" s="24">
+      <c r="W104" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9538,7 +9565,7 @@
       <c r="V105" s="8">
         <v>11</v>
       </c>
-      <c r="W105" s="24">
+      <c r="W105" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9614,7 +9641,7 @@
       <c r="V106" s="8">
         <v>8</v>
       </c>
-      <c r="W106" s="24">
+      <c r="W106" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9690,7 +9717,7 @@
       <c r="V107" s="8">
         <v>13</v>
       </c>
-      <c r="W107" s="24">
+      <c r="W107" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9766,7 +9793,7 @@
       <c r="V108" s="8">
         <v>11</v>
       </c>
-      <c r="W108" s="24">
+      <c r="W108" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -9842,7 +9869,7 @@
       <c r="V109" s="8">
         <v>7</v>
       </c>
-      <c r="W109" s="24">
+      <c r="W109" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -9918,7 +9945,7 @@
       <c r="V110" s="8">
         <v>10</v>
       </c>
-      <c r="W110" s="24">
+      <c r="W110" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -9994,7 +10021,7 @@
       <c r="V111" s="8">
         <v>12</v>
       </c>
-      <c r="W111" s="24">
+      <c r="W111" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -10070,7 +10097,7 @@
       <c r="V112" s="8">
         <v>8</v>
       </c>
-      <c r="W112" s="24">
+      <c r="W112" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -10146,7 +10173,7 @@
       <c r="V113" s="8">
         <v>9</v>
       </c>
-      <c r="W113" s="24">
+      <c r="W113" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -10222,7 +10249,7 @@
       <c r="V114" s="8">
         <v>11</v>
       </c>
-      <c r="W114" s="24">
+      <c r="W114" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -10298,7 +10325,7 @@
       <c r="V115" s="8">
         <v>6</v>
       </c>
-      <c r="W115" s="24">
+      <c r="W115" s="21">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -10374,7 +10401,7 @@
       <c r="V116" s="8">
         <v>11</v>
       </c>
-      <c r="W116" s="24">
+      <c r="W116" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10450,7 +10477,7 @@
       <c r="V117" s="8">
         <v>6</v>
       </c>
-      <c r="W117" s="24">
+      <c r="W117" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10526,7 +10553,7 @@
       <c r="V118" s="8">
         <v>15</v>
       </c>
-      <c r="W118" s="24">
+      <c r="W118" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10602,7 +10629,7 @@
       <c r="V119" s="8">
         <v>6</v>
       </c>
-      <c r="W119" s="24">
+      <c r="W119" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10678,7 +10705,7 @@
       <c r="V120" s="8">
         <v>9</v>
       </c>
-      <c r="W120" s="24">
+      <c r="W120" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10754,7 +10781,7 @@
       <c r="V121" s="8">
         <v>11</v>
       </c>
-      <c r="W121" s="24">
+      <c r="W121" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10830,7 +10857,7 @@
       <c r="V122" s="8">
         <v>14</v>
       </c>
-      <c r="W122" s="24">
+      <c r="W122" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -10906,7 +10933,7 @@
       <c r="V123" s="8">
         <v>16</v>
       </c>
-      <c r="W123" s="24">
+      <c r="W123" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -10982,7 +11009,7 @@
       <c r="V124" s="8">
         <v>17</v>
       </c>
-      <c r="W124" s="24">
+      <c r="W124" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11058,7 +11085,7 @@
       <c r="V125" s="8">
         <v>10</v>
       </c>
-      <c r="W125" s="24">
+      <c r="W125" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11134,7 +11161,7 @@
       <c r="V126" s="8">
         <v>14</v>
       </c>
-      <c r="W126" s="24">
+      <c r="W126" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11210,7 +11237,7 @@
       <c r="V127" s="8">
         <v>22</v>
       </c>
-      <c r="W127" s="24">
+      <c r="W127" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11286,7 +11313,7 @@
       <c r="V128" s="8">
         <v>11</v>
       </c>
-      <c r="W128" s="24">
+      <c r="W128" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11362,7 +11389,7 @@
       <c r="V129" s="8">
         <v>16</v>
       </c>
-      <c r="W129" s="24">
+      <c r="W129" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11438,7 +11465,7 @@
       <c r="V130" s="8">
         <v>12</v>
       </c>
-      <c r="W130" s="24">
+      <c r="W130" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11514,7 +11541,7 @@
       <c r="V131" s="8">
         <v>11</v>
       </c>
-      <c r="W131" s="24">
+      <c r="W131" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11590,7 +11617,7 @@
       <c r="V132" s="8">
         <v>16</v>
       </c>
-      <c r="W132" s="24">
+      <c r="W132" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11666,7 +11693,7 @@
       <c r="V133" s="8">
         <v>16</v>
       </c>
-      <c r="W133" s="24">
+      <c r="W133" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11742,7 +11769,7 @@
       <c r="V134" s="8">
         <v>10</v>
       </c>
-      <c r="W134" s="24">
+      <c r="W134" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11818,7 +11845,7 @@
       <c r="V135" s="8">
         <v>14</v>
       </c>
-      <c r="W135" s="24">
+      <c r="W135" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11894,7 +11921,7 @@
       <c r="V136" s="8">
         <v>10</v>
       </c>
-      <c r="W136" s="24">
+      <c r="W136" s="21">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11970,7 +11997,7 @@
       <c r="V137" s="8">
         <v>23</v>
       </c>
-      <c r="W137" s="24">
+      <c r="W137" s="21">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -12046,7 +12073,7 @@
       <c r="V138" s="8">
         <v>22</v>
       </c>
-      <c r="W138" s="24">
+      <c r="W138" s="21">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -12122,7 +12149,7 @@
       <c r="V139" s="8">
         <v>17</v>
       </c>
-      <c r="W139" s="24">
+      <c r="W139" s="21">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -12198,7 +12225,7 @@
       <c r="V140" s="8">
         <v>16</v>
       </c>
-      <c r="W140" s="24">
+      <c r="W140" s="21">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -12274,7 +12301,7 @@
       <c r="V141" s="8">
         <v>20</v>
       </c>
-      <c r="W141" s="24">
+      <c r="W141" s="21">
         <f t="shared" ref="W141:W204" si="4">WEEKNUM(A141)</f>
         <v>27</v>
       </c>
@@ -12350,7 +12377,7 @@
       <c r="V142" s="8">
         <v>21</v>
       </c>
-      <c r="W142" s="24">
+      <c r="W142" s="21">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -12426,7 +12453,7 @@
       <c r="V143" s="8">
         <v>23</v>
       </c>
-      <c r="W143" s="24">
+      <c r="W143" s="21">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -12502,7 +12529,7 @@
       <c r="V144" s="8">
         <v>19</v>
       </c>
-      <c r="W144" s="24">
+      <c r="W144" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -12578,7 +12605,7 @@
       <c r="V145" s="8">
         <v>18</v>
       </c>
-      <c r="W145" s="24">
+      <c r="W145" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -12654,7 +12681,7 @@
       <c r="V146" s="8">
         <v>31</v>
       </c>
-      <c r="W146" s="24">
+      <c r="W146" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -12730,7 +12757,7 @@
       <c r="V147" s="8">
         <v>18</v>
       </c>
-      <c r="W147" s="24">
+      <c r="W147" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -12806,7 +12833,7 @@
       <c r="V148" s="8">
         <v>17</v>
       </c>
-      <c r="W148" s="24">
+      <c r="W148" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -12882,7 +12909,7 @@
       <c r="V149" s="8">
         <v>13</v>
       </c>
-      <c r="W149" s="24">
+      <c r="W149" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -12958,7 +12985,7 @@
       <c r="V150" s="8">
         <v>24</v>
       </c>
-      <c r="W150" s="24">
+      <c r="W150" s="21">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -13034,7 +13061,7 @@
       <c r="V151" s="8">
         <v>13</v>
       </c>
-      <c r="W151" s="24">
+      <c r="W151" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13110,7 +13137,7 @@
       <c r="V152" s="8">
         <v>17</v>
       </c>
-      <c r="W152" s="24">
+      <c r="W152" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13186,7 +13213,7 @@
       <c r="V153" s="8">
         <v>30</v>
       </c>
-      <c r="W153" s="24">
+      <c r="W153" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13262,7 +13289,7 @@
       <c r="V154" s="8">
         <v>21</v>
       </c>
-      <c r="W154" s="24">
+      <c r="W154" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13338,7 +13365,7 @@
       <c r="V155" s="8">
         <v>19</v>
       </c>
-      <c r="W155" s="24">
+      <c r="W155" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13414,7 +13441,7 @@
       <c r="V156" s="8">
         <v>17</v>
       </c>
-      <c r="W156" s="24">
+      <c r="W156" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13490,7 +13517,7 @@
       <c r="V157" s="8">
         <v>21</v>
       </c>
-      <c r="W157" s="24">
+      <c r="W157" s="21">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -13566,7 +13593,7 @@
       <c r="V158" s="8">
         <v>17</v>
       </c>
-      <c r="W158" s="24">
+      <c r="W158" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -13642,7 +13669,7 @@
       <c r="V159" s="8">
         <v>12</v>
       </c>
-      <c r="W159" s="24">
+      <c r="W159" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -13718,7 +13745,7 @@
       <c r="V160" s="8">
         <v>36</v>
       </c>
-      <c r="W160" s="24">
+      <c r="W160" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -13794,7 +13821,7 @@
       <c r="V161" s="8">
         <v>27</v>
       </c>
-      <c r="W161" s="24">
+      <c r="W161" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -13870,7 +13897,7 @@
       <c r="V162" s="8">
         <v>25</v>
       </c>
-      <c r="W162" s="24">
+      <c r="W162" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -13946,7 +13973,7 @@
       <c r="V163" s="8">
         <v>24</v>
       </c>
-      <c r="W163" s="24">
+      <c r="W163" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -14022,7 +14049,7 @@
       <c r="V164" s="8">
         <v>15</v>
       </c>
-      <c r="W164" s="24">
+      <c r="W164" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -14098,7 +14125,7 @@
       <c r="V165" s="8">
         <v>22</v>
       </c>
-      <c r="W165" s="24">
+      <c r="W165" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14174,7 +14201,7 @@
       <c r="V166" s="8">
         <v>19</v>
       </c>
-      <c r="W166" s="24">
+      <c r="W166" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14250,7 +14277,7 @@
       <c r="V167" s="8">
         <v>33</v>
       </c>
-      <c r="W167" s="24">
+      <c r="W167" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14326,7 +14353,7 @@
       <c r="V168" s="8">
         <v>30</v>
       </c>
-      <c r="W168" s="24">
+      <c r="W168" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14402,7 +14429,7 @@
       <c r="V169" s="8">
         <v>35</v>
       </c>
-      <c r="W169" s="24">
+      <c r="W169" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14478,7 +14505,7 @@
       <c r="V170" s="8">
         <v>39</v>
       </c>
-      <c r="W170" s="24">
+      <c r="W170" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14554,7 +14581,7 @@
       <c r="V171" s="8">
         <v>36</v>
       </c>
-      <c r="W171" s="24">
+      <c r="W171" s="21">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -14630,7 +14657,7 @@
       <c r="V172" s="8">
         <v>34</v>
       </c>
-      <c r="W172" s="24">
+      <c r="W172" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -14702,7 +14729,7 @@
       <c r="V173" s="8">
         <v>19</v>
       </c>
-      <c r="W173" s="24">
+      <c r="W173" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -14774,7 +14801,7 @@
       <c r="V174" s="8">
         <v>48</v>
       </c>
-      <c r="W174" s="24">
+      <c r="W174" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -14846,7 +14873,7 @@
       <c r="V175" s="16">
         <v>41</v>
       </c>
-      <c r="W175" s="24">
+      <c r="W175" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -14918,7 +14945,7 @@
       <c r="V176" s="7">
         <v>45</v>
       </c>
-      <c r="W176" s="24">
+      <c r="W176" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -14990,7 +15017,7 @@
       <c r="V177" s="7">
         <v>50</v>
       </c>
-      <c r="W177" s="24">
+      <c r="W177" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -15062,7 +15089,7 @@
       <c r="V178" s="7">
         <v>43</v>
       </c>
-      <c r="W178" s="24">
+      <c r="W178" s="21">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -15134,7 +15161,7 @@
       <c r="V179" s="7">
         <v>41</v>
       </c>
-      <c r="W179" s="24">
+      <c r="W179" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15206,7 +15233,7 @@
       <c r="V180" s="7">
         <v>29</v>
       </c>
-      <c r="W180" s="24">
+      <c r="W180" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15278,7 +15305,7 @@
       <c r="V181" s="7">
         <v>35</v>
       </c>
-      <c r="W181" s="24">
+      <c r="W181" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15350,7 +15377,7 @@
       <c r="V182" s="7">
         <v>43</v>
       </c>
-      <c r="W182" s="24">
+      <c r="W182" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15422,7 +15449,7 @@
       <c r="V183" s="7">
         <v>53</v>
       </c>
-      <c r="W183" s="24">
+      <c r="W183" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15494,7 +15521,7 @@
       <c r="V184" s="7">
         <v>44</v>
       </c>
-      <c r="W184" s="24">
+      <c r="W184" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15566,7 +15593,7 @@
       <c r="V185" s="7">
         <v>50</v>
       </c>
-      <c r="W185" s="24">
+      <c r="W185" s="21">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -15638,7 +15665,7 @@
       <c r="V186" s="7">
         <v>37</v>
       </c>
-      <c r="W186" s="24">
+      <c r="W186" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -15710,7 +15737,7 @@
       <c r="V187" s="7">
         <v>38</v>
       </c>
-      <c r="W187" s="24">
+      <c r="W187" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -15782,7 +15809,7 @@
       <c r="V188" s="7">
         <v>45</v>
       </c>
-      <c r="W188" s="24">
+      <c r="W188" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -15854,7 +15881,7 @@
       <c r="V189" s="7">
         <v>32</v>
       </c>
-      <c r="W189" s="24">
+      <c r="W189" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -15926,7 +15953,7 @@
       <c r="V190" s="7">
         <v>48</v>
       </c>
-      <c r="W190" s="24">
+      <c r="W190" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -15998,7 +16025,7 @@
       <c r="V191" s="7">
         <v>42</v>
       </c>
-      <c r="W191" s="24">
+      <c r="W191" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -16070,7 +16097,7 @@
       <c r="V192" s="7">
         <v>37</v>
       </c>
-      <c r="W192" s="24">
+      <c r="W192" s="21">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -16142,7 +16169,7 @@
       <c r="V193" s="7">
         <v>39</v>
       </c>
-      <c r="W193" s="24">
+      <c r="W193" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16214,7 +16241,7 @@
       <c r="V194" s="7">
         <v>37</v>
       </c>
-      <c r="W194" s="24">
+      <c r="W194" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16286,7 +16313,7 @@
       <c r="V195" s="7">
         <v>58</v>
       </c>
-      <c r="W195" s="24">
+      <c r="W195" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16358,7 +16385,7 @@
       <c r="V196" s="7">
         <v>54</v>
       </c>
-      <c r="W196" s="24">
+      <c r="W196" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16430,7 +16457,7 @@
       <c r="V197" s="7">
         <v>38</v>
       </c>
-      <c r="W197" s="24">
+      <c r="W197" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16502,7 +16529,7 @@
       <c r="V198" s="7">
         <v>48</v>
       </c>
-      <c r="W198" s="24">
+      <c r="W198" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16574,7 +16601,7 @@
       <c r="V199" s="7">
         <v>32</v>
       </c>
-      <c r="W199" s="24">
+      <c r="W199" s="21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -16646,7 +16673,7 @@
       <c r="V200" s="7">
         <v>39</v>
       </c>
-      <c r="W200" s="24">
+      <c r="W200" s="21">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -16718,7 +16745,7 @@
       <c r="V201" s="7">
         <v>43</v>
       </c>
-      <c r="W201" s="24">
+      <c r="W201" s="21">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -16790,7 +16817,7 @@
       <c r="V202" s="7">
         <v>60</v>
       </c>
-      <c r="W202" s="24">
+      <c r="W202" s="21">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -16862,7 +16889,7 @@
       <c r="V203" s="7">
         <v>40</v>
       </c>
-      <c r="W203" s="24">
+      <c r="W203" s="21">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -16934,7 +16961,7 @@
       <c r="V204" s="7">
         <v>44</v>
       </c>
-      <c r="W204" s="24">
+      <c r="W204" s="21">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -17006,8 +17033,8 @@
       <c r="V205" s="7">
         <v>47</v>
       </c>
-      <c r="W205" s="24">
-        <f t="shared" ref="W205:W251" si="5">WEEKNUM(A205)</f>
+      <c r="W205" s="21">
+        <f t="shared" ref="W205:W262" si="5">WEEKNUM(A205)</f>
         <v>36</v>
       </c>
     </row>
@@ -17078,7 +17105,7 @@
       <c r="V206" s="7">
         <v>38</v>
       </c>
-      <c r="W206" s="24">
+      <c r="W206" s="21">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
@@ -17150,7 +17177,7 @@
       <c r="V207" s="7">
         <v>43</v>
       </c>
-      <c r="W207" s="24">
+      <c r="W207" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17222,7 +17249,7 @@
       <c r="V208" s="7">
         <v>33</v>
       </c>
-      <c r="W208" s="24">
+      <c r="W208" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17294,7 +17321,7 @@
       <c r="V209" s="7">
         <v>41</v>
       </c>
-      <c r="W209" s="24">
+      <c r="W209" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17366,7 +17393,7 @@
       <c r="V210" s="7">
         <v>51</v>
       </c>
-      <c r="W210" s="24">
+      <c r="W210" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17438,7 +17465,7 @@
       <c r="V211" s="7">
         <v>47</v>
       </c>
-      <c r="W211" s="24">
+      <c r="W211" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17510,7 +17537,7 @@
       <c r="V212" s="7">
         <v>35</v>
       </c>
-      <c r="W212" s="24">
+      <c r="W212" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17582,7 +17609,7 @@
       <c r="V213" s="7">
         <v>27</v>
       </c>
-      <c r="W213" s="24">
+      <c r="W213" s="21">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -17654,7 +17681,7 @@
       <c r="V214" s="7">
         <v>36</v>
       </c>
-      <c r="W214" s="24">
+      <c r="W214" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -17726,7 +17753,7 @@
       <c r="V215" s="7">
         <v>22</v>
       </c>
-      <c r="W215" s="24">
+      <c r="W215" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -17798,7 +17825,7 @@
       <c r="V216" s="7">
         <v>51</v>
       </c>
-      <c r="W216" s="24">
+      <c r="W216" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -17870,7 +17897,7 @@
       <c r="V217" s="7">
         <v>49</v>
       </c>
-      <c r="W217" s="24">
+      <c r="W217" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -17942,7 +17969,7 @@
       <c r="V218" s="7">
         <v>27</v>
       </c>
-      <c r="W218" s="24">
+      <c r="W218" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -18014,7 +18041,7 @@
       <c r="V219" s="7">
         <v>48</v>
       </c>
-      <c r="W219" s="24">
+      <c r="W219" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -18086,7 +18113,7 @@
       <c r="V220" s="7">
         <v>42</v>
       </c>
-      <c r="W220" s="24">
+      <c r="W220" s="21">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -18158,7 +18185,7 @@
       <c r="V221" s="7">
         <v>33</v>
       </c>
-      <c r="W221" s="24">
+      <c r="W221" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18230,7 +18257,7 @@
       <c r="V222" s="7">
         <v>23</v>
       </c>
-      <c r="W222" s="24">
+      <c r="W222" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18302,7 +18329,7 @@
       <c r="V223" s="7">
         <v>45</v>
       </c>
-      <c r="W223" s="24">
+      <c r="W223" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18374,7 +18401,7 @@
       <c r="V224" s="7">
         <v>47</v>
       </c>
-      <c r="W224" s="24">
+      <c r="W224" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18446,7 +18473,7 @@
       <c r="V225" s="7">
         <v>41</v>
       </c>
-      <c r="W225" s="24">
+      <c r="W225" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18518,7 +18545,7 @@
       <c r="V226" s="7">
         <v>42</v>
       </c>
-      <c r="W226" s="24">
+      <c r="W226" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18590,7 +18617,7 @@
       <c r="V227" s="7">
         <v>54</v>
       </c>
-      <c r="W227" s="24">
+      <c r="W227" s="21">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -18662,7 +18689,7 @@
       <c r="V228" s="7">
         <v>31</v>
       </c>
-      <c r="W228" s="24">
+      <c r="W228" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -18734,7 +18761,7 @@
       <c r="V229" s="7">
         <v>30</v>
       </c>
-      <c r="W229" s="24">
+      <c r="W229" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -18806,7 +18833,7 @@
       <c r="V230" s="7">
         <v>44</v>
       </c>
-      <c r="W230" s="24">
+      <c r="W230" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -18878,7 +18905,7 @@
       <c r="V231" s="7">
         <v>33</v>
       </c>
-      <c r="W231" s="24">
+      <c r="W231" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -18950,7 +18977,7 @@
       <c r="V232" s="7">
         <v>37</v>
       </c>
-      <c r="W232" s="24">
+      <c r="W232" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -19022,7 +19049,7 @@
       <c r="V233" s="7">
         <v>53</v>
       </c>
-      <c r="W233" s="24">
+      <c r="W233" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -19094,7 +19121,7 @@
       <c r="V234" s="7">
         <v>32</v>
       </c>
-      <c r="W234" s="24">
+      <c r="W234" s="21">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -19166,7 +19193,7 @@
       <c r="V235" s="7">
         <v>56</v>
       </c>
-      <c r="W235" s="24">
+      <c r="W235" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19238,7 +19265,7 @@
       <c r="V236" s="7">
         <v>45</v>
       </c>
-      <c r="W236" s="24">
+      <c r="W236" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19310,7 +19337,7 @@
       <c r="V237" s="7">
         <v>73</v>
       </c>
-      <c r="W237" s="24">
+      <c r="W237" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19382,7 +19409,7 @@
       <c r="V238" s="7">
         <v>82</v>
       </c>
-      <c r="W238" s="24">
+      <c r="W238" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19454,7 +19481,7 @@
       <c r="V239" s="7">
         <v>44</v>
       </c>
-      <c r="W239" s="24">
+      <c r="W239" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19526,7 +19553,7 @@
       <c r="V240" s="7">
         <v>52</v>
       </c>
-      <c r="W240" s="24">
+      <c r="W240" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19598,7 +19625,7 @@
       <c r="V241" s="7">
         <v>59</v>
       </c>
-      <c r="W241" s="24">
+      <c r="W241" s="21">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -19670,7 +19697,7 @@
       <c r="V242" s="7">
         <v>53</v>
       </c>
-      <c r="W242" s="24">
+      <c r="W242" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -19742,7 +19769,7 @@
       <c r="V243" s="7">
         <v>56</v>
       </c>
-      <c r="W243" s="24">
+      <c r="W243" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -19814,7 +19841,7 @@
       <c r="V244" s="7">
         <v>68</v>
       </c>
-      <c r="W244" s="24">
+      <c r="W244" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -19886,7 +19913,7 @@
       <c r="V245" s="7">
         <v>66</v>
       </c>
-      <c r="W245" s="24">
+      <c r="W245" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -19958,7 +19985,7 @@
       <c r="V246" s="7">
         <v>73</v>
       </c>
-      <c r="W246" s="24">
+      <c r="W246" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -20030,7 +20057,7 @@
       <c r="V247" s="7">
         <v>75</v>
       </c>
-      <c r="W247" s="24">
+      <c r="W247" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -20102,7 +20129,7 @@
       <c r="V248" s="7">
         <v>63</v>
       </c>
-      <c r="W248" s="24">
+      <c r="W248" s="21">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -20174,7 +20201,7 @@
       <c r="V249" s="7">
         <v>60</v>
       </c>
-      <c r="W249" s="24">
+      <c r="W249" s="21">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
@@ -20246,7 +20273,7 @@
       <c r="V250" s="7">
         <v>59</v>
       </c>
-      <c r="W250" s="24">
+      <c r="W250" s="21">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
@@ -20318,9 +20345,801 @@
       <c r="V251" s="7">
         <v>65</v>
       </c>
-      <c r="W251" s="24">
+      <c r="W251" s="21">
         <f t="shared" si="5"/>
         <v>43</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A252" s="10">
+        <v>44125</v>
+      </c>
+      <c r="B252" s="2">
+        <v>250</v>
+      </c>
+      <c r="C252" s="1">
+        <v>307335</v>
+      </c>
+      <c r="D252" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E252" s="1">
+        <v>19569</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2291</v>
+      </c>
+      <c r="G252" s="1">
+        <v>13</v>
+      </c>
+      <c r="H252" s="3">
+        <v>50180</v>
+      </c>
+      <c r="I252" s="3">
+        <v>1423</v>
+      </c>
+      <c r="J252" s="3">
+        <v>34016</v>
+      </c>
+      <c r="K252" s="3">
+        <v>1259</v>
+      </c>
+      <c r="L252" s="3">
+        <v>48</v>
+      </c>
+      <c r="M252" s="4">
+        <v>69409</v>
+      </c>
+      <c r="N252" s="5">
+        <v>1958</v>
+      </c>
+      <c r="O252" s="4">
+        <v>15867</v>
+      </c>
+      <c r="P252" s="6">
+        <v>925</v>
+      </c>
+      <c r="Q252" s="4">
+        <v>11</v>
+      </c>
+      <c r="R252" s="7">
+        <v>191102</v>
+      </c>
+      <c r="S252" s="7">
+        <v>4848</v>
+      </c>
+      <c r="T252" s="7">
+        <v>47202</v>
+      </c>
+      <c r="U252" s="7">
+        <v>6065</v>
+      </c>
+      <c r="V252" s="7">
+        <v>69</v>
+      </c>
+      <c r="W252" s="25">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A253" s="10">
+        <v>44126</v>
+      </c>
+      <c r="B253" s="2">
+        <v>251</v>
+      </c>
+      <c r="C253" s="1">
+        <v>308247</v>
+      </c>
+      <c r="D253" s="1">
+        <v>912</v>
+      </c>
+      <c r="E253" s="1">
+        <v>17591</v>
+      </c>
+      <c r="F253" s="1">
+        <v>2319</v>
+      </c>
+      <c r="G253" s="1">
+        <v>28</v>
+      </c>
+      <c r="H253" s="3">
+        <v>52212</v>
+      </c>
+      <c r="I253" s="3">
+        <v>2032</v>
+      </c>
+      <c r="J253" s="3">
+        <v>35653</v>
+      </c>
+      <c r="K253" s="3">
+        <v>1305</v>
+      </c>
+      <c r="L253" s="3">
+        <v>46</v>
+      </c>
+      <c r="M253" s="4">
+        <v>71844</v>
+      </c>
+      <c r="N253" s="5">
+        <v>2435</v>
+      </c>
+      <c r="O253" s="4">
+        <v>16933</v>
+      </c>
+      <c r="P253" s="6">
+        <v>941</v>
+      </c>
+      <c r="Q253" s="4">
+        <v>16</v>
+      </c>
+      <c r="R253" s="7">
+        <v>196004</v>
+      </c>
+      <c r="S253" s="7">
+        <v>4902</v>
+      </c>
+      <c r="T253" s="7">
+        <v>48752</v>
+      </c>
+      <c r="U253" s="7">
+        <v>6163</v>
+      </c>
+      <c r="V253" s="7">
+        <v>98</v>
+      </c>
+      <c r="W253" s="25">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A254" s="10">
+        <v>44127</v>
+      </c>
+      <c r="B254" s="2">
+        <v>252</v>
+      </c>
+      <c r="C254" s="1">
+        <v>308840</v>
+      </c>
+      <c r="D254" s="1">
+        <v>593</v>
+      </c>
+      <c r="E254" s="1">
+        <v>16381</v>
+      </c>
+      <c r="F254" s="1">
+        <v>2329</v>
+      </c>
+      <c r="G254" s="1">
+        <v>10</v>
+      </c>
+      <c r="H254" s="3">
+        <v>54278</v>
+      </c>
+      <c r="I254" s="3">
+        <v>2066</v>
+      </c>
+      <c r="J254" s="3">
+        <v>37271</v>
+      </c>
+      <c r="K254" s="3">
+        <v>1352</v>
+      </c>
+      <c r="L254" s="3">
+        <v>47</v>
+      </c>
+      <c r="M254" s="4">
+        <v>74415</v>
+      </c>
+      <c r="N254" s="5">
+        <v>2571</v>
+      </c>
+      <c r="O254" s="4">
+        <v>18266</v>
+      </c>
+      <c r="P254" s="6">
+        <v>954</v>
+      </c>
+      <c r="Q254" s="4">
+        <v>13</v>
+      </c>
+      <c r="R254" s="7">
+        <v>201032</v>
+      </c>
+      <c r="S254" s="7">
+        <v>5028</v>
+      </c>
+      <c r="T254" s="7">
+        <v>50358</v>
+      </c>
+      <c r="U254" s="7">
+        <v>6245</v>
+      </c>
+      <c r="V254" s="7">
+        <v>82</v>
+      </c>
+      <c r="W254" s="25">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A255" s="10">
+        <v>44128</v>
+      </c>
+      <c r="B255" s="2">
+        <v>253</v>
+      </c>
+      <c r="C255" s="1">
+        <v>309413</v>
+      </c>
+      <c r="D255" s="1">
+        <v>573</v>
+      </c>
+      <c r="E255" s="1">
+        <v>15835</v>
+      </c>
+      <c r="F255" s="1">
+        <v>2372</v>
+      </c>
+      <c r="G255" s="1">
+        <v>43</v>
+      </c>
+      <c r="H255" s="3">
+        <v>56098</v>
+      </c>
+      <c r="I255" s="3">
+        <v>1820</v>
+      </c>
+      <c r="J255" s="3">
+        <v>38701</v>
+      </c>
+      <c r="K255" s="3">
+        <v>1390</v>
+      </c>
+      <c r="L255" s="3">
+        <v>38</v>
+      </c>
+      <c r="M255" s="4">
+        <v>78029</v>
+      </c>
+      <c r="N255" s="5">
+        <v>3614</v>
+      </c>
+      <c r="O255" s="4">
+        <v>20273</v>
+      </c>
+      <c r="P255" s="6">
+        <v>965</v>
+      </c>
+      <c r="Q255" s="4">
+        <v>11</v>
+      </c>
+      <c r="R255" s="7">
+        <v>205793</v>
+      </c>
+      <c r="S255" s="7">
+        <v>4761</v>
+      </c>
+      <c r="T255" s="7">
+        <v>51543</v>
+      </c>
+      <c r="U255" s="7">
+        <v>6318</v>
+      </c>
+      <c r="V255" s="7">
+        <v>73</v>
+      </c>
+      <c r="W255" s="25">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A256" s="10">
+        <v>44129</v>
+      </c>
+      <c r="B256" s="2">
+        <v>254</v>
+      </c>
+      <c r="C256" s="1">
+        <v>309946</v>
+      </c>
+      <c r="D256" s="1">
+        <v>533</v>
+      </c>
+      <c r="E256" s="1">
+        <v>14440</v>
+      </c>
+      <c r="F256" s="1">
+        <v>2397</v>
+      </c>
+      <c r="G256" s="1">
+        <v>25</v>
+      </c>
+      <c r="H256" s="3">
+        <v>59247</v>
+      </c>
+      <c r="I256" s="3">
+        <v>3149</v>
+      </c>
+      <c r="J256" s="3">
+        <v>41580</v>
+      </c>
+      <c r="K256" s="3">
+        <v>1425</v>
+      </c>
+      <c r="L256" s="3">
+        <v>35</v>
+      </c>
+      <c r="M256" s="4">
+        <v>80811</v>
+      </c>
+      <c r="N256" s="5">
+        <v>2782</v>
+      </c>
+      <c r="O256" s="4">
+        <v>21974</v>
+      </c>
+      <c r="P256" s="6">
+        <v>979</v>
+      </c>
+      <c r="Q256" s="4">
+        <v>14</v>
+      </c>
+      <c r="R256" s="7">
+        <v>209648</v>
+      </c>
+      <c r="S256" s="7">
+        <v>3855</v>
+      </c>
+      <c r="T256" s="7">
+        <v>53516</v>
+      </c>
+      <c r="U256" s="7">
+        <v>6391</v>
+      </c>
+      <c r="V256" s="7">
+        <v>73</v>
+      </c>
+      <c r="W256" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A257" s="10">
+        <v>44130</v>
+      </c>
+      <c r="B257" s="2">
+        <v>255</v>
+      </c>
+      <c r="C257" s="1">
+        <v>310851</v>
+      </c>
+      <c r="D257" s="1">
+        <v>905</v>
+      </c>
+      <c r="E257" s="1">
+        <v>13545</v>
+      </c>
+      <c r="F257" s="1">
+        <v>2452</v>
+      </c>
+      <c r="G257" s="1">
+        <v>55</v>
+      </c>
+      <c r="H257" s="3">
+        <v>61563</v>
+      </c>
+      <c r="I257" s="3">
+        <v>2316</v>
+      </c>
+      <c r="J257" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K257" s="3">
+        <v>1472</v>
+      </c>
+      <c r="L257" s="3">
+        <v>47</v>
+      </c>
+      <c r="M257" s="4">
+        <v>83267</v>
+      </c>
+      <c r="N257" s="5">
+        <v>2456</v>
+      </c>
+      <c r="O257" s="4">
+        <v>23239</v>
+      </c>
+      <c r="P257" s="6">
+        <v>992</v>
+      </c>
+      <c r="Q257" s="4">
+        <v>13</v>
+      </c>
+      <c r="R257" s="7">
+        <v>212492</v>
+      </c>
+      <c r="S257" s="7">
+        <v>2844</v>
+      </c>
+      <c r="T257" s="7">
+        <v>54211</v>
+      </c>
+      <c r="U257" s="7">
+        <v>6470</v>
+      </c>
+      <c r="V257" s="7">
+        <v>79</v>
+      </c>
+      <c r="W257" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A258" s="10">
+        <v>44131</v>
+      </c>
+      <c r="B258" s="2">
+        <v>256</v>
+      </c>
+      <c r="C258" s="1">
+        <v>311724</v>
+      </c>
+      <c r="D258" s="1">
+        <v>873</v>
+      </c>
+      <c r="E258" s="1">
+        <v>12585</v>
+      </c>
+      <c r="F258" s="1">
+        <v>2483</v>
+      </c>
+      <c r="G258" s="1">
+        <v>31</v>
+      </c>
+      <c r="H258" s="3">
+        <v>63642</v>
+      </c>
+      <c r="I258" s="3">
+        <v>2079</v>
+      </c>
+      <c r="J258" s="3">
+        <v>45461</v>
+      </c>
+      <c r="K258" s="3">
+        <v>1535</v>
+      </c>
+      <c r="L258" s="3">
+        <v>63</v>
+      </c>
+      <c r="M258" s="4">
+        <v>86102</v>
+      </c>
+      <c r="N258" s="5">
+        <v>2835</v>
+      </c>
+      <c r="O258" s="4">
+        <v>24789</v>
+      </c>
+      <c r="P258" s="6">
+        <v>1005</v>
+      </c>
+      <c r="Q258" s="4">
+        <v>13</v>
+      </c>
+      <c r="R258" s="7">
+        <v>217216</v>
+      </c>
+      <c r="S258" s="7">
+        <v>4724</v>
+      </c>
+      <c r="T258" s="7">
+        <v>55012</v>
+      </c>
+      <c r="U258" s="7">
+        <v>6574</v>
+      </c>
+      <c r="V258" s="7">
+        <v>104</v>
+      </c>
+      <c r="W258" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A259" s="10">
+        <v>44132</v>
+      </c>
+      <c r="B259" s="2">
+        <v>257</v>
+      </c>
+      <c r="C259" s="1">
+        <v>312550</v>
+      </c>
+      <c r="D259" s="1">
+        <v>826</v>
+      </c>
+      <c r="E259" s="1">
+        <v>12013</v>
+      </c>
+      <c r="F259" s="1">
+        <v>2494</v>
+      </c>
+      <c r="G259" s="1">
+        <v>11</v>
+      </c>
+      <c r="H259" s="3">
+        <v>65933</v>
+      </c>
+      <c r="I259" s="3">
+        <v>2291</v>
+      </c>
+      <c r="J259" s="3">
+        <v>47257</v>
+      </c>
+      <c r="K259" s="3">
+        <v>1578</v>
+      </c>
+      <c r="L259" s="3">
+        <v>43</v>
+      </c>
+      <c r="M259" s="4">
+        <v>89496</v>
+      </c>
+      <c r="N259" s="5">
+        <v>3394</v>
+      </c>
+      <c r="O259" s="4">
+        <v>26785</v>
+      </c>
+      <c r="P259" s="6">
+        <v>1027</v>
+      </c>
+      <c r="Q259" s="4">
+        <v>22</v>
+      </c>
+      <c r="R259" s="7">
+        <v>222559</v>
+      </c>
+      <c r="S259" s="7">
+        <v>5343</v>
+      </c>
+      <c r="T259" s="7">
+        <v>56023</v>
+      </c>
+      <c r="U259" s="7">
+        <v>6681</v>
+      </c>
+      <c r="V259" s="7">
+        <v>107</v>
+      </c>
+      <c r="W259" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A260" s="10">
+        <v>44133</v>
+      </c>
+      <c r="B260" s="2">
+        <v>258</v>
+      </c>
+      <c r="C260" s="1">
+        <v>313114</v>
+      </c>
+      <c r="D260" s="1">
+        <v>564</v>
+      </c>
+      <c r="E260" s="1">
+        <v>11167</v>
+      </c>
+      <c r="F260" s="1">
+        <v>2508</v>
+      </c>
+      <c r="G260" s="1">
+        <v>14</v>
+      </c>
+      <c r="H260" s="3">
+        <v>68127</v>
+      </c>
+      <c r="I260" s="3">
+        <v>2194</v>
+      </c>
+      <c r="J260" s="3">
+        <v>49024</v>
+      </c>
+      <c r="K260" s="3">
+        <v>1634</v>
+      </c>
+      <c r="L260" s="3">
+        <v>56</v>
+      </c>
+      <c r="M260" s="4">
+        <v>93949</v>
+      </c>
+      <c r="N260" s="5">
+        <v>4453</v>
+      </c>
+      <c r="O260" s="4">
+        <v>29527</v>
+      </c>
+      <c r="P260" s="6">
+        <v>1056</v>
+      </c>
+      <c r="Q260" s="4">
+        <v>29</v>
+      </c>
+      <c r="R260" s="7">
+        <v>229040</v>
+      </c>
+      <c r="S260" s="7">
+        <v>6481</v>
+      </c>
+      <c r="T260" s="7">
+        <v>58424</v>
+      </c>
+      <c r="U260" s="7">
+        <v>6764</v>
+      </c>
+      <c r="V260" s="7">
+        <v>83</v>
+      </c>
+      <c r="W260" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A261" s="10">
+        <v>44134</v>
+      </c>
+      <c r="B261" s="2">
+        <v>259</v>
+      </c>
+      <c r="C261" s="1">
+        <v>313701</v>
+      </c>
+      <c r="D261" s="1">
+        <v>587</v>
+      </c>
+      <c r="E261" s="1">
+        <v>11365</v>
+      </c>
+      <c r="F261" s="1">
+        <v>2514</v>
+      </c>
+      <c r="G261" s="1">
+        <v>6</v>
+      </c>
+      <c r="H261" s="3">
+        <v>71413</v>
+      </c>
+      <c r="I261" s="3">
+        <v>3286</v>
+      </c>
+      <c r="J261" s="3">
+        <v>51761</v>
+      </c>
+      <c r="K261" s="3">
+        <v>1699</v>
+      </c>
+      <c r="L261" s="3">
+        <v>65</v>
+      </c>
+      <c r="M261" s="4">
+        <v>99576</v>
+      </c>
+      <c r="N261" s="5">
+        <v>5627</v>
+      </c>
+      <c r="O261" s="4">
+        <v>33507</v>
+      </c>
+      <c r="P261" s="6">
+        <v>1082</v>
+      </c>
+      <c r="Q261" s="4">
+        <v>26</v>
+      </c>
+      <c r="R261" s="7">
+        <v>235586</v>
+      </c>
+      <c r="S261" s="7">
+        <v>6546</v>
+      </c>
+      <c r="T261" s="7">
+        <v>60822</v>
+      </c>
+      <c r="U261" s="7">
+        <v>6867</v>
+      </c>
+      <c r="V261" s="7">
+        <v>103</v>
+      </c>
+      <c r="W261" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A262" s="10">
+        <v>44135</v>
+      </c>
+      <c r="B262" s="2">
+        <v>260</v>
+      </c>
+      <c r="C262" s="1">
+        <v>314422</v>
+      </c>
+      <c r="D262" s="1">
+        <v>721</v>
+      </c>
+      <c r="E262" s="1">
+        <v>10642</v>
+      </c>
+      <c r="F262" s="1">
+        <v>2539</v>
+      </c>
+      <c r="G262" s="1">
+        <v>25</v>
+      </c>
+      <c r="H262" s="3">
+        <v>75321</v>
+      </c>
+      <c r="I262" s="3">
+        <v>3908</v>
+      </c>
+      <c r="J262" s="3">
+        <v>54539</v>
+      </c>
+      <c r="K262" s="3">
+        <v>1750</v>
+      </c>
+      <c r="L262" s="3">
+        <v>51</v>
+      </c>
+      <c r="M262" s="4">
+        <v>104925</v>
+      </c>
+      <c r="N262" s="5">
+        <v>5349</v>
+      </c>
+      <c r="O262" s="4">
+        <v>36590</v>
+      </c>
+      <c r="P262" s="6">
+        <v>1109</v>
+      </c>
+      <c r="Q262" s="4">
+        <v>27</v>
+      </c>
+      <c r="R262" s="7">
+        <v>241339</v>
+      </c>
+      <c r="S262" s="7">
+        <v>5753</v>
+      </c>
+      <c r="T262" s="7">
+        <v>61858</v>
+      </c>
+      <c r="U262" s="7">
+        <v>6968</v>
+      </c>
+      <c r="V262" s="7">
+        <v>101</v>
+      </c>
+      <c r="W262" s="25">
+        <f t="shared" si="5"/>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
